--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,36 +13,37 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +70,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -84,7 +85,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -99,7 +100,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -114,7 +115,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -130,7 +131,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -145,7 +146,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -160,7 +161,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -175,7 +176,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -190,7 +191,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -206,7 +207,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -216,159 +217,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="818">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010001</t>
-  </si>
-  <si>
-    <t>Hypermarket</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="819">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -415,325 +416,325 @@
 46</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 2 x 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2 x 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 0.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000241412, 5449000241429</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000234179, 5449000213693</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 0.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 0.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>5449000234155, 5449000172235</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>48
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 2 x 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2 x 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000241412, 5449000241429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234179, 5449000213693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000234155, 5449000172235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48
 49
 50
 51
@@ -746,79 +747,79 @@
 58</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lime - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лайм - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 1.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>60
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lime - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лайм - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60
 61
 62
 63
@@ -828,61 +829,61 @@
 67</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.33л</t>
-  </si>
-  <si>
-    <t>Monster Assault - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Ассалт - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>69
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Assault - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ассалт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69
 70
 71
 72
@@ -899,103 +900,103 @@
 83</t>
   </si>
   <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.33л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>85
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85
 86
 87
 88
@@ -1087,1165 +1088,1165 @@
 174</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cranberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Клюква - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple-Pear - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Груша - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple-Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apricot - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Абрикос - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Ruby Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Рубиновый Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apricot - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Абрикос - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Микс - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya Compot - Cherry - 0.9L</t>
-  </si>
-  <si>
-    <t>Моя Семья Компот - Вишня - 0.9л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Вишня PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie3 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 3 - 0.11л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>176
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cranberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Клюква - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple-Pear - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Груша - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple-Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apricot - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Абрикос - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Ruby Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Рубиновый Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apricot - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Абрикос - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya Compot - Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья Компот - Вишня - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie3 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 3 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176
 177
 178</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 2L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>180
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 2L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180
 181
 182</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>184
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184
 185
 186</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>187
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187
 188</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>190
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190
 191
 192
 193</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>195
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195
 196
 197</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Deli</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>199
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199
 200</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>202
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202
 203
 204</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>205
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205
 206</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Water Display</t>
-  </si>
-  <si>
-    <t>Вода Дисплей</t>
-  </si>
-  <si>
-    <t>Water Displays</t>
-  </si>
-  <si>
-    <t>208
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208
 209
 210</t>
   </si>
   <si>
-    <t>Water Display: Facings</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Display: Zone</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of Water Section</t>
-  </si>
-  <si>
-    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 3d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t>212
+    <t xml:space="preserve">Water Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of Water Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212
 213
 214</t>
   </si>
   <si>
-    <t>SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of SSD Section</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t>Energy Display</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t>Energy Displays</t>
-  </si>
-  <si>
-    <t>216
+    <t xml:space="preserve">SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of SSD Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216
 217
 218</t>
   </si>
   <si>
-    <t>Energy Display: Facings</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Energy Display: Zone</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Beer Section</t>
-  </si>
-  <si>
-    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>219
+    <t xml:space="preserve">Energy Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219
 220</t>
   </si>
   <si>
-    <t>Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 2d</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>222
+    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222
 223
 224</t>
   </si>
   <si>
-    <t>Juice Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Meat/Poultry/Seafood</t>
-  </si>
-  <si>
-    <t>Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Mixability Display</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей</t>
-  </si>
-  <si>
-    <t>Other TCCC Displays</t>
-  </si>
-  <si>
-    <t>Company Display Mixability</t>
-  </si>
-  <si>
-    <t>226
+    <t xml:space="preserve">Juice Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat/Poultry/Seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other TCCC Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Display Mixability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226
 227
 228</t>
   </si>
   <si>
-    <t>Mixability Display: Facings</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Mixability Display: Zone</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Alcohol Section</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead SKU</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной СКЮ</t>
-  </si>
-  <si>
-    <t>229
+    <t xml:space="preserve">Mixability Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной СКЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229
 230
 231
 232</t>
   </si>
   <si>
-    <t>Mixability Display: Lead Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L/1L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 4 x 0.33L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>235
+    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L/1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 4 x 0.33L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235
 236
 237
 238
@@ -2254,298 +2255,301 @@
 241</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>247
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247
 248
 249
 250
 251</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>254
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254
 255</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Spirits Availability</t>
-  </si>
-  <si>
-    <t>Представленность Алкоголя</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>258
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Алкоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258
 259
 260
 261</t>
   </si>
   <si>
-    <t>Red Hackle - 0.7L</t>
-  </si>
-  <si>
-    <t>Рэд Хакл - 0.7л</t>
-  </si>
-  <si>
-    <t>Wild Turkey 81 - 0.7L</t>
-  </si>
-  <si>
-    <t>Уайлд Тёки 81 - 0.7л</t>
-  </si>
-  <si>
-    <t>New Alco Brand</t>
-  </si>
-  <si>
-    <t>not defined</t>
-  </si>
-  <si>
-    <t>New Alco Brand 1</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>263
+    <t xml:space="preserve">Red Hackle - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рэд Хакл - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Alco Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Alco Brand 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263
 264</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>268
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268
 269
 270
 271
@@ -2563,341 +2567,341 @@
 283</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Spirits Shelf: RED Hackle facings</t>
-  </si>
-  <si>
-    <t>Полка алкоголя: Фейсинги RED Hackle</t>
-  </si>
-  <si>
-    <t>RED HACKLE</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Warm Shelf, Alco</t>
-  </si>
-  <si>
-    <t>Display Alcohol, Other alcohol location</t>
-  </si>
-  <si>
-    <t>Spirits shelf share</t>
-  </si>
-  <si>
-    <t>Spirits Shelf: Wild Turkey facings</t>
-  </si>
-  <si>
-    <t>Полка алкоголя: Фейсинги Wild Turkey</t>
-  </si>
-  <si>
-    <t>Wild Turkey</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>288
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: RED Hackle facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полка алкоголя: Фейсинги RED Hackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED HACKLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf, Alco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Alcohol, Other alcohol location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Wild Turkey facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полка алкоголя: Фейсинги Wild Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288
 289
 290
 291
 292</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>RGM Activations: Premium Spirits displays</t>
-  </si>
-  <si>
-    <t>RGM Активации: Дисплеи алкоголя</t>
-  </si>
-  <si>
-    <t>Manufacturer: BF, CAMPARI</t>
-  </si>
-  <si>
-    <t>Display Alcohol</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 4</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Premium Spirits displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Дисплеи алкоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: BF, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2905,7 +2909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -3152,7 +3156,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3437,6 +3441,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3617,33 +3633,25 @@
   </sheetPr>
   <dimension ref="A1:AP314"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="V267" activeCellId="0" sqref="V267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="49.582995951417"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.0769230769231"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26401,7 +26409,7 @@
       </c>
       <c r="AP267" s="10"/>
     </row>
-    <row r="268" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="221.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="n">
         <v>267</v>
       </c>
@@ -26455,14 +26463,18 @@
       <c r="AC268" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD268" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE268" s="20" t="n">
+      <c r="AD268" s="71" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE268" s="72" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF268" s="14"/>
-      <c r="AG268" s="14"/>
+      <c r="AF268" s="73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AG268" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="AH268" s="69" t="s">
         <v>699</v>
       </c>
@@ -26478,7 +26490,7 @@
         <v>267</v>
       </c>
       <c r="AN268" s="37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AO268" s="70" t="s">
         <v>700</v>
@@ -26502,10 +26514,10 @@
         <v>437</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G269" s="36" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H269" s="14" t="s">
         <v>53</v>
@@ -26590,10 +26602,10 @@
         <v>437</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G270" s="36" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H270" s="14" t="s">
         <v>53</v>
@@ -26678,10 +26690,10 @@
         <v>437</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G271" s="36" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H271" s="14" t="s">
         <v>53</v>
@@ -26766,10 +26778,10 @@
         <v>437</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G272" s="36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H272" s="14" t="s">
         <v>53</v>
@@ -26854,10 +26866,10 @@
         <v>437</v>
       </c>
       <c r="F273" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G273" s="53" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H273" s="14" t="s">
         <v>53</v>
@@ -26870,7 +26882,7 @@
       <c r="L273" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M273" s="71" t="s">
+      <c r="M273" s="74" t="s">
         <v>63</v>
       </c>
       <c r="N273" s="34"/>
@@ -26942,10 +26954,10 @@
         <v>437</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G274" s="36" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H274" s="14" t="s">
         <v>53</v>
@@ -27030,10 +27042,10 @@
         <v>437</v>
       </c>
       <c r="F275" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G275" s="53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H275" s="14" t="s">
         <v>53</v>
@@ -27046,7 +27058,7 @@
       <c r="L275" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="M275" s="71" t="s">
+      <c r="M275" s="74" t="s">
         <v>78</v>
       </c>
       <c r="N275" s="34"/>
@@ -27118,10 +27130,10 @@
         <v>437</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G276" s="36" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H276" s="14" t="s">
         <v>53</v>
@@ -27206,10 +27218,10 @@
         <v>437</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G277" s="36" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H277" s="14" t="s">
         <v>53</v>
@@ -27294,10 +27306,10 @@
         <v>437</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G278" s="53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H278" s="14" t="s">
         <v>53</v>
@@ -27310,7 +27322,7 @@
       <c r="L278" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="M278" s="71" t="s">
+      <c r="M278" s="74" t="s">
         <v>88</v>
       </c>
       <c r="N278" s="34"/>
@@ -27382,10 +27394,10 @@
         <v>437</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G279" s="36" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H279" s="14" t="s">
         <v>53</v>
@@ -27396,10 +27408,10 @@
       <c r="J279" s="14"/>
       <c r="K279" s="14"/>
       <c r="L279" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M279" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N279" s="34"/>
       <c r="O279" s="34"/>
@@ -27470,10 +27482,10 @@
         <v>437</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G280" s="36" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H280" s="14" t="s">
         <v>53</v>
@@ -27484,10 +27496,10 @@
       <c r="J280" s="14"/>
       <c r="K280" s="14"/>
       <c r="L280" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M280" s="19" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N280" s="34"/>
       <c r="O280" s="34"/>
@@ -27558,10 +27570,10 @@
         <v>437</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G281" s="36" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H281" s="14" t="s">
         <v>53</v>
@@ -27646,10 +27658,10 @@
         <v>437</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G282" s="36" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H282" s="14" t="s">
         <v>53</v>
@@ -27734,10 +27746,10 @@
         <v>437</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G283" s="36" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H283" s="14" t="s">
         <v>53</v>
@@ -27822,10 +27834,10 @@
         <v>437</v>
       </c>
       <c r="F284" s="21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G284" s="53" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H284" s="14" t="s">
         <v>53</v>
@@ -27838,7 +27850,7 @@
       <c r="L284" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M284" s="71" t="s">
+      <c r="M284" s="74" t="s">
         <v>81</v>
       </c>
       <c r="N284" s="34"/>
@@ -27910,13 +27922,13 @@
         <v>437</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H285" s="59" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="I285" s="14"/>
       <c r="J285" s="14"/>
@@ -27992,10 +28004,10 @@
         <v>437</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H286" s="14" t="s">
         <v>53</v>
@@ -28007,29 +28019,29 @@
       <c r="K286" s="14"/>
       <c r="L286" s="45"/>
       <c r="M286" s="45" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N286" s="45"/>
       <c r="O286" s="45"/>
       <c r="P286" s="45" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Q286" s="14" t="s">
         <v>54</v>
       </c>
       <c r="R286" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="S286" s="14"/>
       <c r="T286" s="14"/>
       <c r="U286" s="14"/>
       <c r="V286" s="14"/>
       <c r="W286" s="14" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="X286" s="14"/>
       <c r="Y286" s="14" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Z286" s="59"/>
       <c r="AA286" s="14"/>
@@ -28040,7 +28052,7 @@
       <c r="AD286" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="AE286" s="72" t="n">
+      <c r="AE286" s="75" t="n">
         <v>0.005</v>
       </c>
       <c r="AF286" s="14"/>
@@ -28056,8 +28068,8 @@
         <v>285</v>
       </c>
       <c r="AN286" s="10"/>
-      <c r="AO286" s="73" t="s">
-        <v>752</v>
+      <c r="AO286" s="76" t="s">
+        <v>753</v>
       </c>
       <c r="AP286" s="10"/>
     </row>
@@ -28071,70 +28083,70 @@
       <c r="C287" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D287" s="74" t="s">
+      <c r="D287" s="77" t="s">
         <v>436</v>
       </c>
-      <c r="E287" s="74" t="s">
+      <c r="E287" s="77" t="s">
         <v>437</v>
       </c>
-      <c r="F287" s="75" t="s">
-        <v>753</v>
+      <c r="F287" s="78" t="s">
+        <v>754</v>
       </c>
       <c r="G287" s="57" t="s">
-        <v>754</v>
-      </c>
-      <c r="H287" s="75" t="s">
+        <v>755</v>
+      </c>
+      <c r="H287" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="I287" s="75" t="n">
+      <c r="I287" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="J287" s="75"/>
-      <c r="K287" s="75"/>
-      <c r="L287" s="75"/>
-      <c r="M287" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="N287" s="76"/>
-      <c r="O287" s="76"/>
-      <c r="P287" s="76" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q287" s="75" t="s">
+      <c r="J287" s="78"/>
+      <c r="K287" s="78"/>
+      <c r="L287" s="78"/>
+      <c r="M287" s="79" t="s">
+        <v>756</v>
+      </c>
+      <c r="N287" s="79"/>
+      <c r="O287" s="79"/>
+      <c r="P287" s="79" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q287" s="78" t="s">
         <v>54</v>
       </c>
       <c r="R287" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="S287" s="75"/>
-      <c r="T287" s="75"/>
-      <c r="U287" s="75"/>
-      <c r="V287" s="75"/>
+        <v>750</v>
+      </c>
+      <c r="S287" s="78"/>
+      <c r="T287" s="78"/>
+      <c r="U287" s="78"/>
+      <c r="V287" s="78"/>
       <c r="W287" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="X287" s="75"/>
+        <v>751</v>
+      </c>
+      <c r="X287" s="78"/>
       <c r="Y287" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="Z287" s="77"/>
-      <c r="AA287" s="75"/>
-      <c r="AB287" s="75"/>
+        <v>752</v>
+      </c>
+      <c r="Z287" s="80"/>
+      <c r="AA287" s="78"/>
+      <c r="AB287" s="78"/>
       <c r="AC287" s="57" t="s">
         <v>49</v>
       </c>
       <c r="AD287" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="AE287" s="72" t="n">
+      <c r="AE287" s="75" t="n">
         <v>0.005</v>
       </c>
       <c r="AF287" s="14"/>
       <c r="AG287" s="14"/>
-      <c r="AH287" s="75"/>
-      <c r="AI287" s="75"/>
-      <c r="AJ287" s="75"/>
-      <c r="AK287" s="75"/>
+      <c r="AH287" s="78"/>
+      <c r="AI287" s="78"/>
+      <c r="AJ287" s="78"/>
+      <c r="AK287" s="78"/>
       <c r="AL287" s="57" t="n">
         <v>2</v>
       </c>
@@ -28142,8 +28154,8 @@
         <v>286</v>
       </c>
       <c r="AN287" s="57"/>
-      <c r="AO287" s="73" t="s">
-        <v>752</v>
+      <c r="AO287" s="76" t="s">
+        <v>753</v>
       </c>
       <c r="AP287" s="57"/>
     </row>
@@ -28164,10 +28176,10 @@
         <v>437</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H288" s="14" t="s">
         <v>609</v>
@@ -28218,10 +28230,10 @@
         <v>287</v>
       </c>
       <c r="AN288" s="37" t="s">
-        <v>758</v>
-      </c>
-      <c r="AO288" s="73" t="s">
         <v>759</v>
+      </c>
+      <c r="AO288" s="76" t="s">
+        <v>760</v>
       </c>
       <c r="AP288" s="10"/>
     </row>
@@ -28242,10 +28254,10 @@
         <v>437</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H289" s="10" t="s">
         <v>429</v>
@@ -28272,7 +28284,7 @@
       <c r="V289" s="14"/>
       <c r="W289" s="14"/>
       <c r="X289" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Y289" s="14"/>
       <c r="Z289" s="14"/>
@@ -28301,7 +28313,7 @@
       </c>
       <c r="AN289" s="14"/>
       <c r="AO289" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AP289" s="10"/>
     </row>
@@ -28322,10 +28334,10 @@
         <v>437</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H290" s="10" t="s">
         <v>429</v>
@@ -28352,7 +28364,7 @@
       <c r="V290" s="14"/>
       <c r="W290" s="14"/>
       <c r="X290" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Y290" s="14"/>
       <c r="Z290" s="14"/>
@@ -28381,7 +28393,7 @@
       </c>
       <c r="AN290" s="14"/>
       <c r="AO290" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AP290" s="10"/>
     </row>
@@ -28402,10 +28414,10 @@
         <v>437</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H291" s="10" t="s">
         <v>429</v>
@@ -28432,7 +28444,7 @@
       <c r="V291" s="14"/>
       <c r="W291" s="14"/>
       <c r="X291" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Y291" s="14"/>
       <c r="Z291" s="14"/>
@@ -28461,7 +28473,7 @@
       </c>
       <c r="AN291" s="14"/>
       <c r="AO291" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AP291" s="10"/>
     </row>
@@ -28482,10 +28494,10 @@
         <v>437</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H292" s="10" t="s">
         <v>429</v>
@@ -28512,7 +28524,7 @@
       <c r="V292" s="14"/>
       <c r="W292" s="14"/>
       <c r="X292" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Y292" s="14"/>
       <c r="Z292" s="14"/>
@@ -28541,7 +28553,7 @@
       </c>
       <c r="AN292" s="14"/>
       <c r="AO292" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AP292" s="10"/>
     </row>
@@ -28562,10 +28574,10 @@
         <v>437</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H293" s="10" t="s">
         <v>429</v>
@@ -28576,7 +28588,7 @@
       <c r="J293" s="14"/>
       <c r="K293" s="14"/>
       <c r="L293" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M293" s="45"/>
       <c r="N293" s="45"/>
@@ -28594,7 +28606,7 @@
       <c r="V293" s="14"/>
       <c r="W293" s="14"/>
       <c r="X293" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="Y293" s="14"/>
       <c r="Z293" s="14"/>
@@ -28623,7 +28635,7 @@
       </c>
       <c r="AN293" s="14"/>
       <c r="AO293" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AP293" s="10"/>
     </row>
@@ -28640,16 +28652,16 @@
       <c r="D294" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E294" s="78" t="s">
+      <c r="E294" s="81" t="s">
         <v>437</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="H294" s="79" t="s">
+        <v>778</v>
+      </c>
+      <c r="H294" s="82" t="s">
         <v>682</v>
       </c>
       <c r="I294" s="14" t="n">
@@ -28671,7 +28683,7 @@
       <c r="U294" s="14"/>
       <c r="V294" s="14"/>
       <c r="W294" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="X294" s="14"/>
       <c r="Y294" s="14"/>
@@ -28700,10 +28712,10 @@
         <v>293</v>
       </c>
       <c r="AN294" s="60" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AO294" s="70" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AP294" s="10"/>
     </row>
@@ -28720,17 +28732,17 @@
       <c r="D295" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E295" s="78" t="s">
+      <c r="E295" s="81" t="s">
         <v>437</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="H295" s="80" t="s">
         <v>782</v>
+      </c>
+      <c r="H295" s="83" t="s">
+        <v>783</v>
       </c>
       <c r="I295" s="14" t="n">
         <v>1</v>
@@ -28759,7 +28771,7 @@
       <c r="U295" s="14"/>
       <c r="V295" s="14"/>
       <c r="W295" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="X295" s="14"/>
       <c r="Y295" s="14"/>
@@ -28770,7 +28782,7 @@
         <v>49</v>
       </c>
       <c r="AD295" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AE295" s="20" t="n">
         <v>0</v>
@@ -28778,7 +28790,7 @@
       <c r="AF295" s="14"/>
       <c r="AG295" s="14"/>
       <c r="AH295" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AI295" s="14"/>
       <c r="AJ295" s="14"/>
@@ -28790,8 +28802,8 @@
         <v>294</v>
       </c>
       <c r="AN295" s="10"/>
-      <c r="AO295" s="81" t="s">
-        <v>776</v>
+      <c r="AO295" s="84" t="s">
+        <v>777</v>
       </c>
       <c r="AP295" s="10"/>
     </row>
@@ -28799,1254 +28811,1254 @@
       <c r="A296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C296" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D296" s="82" t="s">
-        <v>785</v>
+      <c r="B296" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296" s="85" t="s">
+        <v>786</v>
       </c>
       <c r="E296" s="70" t="s">
-        <v>786</v>
-      </c>
-      <c r="F296" s="84" t="s">
+        <v>787</v>
+      </c>
+      <c r="F296" s="87" t="s">
         <v>612</v>
       </c>
-      <c r="G296" s="83"/>
-      <c r="H296" s="85" t="s">
-        <v>787</v>
-      </c>
-      <c r="I296" s="86" t="s">
+      <c r="G296" s="86"/>
+      <c r="H296" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="J296" s="83"/>
-      <c r="K296" s="83"/>
-      <c r="L296" s="83"/>
-      <c r="M296" s="83"/>
-      <c r="N296" s="83"/>
-      <c r="O296" s="83"/>
-      <c r="P296" s="83"/>
-      <c r="Q296" s="83"/>
-      <c r="R296" s="83"/>
-      <c r="S296" s="83"/>
-      <c r="T296" s="83"/>
-      <c r="U296" s="83"/>
-      <c r="V296" s="83"/>
-      <c r="W296" s="83"/>
-      <c r="X296" s="83"/>
-      <c r="Y296" s="83"/>
-      <c r="Z296" s="83"/>
-      <c r="AA296" s="83"/>
-      <c r="AB296" s="83"/>
-      <c r="AC296" s="83"/>
-      <c r="AD296" s="83"/>
-      <c r="AE296" s="87" t="n">
+      <c r="I296" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="J296" s="86"/>
+      <c r="K296" s="86"/>
+      <c r="L296" s="86"/>
+      <c r="M296" s="86"/>
+      <c r="N296" s="86"/>
+      <c r="O296" s="86"/>
+      <c r="P296" s="86"/>
+      <c r="Q296" s="86"/>
+      <c r="R296" s="86"/>
+      <c r="S296" s="86"/>
+      <c r="T296" s="86"/>
+      <c r="U296" s="86"/>
+      <c r="V296" s="86"/>
+      <c r="W296" s="86"/>
+      <c r="X296" s="86"/>
+      <c r="Y296" s="86"/>
+      <c r="Z296" s="86"/>
+      <c r="AA296" s="86"/>
+      <c r="AB296" s="86"/>
+      <c r="AC296" s="86"/>
+      <c r="AD296" s="86"/>
+      <c r="AE296" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF296" s="83"/>
-      <c r="AG296" s="83"/>
-      <c r="AH296" s="83"/>
-      <c r="AI296" s="83"/>
-      <c r="AJ296" s="83"/>
-      <c r="AK296" s="83"/>
-      <c r="AL296" s="83" t="s">
+      <c r="AF296" s="86"/>
+      <c r="AG296" s="86"/>
+      <c r="AH296" s="86"/>
+      <c r="AI296" s="86"/>
+      <c r="AJ296" s="86"/>
+      <c r="AK296" s="86"/>
+      <c r="AL296" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="AN296" s="83"/>
-      <c r="AO296" s="83"/>
-      <c r="AP296" s="83"/>
+      <c r="AN296" s="86"/>
+      <c r="AO296" s="86"/>
+      <c r="AP296" s="86"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C297" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D297" s="82" t="s">
-        <v>785</v>
+      <c r="B297" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C297" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D297" s="85" t="s">
+        <v>786</v>
       </c>
       <c r="E297" s="70" t="s">
+        <v>790</v>
+      </c>
+      <c r="F297" s="91" t="s">
+        <v>753</v>
+      </c>
+      <c r="G297" s="86"/>
+      <c r="H297" s="86" t="s">
+        <v>791</v>
+      </c>
+      <c r="I297" s="89" t="s">
         <v>789</v>
       </c>
-      <c r="F297" s="88" t="s">
-        <v>752</v>
-      </c>
-      <c r="G297" s="83"/>
-      <c r="H297" s="83" t="s">
-        <v>790</v>
-      </c>
-      <c r="I297" s="86" t="s">
-        <v>788</v>
-      </c>
-      <c r="J297" s="85"/>
-      <c r="K297" s="83"/>
-      <c r="L297" s="83"/>
-      <c r="M297" s="83"/>
-      <c r="N297" s="83"/>
-      <c r="O297" s="83"/>
-      <c r="P297" s="83"/>
-      <c r="Q297" s="83"/>
-      <c r="R297" s="83"/>
-      <c r="S297" s="83"/>
-      <c r="T297" s="83"/>
-      <c r="U297" s="83"/>
-      <c r="V297" s="83"/>
-      <c r="W297" s="83"/>
-      <c r="X297" s="83"/>
-      <c r="Y297" s="83"/>
-      <c r="Z297" s="83"/>
-      <c r="AA297" s="83"/>
-      <c r="AB297" s="83"/>
-      <c r="AC297" s="83"/>
-      <c r="AD297" s="83"/>
-      <c r="AE297" s="87" t="n">
+      <c r="J297" s="88"/>
+      <c r="K297" s="86"/>
+      <c r="L297" s="86"/>
+      <c r="M297" s="86"/>
+      <c r="N297" s="86"/>
+      <c r="O297" s="86"/>
+      <c r="P297" s="86"/>
+      <c r="Q297" s="86"/>
+      <c r="R297" s="86"/>
+      <c r="S297" s="86"/>
+      <c r="T297" s="86"/>
+      <c r="U297" s="86"/>
+      <c r="V297" s="86"/>
+      <c r="W297" s="86"/>
+      <c r="X297" s="86"/>
+      <c r="Y297" s="86"/>
+      <c r="Z297" s="86"/>
+      <c r="AA297" s="86"/>
+      <c r="AB297" s="86"/>
+      <c r="AC297" s="86"/>
+      <c r="AD297" s="86"/>
+      <c r="AE297" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF297" s="83"/>
-      <c r="AG297" s="83"/>
-      <c r="AH297" s="83"/>
-      <c r="AI297" s="83"/>
-      <c r="AJ297" s="83"/>
-      <c r="AK297" s="83"/>
-      <c r="AL297" s="83" t="s">
+      <c r="AF297" s="86"/>
+      <c r="AG297" s="86"/>
+      <c r="AH297" s="86"/>
+      <c r="AI297" s="86"/>
+      <c r="AJ297" s="86"/>
+      <c r="AK297" s="86"/>
+      <c r="AL297" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="AN297" s="83"/>
-      <c r="AO297" s="83"/>
-      <c r="AP297" s="83"/>
+      <c r="AN297" s="86"/>
+      <c r="AO297" s="86"/>
+      <c r="AP297" s="86"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D298" s="82" t="s">
-        <v>785</v>
+      <c r="B298" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C298" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D298" s="85" t="s">
+        <v>786</v>
       </c>
       <c r="E298" s="70" t="s">
-        <v>791</v>
-      </c>
-      <c r="F298" s="88" t="s">
-        <v>759</v>
-      </c>
-      <c r="G298" s="83"/>
-      <c r="H298" s="83" t="s">
         <v>792</v>
       </c>
-      <c r="I298" s="86" t="s">
-        <v>788</v>
-      </c>
-      <c r="J298" s="83"/>
-      <c r="K298" s="83"/>
-      <c r="L298" s="83"/>
-      <c r="M298" s="83"/>
-      <c r="N298" s="83"/>
-      <c r="O298" s="83"/>
-      <c r="P298" s="83"/>
-      <c r="Q298" s="83"/>
-      <c r="R298" s="83"/>
-      <c r="S298" s="83"/>
-      <c r="T298" s="83"/>
-      <c r="U298" s="83"/>
-      <c r="V298" s="83"/>
-      <c r="W298" s="83"/>
-      <c r="X298" s="83"/>
-      <c r="Y298" s="83"/>
-      <c r="Z298" s="83"/>
-      <c r="AA298" s="83"/>
-      <c r="AB298" s="83"/>
-      <c r="AC298" s="83"/>
-      <c r="AD298" s="83"/>
-      <c r="AE298" s="87" t="n">
+      <c r="F298" s="91" t="s">
+        <v>760</v>
+      </c>
+      <c r="G298" s="86"/>
+      <c r="H298" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="I298" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="J298" s="86"/>
+      <c r="K298" s="86"/>
+      <c r="L298" s="86"/>
+      <c r="M298" s="86"/>
+      <c r="N298" s="86"/>
+      <c r="O298" s="86"/>
+      <c r="P298" s="86"/>
+      <c r="Q298" s="86"/>
+      <c r="R298" s="86"/>
+      <c r="S298" s="86"/>
+      <c r="T298" s="86"/>
+      <c r="U298" s="86"/>
+      <c r="V298" s="86"/>
+      <c r="W298" s="86"/>
+      <c r="X298" s="86"/>
+      <c r="Y298" s="86"/>
+      <c r="Z298" s="86"/>
+      <c r="AA298" s="86"/>
+      <c r="AB298" s="86"/>
+      <c r="AC298" s="86"/>
+      <c r="AD298" s="86"/>
+      <c r="AE298" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF298" s="83"/>
-      <c r="AG298" s="83"/>
-      <c r="AH298" s="83"/>
-      <c r="AI298" s="83"/>
-      <c r="AJ298" s="83"/>
-      <c r="AK298" s="83"/>
-      <c r="AL298" s="83" t="s">
+      <c r="AF298" s="86"/>
+      <c r="AG298" s="86"/>
+      <c r="AH298" s="86"/>
+      <c r="AI298" s="86"/>
+      <c r="AJ298" s="86"/>
+      <c r="AK298" s="86"/>
+      <c r="AL298" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="AN298" s="83"/>
-      <c r="AO298" s="83"/>
-      <c r="AP298" s="83"/>
+      <c r="AN298" s="86"/>
+      <c r="AO298" s="86"/>
+      <c r="AP298" s="86"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C299" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D299" s="89" t="s">
-        <v>785</v>
+      <c r="B299" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E299" s="70" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F299" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="G299" s="83"/>
-      <c r="H299" s="83" t="s">
-        <v>790</v>
-      </c>
-      <c r="I299" s="86" t="s">
-        <v>788</v>
-      </c>
-      <c r="J299" s="83"/>
-      <c r="K299" s="83"/>
-      <c r="L299" s="83"/>
-      <c r="M299" s="83"/>
-      <c r="N299" s="83"/>
-      <c r="O299" s="83"/>
-      <c r="P299" s="83"/>
-      <c r="Q299" s="83"/>
-      <c r="R299" s="83"/>
-      <c r="S299" s="83"/>
-      <c r="T299" s="83"/>
-      <c r="U299" s="83"/>
-      <c r="V299" s="83"/>
-      <c r="W299" s="83"/>
-      <c r="X299" s="83"/>
-      <c r="Y299" s="83"/>
-      <c r="Z299" s="83"/>
-      <c r="AA299" s="83"/>
-      <c r="AB299" s="83"/>
-      <c r="AC299" s="83"/>
-      <c r="AD299" s="83"/>
-      <c r="AE299" s="90" t="n">
+      <c r="G299" s="86"/>
+      <c r="H299" s="86" t="s">
+        <v>791</v>
+      </c>
+      <c r="I299" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="J299" s="86"/>
+      <c r="K299" s="86"/>
+      <c r="L299" s="86"/>
+      <c r="M299" s="86"/>
+      <c r="N299" s="86"/>
+      <c r="O299" s="86"/>
+      <c r="P299" s="86"/>
+      <c r="Q299" s="86"/>
+      <c r="R299" s="86"/>
+      <c r="S299" s="86"/>
+      <c r="T299" s="86"/>
+      <c r="U299" s="86"/>
+      <c r="V299" s="86"/>
+      <c r="W299" s="86"/>
+      <c r="X299" s="86"/>
+      <c r="Y299" s="86"/>
+      <c r="Z299" s="86"/>
+      <c r="AA299" s="86"/>
+      <c r="AB299" s="86"/>
+      <c r="AC299" s="86"/>
+      <c r="AD299" s="86"/>
+      <c r="AE299" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="AF299" s="83"/>
-      <c r="AG299" s="83"/>
-      <c r="AH299" s="83"/>
-      <c r="AI299" s="83"/>
-      <c r="AJ299" s="83"/>
-      <c r="AK299" s="83"/>
-      <c r="AL299" s="83" t="s">
+      <c r="AF299" s="86"/>
+      <c r="AG299" s="86"/>
+      <c r="AH299" s="86"/>
+      <c r="AI299" s="86"/>
+      <c r="AJ299" s="86"/>
+      <c r="AK299" s="86"/>
+      <c r="AL299" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="AN299" s="83"/>
-      <c r="AO299" s="83"/>
-      <c r="AP299" s="83"/>
+      <c r="AN299" s="86"/>
+      <c r="AO299" s="86"/>
+      <c r="AP299" s="86"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C300" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D300" s="89" t="s">
-        <v>785</v>
+      <c r="B300" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C300" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D300" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E300" s="70" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F300" s="70" t="s">
-        <v>779</v>
-      </c>
-      <c r="G300" s="83"/>
-      <c r="H300" s="83" t="s">
-        <v>792</v>
-      </c>
-      <c r="I300" s="86" t="s">
-        <v>788</v>
-      </c>
-      <c r="J300" s="83"/>
-      <c r="K300" s="83"/>
-      <c r="L300" s="83"/>
-      <c r="M300" s="83"/>
-      <c r="N300" s="83"/>
-      <c r="O300" s="83"/>
-      <c r="P300" s="83"/>
-      <c r="Q300" s="83"/>
-      <c r="R300" s="83"/>
-      <c r="S300" s="83"/>
-      <c r="T300" s="83"/>
-      <c r="U300" s="83"/>
-      <c r="V300" s="83"/>
-      <c r="W300" s="83"/>
-      <c r="X300" s="83"/>
-      <c r="Y300" s="83"/>
-      <c r="Z300" s="83"/>
-      <c r="AA300" s="83"/>
-      <c r="AB300" s="83"/>
-      <c r="AC300" s="83"/>
-      <c r="AD300" s="83"/>
-      <c r="AE300" s="90" t="n">
+        <v>780</v>
+      </c>
+      <c r="G300" s="86"/>
+      <c r="H300" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="I300" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="J300" s="86"/>
+      <c r="K300" s="86"/>
+      <c r="L300" s="86"/>
+      <c r="M300" s="86"/>
+      <c r="N300" s="86"/>
+      <c r="O300" s="86"/>
+      <c r="P300" s="86"/>
+      <c r="Q300" s="86"/>
+      <c r="R300" s="86"/>
+      <c r="S300" s="86"/>
+      <c r="T300" s="86"/>
+      <c r="U300" s="86"/>
+      <c r="V300" s="86"/>
+      <c r="W300" s="86"/>
+      <c r="X300" s="86"/>
+      <c r="Y300" s="86"/>
+      <c r="Z300" s="86"/>
+      <c r="AA300" s="86"/>
+      <c r="AB300" s="86"/>
+      <c r="AC300" s="86"/>
+      <c r="AD300" s="86"/>
+      <c r="AE300" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="AF300" s="83"/>
-      <c r="AG300" s="83"/>
-      <c r="AH300" s="83"/>
-      <c r="AI300" s="83"/>
-      <c r="AJ300" s="83"/>
-      <c r="AK300" s="83"/>
-      <c r="AL300" s="83"/>
+      <c r="AF300" s="86"/>
+      <c r="AG300" s="86"/>
+      <c r="AH300" s="86"/>
+      <c r="AI300" s="86"/>
+      <c r="AJ300" s="86"/>
+      <c r="AK300" s="86"/>
+      <c r="AL300" s="86"/>
       <c r="AM300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="AN300" s="83"/>
-      <c r="AO300" s="83"/>
-      <c r="AP300" s="83"/>
+      <c r="AN300" s="86"/>
+      <c r="AO300" s="86"/>
+      <c r="AP300" s="86"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C301" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D301" s="89" t="s">
-        <v>785</v>
+      <c r="B301" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E301" s="70" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F301" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="G301" s="83"/>
-      <c r="H301" s="85" t="s">
-        <v>787</v>
-      </c>
-      <c r="I301" s="86" t="s">
+      <c r="G301" s="86"/>
+      <c r="H301" s="88" t="s">
         <v>788</v>
       </c>
-      <c r="J301" s="83"/>
-      <c r="K301" s="83"/>
-      <c r="L301" s="83"/>
-      <c r="M301" s="83"/>
-      <c r="N301" s="83"/>
-      <c r="O301" s="83"/>
-      <c r="P301" s="83"/>
-      <c r="Q301" s="83"/>
-      <c r="R301" s="83"/>
-      <c r="S301" s="83"/>
-      <c r="T301" s="83"/>
-      <c r="U301" s="83"/>
-      <c r="V301" s="83"/>
-      <c r="W301" s="83"/>
-      <c r="X301" s="83"/>
-      <c r="Y301" s="83"/>
-      <c r="Z301" s="83"/>
-      <c r="AA301" s="83"/>
-      <c r="AB301" s="83"/>
-      <c r="AC301" s="83"/>
-      <c r="AD301" s="83"/>
-      <c r="AE301" s="90" t="n">
+      <c r="I301" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="J301" s="86"/>
+      <c r="K301" s="86"/>
+      <c r="L301" s="86"/>
+      <c r="M301" s="86"/>
+      <c r="N301" s="86"/>
+      <c r="O301" s="86"/>
+      <c r="P301" s="86"/>
+      <c r="Q301" s="86"/>
+      <c r="R301" s="86"/>
+      <c r="S301" s="86"/>
+      <c r="T301" s="86"/>
+      <c r="U301" s="86"/>
+      <c r="V301" s="86"/>
+      <c r="W301" s="86"/>
+      <c r="X301" s="86"/>
+      <c r="Y301" s="86"/>
+      <c r="Z301" s="86"/>
+      <c r="AA301" s="86"/>
+      <c r="AB301" s="86"/>
+      <c r="AC301" s="86"/>
+      <c r="AD301" s="86"/>
+      <c r="AE301" s="93" t="n">
         <v>0</v>
       </c>
-      <c r="AF301" s="83"/>
-      <c r="AG301" s="83"/>
-      <c r="AH301" s="83"/>
-      <c r="AI301" s="83"/>
-      <c r="AJ301" s="83"/>
-      <c r="AK301" s="83"/>
-      <c r="AL301" s="83"/>
+      <c r="AF301" s="86"/>
+      <c r="AG301" s="86"/>
+      <c r="AH301" s="86"/>
+      <c r="AI301" s="86"/>
+      <c r="AJ301" s="86"/>
+      <c r="AK301" s="86"/>
+      <c r="AL301" s="86"/>
       <c r="AM301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AN301" s="83"/>
-      <c r="AO301" s="83"/>
-      <c r="AP301" s="83"/>
+      <c r="AN301" s="86"/>
+      <c r="AO301" s="86"/>
+      <c r="AP301" s="86"/>
     </row>
     <row r="302" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C302" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D302" s="89" t="s">
-        <v>785</v>
+      <c r="B302" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E302" s="70" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F302" s="70" t="s">
-        <v>797</v>
-      </c>
-      <c r="G302" s="83"/>
-      <c r="H302" s="85" t="s">
         <v>798</v>
       </c>
-      <c r="I302" s="86" t="s">
+      <c r="G302" s="86"/>
+      <c r="H302" s="88" t="s">
         <v>799</v>
       </c>
-      <c r="J302" s="83"/>
-      <c r="K302" s="83"/>
-      <c r="L302" s="83"/>
-      <c r="M302" s="83"/>
-      <c r="N302" s="83"/>
-      <c r="O302" s="83"/>
-      <c r="P302" s="83"/>
-      <c r="Q302" s="83"/>
-      <c r="R302" s="83"/>
-      <c r="S302" s="83"/>
-      <c r="T302" s="83"/>
-      <c r="U302" s="83"/>
-      <c r="V302" s="83"/>
-      <c r="W302" s="83"/>
-      <c r="X302" s="83"/>
-      <c r="Y302" s="83"/>
-      <c r="Z302" s="83"/>
-      <c r="AA302" s="83"/>
-      <c r="AB302" s="83"/>
-      <c r="AC302" s="83"/>
-      <c r="AD302" s="83"/>
-      <c r="AE302" s="83" t="n">
+      <c r="I302" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J302" s="86"/>
+      <c r="K302" s="86"/>
+      <c r="L302" s="86"/>
+      <c r="M302" s="86"/>
+      <c r="N302" s="86"/>
+      <c r="O302" s="86"/>
+      <c r="P302" s="86"/>
+      <c r="Q302" s="86"/>
+      <c r="R302" s="86"/>
+      <c r="S302" s="86"/>
+      <c r="T302" s="86"/>
+      <c r="U302" s="86"/>
+      <c r="V302" s="86"/>
+      <c r="W302" s="86"/>
+      <c r="X302" s="86"/>
+      <c r="Y302" s="86"/>
+      <c r="Z302" s="86"/>
+      <c r="AA302" s="86"/>
+      <c r="AB302" s="86"/>
+      <c r="AC302" s="86"/>
+      <c r="AD302" s="86"/>
+      <c r="AE302" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF302" s="83"/>
-      <c r="AG302" s="83"/>
-      <c r="AH302" s="83"/>
-      <c r="AI302" s="83"/>
-      <c r="AJ302" s="83"/>
-      <c r="AK302" s="83"/>
-      <c r="AL302" s="83" t="s">
+      <c r="AF302" s="86"/>
+      <c r="AG302" s="86"/>
+      <c r="AH302" s="86"/>
+      <c r="AI302" s="86"/>
+      <c r="AJ302" s="86"/>
+      <c r="AK302" s="86"/>
+      <c r="AL302" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="AN302" s="83"/>
-      <c r="AO302" s="83"/>
-      <c r="AP302" s="83"/>
+      <c r="AN302" s="86"/>
+      <c r="AO302" s="86"/>
+      <c r="AP302" s="86"/>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C303" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D303" s="89" t="s">
-        <v>785</v>
+      <c r="B303" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C303" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E303" s="70" t="s">
+        <v>801</v>
+      </c>
+      <c r="F303" s="70" t="s">
+        <v>802</v>
+      </c>
+      <c r="G303" s="86"/>
+      <c r="H303" s="88" t="s">
+        <v>803</v>
+      </c>
+      <c r="I303" s="89" t="s">
         <v>800</v>
       </c>
-      <c r="F303" s="70" t="s">
-        <v>801</v>
-      </c>
-      <c r="G303" s="83"/>
-      <c r="H303" s="85" t="s">
-        <v>802</v>
-      </c>
-      <c r="I303" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J303" s="83"/>
-      <c r="K303" s="83"/>
-      <c r="L303" s="83"/>
-      <c r="M303" s="83"/>
-      <c r="N303" s="83"/>
-      <c r="O303" s="83"/>
-      <c r="P303" s="83"/>
-      <c r="Q303" s="83"/>
-      <c r="R303" s="83"/>
-      <c r="S303" s="83"/>
-      <c r="T303" s="83"/>
-      <c r="U303" s="83"/>
-      <c r="V303" s="83"/>
-      <c r="W303" s="83"/>
-      <c r="X303" s="83"/>
-      <c r="Y303" s="83"/>
-      <c r="Z303" s="83"/>
-      <c r="AA303" s="83"/>
-      <c r="AB303" s="83"/>
-      <c r="AC303" s="83"/>
-      <c r="AD303" s="83"/>
-      <c r="AE303" s="83" t="n">
+      <c r="J303" s="86"/>
+      <c r="K303" s="86"/>
+      <c r="L303" s="86"/>
+      <c r="M303" s="86"/>
+      <c r="N303" s="86"/>
+      <c r="O303" s="86"/>
+      <c r="P303" s="86"/>
+      <c r="Q303" s="86"/>
+      <c r="R303" s="86"/>
+      <c r="S303" s="86"/>
+      <c r="T303" s="86"/>
+      <c r="U303" s="86"/>
+      <c r="V303" s="86"/>
+      <c r="W303" s="86"/>
+      <c r="X303" s="86"/>
+      <c r="Y303" s="86"/>
+      <c r="Z303" s="86"/>
+      <c r="AA303" s="86"/>
+      <c r="AB303" s="86"/>
+      <c r="AC303" s="86"/>
+      <c r="AD303" s="86"/>
+      <c r="AE303" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF303" s="83"/>
-      <c r="AG303" s="83"/>
-      <c r="AH303" s="83"/>
-      <c r="AI303" s="83"/>
-      <c r="AJ303" s="83"/>
-      <c r="AK303" s="83"/>
-      <c r="AL303" s="83" t="s">
+      <c r="AF303" s="86"/>
+      <c r="AG303" s="86"/>
+      <c r="AH303" s="86"/>
+      <c r="AI303" s="86"/>
+      <c r="AJ303" s="86"/>
+      <c r="AK303" s="86"/>
+      <c r="AL303" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="AN303" s="83"/>
-      <c r="AO303" s="83"/>
-      <c r="AP303" s="83"/>
+      <c r="AN303" s="86"/>
+      <c r="AO303" s="86"/>
+      <c r="AP303" s="86"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C304" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D304" s="89" t="s">
-        <v>785</v>
+      <c r="B304" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E304" s="70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F304" s="70" t="s">
-        <v>804</v>
-      </c>
-      <c r="G304" s="83"/>
-      <c r="H304" s="85" t="s">
         <v>805</v>
       </c>
-      <c r="I304" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J304" s="83"/>
-      <c r="K304" s="83"/>
-      <c r="L304" s="83"/>
-      <c r="M304" s="83"/>
-      <c r="N304" s="83"/>
-      <c r="O304" s="83"/>
-      <c r="P304" s="83"/>
-      <c r="Q304" s="83"/>
-      <c r="R304" s="83"/>
-      <c r="S304" s="83"/>
-      <c r="T304" s="83"/>
-      <c r="U304" s="83"/>
-      <c r="V304" s="83"/>
-      <c r="W304" s="83"/>
-      <c r="X304" s="83"/>
-      <c r="Y304" s="83"/>
-      <c r="Z304" s="83"/>
-      <c r="AA304" s="83"/>
-      <c r="AB304" s="83"/>
-      <c r="AC304" s="83"/>
-      <c r="AD304" s="83"/>
-      <c r="AE304" s="83" t="n">
+      <c r="G304" s="86"/>
+      <c r="H304" s="88" t="s">
+        <v>806</v>
+      </c>
+      <c r="I304" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J304" s="86"/>
+      <c r="K304" s="86"/>
+      <c r="L304" s="86"/>
+      <c r="M304" s="86"/>
+      <c r="N304" s="86"/>
+      <c r="O304" s="86"/>
+      <c r="P304" s="86"/>
+      <c r="Q304" s="86"/>
+      <c r="R304" s="86"/>
+      <c r="S304" s="86"/>
+      <c r="T304" s="86"/>
+      <c r="U304" s="86"/>
+      <c r="V304" s="86"/>
+      <c r="W304" s="86"/>
+      <c r="X304" s="86"/>
+      <c r="Y304" s="86"/>
+      <c r="Z304" s="86"/>
+      <c r="AA304" s="86"/>
+      <c r="AB304" s="86"/>
+      <c r="AC304" s="86"/>
+      <c r="AD304" s="86"/>
+      <c r="AE304" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF304" s="83"/>
-      <c r="AG304" s="83"/>
-      <c r="AH304" s="83"/>
-      <c r="AI304" s="83"/>
-      <c r="AJ304" s="83"/>
-      <c r="AK304" s="83"/>
-      <c r="AL304" s="83" t="s">
+      <c r="AF304" s="86"/>
+      <c r="AG304" s="86"/>
+      <c r="AH304" s="86"/>
+      <c r="AI304" s="86"/>
+      <c r="AJ304" s="86"/>
+      <c r="AK304" s="86"/>
+      <c r="AL304" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="AN304" s="83"/>
-      <c r="AO304" s="83"/>
-      <c r="AP304" s="83"/>
+      <c r="AN304" s="86"/>
+      <c r="AO304" s="86"/>
+      <c r="AP304" s="86"/>
     </row>
     <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C305" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D305" s="89" t="s">
-        <v>785</v>
+      <c r="B305" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D305" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E305" s="70" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F305" s="70" t="s">
-        <v>807</v>
-      </c>
-      <c r="G305" s="83"/>
-      <c r="H305" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="I305" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J305" s="83"/>
-      <c r="K305" s="83"/>
-      <c r="L305" s="83"/>
-      <c r="M305" s="83"/>
-      <c r="N305" s="83"/>
-      <c r="O305" s="83"/>
-      <c r="P305" s="83"/>
-      <c r="Q305" s="83"/>
-      <c r="R305" s="83"/>
-      <c r="S305" s="83"/>
-      <c r="T305" s="83"/>
-      <c r="U305" s="83"/>
-      <c r="V305" s="83"/>
-      <c r="W305" s="83"/>
-      <c r="X305" s="83"/>
-      <c r="Y305" s="83"/>
-      <c r="Z305" s="83"/>
-      <c r="AA305" s="83"/>
-      <c r="AB305" s="83"/>
-      <c r="AC305" s="83"/>
-      <c r="AD305" s="83"/>
-      <c r="AE305" s="83" t="n">
+      <c r="G305" s="86"/>
+      <c r="H305" s="88" t="s">
+        <v>809</v>
+      </c>
+      <c r="I305" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J305" s="86"/>
+      <c r="K305" s="86"/>
+      <c r="L305" s="86"/>
+      <c r="M305" s="86"/>
+      <c r="N305" s="86"/>
+      <c r="O305" s="86"/>
+      <c r="P305" s="86"/>
+      <c r="Q305" s="86"/>
+      <c r="R305" s="86"/>
+      <c r="S305" s="86"/>
+      <c r="T305" s="86"/>
+      <c r="U305" s="86"/>
+      <c r="V305" s="86"/>
+      <c r="W305" s="86"/>
+      <c r="X305" s="86"/>
+      <c r="Y305" s="86"/>
+      <c r="Z305" s="86"/>
+      <c r="AA305" s="86"/>
+      <c r="AB305" s="86"/>
+      <c r="AC305" s="86"/>
+      <c r="AD305" s="86"/>
+      <c r="AE305" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF305" s="83"/>
-      <c r="AG305" s="83"/>
-      <c r="AH305" s="83"/>
-      <c r="AI305" s="83"/>
-      <c r="AJ305" s="83"/>
-      <c r="AK305" s="83"/>
-      <c r="AL305" s="83" t="s">
+      <c r="AF305" s="86"/>
+      <c r="AG305" s="86"/>
+      <c r="AH305" s="86"/>
+      <c r="AI305" s="86"/>
+      <c r="AJ305" s="86"/>
+      <c r="AK305" s="86"/>
+      <c r="AL305" s="86" t="s">
         <v>437</v>
       </c>
       <c r="AM305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="AN305" s="83"/>
-      <c r="AO305" s="83"/>
-      <c r="AP305" s="83"/>
+      <c r="AN305" s="86"/>
+      <c r="AO305" s="86"/>
+      <c r="AP305" s="86"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C306" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D306" s="89" t="s">
-        <v>785</v>
+      <c r="B306" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E306" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F306" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G306" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G306" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="H306" s="85" t="s">
-        <v>811</v>
-      </c>
-      <c r="I306" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J306" s="83"/>
-      <c r="K306" s="83"/>
-      <c r="L306" s="83"/>
-      <c r="M306" s="83"/>
-      <c r="N306" s="83"/>
-      <c r="O306" s="83"/>
-      <c r="P306" s="83"/>
-      <c r="Q306" s="83"/>
-      <c r="R306" s="83"/>
-      <c r="S306" s="83"/>
-      <c r="T306" s="83"/>
-      <c r="U306" s="83"/>
-      <c r="V306" s="83"/>
-      <c r="W306" s="83"/>
-      <c r="X306" s="83"/>
-      <c r="Y306" s="83"/>
-      <c r="Z306" s="83"/>
-      <c r="AA306" s="83"/>
-      <c r="AB306" s="83"/>
-      <c r="AC306" s="83"/>
-      <c r="AD306" s="83"/>
-      <c r="AE306" s="83" t="n">
+      <c r="H306" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="I306" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J306" s="86"/>
+      <c r="K306" s="86"/>
+      <c r="L306" s="86"/>
+      <c r="M306" s="86"/>
+      <c r="N306" s="86"/>
+      <c r="O306" s="86"/>
+      <c r="P306" s="86"/>
+      <c r="Q306" s="86"/>
+      <c r="R306" s="86"/>
+      <c r="S306" s="86"/>
+      <c r="T306" s="86"/>
+      <c r="U306" s="86"/>
+      <c r="V306" s="86"/>
+      <c r="W306" s="86"/>
+      <c r="X306" s="86"/>
+      <c r="Y306" s="86"/>
+      <c r="Z306" s="86"/>
+      <c r="AA306" s="86"/>
+      <c r="AB306" s="86"/>
+      <c r="AC306" s="86"/>
+      <c r="AD306" s="86"/>
+      <c r="AE306" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF306" s="83"/>
-      <c r="AG306" s="83"/>
-      <c r="AH306" s="83"/>
-      <c r="AI306" s="83"/>
-      <c r="AJ306" s="83"/>
-      <c r="AK306" s="83"/>
-      <c r="AL306" s="83"/>
+      <c r="AF306" s="86"/>
+      <c r="AG306" s="86"/>
+      <c r="AH306" s="86"/>
+      <c r="AI306" s="86"/>
+      <c r="AJ306" s="86"/>
+      <c r="AK306" s="86"/>
+      <c r="AL306" s="86"/>
       <c r="AM306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="AN306" s="83"/>
-      <c r="AO306" s="83"/>
-      <c r="AP306" s="83"/>
+      <c r="AN306" s="86"/>
+      <c r="AO306" s="86"/>
+      <c r="AP306" s="86"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C307" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D307" s="89" t="s">
-        <v>785</v>
+      <c r="B307" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E307" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F307" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G307" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G307" s="86" t="s">
         <v>449</v>
       </c>
-      <c r="H307" s="85" t="s">
-        <v>812</v>
-      </c>
-      <c r="I307" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J307" s="83"/>
-      <c r="K307" s="83"/>
-      <c r="L307" s="83"/>
-      <c r="M307" s="83"/>
-      <c r="N307" s="83"/>
-      <c r="O307" s="83"/>
-      <c r="P307" s="83"/>
-      <c r="Q307" s="83"/>
-      <c r="R307" s="83"/>
-      <c r="S307" s="83"/>
-      <c r="T307" s="83"/>
-      <c r="U307" s="83"/>
-      <c r="V307" s="83"/>
-      <c r="W307" s="83"/>
-      <c r="X307" s="83"/>
-      <c r="Y307" s="83"/>
-      <c r="Z307" s="83"/>
-      <c r="AA307" s="83"/>
-      <c r="AB307" s="83"/>
-      <c r="AC307" s="83"/>
-      <c r="AD307" s="83"/>
-      <c r="AE307" s="83" t="n">
+      <c r="H307" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="I307" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J307" s="86"/>
+      <c r="K307" s="86"/>
+      <c r="L307" s="86"/>
+      <c r="M307" s="86"/>
+      <c r="N307" s="86"/>
+      <c r="O307" s="86"/>
+      <c r="P307" s="86"/>
+      <c r="Q307" s="86"/>
+      <c r="R307" s="86"/>
+      <c r="S307" s="86"/>
+      <c r="T307" s="86"/>
+      <c r="U307" s="86"/>
+      <c r="V307" s="86"/>
+      <c r="W307" s="86"/>
+      <c r="X307" s="86"/>
+      <c r="Y307" s="86"/>
+      <c r="Z307" s="86"/>
+      <c r="AA307" s="86"/>
+      <c r="AB307" s="86"/>
+      <c r="AC307" s="86"/>
+      <c r="AD307" s="86"/>
+      <c r="AE307" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF307" s="83"/>
-      <c r="AG307" s="83"/>
-      <c r="AH307" s="83"/>
-      <c r="AI307" s="83"/>
-      <c r="AJ307" s="83"/>
-      <c r="AK307" s="83"/>
-      <c r="AL307" s="83"/>
+      <c r="AF307" s="86"/>
+      <c r="AG307" s="86"/>
+      <c r="AH307" s="86"/>
+      <c r="AI307" s="86"/>
+      <c r="AJ307" s="86"/>
+      <c r="AK307" s="86"/>
+      <c r="AL307" s="86"/>
       <c r="AM307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="AN307" s="83"/>
-      <c r="AO307" s="83"/>
-      <c r="AP307" s="83"/>
+      <c r="AN307" s="86"/>
+      <c r="AO307" s="86"/>
+      <c r="AP307" s="86"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D308" s="89" t="s">
-        <v>785</v>
+      <c r="B308" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D308" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E308" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F308" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G308" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G308" s="86" t="s">
         <v>481</v>
       </c>
-      <c r="H308" s="85" t="s">
-        <v>812</v>
-      </c>
-      <c r="I308" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J308" s="83"/>
-      <c r="K308" s="83"/>
-      <c r="L308" s="83"/>
-      <c r="M308" s="83"/>
-      <c r="N308" s="83"/>
-      <c r="O308" s="83"/>
-      <c r="P308" s="83"/>
-      <c r="Q308" s="83"/>
-      <c r="R308" s="83"/>
-      <c r="S308" s="83"/>
-      <c r="T308" s="83"/>
-      <c r="U308" s="83"/>
-      <c r="V308" s="83"/>
-      <c r="W308" s="83"/>
-      <c r="X308" s="83"/>
-      <c r="Y308" s="83"/>
-      <c r="Z308" s="83"/>
-      <c r="AA308" s="83"/>
-      <c r="AB308" s="83"/>
-      <c r="AC308" s="83"/>
-      <c r="AD308" s="83"/>
-      <c r="AE308" s="83" t="n">
+      <c r="H308" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="I308" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J308" s="86"/>
+      <c r="K308" s="86"/>
+      <c r="L308" s="86"/>
+      <c r="M308" s="86"/>
+      <c r="N308" s="86"/>
+      <c r="O308" s="86"/>
+      <c r="P308" s="86"/>
+      <c r="Q308" s="86"/>
+      <c r="R308" s="86"/>
+      <c r="S308" s="86"/>
+      <c r="T308" s="86"/>
+      <c r="U308" s="86"/>
+      <c r="V308" s="86"/>
+      <c r="W308" s="86"/>
+      <c r="X308" s="86"/>
+      <c r="Y308" s="86"/>
+      <c r="Z308" s="86"/>
+      <c r="AA308" s="86"/>
+      <c r="AB308" s="86"/>
+      <c r="AC308" s="86"/>
+      <c r="AD308" s="86"/>
+      <c r="AE308" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF308" s="83"/>
-      <c r="AG308" s="83"/>
-      <c r="AH308" s="83"/>
-      <c r="AI308" s="83"/>
-      <c r="AJ308" s="83"/>
-      <c r="AK308" s="83"/>
-      <c r="AL308" s="83"/>
+      <c r="AF308" s="86"/>
+      <c r="AG308" s="86"/>
+      <c r="AH308" s="86"/>
+      <c r="AI308" s="86"/>
+      <c r="AJ308" s="86"/>
+      <c r="AK308" s="86"/>
+      <c r="AL308" s="86"/>
       <c r="AM308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="AN308" s="83"/>
-      <c r="AO308" s="83"/>
-      <c r="AP308" s="83"/>
+      <c r="AN308" s="86"/>
+      <c r="AO308" s="86"/>
+      <c r="AP308" s="86"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C309" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D309" s="89" t="s">
-        <v>785</v>
+      <c r="B309" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D309" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E309" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F309" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G309" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G309" s="86" t="s">
         <v>500</v>
       </c>
-      <c r="H309" s="85" t="s">
-        <v>813</v>
-      </c>
-      <c r="I309" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J309" s="83"/>
-      <c r="K309" s="83"/>
-      <c r="L309" s="83"/>
-      <c r="M309" s="83"/>
-      <c r="N309" s="83"/>
-      <c r="O309" s="83"/>
-      <c r="P309" s="83"/>
-      <c r="Q309" s="83"/>
-      <c r="R309" s="83"/>
-      <c r="S309" s="83"/>
-      <c r="T309" s="83"/>
-      <c r="U309" s="83"/>
-      <c r="V309" s="83"/>
-      <c r="W309" s="83"/>
-      <c r="X309" s="83"/>
-      <c r="Y309" s="83"/>
-      <c r="Z309" s="83"/>
-      <c r="AA309" s="83"/>
-      <c r="AB309" s="83"/>
-      <c r="AC309" s="83"/>
-      <c r="AD309" s="83"/>
-      <c r="AE309" s="83" t="n">
+      <c r="H309" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="I309" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J309" s="86"/>
+      <c r="K309" s="86"/>
+      <c r="L309" s="86"/>
+      <c r="M309" s="86"/>
+      <c r="N309" s="86"/>
+      <c r="O309" s="86"/>
+      <c r="P309" s="86"/>
+      <c r="Q309" s="86"/>
+      <c r="R309" s="86"/>
+      <c r="S309" s="86"/>
+      <c r="T309" s="86"/>
+      <c r="U309" s="86"/>
+      <c r="V309" s="86"/>
+      <c r="W309" s="86"/>
+      <c r="X309" s="86"/>
+      <c r="Y309" s="86"/>
+      <c r="Z309" s="86"/>
+      <c r="AA309" s="86"/>
+      <c r="AB309" s="86"/>
+      <c r="AC309" s="86"/>
+      <c r="AD309" s="86"/>
+      <c r="AE309" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF309" s="83"/>
-      <c r="AG309" s="83"/>
-      <c r="AH309" s="83"/>
-      <c r="AI309" s="83"/>
-      <c r="AJ309" s="83"/>
-      <c r="AK309" s="83"/>
-      <c r="AL309" s="83"/>
+      <c r="AF309" s="86"/>
+      <c r="AG309" s="86"/>
+      <c r="AH309" s="86"/>
+      <c r="AI309" s="86"/>
+      <c r="AJ309" s="86"/>
+      <c r="AK309" s="86"/>
+      <c r="AL309" s="86"/>
       <c r="AM309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="AN309" s="83"/>
-      <c r="AO309" s="83"/>
-      <c r="AP309" s="83"/>
+      <c r="AN309" s="86"/>
+      <c r="AO309" s="86"/>
+      <c r="AP309" s="86"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C310" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D310" s="89" t="s">
-        <v>785</v>
+      <c r="B310" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C310" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E310" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F310" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G310" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G310" s="86" t="s">
         <v>519</v>
       </c>
-      <c r="H310" s="85" t="s">
-        <v>811</v>
-      </c>
-      <c r="I310" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J310" s="83"/>
-      <c r="K310" s="83"/>
-      <c r="L310" s="83"/>
-      <c r="M310" s="83"/>
-      <c r="N310" s="83"/>
-      <c r="O310" s="83"/>
-      <c r="P310" s="83"/>
-      <c r="Q310" s="83"/>
-      <c r="R310" s="83"/>
-      <c r="S310" s="83"/>
-      <c r="T310" s="83"/>
-      <c r="U310" s="83"/>
-      <c r="V310" s="83"/>
-      <c r="W310" s="83"/>
-      <c r="X310" s="83"/>
-      <c r="Y310" s="83"/>
-      <c r="Z310" s="83"/>
-      <c r="AA310" s="83"/>
-      <c r="AB310" s="83"/>
-      <c r="AC310" s="83"/>
-      <c r="AD310" s="83"/>
-      <c r="AE310" s="83" t="n">
+      <c r="H310" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="I310" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J310" s="86"/>
+      <c r="K310" s="86"/>
+      <c r="L310" s="86"/>
+      <c r="M310" s="86"/>
+      <c r="N310" s="86"/>
+      <c r="O310" s="86"/>
+      <c r="P310" s="86"/>
+      <c r="Q310" s="86"/>
+      <c r="R310" s="86"/>
+      <c r="S310" s="86"/>
+      <c r="T310" s="86"/>
+      <c r="U310" s="86"/>
+      <c r="V310" s="86"/>
+      <c r="W310" s="86"/>
+      <c r="X310" s="86"/>
+      <c r="Y310" s="86"/>
+      <c r="Z310" s="86"/>
+      <c r="AA310" s="86"/>
+      <c r="AB310" s="86"/>
+      <c r="AC310" s="86"/>
+      <c r="AD310" s="86"/>
+      <c r="AE310" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF310" s="83"/>
-      <c r="AG310" s="83"/>
-      <c r="AH310" s="83"/>
-      <c r="AI310" s="83"/>
-      <c r="AJ310" s="83"/>
-      <c r="AK310" s="83"/>
-      <c r="AL310" s="83"/>
+      <c r="AF310" s="86"/>
+      <c r="AG310" s="86"/>
+      <c r="AH310" s="86"/>
+      <c r="AI310" s="86"/>
+      <c r="AJ310" s="86"/>
+      <c r="AK310" s="86"/>
+      <c r="AL310" s="86"/>
       <c r="AM310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="AN310" s="83"/>
-      <c r="AO310" s="83"/>
-      <c r="AP310" s="83"/>
+      <c r="AN310" s="86"/>
+      <c r="AO310" s="86"/>
+      <c r="AP310" s="86"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C311" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D311" s="89" t="s">
-        <v>785</v>
+      <c r="B311" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D311" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E311" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F311" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G311" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G311" s="86" t="s">
         <v>532</v>
       </c>
-      <c r="H311" s="85" t="s">
-        <v>811</v>
-      </c>
-      <c r="I311" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J311" s="83"/>
-      <c r="K311" s="83"/>
-      <c r="L311" s="83"/>
-      <c r="M311" s="83"/>
-      <c r="N311" s="83"/>
-      <c r="O311" s="83"/>
-      <c r="P311" s="83"/>
-      <c r="Q311" s="83"/>
-      <c r="R311" s="83"/>
-      <c r="S311" s="83"/>
-      <c r="T311" s="83"/>
-      <c r="U311" s="83"/>
-      <c r="V311" s="83"/>
-      <c r="W311" s="83"/>
-      <c r="X311" s="83"/>
-      <c r="Y311" s="83"/>
-      <c r="Z311" s="83"/>
-      <c r="AA311" s="83"/>
-      <c r="AB311" s="83"/>
-      <c r="AC311" s="83"/>
-      <c r="AD311" s="83"/>
-      <c r="AE311" s="83" t="n">
+      <c r="H311" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="I311" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J311" s="86"/>
+      <c r="K311" s="86"/>
+      <c r="L311" s="86"/>
+      <c r="M311" s="86"/>
+      <c r="N311" s="86"/>
+      <c r="O311" s="86"/>
+      <c r="P311" s="86"/>
+      <c r="Q311" s="86"/>
+      <c r="R311" s="86"/>
+      <c r="S311" s="86"/>
+      <c r="T311" s="86"/>
+      <c r="U311" s="86"/>
+      <c r="V311" s="86"/>
+      <c r="W311" s="86"/>
+      <c r="X311" s="86"/>
+      <c r="Y311" s="86"/>
+      <c r="Z311" s="86"/>
+      <c r="AA311" s="86"/>
+      <c r="AB311" s="86"/>
+      <c r="AC311" s="86"/>
+      <c r="AD311" s="86"/>
+      <c r="AE311" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF311" s="83"/>
-      <c r="AG311" s="83"/>
-      <c r="AH311" s="83"/>
-      <c r="AI311" s="83"/>
-      <c r="AJ311" s="83"/>
-      <c r="AK311" s="83"/>
-      <c r="AL311" s="83"/>
+      <c r="AF311" s="86"/>
+      <c r="AG311" s="86"/>
+      <c r="AH311" s="86"/>
+      <c r="AI311" s="86"/>
+      <c r="AJ311" s="86"/>
+      <c r="AK311" s="86"/>
+      <c r="AL311" s="86"/>
       <c r="AM311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AN311" s="83"/>
-      <c r="AO311" s="83"/>
-      <c r="AP311" s="83"/>
+      <c r="AN311" s="86"/>
+      <c r="AO311" s="86"/>
+      <c r="AP311" s="86"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C312" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D312" s="89" t="s">
-        <v>785</v>
+      <c r="B312" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E312" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F312" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G312" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G312" s="86" t="s">
         <v>543</v>
       </c>
-      <c r="H312" s="85" t="s">
-        <v>813</v>
-      </c>
-      <c r="I312" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J312" s="83"/>
-      <c r="K312" s="83"/>
-      <c r="L312" s="83"/>
-      <c r="M312" s="83"/>
-      <c r="N312" s="83"/>
-      <c r="O312" s="83"/>
-      <c r="P312" s="83"/>
-      <c r="Q312" s="83"/>
-      <c r="R312" s="83"/>
-      <c r="S312" s="83"/>
-      <c r="T312" s="83"/>
-      <c r="U312" s="83"/>
-      <c r="V312" s="83"/>
-      <c r="W312" s="83"/>
-      <c r="X312" s="83"/>
-      <c r="Y312" s="83"/>
-      <c r="Z312" s="83"/>
-      <c r="AA312" s="83"/>
-      <c r="AB312" s="83"/>
-      <c r="AC312" s="83"/>
-      <c r="AD312" s="83"/>
-      <c r="AE312" s="83" t="n">
+      <c r="H312" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="I312" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J312" s="86"/>
+      <c r="K312" s="86"/>
+      <c r="L312" s="86"/>
+      <c r="M312" s="86"/>
+      <c r="N312" s="86"/>
+      <c r="O312" s="86"/>
+      <c r="P312" s="86"/>
+      <c r="Q312" s="86"/>
+      <c r="R312" s="86"/>
+      <c r="S312" s="86"/>
+      <c r="T312" s="86"/>
+      <c r="U312" s="86"/>
+      <c r="V312" s="86"/>
+      <c r="W312" s="86"/>
+      <c r="X312" s="86"/>
+      <c r="Y312" s="86"/>
+      <c r="Z312" s="86"/>
+      <c r="AA312" s="86"/>
+      <c r="AB312" s="86"/>
+      <c r="AC312" s="86"/>
+      <c r="AD312" s="86"/>
+      <c r="AE312" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF312" s="83"/>
-      <c r="AG312" s="83"/>
-      <c r="AH312" s="83"/>
-      <c r="AI312" s="83"/>
-      <c r="AJ312" s="83"/>
-      <c r="AK312" s="83"/>
-      <c r="AL312" s="83"/>
+      <c r="AF312" s="86"/>
+      <c r="AG312" s="86"/>
+      <c r="AH312" s="86"/>
+      <c r="AI312" s="86"/>
+      <c r="AJ312" s="86"/>
+      <c r="AK312" s="86"/>
+      <c r="AL312" s="86"/>
       <c r="AM312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="AN312" s="83"/>
-      <c r="AO312" s="83"/>
-      <c r="AP312" s="83"/>
+      <c r="AN312" s="86"/>
+      <c r="AO312" s="86"/>
+      <c r="AP312" s="86"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C313" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D313" s="89" t="s">
-        <v>785</v>
+      <c r="B313" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E313" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F313" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G313" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G313" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="H313" s="85" t="s">
-        <v>812</v>
-      </c>
-      <c r="I313" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J313" s="83"/>
-      <c r="K313" s="83"/>
-      <c r="L313" s="83"/>
-      <c r="M313" s="83"/>
-      <c r="N313" s="83"/>
-      <c r="O313" s="83"/>
-      <c r="P313" s="83"/>
-      <c r="Q313" s="83"/>
-      <c r="R313" s="83"/>
-      <c r="S313" s="83"/>
-      <c r="T313" s="83"/>
-      <c r="U313" s="83"/>
-      <c r="V313" s="83"/>
-      <c r="W313" s="83"/>
-      <c r="X313" s="83"/>
-      <c r="Y313" s="83"/>
-      <c r="Z313" s="83"/>
-      <c r="AA313" s="83"/>
-      <c r="AB313" s="83"/>
-      <c r="AC313" s="83"/>
-      <c r="AD313" s="83"/>
-      <c r="AE313" s="83" t="n">
+      <c r="H313" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="I313" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J313" s="86"/>
+      <c r="K313" s="86"/>
+      <c r="L313" s="86"/>
+      <c r="M313" s="86"/>
+      <c r="N313" s="86"/>
+      <c r="O313" s="86"/>
+      <c r="P313" s="86"/>
+      <c r="Q313" s="86"/>
+      <c r="R313" s="86"/>
+      <c r="S313" s="86"/>
+      <c r="T313" s="86"/>
+      <c r="U313" s="86"/>
+      <c r="V313" s="86"/>
+      <c r="W313" s="86"/>
+      <c r="X313" s="86"/>
+      <c r="Y313" s="86"/>
+      <c r="Z313" s="86"/>
+      <c r="AA313" s="86"/>
+      <c r="AB313" s="86"/>
+      <c r="AC313" s="86"/>
+      <c r="AD313" s="86"/>
+      <c r="AE313" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF313" s="83"/>
-      <c r="AG313" s="83"/>
-      <c r="AH313" s="83"/>
-      <c r="AI313" s="83"/>
-      <c r="AJ313" s="83"/>
-      <c r="AK313" s="83"/>
-      <c r="AL313" s="83"/>
+      <c r="AF313" s="86"/>
+      <c r="AG313" s="86"/>
+      <c r="AH313" s="86"/>
+      <c r="AI313" s="86"/>
+      <c r="AJ313" s="86"/>
+      <c r="AK313" s="86"/>
+      <c r="AL313" s="86"/>
       <c r="AM313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AN313" s="83"/>
-      <c r="AO313" s="83"/>
-      <c r="AP313" s="83"/>
+      <c r="AN313" s="86"/>
+      <c r="AO313" s="86"/>
+      <c r="AP313" s="86"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C314" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D314" s="89" t="s">
-        <v>785</v>
+      <c r="B314" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D314" s="92" t="s">
+        <v>786</v>
       </c>
       <c r="E314" s="70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F314" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="G314" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="G314" s="86" t="s">
         <v>572</v>
       </c>
-      <c r="H314" s="85" t="s">
-        <v>813</v>
-      </c>
-      <c r="I314" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="J314" s="83"/>
-      <c r="K314" s="83"/>
-      <c r="L314" s="83"/>
-      <c r="M314" s="83"/>
-      <c r="N314" s="83"/>
-      <c r="O314" s="83"/>
-      <c r="P314" s="83"/>
-      <c r="Q314" s="83"/>
-      <c r="R314" s="83"/>
-      <c r="S314" s="83"/>
-      <c r="T314" s="83"/>
-      <c r="U314" s="83"/>
-      <c r="V314" s="83"/>
-      <c r="W314" s="83"/>
-      <c r="X314" s="83"/>
-      <c r="Y314" s="83"/>
-      <c r="Z314" s="83"/>
-      <c r="AA314" s="83"/>
-      <c r="AB314" s="83"/>
-      <c r="AC314" s="83"/>
-      <c r="AD314" s="83"/>
-      <c r="AE314" s="83" t="n">
+      <c r="H314" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="I314" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J314" s="86"/>
+      <c r="K314" s="86"/>
+      <c r="L314" s="86"/>
+      <c r="M314" s="86"/>
+      <c r="N314" s="86"/>
+      <c r="O314" s="86"/>
+      <c r="P314" s="86"/>
+      <c r="Q314" s="86"/>
+      <c r="R314" s="86"/>
+      <c r="S314" s="86"/>
+      <c r="T314" s="86"/>
+      <c r="U314" s="86"/>
+      <c r="V314" s="86"/>
+      <c r="W314" s="86"/>
+      <c r="X314" s="86"/>
+      <c r="Y314" s="86"/>
+      <c r="Z314" s="86"/>
+      <c r="AA314" s="86"/>
+      <c r="AB314" s="86"/>
+      <c r="AC314" s="86"/>
+      <c r="AD314" s="86"/>
+      <c r="AE314" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AF314" s="83"/>
-      <c r="AG314" s="83"/>
-      <c r="AH314" s="83"/>
-      <c r="AI314" s="83"/>
-      <c r="AJ314" s="83"/>
-      <c r="AK314" s="83"/>
-      <c r="AL314" s="83"/>
+      <c r="AF314" s="86"/>
+      <c r="AG314" s="86"/>
+      <c r="AH314" s="86"/>
+      <c r="AI314" s="86"/>
+      <c r="AJ314" s="86"/>
+      <c r="AK314" s="86"/>
+      <c r="AL314" s="86"/>
       <c r="AM314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="AN314" s="83"/>
-      <c r="AO314" s="83"/>
-      <c r="AP314" s="83"/>
+      <c r="AN314" s="86"/>
+      <c r="AO314" s="86"/>
+      <c r="AP314" s="86"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP314"/>
+  <autoFilter ref="A1:AQ314"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30071,13 +30083,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="91" t="s">
-        <v>762</v>
+      <c r="A1" s="94" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30108,54 +30117,51 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>814</v>
-      </c>
-      <c r="H1" s="93" t="s">
+      <c r="G1" s="96" t="s">
         <v>815</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="H1" s="96" t="s">
+        <v>816</v>
+      </c>
+      <c r="I1" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="93" t="s">
-        <v>816</v>
-      </c>
-      <c r="L1" s="93" t="s">
+      <c r="K1" s="96" t="s">
+        <v>817</v>
+      </c>
+      <c r="L1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="96" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="94" t="s">
-        <v>817</v>
+      <c r="B4" s="97" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,37 +13,38 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +71,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -85,7 +86,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -100,7 +101,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -115,7 +116,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -131,7 +132,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -146,7 +147,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -161,7 +162,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -176,7 +177,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -191,7 +192,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -207,7 +208,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Aleksandra Danilenko:
+          <t>Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -219,157 +220,157 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="819">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To include in first calculation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t>KPI from POS 2016</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>To include in first calculation?</t>
+  </si>
+  <si>
+    <t>RD38010001</t>
+  </si>
+  <si>
+    <t>Hypermarket</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2
 3
 4
 5
@@ -416,325 +417,325 @@
 46</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation, Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Citrus - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Цитрус - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 2 x 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 2 x 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Pomegranate - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Гранат - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000241412, 5449000241429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Mojito - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Мохито - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Pomegranate - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Citrus - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Цитрус - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000234179, 5449000213693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000234155, 5449000172235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48
+    <t>Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Activation, Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t>Sprite - 2L</t>
+  </si>
+  <si>
+    <t>Спрайт - 2л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t>Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t>Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t>Fanta Citrus - 2L</t>
+  </si>
+  <si>
+    <t>Фанта Цитрус - 2л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 2 x 1.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 2 x 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t>Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t>Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t>Schweppes Pomegranate - 0.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Гранат - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t>Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t>Sprite Cucumber-Watermelon - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Спрайт Огурец-Арбуз - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000241412, 5449000241429</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 1.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Мохито - 1.5л</t>
+  </si>
+  <si>
+    <t>Schweppes Pomegranate - 1.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Гранат - 1.5л</t>
+  </si>
+  <si>
+    <t>Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t>Fanta Citrus - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Цитрус - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000234179, 5449000213693</t>
+  </si>
+  <si>
+    <t>Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.5л</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>5449000234155, 5449000172235</t>
+  </si>
+  <si>
+    <t>Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>48
 49
 50
 51
@@ -747,79 +748,79 @@
 58</t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Lime - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Лайм - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 5л</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Lime - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Лайм - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 1.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>60
 61
 62
 63
@@ -829,61 +830,61 @@
 67</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Assault - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Ассалт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t>Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t>Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.33л</t>
+  </si>
+  <si>
+    <t>Monster Assault - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Ассалт - 0.5л</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>69
 70
 71
 72
@@ -900,103 +901,103 @@
 83</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Citrus - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85
+    <t>Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t>Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t>Fuze Green Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t>Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 1.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 1.5л</t>
+  </si>
+  <si>
+    <t>Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Green Citrus - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 1L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.33L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.33л</t>
+  </si>
+  <si>
+    <t>Juice Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>85
 86
 87
 88
@@ -1088,1165 +1089,1165 @@
 174</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Berry Fruit - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Grapefruit - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Грейпфрут - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Малина - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Citrus Mix - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Цитрус микс - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Mors Cranberry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Морс Клюква - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple-Pear - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Груша - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple-Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Bodriy Citrus - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Бодрый Цитрус - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pineapple - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Ананас - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apricot - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Абрикос - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Multifruit - 0.9L NFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Мультифрут NFC - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Ананас - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Ruby Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Рубиновый Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Tomato - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Томат - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apricot - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Абрикос - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Tomato - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Томат - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Bodriy Mix - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Бодрый Микс - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya Compot - Cherry - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья Компот - Вишня - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Berry Fruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Peach-Apple - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Cherry - 0.3L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple-Grape - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Виноград - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Tomato - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Томат - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Pouch smoothie3 - 0.11L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Смузи 3 - 0.11л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Peach - 0.3L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Персик - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176
+    <t>Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Berry Fruit - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Фруктово-Ягодный - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t>Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t>Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Grapefruit - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Грейпфрут - 0.9л</t>
+  </si>
+  <si>
+    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t>Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple Blackashberry Raspberry - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Малина - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Citrus Mix - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Цитрус микс - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple-Peach-Apricot - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Mors Cranberry - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Морс Клюква - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple-Pear - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Груша - 0.2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple-Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Bodriy Citrus - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Бодрый Цитрус - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pineapple - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Ананас - 2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apricot - 2L</t>
+  </si>
+  <si>
+    <t>Добрый - Абрикос - 2л</t>
+  </si>
+  <si>
+    <t>Rich - Multifruit - 0.9L NFC</t>
+  </si>
+  <si>
+    <t>Рич - Мультифрут NFC - 0.9л</t>
+  </si>
+  <si>
+    <t>Rich - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Ананас - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Ruby Orange - 1L</t>
+  </si>
+  <si>
+    <t>Рич - Рубиновый Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Tomato - 2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Томат - 2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Цитрус микс - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apricot - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Абрикос - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t>Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t>Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple-Peach-Apricot - 0.2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
+  </si>
+  <si>
+    <t>Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Tomato - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Томат - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Bodriy Mix - 1L</t>
+  </si>
+  <si>
+    <t>Добрый - Бодрый Микс - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya Compot - Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t>Моя Семья Компот - Вишня - 0.9л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Berry Fruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Фруктово-Ягодный - 0.2л</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Peach-Apple - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Персик-Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>Rich - Cherry - 0.3L PET</t>
+  </si>
+  <si>
+    <t>Рич - Вишня PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple-Peach-Apricot - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple-Grape - 1L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Виноград - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Tomato - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Томат - 0.33л</t>
+  </si>
+  <si>
+    <t>Dobriy - Pouch smoothie3 - 0.11L</t>
+  </si>
+  <si>
+    <t>Добрый - Смузи 3 - 0.11л</t>
+  </si>
+  <si>
+    <t>Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t>Моя Семья - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t>Rich - Peach - 0.3L PET</t>
+  </si>
+  <si>
+    <t>Рич - Персик - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>STANDARD 19</t>
+  </si>
+  <si>
+    <t>SSD Display 1st</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>SSD Displays</t>
+  </si>
+  <si>
+    <t>176
 177
 178</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/3 of the Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola 2L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180
+    <t>SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>MAN in CAT</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t>number of scenes</t>
+  </si>
+  <si>
+    <t>SCENES</t>
+  </si>
+  <si>
+    <t>1/3 of the Store</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
+  </si>
+  <si>
+    <t>Lead SKU</t>
+  </si>
+  <si>
+    <t>Coca-Cola 2L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t>Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t>180
 181
 182</t>
   </si>
   <si>
-    <t xml:space="preserve">Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Sprite - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184
+    <t>Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Sprite - 2L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Спрайт - 2л</t>
+  </si>
+  <si>
+    <t>SSD Display 1st: Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t>Juice Display 1st</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t>Juice Displays</t>
+  </si>
+  <si>
+    <t>184
 185
 186</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187
+    <t>Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>187
 188</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190
+    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t>Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t>190
 191
 192
 193</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195
+    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>SSD Display 2d</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t>195
 196
 197</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199
+    <t>SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t>SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t>Deli</t>
+  </si>
+  <si>
+    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t>Coca-Cola 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t>SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t>Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t>199
 200</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202
+    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t>Tea Display</t>
+  </si>
+  <si>
+    <t>Чай Дисплей</t>
+  </si>
+  <si>
+    <t>Tea Displays</t>
+  </si>
+  <si>
+    <t>202
 203
 204</t>
   </si>
   <si>
-    <t xml:space="preserve">Tea Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205
+    <t>Tea Display: Facings</t>
+  </si>
+  <si>
+    <t>Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Tea Display: Zone</t>
+  </si>
+  <si>
+    <t>Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t>Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t>205
 206</t>
   </si>
   <si>
-    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208
+    <t>Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t>Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Water Display</t>
+  </si>
+  <si>
+    <t>Вода Дисплей</t>
+  </si>
+  <si>
+    <t>Water Displays</t>
+  </si>
+  <si>
+    <t>208
 209
 210</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Display: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrance of Water Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212
+    <t>Water Display: Facings</t>
+  </si>
+  <si>
+    <t>Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Water Display: Zone</t>
+  </si>
+  <si>
+    <t>Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t>Entrance of Water Section</t>
+  </si>
+  <si>
+    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t>SSD Display 3d</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t>212
 213
 214</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrance of SSD Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216
+    <t>SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t>SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t>Entrance of SSD Section</t>
+  </si>
+  <si>
+    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 1.5L share on Display. The competitors are only SSD SKUs</t>
+  </si>
+  <si>
+    <t>Energy Display</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t>Energy Displays</t>
+  </si>
+  <si>
+    <t>216
 217
 218</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Display: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beer Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219
+    <t>Energy Display: Facings</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Energy Display: Zone</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t>Beer Section</t>
+  </si>
+  <si>
+    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>219
 220</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 2-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222
+    <t>Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t>Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t>Juice Display 2d</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 2-й</t>
+  </si>
+  <si>
+    <t>222
 223
 224</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 2d: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 2d: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meat/Poultry/Seafood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other TCCC Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Display Mixability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226
+    <t>Juice Display 2d: Facings</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t>Juice Display 2d: Zone</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t>Meat/Poultry/Seafood</t>
+  </si>
+  <si>
+    <t>Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Mixability Display</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей</t>
+  </si>
+  <si>
+    <t>Other TCCC Displays</t>
+  </si>
+  <si>
+    <t>Company Display Mixability</t>
+  </si>
+  <si>
+    <t>226
 227
 228</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixability Display: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display: Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Зона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display: Lead SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Основной СКЮ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229
+    <t>Mixability Display: Facings</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t>TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Mixability Display: Zone</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Зона</t>
+  </si>
+  <si>
+    <t>Alcohol Section</t>
+  </si>
+  <si>
+    <t>Mixability Display: Lead SKU</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Основной СКЮ</t>
+  </si>
+  <si>
+    <t>229
 230
 231
 232</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.9L/1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 4 x 0.33L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display: Lead Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixability Display: Lead Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 1L share on Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235
+    <t>Mixability Display: Lead Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Основной Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.9L/1L share on Display</t>
+  </si>
+  <si>
+    <t>Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 4 x 0.33L share on Display</t>
+  </si>
+  <si>
+    <t>Mixability Display: Lead Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 1L share on Display</t>
+  </si>
+  <si>
+    <t>Mixability Display: Lead Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 1L share on Display</t>
+  </si>
+  <si>
+    <t>STANDARD 20</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>Warm Shelf</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t>SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>235
 236
 237
 238
@@ -2255,301 +2256,301 @@
 241</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247
+    <t>Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t>STANDARD 21</t>
+  </si>
+  <si>
+    <t>Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t>Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t>Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t>BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t>STANDARD 23</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t>Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t>247
 248
 249
 250
 251</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254
+    <t>Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t>Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t>Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t>Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t>STANDARD 24</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t>Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t>254
 255</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Алкоголя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258
+    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t>STANDARD 25</t>
+  </si>
+  <si>
+    <t>Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Spirits Availability</t>
+  </si>
+  <si>
+    <t>Представленность Алкоголя</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>258
 259
 260
 261</t>
   </si>
   <si>
-    <t xml:space="preserve">Red Hackle - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рэд Хакл - 0.7л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Alco Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Alco Brand 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263
+    <t>Red Hackle - 0.7L</t>
+  </si>
+  <si>
+    <t>Рэд Хакл - 0.7л</t>
+  </si>
+  <si>
+    <t>Wild Turkey 81 - 0.7L</t>
+  </si>
+  <si>
+    <t>Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t>New Alco Brand</t>
+  </si>
+  <si>
+    <t>not defined</t>
+  </si>
+  <si>
+    <t>New Alco Brand 1</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
+  </si>
+  <si>
+    <t>263
 264</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>Cooler: Max 23</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t>Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t>Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t>CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>268
 269
 270
 271
@@ -2567,341 +2568,341 @@
 283</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: RED Hackle facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полка алкоголя: Фейсинги RED Hackle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED HACKLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Shelf, Alco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Alcohol, Other alcohol location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits Shelf: Wild Turkey facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полка алкоголя: Фейсинги Wild Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">288
+    <t>Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t>Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t>Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Холодильники: Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Холодильники: Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t>Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t>Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Холодильники: Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t>ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t>5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t>Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t>ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t>5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t>Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t>Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t>Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>Cooler: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Холодильники: Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Spirits Shelf: RED Hackle facings</t>
+  </si>
+  <si>
+    <t>Полка алкоголя: Фейсинги RED Hackle</t>
+  </si>
+  <si>
+    <t>RED HACKLE, Red Hackle</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Warm Shelf, Alco</t>
+  </si>
+  <si>
+    <t>Display Alcohol, Other alcohol location</t>
+  </si>
+  <si>
+    <t>Spirits shelf share</t>
+  </si>
+  <si>
+    <t>Spirits Shelf: Wild Turkey facings</t>
+  </si>
+  <si>
+    <t>Полка алкоголя: Фейсинги Wild Turkey</t>
+  </si>
+  <si>
+    <t>Wild Turkey</t>
+  </si>
+  <si>
+    <t>RGM Activations</t>
+  </si>
+  <si>
+    <t>RGM Активации</t>
+  </si>
+  <si>
+    <t>288
 289
 290
 291
 292</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Activations SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD with Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On-the-go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: Premium Spirits displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: Дисплеи алкоголя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: BF, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Промо дисплеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo displays SAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y for all Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiantial Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N for all Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MealsAtHo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeTimeAtH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Score Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
+    <t>RGM Activations SAP</t>
+  </si>
+  <si>
+    <t>RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t>RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t>SSD with Meal</t>
+  </si>
+  <si>
+    <t>RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t>RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t>RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t>RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t>On-the-go</t>
+  </si>
+  <si>
+    <t>RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t>RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t>Screen time</t>
+  </si>
+  <si>
+    <t>RGM Activations: Premium Spirits displays</t>
+  </si>
+  <si>
+    <t>RGM Активации: Дисплеи алкоголя</t>
+  </si>
+  <si>
+    <t>Manufacturer: BF, CAMPARI</t>
+  </si>
+  <si>
+    <t>Display Alcohol</t>
+  </si>
+  <si>
+    <t>Promo Displays</t>
+  </si>
+  <si>
+    <t>Промо дисплеи</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Promo displays SAP</t>
+  </si>
+  <si>
+    <t>Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t>Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t>check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>LOCAL 2</t>
+  </si>
+  <si>
+    <t>number of KPI Passed</t>
+  </si>
+  <si>
+    <t>Session level</t>
+  </si>
+  <si>
+    <t>LOCAL 4</t>
+  </si>
+  <si>
+    <t>sum of KPI result</t>
+  </si>
+  <si>
+    <t>LOCAL 6</t>
+  </si>
+  <si>
+    <t>KPI result</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>LOCAL 5</t>
+  </si>
+  <si>
+    <t>LOCAL 7</t>
+  </si>
+  <si>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t>Scene level</t>
+  </si>
+  <si>
+    <t>Attribute 1</t>
+  </si>
+  <si>
+    <t>POP Activated</t>
+  </si>
+  <si>
+    <t>Y for all Displays</t>
+  </si>
+  <si>
+    <t>Attribute 2</t>
+  </si>
+  <si>
+    <t>Experiantial Activation</t>
+  </si>
+  <si>
+    <t>N for all Displays</t>
+  </si>
+  <si>
+    <t>Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t>Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t>Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t>Attribute 3</t>
+  </si>
+  <si>
+    <t>Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t>No_O_A</t>
+  </si>
+  <si>
+    <t>MealsAtHo</t>
+  </si>
+  <si>
+    <t>MeTimeAtH</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>KPI Score Formula</t>
+  </si>
+  <si>
+    <t>KPI weighted Score</t>
+  </si>
+  <si>
+    <t>Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2910,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -3156,7 +3157,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3445,10 +3446,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3634,24 +3631,32 @@
   <dimension ref="A1:AP314"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="V267" activeCellId="0" sqref="V267"/>
+      <selection pane="bottomLeft" activeCell="AM286" activeCellId="0" sqref="AM286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="49.582995951417"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.78947368421053"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26466,10 +26471,10 @@
       <c r="AD268" s="71" t="s">
         <v>706</v>
       </c>
-      <c r="AE268" s="72" t="n">
+      <c r="AE268" s="20" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF268" s="73" t="n">
+      <c r="AF268" s="72" t="n">
         <v>0.8</v>
       </c>
       <c r="AG268" s="40" t="n">
@@ -26882,7 +26887,7 @@
       <c r="L273" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="M273" s="74" t="s">
+      <c r="M273" s="73" t="s">
         <v>63</v>
       </c>
       <c r="N273" s="34"/>
@@ -27058,7 +27063,7 @@
       <c r="L275" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="M275" s="74" t="s">
+      <c r="M275" s="73" t="s">
         <v>78</v>
       </c>
       <c r="N275" s="34"/>
@@ -27322,7 +27327,7 @@
       <c r="L278" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="M278" s="74" t="s">
+      <c r="M278" s="73" t="s">
         <v>88</v>
       </c>
       <c r="N278" s="34"/>
@@ -27850,7 +27855,7 @@
       <c r="L284" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="M284" s="74" t="s">
+      <c r="M284" s="73" t="s">
         <v>81</v>
       </c>
       <c r="N284" s="34"/>
@@ -28052,7 +28057,7 @@
       <c r="AD286" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="AE286" s="75" t="n">
+      <c r="AE286" s="74" t="n">
         <v>0.005</v>
       </c>
       <c r="AF286" s="14"/>
@@ -28068,7 +28073,7 @@
         <v>285</v>
       </c>
       <c r="AN286" s="10"/>
-      <c r="AO286" s="76" t="s">
+      <c r="AO286" s="75" t="s">
         <v>753</v>
       </c>
       <c r="AP286" s="10"/>
@@ -28083,70 +28088,70 @@
       <c r="C287" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D287" s="77" t="s">
+      <c r="D287" s="76" t="s">
         <v>436</v>
       </c>
-      <c r="E287" s="77" t="s">
+      <c r="E287" s="76" t="s">
         <v>437</v>
       </c>
-      <c r="F287" s="78" t="s">
+      <c r="F287" s="77" t="s">
         <v>754</v>
       </c>
       <c r="G287" s="57" t="s">
         <v>755</v>
       </c>
-      <c r="H287" s="78" t="s">
+      <c r="H287" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="I287" s="78" t="n">
+      <c r="I287" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="J287" s="78"/>
-      <c r="K287" s="78"/>
-      <c r="L287" s="78"/>
-      <c r="M287" s="79" t="s">
+      <c r="J287" s="77"/>
+      <c r="K287" s="77"/>
+      <c r="L287" s="77"/>
+      <c r="M287" s="78" t="s">
         <v>756</v>
       </c>
-      <c r="N287" s="79"/>
-      <c r="O287" s="79"/>
-      <c r="P287" s="79" t="s">
+      <c r="N287" s="78"/>
+      <c r="O287" s="78"/>
+      <c r="P287" s="78" t="s">
         <v>756</v>
       </c>
-      <c r="Q287" s="78" t="s">
+      <c r="Q287" s="77" t="s">
         <v>54</v>
       </c>
       <c r="R287" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="S287" s="78"/>
-      <c r="T287" s="78"/>
-      <c r="U287" s="78"/>
-      <c r="V287" s="78"/>
+      <c r="S287" s="77"/>
+      <c r="T287" s="77"/>
+      <c r="U287" s="77"/>
+      <c r="V287" s="77"/>
       <c r="W287" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="X287" s="78"/>
+      <c r="X287" s="77"/>
       <c r="Y287" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="Z287" s="80"/>
-      <c r="AA287" s="78"/>
-      <c r="AB287" s="78"/>
+      <c r="Z287" s="79"/>
+      <c r="AA287" s="77"/>
+      <c r="AB287" s="77"/>
       <c r="AC287" s="57" t="s">
         <v>49</v>
       </c>
       <c r="AD287" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="AE287" s="75" t="n">
+      <c r="AE287" s="74" t="n">
         <v>0.005</v>
       </c>
       <c r="AF287" s="14"/>
       <c r="AG287" s="14"/>
-      <c r="AH287" s="78"/>
-      <c r="AI287" s="78"/>
-      <c r="AJ287" s="78"/>
-      <c r="AK287" s="78"/>
+      <c r="AH287" s="77"/>
+      <c r="AI287" s="77"/>
+      <c r="AJ287" s="77"/>
+      <c r="AK287" s="77"/>
       <c r="AL287" s="57" t="n">
         <v>2</v>
       </c>
@@ -28154,7 +28159,7 @@
         <v>286</v>
       </c>
       <c r="AN287" s="57"/>
-      <c r="AO287" s="76" t="s">
+      <c r="AO287" s="75" t="s">
         <v>753</v>
       </c>
       <c r="AP287" s="57"/>
@@ -28232,7 +28237,7 @@
       <c r="AN288" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="AO288" s="76" t="s">
+      <c r="AO288" s="75" t="s">
         <v>760</v>
       </c>
       <c r="AP288" s="10"/>
@@ -28652,7 +28657,7 @@
       <c r="D294" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E294" s="81" t="s">
+      <c r="E294" s="80" t="s">
         <v>437</v>
       </c>
       <c r="F294" s="14" t="s">
@@ -28661,7 +28666,7 @@
       <c r="G294" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="H294" s="82" t="s">
+      <c r="H294" s="81" t="s">
         <v>682</v>
       </c>
       <c r="I294" s="14" t="n">
@@ -28732,7 +28737,7 @@
       <c r="D295" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E295" s="81" t="s">
+      <c r="E295" s="80" t="s">
         <v>437</v>
       </c>
       <c r="F295" s="14" t="s">
@@ -28741,7 +28746,7 @@
       <c r="G295" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="H295" s="83" t="s">
+      <c r="H295" s="82" t="s">
         <v>783</v>
       </c>
       <c r="I295" s="14" t="n">
@@ -28802,7 +28807,7 @@
         <v>294</v>
       </c>
       <c r="AN295" s="10"/>
-      <c r="AO295" s="84" t="s">
+      <c r="AO295" s="83" t="s">
         <v>777</v>
       </c>
       <c r="AP295" s="10"/>
@@ -28811,211 +28816,211 @@
       <c r="A296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C296" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D296" s="85" t="s">
+      <c r="B296" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296" s="84" t="s">
         <v>786</v>
       </c>
       <c r="E296" s="70" t="s">
         <v>787</v>
       </c>
-      <c r="F296" s="87" t="s">
+      <c r="F296" s="86" t="s">
         <v>612</v>
       </c>
-      <c r="G296" s="86"/>
-      <c r="H296" s="88" t="s">
+      <c r="G296" s="85"/>
+      <c r="H296" s="87" t="s">
         <v>788</v>
       </c>
-      <c r="I296" s="89" t="s">
+      <c r="I296" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J296" s="86"/>
-      <c r="K296" s="86"/>
-      <c r="L296" s="86"/>
-      <c r="M296" s="86"/>
-      <c r="N296" s="86"/>
-      <c r="O296" s="86"/>
-      <c r="P296" s="86"/>
-      <c r="Q296" s="86"/>
-      <c r="R296" s="86"/>
-      <c r="S296" s="86"/>
-      <c r="T296" s="86"/>
-      <c r="U296" s="86"/>
-      <c r="V296" s="86"/>
-      <c r="W296" s="86"/>
-      <c r="X296" s="86"/>
-      <c r="Y296" s="86"/>
-      <c r="Z296" s="86"/>
-      <c r="AA296" s="86"/>
-      <c r="AB296" s="86"/>
-      <c r="AC296" s="86"/>
-      <c r="AD296" s="86"/>
-      <c r="AE296" s="90" t="n">
+      <c r="J296" s="85"/>
+      <c r="K296" s="85"/>
+      <c r="L296" s="85"/>
+      <c r="M296" s="85"/>
+      <c r="N296" s="85"/>
+      <c r="O296" s="85"/>
+      <c r="P296" s="85"/>
+      <c r="Q296" s="85"/>
+      <c r="R296" s="85"/>
+      <c r="S296" s="85"/>
+      <c r="T296" s="85"/>
+      <c r="U296" s="85"/>
+      <c r="V296" s="85"/>
+      <c r="W296" s="85"/>
+      <c r="X296" s="85"/>
+      <c r="Y296" s="85"/>
+      <c r="Z296" s="85"/>
+      <c r="AA296" s="85"/>
+      <c r="AB296" s="85"/>
+      <c r="AC296" s="85"/>
+      <c r="AD296" s="85"/>
+      <c r="AE296" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AF296" s="86"/>
-      <c r="AG296" s="86"/>
-      <c r="AH296" s="86"/>
-      <c r="AI296" s="86"/>
-      <c r="AJ296" s="86"/>
-      <c r="AK296" s="86"/>
-      <c r="AL296" s="86" t="s">
+      <c r="AF296" s="85"/>
+      <c r="AG296" s="85"/>
+      <c r="AH296" s="85"/>
+      <c r="AI296" s="85"/>
+      <c r="AJ296" s="85"/>
+      <c r="AK296" s="85"/>
+      <c r="AL296" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="AN296" s="86"/>
-      <c r="AO296" s="86"/>
-      <c r="AP296" s="86"/>
+      <c r="AN296" s="85"/>
+      <c r="AO296" s="85"/>
+      <c r="AP296" s="85"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C297" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D297" s="85" t="s">
+      <c r="B297" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C297" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D297" s="84" t="s">
         <v>786</v>
       </c>
       <c r="E297" s="70" t="s">
         <v>790</v>
       </c>
-      <c r="F297" s="91" t="s">
+      <c r="F297" s="90" t="s">
         <v>753</v>
       </c>
-      <c r="G297" s="86"/>
-      <c r="H297" s="86" t="s">
+      <c r="G297" s="85"/>
+      <c r="H297" s="85" t="s">
         <v>791</v>
       </c>
-      <c r="I297" s="89" t="s">
+      <c r="I297" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J297" s="88"/>
-      <c r="K297" s="86"/>
-      <c r="L297" s="86"/>
-      <c r="M297" s="86"/>
-      <c r="N297" s="86"/>
-      <c r="O297" s="86"/>
-      <c r="P297" s="86"/>
-      <c r="Q297" s="86"/>
-      <c r="R297" s="86"/>
-      <c r="S297" s="86"/>
-      <c r="T297" s="86"/>
-      <c r="U297" s="86"/>
-      <c r="V297" s="86"/>
-      <c r="W297" s="86"/>
-      <c r="X297" s="86"/>
-      <c r="Y297" s="86"/>
-      <c r="Z297" s="86"/>
-      <c r="AA297" s="86"/>
-      <c r="AB297" s="86"/>
-      <c r="AC297" s="86"/>
-      <c r="AD297" s="86"/>
-      <c r="AE297" s="90" t="n">
+      <c r="J297" s="87"/>
+      <c r="K297" s="85"/>
+      <c r="L297" s="85"/>
+      <c r="M297" s="85"/>
+      <c r="N297" s="85"/>
+      <c r="O297" s="85"/>
+      <c r="P297" s="85"/>
+      <c r="Q297" s="85"/>
+      <c r="R297" s="85"/>
+      <c r="S297" s="85"/>
+      <c r="T297" s="85"/>
+      <c r="U297" s="85"/>
+      <c r="V297" s="85"/>
+      <c r="W297" s="85"/>
+      <c r="X297" s="85"/>
+      <c r="Y297" s="85"/>
+      <c r="Z297" s="85"/>
+      <c r="AA297" s="85"/>
+      <c r="AB297" s="85"/>
+      <c r="AC297" s="85"/>
+      <c r="AD297" s="85"/>
+      <c r="AE297" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AF297" s="86"/>
-      <c r="AG297" s="86"/>
-      <c r="AH297" s="86"/>
-      <c r="AI297" s="86"/>
-      <c r="AJ297" s="86"/>
-      <c r="AK297" s="86"/>
-      <c r="AL297" s="86" t="s">
+      <c r="AF297" s="85"/>
+      <c r="AG297" s="85"/>
+      <c r="AH297" s="85"/>
+      <c r="AI297" s="85"/>
+      <c r="AJ297" s="85"/>
+      <c r="AK297" s="85"/>
+      <c r="AL297" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="AN297" s="86"/>
-      <c r="AO297" s="86"/>
-      <c r="AP297" s="86"/>
+      <c r="AN297" s="85"/>
+      <c r="AO297" s="85"/>
+      <c r="AP297" s="85"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D298" s="85" t="s">
+      <c r="B298" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C298" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D298" s="84" t="s">
         <v>786</v>
       </c>
       <c r="E298" s="70" t="s">
         <v>792</v>
       </c>
-      <c r="F298" s="91" t="s">
+      <c r="F298" s="90" t="s">
         <v>760</v>
       </c>
-      <c r="G298" s="86"/>
-      <c r="H298" s="86" t="s">
+      <c r="G298" s="85"/>
+      <c r="H298" s="85" t="s">
         <v>793</v>
       </c>
-      <c r="I298" s="89" t="s">
+      <c r="I298" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J298" s="86"/>
-      <c r="K298" s="86"/>
-      <c r="L298" s="86"/>
-      <c r="M298" s="86"/>
-      <c r="N298" s="86"/>
-      <c r="O298" s="86"/>
-      <c r="P298" s="86"/>
-      <c r="Q298" s="86"/>
-      <c r="R298" s="86"/>
-      <c r="S298" s="86"/>
-      <c r="T298" s="86"/>
-      <c r="U298" s="86"/>
-      <c r="V298" s="86"/>
-      <c r="W298" s="86"/>
-      <c r="X298" s="86"/>
-      <c r="Y298" s="86"/>
-      <c r="Z298" s="86"/>
-      <c r="AA298" s="86"/>
-      <c r="AB298" s="86"/>
-      <c r="AC298" s="86"/>
-      <c r="AD298" s="86"/>
-      <c r="AE298" s="90" t="n">
+      <c r="J298" s="85"/>
+      <c r="K298" s="85"/>
+      <c r="L298" s="85"/>
+      <c r="M298" s="85"/>
+      <c r="N298" s="85"/>
+      <c r="O298" s="85"/>
+      <c r="P298" s="85"/>
+      <c r="Q298" s="85"/>
+      <c r="R298" s="85"/>
+      <c r="S298" s="85"/>
+      <c r="T298" s="85"/>
+      <c r="U298" s="85"/>
+      <c r="V298" s="85"/>
+      <c r="W298" s="85"/>
+      <c r="X298" s="85"/>
+      <c r="Y298" s="85"/>
+      <c r="Z298" s="85"/>
+      <c r="AA298" s="85"/>
+      <c r="AB298" s="85"/>
+      <c r="AC298" s="85"/>
+      <c r="AD298" s="85"/>
+      <c r="AE298" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="AF298" s="86"/>
-      <c r="AG298" s="86"/>
-      <c r="AH298" s="86"/>
-      <c r="AI298" s="86"/>
-      <c r="AJ298" s="86"/>
-      <c r="AK298" s="86"/>
-      <c r="AL298" s="86" t="s">
+      <c r="AF298" s="85"/>
+      <c r="AG298" s="85"/>
+      <c r="AH298" s="85"/>
+      <c r="AI298" s="85"/>
+      <c r="AJ298" s="85"/>
+      <c r="AK298" s="85"/>
+      <c r="AL298" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="AN298" s="86"/>
-      <c r="AO298" s="86"/>
-      <c r="AP298" s="86"/>
+      <c r="AN298" s="85"/>
+      <c r="AO298" s="85"/>
+      <c r="AP298" s="85"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C299" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D299" s="92" t="s">
+      <c r="B299" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E299" s="70" t="s">
@@ -29024,64 +29029,64 @@
       <c r="F299" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="G299" s="86"/>
-      <c r="H299" s="86" t="s">
+      <c r="G299" s="85"/>
+      <c r="H299" s="85" t="s">
         <v>791</v>
       </c>
-      <c r="I299" s="89" t="s">
+      <c r="I299" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J299" s="86"/>
-      <c r="K299" s="86"/>
-      <c r="L299" s="86"/>
-      <c r="M299" s="86"/>
-      <c r="N299" s="86"/>
-      <c r="O299" s="86"/>
-      <c r="P299" s="86"/>
-      <c r="Q299" s="86"/>
-      <c r="R299" s="86"/>
-      <c r="S299" s="86"/>
-      <c r="T299" s="86"/>
-      <c r="U299" s="86"/>
-      <c r="V299" s="86"/>
-      <c r="W299" s="86"/>
-      <c r="X299" s="86"/>
-      <c r="Y299" s="86"/>
-      <c r="Z299" s="86"/>
-      <c r="AA299" s="86"/>
-      <c r="AB299" s="86"/>
-      <c r="AC299" s="86"/>
-      <c r="AD299" s="86"/>
-      <c r="AE299" s="93" t="n">
+      <c r="J299" s="85"/>
+      <c r="K299" s="85"/>
+      <c r="L299" s="85"/>
+      <c r="M299" s="85"/>
+      <c r="N299" s="85"/>
+      <c r="O299" s="85"/>
+      <c r="P299" s="85"/>
+      <c r="Q299" s="85"/>
+      <c r="R299" s="85"/>
+      <c r="S299" s="85"/>
+      <c r="T299" s="85"/>
+      <c r="U299" s="85"/>
+      <c r="V299" s="85"/>
+      <c r="W299" s="85"/>
+      <c r="X299" s="85"/>
+      <c r="Y299" s="85"/>
+      <c r="Z299" s="85"/>
+      <c r="AA299" s="85"/>
+      <c r="AB299" s="85"/>
+      <c r="AC299" s="85"/>
+      <c r="AD299" s="85"/>
+      <c r="AE299" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AF299" s="86"/>
-      <c r="AG299" s="86"/>
-      <c r="AH299" s="86"/>
-      <c r="AI299" s="86"/>
-      <c r="AJ299" s="86"/>
-      <c r="AK299" s="86"/>
-      <c r="AL299" s="86" t="s">
+      <c r="AF299" s="85"/>
+      <c r="AG299" s="85"/>
+      <c r="AH299" s="85"/>
+      <c r="AI299" s="85"/>
+      <c r="AJ299" s="85"/>
+      <c r="AK299" s="85"/>
+      <c r="AL299" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="AN299" s="86"/>
-      <c r="AO299" s="86"/>
-      <c r="AP299" s="86"/>
+      <c r="AN299" s="85"/>
+      <c r="AO299" s="85"/>
+      <c r="AP299" s="85"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C300" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D300" s="92" t="s">
+      <c r="B300" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C300" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D300" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E300" s="70" t="s">
@@ -29090,62 +29095,62 @@
       <c r="F300" s="70" t="s">
         <v>780</v>
       </c>
-      <c r="G300" s="86"/>
-      <c r="H300" s="86" t="s">
+      <c r="G300" s="85"/>
+      <c r="H300" s="85" t="s">
         <v>793</v>
       </c>
-      <c r="I300" s="89" t="s">
+      <c r="I300" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J300" s="86"/>
-      <c r="K300" s="86"/>
-      <c r="L300" s="86"/>
-      <c r="M300" s="86"/>
-      <c r="N300" s="86"/>
-      <c r="O300" s="86"/>
-      <c r="P300" s="86"/>
-      <c r="Q300" s="86"/>
-      <c r="R300" s="86"/>
-      <c r="S300" s="86"/>
-      <c r="T300" s="86"/>
-      <c r="U300" s="86"/>
-      <c r="V300" s="86"/>
-      <c r="W300" s="86"/>
-      <c r="X300" s="86"/>
-      <c r="Y300" s="86"/>
-      <c r="Z300" s="86"/>
-      <c r="AA300" s="86"/>
-      <c r="AB300" s="86"/>
-      <c r="AC300" s="86"/>
-      <c r="AD300" s="86"/>
-      <c r="AE300" s="93" t="n">
+      <c r="J300" s="85"/>
+      <c r="K300" s="85"/>
+      <c r="L300" s="85"/>
+      <c r="M300" s="85"/>
+      <c r="N300" s="85"/>
+      <c r="O300" s="85"/>
+      <c r="P300" s="85"/>
+      <c r="Q300" s="85"/>
+      <c r="R300" s="85"/>
+      <c r="S300" s="85"/>
+      <c r="T300" s="85"/>
+      <c r="U300" s="85"/>
+      <c r="V300" s="85"/>
+      <c r="W300" s="85"/>
+      <c r="X300" s="85"/>
+      <c r="Y300" s="85"/>
+      <c r="Z300" s="85"/>
+      <c r="AA300" s="85"/>
+      <c r="AB300" s="85"/>
+      <c r="AC300" s="85"/>
+      <c r="AD300" s="85"/>
+      <c r="AE300" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AF300" s="86"/>
-      <c r="AG300" s="86"/>
-      <c r="AH300" s="86"/>
-      <c r="AI300" s="86"/>
-      <c r="AJ300" s="86"/>
-      <c r="AK300" s="86"/>
-      <c r="AL300" s="86"/>
+      <c r="AF300" s="85"/>
+      <c r="AG300" s="85"/>
+      <c r="AH300" s="85"/>
+      <c r="AI300" s="85"/>
+      <c r="AJ300" s="85"/>
+      <c r="AK300" s="85"/>
+      <c r="AL300" s="85"/>
       <c r="AM300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="AN300" s="86"/>
-      <c r="AO300" s="86"/>
-      <c r="AP300" s="86"/>
+      <c r="AN300" s="85"/>
+      <c r="AO300" s="85"/>
+      <c r="AP300" s="85"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C301" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D301" s="92" t="s">
+      <c r="B301" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E301" s="70" t="s">
@@ -29154,62 +29159,62 @@
       <c r="F301" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="G301" s="86"/>
-      <c r="H301" s="88" t="s">
+      <c r="G301" s="85"/>
+      <c r="H301" s="87" t="s">
         <v>788</v>
       </c>
-      <c r="I301" s="89" t="s">
+      <c r="I301" s="88" t="s">
         <v>789</v>
       </c>
-      <c r="J301" s="86"/>
-      <c r="K301" s="86"/>
-      <c r="L301" s="86"/>
-      <c r="M301" s="86"/>
-      <c r="N301" s="86"/>
-      <c r="O301" s="86"/>
-      <c r="P301" s="86"/>
-      <c r="Q301" s="86"/>
-      <c r="R301" s="86"/>
-      <c r="S301" s="86"/>
-      <c r="T301" s="86"/>
-      <c r="U301" s="86"/>
-      <c r="V301" s="86"/>
-      <c r="W301" s="86"/>
-      <c r="X301" s="86"/>
-      <c r="Y301" s="86"/>
-      <c r="Z301" s="86"/>
-      <c r="AA301" s="86"/>
-      <c r="AB301" s="86"/>
-      <c r="AC301" s="86"/>
-      <c r="AD301" s="86"/>
-      <c r="AE301" s="93" t="n">
+      <c r="J301" s="85"/>
+      <c r="K301" s="85"/>
+      <c r="L301" s="85"/>
+      <c r="M301" s="85"/>
+      <c r="N301" s="85"/>
+      <c r="O301" s="85"/>
+      <c r="P301" s="85"/>
+      <c r="Q301" s="85"/>
+      <c r="R301" s="85"/>
+      <c r="S301" s="85"/>
+      <c r="T301" s="85"/>
+      <c r="U301" s="85"/>
+      <c r="V301" s="85"/>
+      <c r="W301" s="85"/>
+      <c r="X301" s="85"/>
+      <c r="Y301" s="85"/>
+      <c r="Z301" s="85"/>
+      <c r="AA301" s="85"/>
+      <c r="AB301" s="85"/>
+      <c r="AC301" s="85"/>
+      <c r="AD301" s="85"/>
+      <c r="AE301" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AF301" s="86"/>
-      <c r="AG301" s="86"/>
-      <c r="AH301" s="86"/>
-      <c r="AI301" s="86"/>
-      <c r="AJ301" s="86"/>
-      <c r="AK301" s="86"/>
-      <c r="AL301" s="86"/>
+      <c r="AF301" s="85"/>
+      <c r="AG301" s="85"/>
+      <c r="AH301" s="85"/>
+      <c r="AI301" s="85"/>
+      <c r="AJ301" s="85"/>
+      <c r="AK301" s="85"/>
+      <c r="AL301" s="85"/>
       <c r="AM301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AN301" s="86"/>
-      <c r="AO301" s="86"/>
-      <c r="AP301" s="86"/>
+      <c r="AN301" s="85"/>
+      <c r="AO301" s="85"/>
+      <c r="AP301" s="85"/>
     </row>
     <row r="302" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C302" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D302" s="92" t="s">
+      <c r="B302" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E302" s="70" t="s">
@@ -29218,64 +29223,64 @@
       <c r="F302" s="70" t="s">
         <v>798</v>
       </c>
-      <c r="G302" s="86"/>
-      <c r="H302" s="88" t="s">
+      <c r="G302" s="85"/>
+      <c r="H302" s="87" t="s">
         <v>799</v>
       </c>
-      <c r="I302" s="89" t="s">
+      <c r="I302" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J302" s="86"/>
-      <c r="K302" s="86"/>
-      <c r="L302" s="86"/>
-      <c r="M302" s="86"/>
-      <c r="N302" s="86"/>
-      <c r="O302" s="86"/>
-      <c r="P302" s="86"/>
-      <c r="Q302" s="86"/>
-      <c r="R302" s="86"/>
-      <c r="S302" s="86"/>
-      <c r="T302" s="86"/>
-      <c r="U302" s="86"/>
-      <c r="V302" s="86"/>
-      <c r="W302" s="86"/>
-      <c r="X302" s="86"/>
-      <c r="Y302" s="86"/>
-      <c r="Z302" s="86"/>
-      <c r="AA302" s="86"/>
-      <c r="AB302" s="86"/>
-      <c r="AC302" s="86"/>
-      <c r="AD302" s="86"/>
-      <c r="AE302" s="86" t="n">
+      <c r="J302" s="85"/>
+      <c r="K302" s="85"/>
+      <c r="L302" s="85"/>
+      <c r="M302" s="85"/>
+      <c r="N302" s="85"/>
+      <c r="O302" s="85"/>
+      <c r="P302" s="85"/>
+      <c r="Q302" s="85"/>
+      <c r="R302" s="85"/>
+      <c r="S302" s="85"/>
+      <c r="T302" s="85"/>
+      <c r="U302" s="85"/>
+      <c r="V302" s="85"/>
+      <c r="W302" s="85"/>
+      <c r="X302" s="85"/>
+      <c r="Y302" s="85"/>
+      <c r="Z302" s="85"/>
+      <c r="AA302" s="85"/>
+      <c r="AB302" s="85"/>
+      <c r="AC302" s="85"/>
+      <c r="AD302" s="85"/>
+      <c r="AE302" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF302" s="86"/>
-      <c r="AG302" s="86"/>
-      <c r="AH302" s="86"/>
-      <c r="AI302" s="86"/>
-      <c r="AJ302" s="86"/>
-      <c r="AK302" s="86"/>
-      <c r="AL302" s="86" t="s">
+      <c r="AF302" s="85"/>
+      <c r="AG302" s="85"/>
+      <c r="AH302" s="85"/>
+      <c r="AI302" s="85"/>
+      <c r="AJ302" s="85"/>
+      <c r="AK302" s="85"/>
+      <c r="AL302" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="AN302" s="86"/>
-      <c r="AO302" s="86"/>
-      <c r="AP302" s="86"/>
+      <c r="AN302" s="85"/>
+      <c r="AO302" s="85"/>
+      <c r="AP302" s="85"/>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C303" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D303" s="92" t="s">
+      <c r="B303" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C303" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E303" s="70" t="s">
@@ -29284,64 +29289,64 @@
       <c r="F303" s="70" t="s">
         <v>802</v>
       </c>
-      <c r="G303" s="86"/>
-      <c r="H303" s="88" t="s">
+      <c r="G303" s="85"/>
+      <c r="H303" s="87" t="s">
         <v>803</v>
       </c>
-      <c r="I303" s="89" t="s">
+      <c r="I303" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J303" s="86"/>
-      <c r="K303" s="86"/>
-      <c r="L303" s="86"/>
-      <c r="M303" s="86"/>
-      <c r="N303" s="86"/>
-      <c r="O303" s="86"/>
-      <c r="P303" s="86"/>
-      <c r="Q303" s="86"/>
-      <c r="R303" s="86"/>
-      <c r="S303" s="86"/>
-      <c r="T303" s="86"/>
-      <c r="U303" s="86"/>
-      <c r="V303" s="86"/>
-      <c r="W303" s="86"/>
-      <c r="X303" s="86"/>
-      <c r="Y303" s="86"/>
-      <c r="Z303" s="86"/>
-      <c r="AA303" s="86"/>
-      <c r="AB303" s="86"/>
-      <c r="AC303" s="86"/>
-      <c r="AD303" s="86"/>
-      <c r="AE303" s="86" t="n">
+      <c r="J303" s="85"/>
+      <c r="K303" s="85"/>
+      <c r="L303" s="85"/>
+      <c r="M303" s="85"/>
+      <c r="N303" s="85"/>
+      <c r="O303" s="85"/>
+      <c r="P303" s="85"/>
+      <c r="Q303" s="85"/>
+      <c r="R303" s="85"/>
+      <c r="S303" s="85"/>
+      <c r="T303" s="85"/>
+      <c r="U303" s="85"/>
+      <c r="V303" s="85"/>
+      <c r="W303" s="85"/>
+      <c r="X303" s="85"/>
+      <c r="Y303" s="85"/>
+      <c r="Z303" s="85"/>
+      <c r="AA303" s="85"/>
+      <c r="AB303" s="85"/>
+      <c r="AC303" s="85"/>
+      <c r="AD303" s="85"/>
+      <c r="AE303" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF303" s="86"/>
-      <c r="AG303" s="86"/>
-      <c r="AH303" s="86"/>
-      <c r="AI303" s="86"/>
-      <c r="AJ303" s="86"/>
-      <c r="AK303" s="86"/>
-      <c r="AL303" s="86" t="s">
+      <c r="AF303" s="85"/>
+      <c r="AG303" s="85"/>
+      <c r="AH303" s="85"/>
+      <c r="AI303" s="85"/>
+      <c r="AJ303" s="85"/>
+      <c r="AK303" s="85"/>
+      <c r="AL303" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="AN303" s="86"/>
-      <c r="AO303" s="86"/>
-      <c r="AP303" s="86"/>
+      <c r="AN303" s="85"/>
+      <c r="AO303" s="85"/>
+      <c r="AP303" s="85"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C304" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D304" s="92" t="s">
+      <c r="B304" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E304" s="70" t="s">
@@ -29350,64 +29355,64 @@
       <c r="F304" s="70" t="s">
         <v>805</v>
       </c>
-      <c r="G304" s="86"/>
-      <c r="H304" s="88" t="s">
+      <c r="G304" s="85"/>
+      <c r="H304" s="87" t="s">
         <v>806</v>
       </c>
-      <c r="I304" s="89" t="s">
+      <c r="I304" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J304" s="86"/>
-      <c r="K304" s="86"/>
-      <c r="L304" s="86"/>
-      <c r="M304" s="86"/>
-      <c r="N304" s="86"/>
-      <c r="O304" s="86"/>
-      <c r="P304" s="86"/>
-      <c r="Q304" s="86"/>
-      <c r="R304" s="86"/>
-      <c r="S304" s="86"/>
-      <c r="T304" s="86"/>
-      <c r="U304" s="86"/>
-      <c r="V304" s="86"/>
-      <c r="W304" s="86"/>
-      <c r="X304" s="86"/>
-      <c r="Y304" s="86"/>
-      <c r="Z304" s="86"/>
-      <c r="AA304" s="86"/>
-      <c r="AB304" s="86"/>
-      <c r="AC304" s="86"/>
-      <c r="AD304" s="86"/>
-      <c r="AE304" s="86" t="n">
+      <c r="J304" s="85"/>
+      <c r="K304" s="85"/>
+      <c r="L304" s="85"/>
+      <c r="M304" s="85"/>
+      <c r="N304" s="85"/>
+      <c r="O304" s="85"/>
+      <c r="P304" s="85"/>
+      <c r="Q304" s="85"/>
+      <c r="R304" s="85"/>
+      <c r="S304" s="85"/>
+      <c r="T304" s="85"/>
+      <c r="U304" s="85"/>
+      <c r="V304" s="85"/>
+      <c r="W304" s="85"/>
+      <c r="X304" s="85"/>
+      <c r="Y304" s="85"/>
+      <c r="Z304" s="85"/>
+      <c r="AA304" s="85"/>
+      <c r="AB304" s="85"/>
+      <c r="AC304" s="85"/>
+      <c r="AD304" s="85"/>
+      <c r="AE304" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF304" s="86"/>
-      <c r="AG304" s="86"/>
-      <c r="AH304" s="86"/>
-      <c r="AI304" s="86"/>
-      <c r="AJ304" s="86"/>
-      <c r="AK304" s="86"/>
-      <c r="AL304" s="86" t="s">
+      <c r="AF304" s="85"/>
+      <c r="AG304" s="85"/>
+      <c r="AH304" s="85"/>
+      <c r="AI304" s="85"/>
+      <c r="AJ304" s="85"/>
+      <c r="AK304" s="85"/>
+      <c r="AL304" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="AN304" s="86"/>
-      <c r="AO304" s="86"/>
-      <c r="AP304" s="86"/>
+      <c r="AN304" s="85"/>
+      <c r="AO304" s="85"/>
+      <c r="AP304" s="85"/>
     </row>
     <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C305" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D305" s="92" t="s">
+      <c r="B305" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D305" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E305" s="70" t="s">
@@ -29416,64 +29421,64 @@
       <c r="F305" s="70" t="s">
         <v>808</v>
       </c>
-      <c r="G305" s="86"/>
-      <c r="H305" s="88" t="s">
+      <c r="G305" s="85"/>
+      <c r="H305" s="87" t="s">
         <v>809</v>
       </c>
-      <c r="I305" s="89" t="s">
+      <c r="I305" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J305" s="86"/>
-      <c r="K305" s="86"/>
-      <c r="L305" s="86"/>
-      <c r="M305" s="86"/>
-      <c r="N305" s="86"/>
-      <c r="O305" s="86"/>
-      <c r="P305" s="86"/>
-      <c r="Q305" s="86"/>
-      <c r="R305" s="86"/>
-      <c r="S305" s="86"/>
-      <c r="T305" s="86"/>
-      <c r="U305" s="86"/>
-      <c r="V305" s="86"/>
-      <c r="W305" s="86"/>
-      <c r="X305" s="86"/>
-      <c r="Y305" s="86"/>
-      <c r="Z305" s="86"/>
-      <c r="AA305" s="86"/>
-      <c r="AB305" s="86"/>
-      <c r="AC305" s="86"/>
-      <c r="AD305" s="86"/>
-      <c r="AE305" s="86" t="n">
+      <c r="J305" s="85"/>
+      <c r="K305" s="85"/>
+      <c r="L305" s="85"/>
+      <c r="M305" s="85"/>
+      <c r="N305" s="85"/>
+      <c r="O305" s="85"/>
+      <c r="P305" s="85"/>
+      <c r="Q305" s="85"/>
+      <c r="R305" s="85"/>
+      <c r="S305" s="85"/>
+      <c r="T305" s="85"/>
+      <c r="U305" s="85"/>
+      <c r="V305" s="85"/>
+      <c r="W305" s="85"/>
+      <c r="X305" s="85"/>
+      <c r="Y305" s="85"/>
+      <c r="Z305" s="85"/>
+      <c r="AA305" s="85"/>
+      <c r="AB305" s="85"/>
+      <c r="AC305" s="85"/>
+      <c r="AD305" s="85"/>
+      <c r="AE305" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF305" s="86"/>
-      <c r="AG305" s="86"/>
-      <c r="AH305" s="86"/>
-      <c r="AI305" s="86"/>
-      <c r="AJ305" s="86"/>
-      <c r="AK305" s="86"/>
-      <c r="AL305" s="86" t="s">
+      <c r="AF305" s="85"/>
+      <c r="AG305" s="85"/>
+      <c r="AH305" s="85"/>
+      <c r="AI305" s="85"/>
+      <c r="AJ305" s="85"/>
+      <c r="AK305" s="85"/>
+      <c r="AL305" s="85" t="s">
         <v>437</v>
       </c>
       <c r="AM305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="AN305" s="86"/>
-      <c r="AO305" s="86"/>
-      <c r="AP305" s="86"/>
+      <c r="AN305" s="85"/>
+      <c r="AO305" s="85"/>
+      <c r="AP305" s="85"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C306" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D306" s="92" t="s">
+      <c r="B306" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E306" s="70" t="s">
@@ -29482,64 +29487,64 @@
       <c r="F306" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G306" s="86" t="s">
+      <c r="G306" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="H306" s="88" t="s">
+      <c r="H306" s="87" t="s">
         <v>812</v>
       </c>
-      <c r="I306" s="89" t="s">
+      <c r="I306" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J306" s="86"/>
-      <c r="K306" s="86"/>
-      <c r="L306" s="86"/>
-      <c r="M306" s="86"/>
-      <c r="N306" s="86"/>
-      <c r="O306" s="86"/>
-      <c r="P306" s="86"/>
-      <c r="Q306" s="86"/>
-      <c r="R306" s="86"/>
-      <c r="S306" s="86"/>
-      <c r="T306" s="86"/>
-      <c r="U306" s="86"/>
-      <c r="V306" s="86"/>
-      <c r="W306" s="86"/>
-      <c r="X306" s="86"/>
-      <c r="Y306" s="86"/>
-      <c r="Z306" s="86"/>
-      <c r="AA306" s="86"/>
-      <c r="AB306" s="86"/>
-      <c r="AC306" s="86"/>
-      <c r="AD306" s="86"/>
-      <c r="AE306" s="86" t="n">
+      <c r="J306" s="85"/>
+      <c r="K306" s="85"/>
+      <c r="L306" s="85"/>
+      <c r="M306" s="85"/>
+      <c r="N306" s="85"/>
+      <c r="O306" s="85"/>
+      <c r="P306" s="85"/>
+      <c r="Q306" s="85"/>
+      <c r="R306" s="85"/>
+      <c r="S306" s="85"/>
+      <c r="T306" s="85"/>
+      <c r="U306" s="85"/>
+      <c r="V306" s="85"/>
+      <c r="W306" s="85"/>
+      <c r="X306" s="85"/>
+      <c r="Y306" s="85"/>
+      <c r="Z306" s="85"/>
+      <c r="AA306" s="85"/>
+      <c r="AB306" s="85"/>
+      <c r="AC306" s="85"/>
+      <c r="AD306" s="85"/>
+      <c r="AE306" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF306" s="86"/>
-      <c r="AG306" s="86"/>
-      <c r="AH306" s="86"/>
-      <c r="AI306" s="86"/>
-      <c r="AJ306" s="86"/>
-      <c r="AK306" s="86"/>
-      <c r="AL306" s="86"/>
+      <c r="AF306" s="85"/>
+      <c r="AG306" s="85"/>
+      <c r="AH306" s="85"/>
+      <c r="AI306" s="85"/>
+      <c r="AJ306" s="85"/>
+      <c r="AK306" s="85"/>
+      <c r="AL306" s="85"/>
       <c r="AM306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="AN306" s="86"/>
-      <c r="AO306" s="86"/>
-      <c r="AP306" s="86"/>
+      <c r="AN306" s="85"/>
+      <c r="AO306" s="85"/>
+      <c r="AP306" s="85"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C307" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D307" s="92" t="s">
+      <c r="B307" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E307" s="70" t="s">
@@ -29548,64 +29553,64 @@
       <c r="F307" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G307" s="86" t="s">
+      <c r="G307" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="H307" s="88" t="s">
+      <c r="H307" s="87" t="s">
         <v>813</v>
       </c>
-      <c r="I307" s="89" t="s">
+      <c r="I307" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J307" s="86"/>
-      <c r="K307" s="86"/>
-      <c r="L307" s="86"/>
-      <c r="M307" s="86"/>
-      <c r="N307" s="86"/>
-      <c r="O307" s="86"/>
-      <c r="P307" s="86"/>
-      <c r="Q307" s="86"/>
-      <c r="R307" s="86"/>
-      <c r="S307" s="86"/>
-      <c r="T307" s="86"/>
-      <c r="U307" s="86"/>
-      <c r="V307" s="86"/>
-      <c r="W307" s="86"/>
-      <c r="X307" s="86"/>
-      <c r="Y307" s="86"/>
-      <c r="Z307" s="86"/>
-      <c r="AA307" s="86"/>
-      <c r="AB307" s="86"/>
-      <c r="AC307" s="86"/>
-      <c r="AD307" s="86"/>
-      <c r="AE307" s="86" t="n">
+      <c r="J307" s="85"/>
+      <c r="K307" s="85"/>
+      <c r="L307" s="85"/>
+      <c r="M307" s="85"/>
+      <c r="N307" s="85"/>
+      <c r="O307" s="85"/>
+      <c r="P307" s="85"/>
+      <c r="Q307" s="85"/>
+      <c r="R307" s="85"/>
+      <c r="S307" s="85"/>
+      <c r="T307" s="85"/>
+      <c r="U307" s="85"/>
+      <c r="V307" s="85"/>
+      <c r="W307" s="85"/>
+      <c r="X307" s="85"/>
+      <c r="Y307" s="85"/>
+      <c r="Z307" s="85"/>
+      <c r="AA307" s="85"/>
+      <c r="AB307" s="85"/>
+      <c r="AC307" s="85"/>
+      <c r="AD307" s="85"/>
+      <c r="AE307" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF307" s="86"/>
-      <c r="AG307" s="86"/>
-      <c r="AH307" s="86"/>
-      <c r="AI307" s="86"/>
-      <c r="AJ307" s="86"/>
-      <c r="AK307" s="86"/>
-      <c r="AL307" s="86"/>
+      <c r="AF307" s="85"/>
+      <c r="AG307" s="85"/>
+      <c r="AH307" s="85"/>
+      <c r="AI307" s="85"/>
+      <c r="AJ307" s="85"/>
+      <c r="AK307" s="85"/>
+      <c r="AL307" s="85"/>
       <c r="AM307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="AN307" s="86"/>
-      <c r="AO307" s="86"/>
-      <c r="AP307" s="86"/>
+      <c r="AN307" s="85"/>
+      <c r="AO307" s="85"/>
+      <c r="AP307" s="85"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D308" s="92" t="s">
+      <c r="B308" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D308" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E308" s="70" t="s">
@@ -29614,64 +29619,64 @@
       <c r="F308" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G308" s="86" t="s">
+      <c r="G308" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="H308" s="88" t="s">
+      <c r="H308" s="87" t="s">
         <v>813</v>
       </c>
-      <c r="I308" s="89" t="s">
+      <c r="I308" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J308" s="86"/>
-      <c r="K308" s="86"/>
-      <c r="L308" s="86"/>
-      <c r="M308" s="86"/>
-      <c r="N308" s="86"/>
-      <c r="O308" s="86"/>
-      <c r="P308" s="86"/>
-      <c r="Q308" s="86"/>
-      <c r="R308" s="86"/>
-      <c r="S308" s="86"/>
-      <c r="T308" s="86"/>
-      <c r="U308" s="86"/>
-      <c r="V308" s="86"/>
-      <c r="W308" s="86"/>
-      <c r="X308" s="86"/>
-      <c r="Y308" s="86"/>
-      <c r="Z308" s="86"/>
-      <c r="AA308" s="86"/>
-      <c r="AB308" s="86"/>
-      <c r="AC308" s="86"/>
-      <c r="AD308" s="86"/>
-      <c r="AE308" s="86" t="n">
+      <c r="J308" s="85"/>
+      <c r="K308" s="85"/>
+      <c r="L308" s="85"/>
+      <c r="M308" s="85"/>
+      <c r="N308" s="85"/>
+      <c r="O308" s="85"/>
+      <c r="P308" s="85"/>
+      <c r="Q308" s="85"/>
+      <c r="R308" s="85"/>
+      <c r="S308" s="85"/>
+      <c r="T308" s="85"/>
+      <c r="U308" s="85"/>
+      <c r="V308" s="85"/>
+      <c r="W308" s="85"/>
+      <c r="X308" s="85"/>
+      <c r="Y308" s="85"/>
+      <c r="Z308" s="85"/>
+      <c r="AA308" s="85"/>
+      <c r="AB308" s="85"/>
+      <c r="AC308" s="85"/>
+      <c r="AD308" s="85"/>
+      <c r="AE308" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF308" s="86"/>
-      <c r="AG308" s="86"/>
-      <c r="AH308" s="86"/>
-      <c r="AI308" s="86"/>
-      <c r="AJ308" s="86"/>
-      <c r="AK308" s="86"/>
-      <c r="AL308" s="86"/>
+      <c r="AF308" s="85"/>
+      <c r="AG308" s="85"/>
+      <c r="AH308" s="85"/>
+      <c r="AI308" s="85"/>
+      <c r="AJ308" s="85"/>
+      <c r="AK308" s="85"/>
+      <c r="AL308" s="85"/>
       <c r="AM308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="AN308" s="86"/>
-      <c r="AO308" s="86"/>
-      <c r="AP308" s="86"/>
+      <c r="AN308" s="85"/>
+      <c r="AO308" s="85"/>
+      <c r="AP308" s="85"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C309" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D309" s="92" t="s">
+      <c r="B309" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D309" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E309" s="70" t="s">
@@ -29680,64 +29685,64 @@
       <c r="F309" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G309" s="86" t="s">
+      <c r="G309" s="85" t="s">
         <v>500</v>
       </c>
-      <c r="H309" s="88" t="s">
+      <c r="H309" s="87" t="s">
         <v>814</v>
       </c>
-      <c r="I309" s="89" t="s">
+      <c r="I309" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J309" s="86"/>
-      <c r="K309" s="86"/>
-      <c r="L309" s="86"/>
-      <c r="M309" s="86"/>
-      <c r="N309" s="86"/>
-      <c r="O309" s="86"/>
-      <c r="P309" s="86"/>
-      <c r="Q309" s="86"/>
-      <c r="R309" s="86"/>
-      <c r="S309" s="86"/>
-      <c r="T309" s="86"/>
-      <c r="U309" s="86"/>
-      <c r="V309" s="86"/>
-      <c r="W309" s="86"/>
-      <c r="X309" s="86"/>
-      <c r="Y309" s="86"/>
-      <c r="Z309" s="86"/>
-      <c r="AA309" s="86"/>
-      <c r="AB309" s="86"/>
-      <c r="AC309" s="86"/>
-      <c r="AD309" s="86"/>
-      <c r="AE309" s="86" t="n">
+      <c r="J309" s="85"/>
+      <c r="K309" s="85"/>
+      <c r="L309" s="85"/>
+      <c r="M309" s="85"/>
+      <c r="N309" s="85"/>
+      <c r="O309" s="85"/>
+      <c r="P309" s="85"/>
+      <c r="Q309" s="85"/>
+      <c r="R309" s="85"/>
+      <c r="S309" s="85"/>
+      <c r="T309" s="85"/>
+      <c r="U309" s="85"/>
+      <c r="V309" s="85"/>
+      <c r="W309" s="85"/>
+      <c r="X309" s="85"/>
+      <c r="Y309" s="85"/>
+      <c r="Z309" s="85"/>
+      <c r="AA309" s="85"/>
+      <c r="AB309" s="85"/>
+      <c r="AC309" s="85"/>
+      <c r="AD309" s="85"/>
+      <c r="AE309" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF309" s="86"/>
-      <c r="AG309" s="86"/>
-      <c r="AH309" s="86"/>
-      <c r="AI309" s="86"/>
-      <c r="AJ309" s="86"/>
-      <c r="AK309" s="86"/>
-      <c r="AL309" s="86"/>
+      <c r="AF309" s="85"/>
+      <c r="AG309" s="85"/>
+      <c r="AH309" s="85"/>
+      <c r="AI309" s="85"/>
+      <c r="AJ309" s="85"/>
+      <c r="AK309" s="85"/>
+      <c r="AL309" s="85"/>
       <c r="AM309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="AN309" s="86"/>
-      <c r="AO309" s="86"/>
-      <c r="AP309" s="86"/>
+      <c r="AN309" s="85"/>
+      <c r="AO309" s="85"/>
+      <c r="AP309" s="85"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C310" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D310" s="92" t="s">
+      <c r="B310" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C310" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E310" s="70" t="s">
@@ -29746,64 +29751,64 @@
       <c r="F310" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G310" s="86" t="s">
+      <c r="G310" s="85" t="s">
         <v>519</v>
       </c>
-      <c r="H310" s="88" t="s">
+      <c r="H310" s="87" t="s">
         <v>812</v>
       </c>
-      <c r="I310" s="89" t="s">
+      <c r="I310" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J310" s="86"/>
-      <c r="K310" s="86"/>
-      <c r="L310" s="86"/>
-      <c r="M310" s="86"/>
-      <c r="N310" s="86"/>
-      <c r="O310" s="86"/>
-      <c r="P310" s="86"/>
-      <c r="Q310" s="86"/>
-      <c r="R310" s="86"/>
-      <c r="S310" s="86"/>
-      <c r="T310" s="86"/>
-      <c r="U310" s="86"/>
-      <c r="V310" s="86"/>
-      <c r="W310" s="86"/>
-      <c r="X310" s="86"/>
-      <c r="Y310" s="86"/>
-      <c r="Z310" s="86"/>
-      <c r="AA310" s="86"/>
-      <c r="AB310" s="86"/>
-      <c r="AC310" s="86"/>
-      <c r="AD310" s="86"/>
-      <c r="AE310" s="86" t="n">
+      <c r="J310" s="85"/>
+      <c r="K310" s="85"/>
+      <c r="L310" s="85"/>
+      <c r="M310" s="85"/>
+      <c r="N310" s="85"/>
+      <c r="O310" s="85"/>
+      <c r="P310" s="85"/>
+      <c r="Q310" s="85"/>
+      <c r="R310" s="85"/>
+      <c r="S310" s="85"/>
+      <c r="T310" s="85"/>
+      <c r="U310" s="85"/>
+      <c r="V310" s="85"/>
+      <c r="W310" s="85"/>
+      <c r="X310" s="85"/>
+      <c r="Y310" s="85"/>
+      <c r="Z310" s="85"/>
+      <c r="AA310" s="85"/>
+      <c r="AB310" s="85"/>
+      <c r="AC310" s="85"/>
+      <c r="AD310" s="85"/>
+      <c r="AE310" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF310" s="86"/>
-      <c r="AG310" s="86"/>
-      <c r="AH310" s="86"/>
-      <c r="AI310" s="86"/>
-      <c r="AJ310" s="86"/>
-      <c r="AK310" s="86"/>
-      <c r="AL310" s="86"/>
+      <c r="AF310" s="85"/>
+      <c r="AG310" s="85"/>
+      <c r="AH310" s="85"/>
+      <c r="AI310" s="85"/>
+      <c r="AJ310" s="85"/>
+      <c r="AK310" s="85"/>
+      <c r="AL310" s="85"/>
       <c r="AM310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="AN310" s="86"/>
-      <c r="AO310" s="86"/>
-      <c r="AP310" s="86"/>
+      <c r="AN310" s="85"/>
+      <c r="AO310" s="85"/>
+      <c r="AP310" s="85"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C311" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D311" s="92" t="s">
+      <c r="B311" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D311" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E311" s="70" t="s">
@@ -29812,64 +29817,64 @@
       <c r="F311" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G311" s="86" t="s">
+      <c r="G311" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="H311" s="88" t="s">
+      <c r="H311" s="87" t="s">
         <v>812</v>
       </c>
-      <c r="I311" s="89" t="s">
+      <c r="I311" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J311" s="86"/>
-      <c r="K311" s="86"/>
-      <c r="L311" s="86"/>
-      <c r="M311" s="86"/>
-      <c r="N311" s="86"/>
-      <c r="O311" s="86"/>
-      <c r="P311" s="86"/>
-      <c r="Q311" s="86"/>
-      <c r="R311" s="86"/>
-      <c r="S311" s="86"/>
-      <c r="T311" s="86"/>
-      <c r="U311" s="86"/>
-      <c r="V311" s="86"/>
-      <c r="W311" s="86"/>
-      <c r="X311" s="86"/>
-      <c r="Y311" s="86"/>
-      <c r="Z311" s="86"/>
-      <c r="AA311" s="86"/>
-      <c r="AB311" s="86"/>
-      <c r="AC311" s="86"/>
-      <c r="AD311" s="86"/>
-      <c r="AE311" s="86" t="n">
+      <c r="J311" s="85"/>
+      <c r="K311" s="85"/>
+      <c r="L311" s="85"/>
+      <c r="M311" s="85"/>
+      <c r="N311" s="85"/>
+      <c r="O311" s="85"/>
+      <c r="P311" s="85"/>
+      <c r="Q311" s="85"/>
+      <c r="R311" s="85"/>
+      <c r="S311" s="85"/>
+      <c r="T311" s="85"/>
+      <c r="U311" s="85"/>
+      <c r="V311" s="85"/>
+      <c r="W311" s="85"/>
+      <c r="X311" s="85"/>
+      <c r="Y311" s="85"/>
+      <c r="Z311" s="85"/>
+      <c r="AA311" s="85"/>
+      <c r="AB311" s="85"/>
+      <c r="AC311" s="85"/>
+      <c r="AD311" s="85"/>
+      <c r="AE311" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF311" s="86"/>
-      <c r="AG311" s="86"/>
-      <c r="AH311" s="86"/>
-      <c r="AI311" s="86"/>
-      <c r="AJ311" s="86"/>
-      <c r="AK311" s="86"/>
-      <c r="AL311" s="86"/>
+      <c r="AF311" s="85"/>
+      <c r="AG311" s="85"/>
+      <c r="AH311" s="85"/>
+      <c r="AI311" s="85"/>
+      <c r="AJ311" s="85"/>
+      <c r="AK311" s="85"/>
+      <c r="AL311" s="85"/>
       <c r="AM311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AN311" s="86"/>
-      <c r="AO311" s="86"/>
-      <c r="AP311" s="86"/>
+      <c r="AN311" s="85"/>
+      <c r="AO311" s="85"/>
+      <c r="AP311" s="85"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C312" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D312" s="92" t="s">
+      <c r="B312" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E312" s="70" t="s">
@@ -29878,64 +29883,64 @@
       <c r="F312" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G312" s="86" t="s">
+      <c r="G312" s="85" t="s">
         <v>543</v>
       </c>
-      <c r="H312" s="88" t="s">
+      <c r="H312" s="87" t="s">
         <v>814</v>
       </c>
-      <c r="I312" s="89" t="s">
+      <c r="I312" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J312" s="86"/>
-      <c r="K312" s="86"/>
-      <c r="L312" s="86"/>
-      <c r="M312" s="86"/>
-      <c r="N312" s="86"/>
-      <c r="O312" s="86"/>
-      <c r="P312" s="86"/>
-      <c r="Q312" s="86"/>
-      <c r="R312" s="86"/>
-      <c r="S312" s="86"/>
-      <c r="T312" s="86"/>
-      <c r="U312" s="86"/>
-      <c r="V312" s="86"/>
-      <c r="W312" s="86"/>
-      <c r="X312" s="86"/>
-      <c r="Y312" s="86"/>
-      <c r="Z312" s="86"/>
-      <c r="AA312" s="86"/>
-      <c r="AB312" s="86"/>
-      <c r="AC312" s="86"/>
-      <c r="AD312" s="86"/>
-      <c r="AE312" s="86" t="n">
+      <c r="J312" s="85"/>
+      <c r="K312" s="85"/>
+      <c r="L312" s="85"/>
+      <c r="M312" s="85"/>
+      <c r="N312" s="85"/>
+      <c r="O312" s="85"/>
+      <c r="P312" s="85"/>
+      <c r="Q312" s="85"/>
+      <c r="R312" s="85"/>
+      <c r="S312" s="85"/>
+      <c r="T312" s="85"/>
+      <c r="U312" s="85"/>
+      <c r="V312" s="85"/>
+      <c r="W312" s="85"/>
+      <c r="X312" s="85"/>
+      <c r="Y312" s="85"/>
+      <c r="Z312" s="85"/>
+      <c r="AA312" s="85"/>
+      <c r="AB312" s="85"/>
+      <c r="AC312" s="85"/>
+      <c r="AD312" s="85"/>
+      <c r="AE312" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF312" s="86"/>
-      <c r="AG312" s="86"/>
-      <c r="AH312" s="86"/>
-      <c r="AI312" s="86"/>
-      <c r="AJ312" s="86"/>
-      <c r="AK312" s="86"/>
-      <c r="AL312" s="86"/>
+      <c r="AF312" s="85"/>
+      <c r="AG312" s="85"/>
+      <c r="AH312" s="85"/>
+      <c r="AI312" s="85"/>
+      <c r="AJ312" s="85"/>
+      <c r="AK312" s="85"/>
+      <c r="AL312" s="85"/>
       <c r="AM312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="AN312" s="86"/>
-      <c r="AO312" s="86"/>
-      <c r="AP312" s="86"/>
+      <c r="AN312" s="85"/>
+      <c r="AO312" s="85"/>
+      <c r="AP312" s="85"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C313" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D313" s="92" t="s">
+      <c r="B313" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E313" s="70" t="s">
@@ -29944,64 +29949,64 @@
       <c r="F313" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G313" s="86" t="s">
+      <c r="G313" s="85" t="s">
         <v>562</v>
       </c>
-      <c r="H313" s="88" t="s">
+      <c r="H313" s="87" t="s">
         <v>813</v>
       </c>
-      <c r="I313" s="89" t="s">
+      <c r="I313" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J313" s="86"/>
-      <c r="K313" s="86"/>
-      <c r="L313" s="86"/>
-      <c r="M313" s="86"/>
-      <c r="N313" s="86"/>
-      <c r="O313" s="86"/>
-      <c r="P313" s="86"/>
-      <c r="Q313" s="86"/>
-      <c r="R313" s="86"/>
-      <c r="S313" s="86"/>
-      <c r="T313" s="86"/>
-      <c r="U313" s="86"/>
-      <c r="V313" s="86"/>
-      <c r="W313" s="86"/>
-      <c r="X313" s="86"/>
-      <c r="Y313" s="86"/>
-      <c r="Z313" s="86"/>
-      <c r="AA313" s="86"/>
-      <c r="AB313" s="86"/>
-      <c r="AC313" s="86"/>
-      <c r="AD313" s="86"/>
-      <c r="AE313" s="86" t="n">
+      <c r="J313" s="85"/>
+      <c r="K313" s="85"/>
+      <c r="L313" s="85"/>
+      <c r="M313" s="85"/>
+      <c r="N313" s="85"/>
+      <c r="O313" s="85"/>
+      <c r="P313" s="85"/>
+      <c r="Q313" s="85"/>
+      <c r="R313" s="85"/>
+      <c r="S313" s="85"/>
+      <c r="T313" s="85"/>
+      <c r="U313" s="85"/>
+      <c r="V313" s="85"/>
+      <c r="W313" s="85"/>
+      <c r="X313" s="85"/>
+      <c r="Y313" s="85"/>
+      <c r="Z313" s="85"/>
+      <c r="AA313" s="85"/>
+      <c r="AB313" s="85"/>
+      <c r="AC313" s="85"/>
+      <c r="AD313" s="85"/>
+      <c r="AE313" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF313" s="86"/>
-      <c r="AG313" s="86"/>
-      <c r="AH313" s="86"/>
-      <c r="AI313" s="86"/>
-      <c r="AJ313" s="86"/>
-      <c r="AK313" s="86"/>
-      <c r="AL313" s="86"/>
+      <c r="AF313" s="85"/>
+      <c r="AG313" s="85"/>
+      <c r="AH313" s="85"/>
+      <c r="AI313" s="85"/>
+      <c r="AJ313" s="85"/>
+      <c r="AK313" s="85"/>
+      <c r="AL313" s="85"/>
       <c r="AM313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AN313" s="86"/>
-      <c r="AO313" s="86"/>
-      <c r="AP313" s="86"/>
+      <c r="AN313" s="85"/>
+      <c r="AO313" s="85"/>
+      <c r="AP313" s="85"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C314" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D314" s="92" t="s">
+      <c r="B314" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D314" s="91" t="s">
         <v>786</v>
       </c>
       <c r="E314" s="70" t="s">
@@ -30010,55 +30015,55 @@
       <c r="F314" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="G314" s="86" t="s">
+      <c r="G314" s="85" t="s">
         <v>572</v>
       </c>
-      <c r="H314" s="88" t="s">
+      <c r="H314" s="87" t="s">
         <v>814</v>
       </c>
-      <c r="I314" s="89" t="s">
+      <c r="I314" s="88" t="s">
         <v>800</v>
       </c>
-      <c r="J314" s="86"/>
-      <c r="K314" s="86"/>
-      <c r="L314" s="86"/>
-      <c r="M314" s="86"/>
-      <c r="N314" s="86"/>
-      <c r="O314" s="86"/>
-      <c r="P314" s="86"/>
-      <c r="Q314" s="86"/>
-      <c r="R314" s="86"/>
-      <c r="S314" s="86"/>
-      <c r="T314" s="86"/>
-      <c r="U314" s="86"/>
-      <c r="V314" s="86"/>
-      <c r="W314" s="86"/>
-      <c r="X314" s="86"/>
-      <c r="Y314" s="86"/>
-      <c r="Z314" s="86"/>
-      <c r="AA314" s="86"/>
-      <c r="AB314" s="86"/>
-      <c r="AC314" s="86"/>
-      <c r="AD314" s="86"/>
-      <c r="AE314" s="86" t="n">
+      <c r="J314" s="85"/>
+      <c r="K314" s="85"/>
+      <c r="L314" s="85"/>
+      <c r="M314" s="85"/>
+      <c r="N314" s="85"/>
+      <c r="O314" s="85"/>
+      <c r="P314" s="85"/>
+      <c r="Q314" s="85"/>
+      <c r="R314" s="85"/>
+      <c r="S314" s="85"/>
+      <c r="T314" s="85"/>
+      <c r="U314" s="85"/>
+      <c r="V314" s="85"/>
+      <c r="W314" s="85"/>
+      <c r="X314" s="85"/>
+      <c r="Y314" s="85"/>
+      <c r="Z314" s="85"/>
+      <c r="AA314" s="85"/>
+      <c r="AB314" s="85"/>
+      <c r="AC314" s="85"/>
+      <c r="AD314" s="85"/>
+      <c r="AE314" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF314" s="86"/>
-      <c r="AG314" s="86"/>
-      <c r="AH314" s="86"/>
-      <c r="AI314" s="86"/>
-      <c r="AJ314" s="86"/>
-      <c r="AK314" s="86"/>
-      <c r="AL314" s="86"/>
+      <c r="AF314" s="85"/>
+      <c r="AG314" s="85"/>
+      <c r="AH314" s="85"/>
+      <c r="AI314" s="85"/>
+      <c r="AJ314" s="85"/>
+      <c r="AK314" s="85"/>
+      <c r="AL314" s="85"/>
       <c r="AM314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="AN314" s="86"/>
-      <c r="AO314" s="86"/>
-      <c r="AP314" s="86"/>
+      <c r="AN314" s="85"/>
+      <c r="AO314" s="85"/>
+      <c r="AP314" s="85"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ314"/>
+  <autoFilter ref="A1:AP314"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30083,9 +30088,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>763</v>
       </c>
     </row>
@@ -30117,50 +30125,53 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="95" t="s">
         <v>815</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="95" t="s">
         <v>816</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="95" t="s">
         <v>817</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>818</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,40 +13,41 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3383,7 +3384,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3530,6 +3531,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3893,32 +3898,24 @@
   <dimension ref="A1:AR65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G313" activeCellId="0" sqref="G313"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="31" min="21" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="41" min="33" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="52.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.9311740890688"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,7 +9636,7 @@
       </c>
       <c r="AR65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
         <v>65</v>
       </c>
@@ -9674,8 +9671,8 @@
       <c r="N66" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O66" s="19" t="n">
-        <v>4607042431685</v>
+      <c r="O66" s="37" t="n">
+        <v>5060517884710</v>
       </c>
       <c r="P66" s="20"/>
       <c r="Q66" s="20"/>
@@ -10679,7 +10676,7 @@
       </c>
       <c r="AR77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
         <v>77</v>
       </c>
@@ -10714,8 +10711,8 @@
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="O78" s="19" t="n">
-        <v>4607042430879</v>
+      <c r="O78" s="37" t="n">
+        <v>5449000027450</v>
       </c>
       <c r="P78" s="20"/>
       <c r="Q78" s="20"/>
@@ -11031,7 +11028,7 @@
       </c>
       <c r="AR81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
         <v>81</v>
       </c>
@@ -11066,8 +11063,8 @@
       <c r="N82" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="O82" s="19" t="n">
-        <v>4607042431722</v>
+      <c r="O82" s="37" t="n">
+        <v>5449000027474</v>
       </c>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
@@ -11207,7 +11204,7 @@
       </c>
       <c r="AR83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
         <v>83</v>
       </c>
@@ -11242,8 +11239,8 @@
       <c r="N84" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O84" s="19" t="n">
-        <v>4607042431692</v>
+      <c r="O84" s="37" t="n">
+        <v>5449000134912</v>
       </c>
       <c r="P84" s="20"/>
       <c r="Q84" s="20"/>
@@ -14042,7 +14039,7 @@
       <c r="N116" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="O116" s="37" t="n">
+      <c r="O116" s="38" t="n">
         <v>4607174577947</v>
       </c>
       <c r="P116" s="20"/>
@@ -19320,24 +19317,24 @@
       <c r="L176" s="15"/>
       <c r="M176" s="15"/>
       <c r="N176" s="11"/>
-      <c r="O176" s="38"/>
-      <c r="P176" s="38"/>
-      <c r="Q176" s="38"/>
-      <c r="R176" s="38"/>
+      <c r="O176" s="39"/>
+      <c r="P176" s="39"/>
+      <c r="Q176" s="39"/>
+      <c r="R176" s="39"/>
       <c r="S176" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
-      <c r="W176" s="39"/>
+      <c r="W176" s="40"/>
       <c r="X176" s="11"/>
       <c r="Y176" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z176" s="11"/>
       <c r="AA176" s="11"/>
-      <c r="AB176" s="40" t="n">
+      <c r="AB176" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC176" s="11"/>
@@ -19363,7 +19360,7 @@
       <c r="AO176" s="13" t="n">
         <v>175</v>
       </c>
-      <c r="AP176" s="41" t="s">
+      <c r="AP176" s="42" t="s">
         <v>423</v>
       </c>
       <c r="AQ176" s="11"/>
@@ -19404,14 +19401,14 @@
       <c r="N177" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O177" s="38" t="s">
+      <c r="O177" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P177" s="38" t="s">
+      <c r="P177" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q177" s="38"/>
-      <c r="R177" s="38"/>
+      <c r="Q177" s="39"/>
+      <c r="R177" s="39"/>
       <c r="S177" s="11" t="s">
         <v>56</v>
       </c>
@@ -19420,14 +19417,14 @@
       </c>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
-      <c r="W177" s="39"/>
+      <c r="W177" s="40"/>
       <c r="X177" s="11"/>
       <c r="Y177" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
-      <c r="AB177" s="40" t="n">
+      <c r="AB177" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC177" s="11"/>
@@ -19469,77 +19466,77 @@
       <c r="C178" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="42" t="s">
+      <c r="D178" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E178" s="42" t="s">
+      <c r="E178" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F178" s="42"/>
-      <c r="G178" s="43" t="s">
+      <c r="F178" s="43"/>
+      <c r="G178" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="H178" s="43" t="s">
+      <c r="H178" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="I178" s="44" t="s">
+      <c r="I178" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J178" s="44"/>
-      <c r="K178" s="44" t="n">
+      <c r="J178" s="45"/>
+      <c r="K178" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L178" s="44"/>
-      <c r="M178" s="44"/>
-      <c r="N178" s="43"/>
-      <c r="O178" s="45"/>
-      <c r="P178" s="45"/>
-      <c r="Q178" s="45"/>
-      <c r="R178" s="45"/>
-      <c r="S178" s="43" t="s">
+      <c r="L178" s="45"/>
+      <c r="M178" s="45"/>
+      <c r="N178" s="44"/>
+      <c r="O178" s="46"/>
+      <c r="P178" s="46"/>
+      <c r="Q178" s="46"/>
+      <c r="R178" s="46"/>
+      <c r="S178" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T178" s="43" t="s">
+      <c r="T178" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U178" s="43"/>
-      <c r="V178" s="43"/>
-      <c r="W178" s="44" t="s">
+      <c r="U178" s="44"/>
+      <c r="V178" s="44"/>
+      <c r="W178" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="X178" s="43"/>
-      <c r="Y178" s="43" t="s">
+      <c r="X178" s="44"/>
+      <c r="Y178" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z178" s="43"/>
-      <c r="AA178" s="43"/>
-      <c r="AB178" s="40" t="n">
+      <c r="Z178" s="44"/>
+      <c r="AA178" s="44"/>
+      <c r="AB178" s="41" t="n">
         <v>101</v>
       </c>
-      <c r="AC178" s="43"/>
-      <c r="AD178" s="43"/>
-      <c r="AE178" s="43" t="s">
+      <c r="AC178" s="44"/>
+      <c r="AD178" s="44"/>
+      <c r="AE178" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF178" s="44" t="s">
+      <c r="AF178" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG178" s="46" t="n">
+      <c r="AG178" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH178" s="44"/>
-      <c r="AI178" s="44"/>
-      <c r="AJ178" s="44"/>
-      <c r="AK178" s="44"/>
-      <c r="AL178" s="44"/>
-      <c r="AM178" s="44"/>
-      <c r="AN178" s="43" t="n">
+      <c r="AH178" s="45"/>
+      <c r="AI178" s="45"/>
+      <c r="AJ178" s="45"/>
+      <c r="AK178" s="45"/>
+      <c r="AL178" s="45"/>
+      <c r="AM178" s="45"/>
+      <c r="AN178" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO178" s="13" t="n">
         <v>177</v>
       </c>
-      <c r="AP178" s="43"/>
+      <c r="AP178" s="44"/>
       <c r="AQ178" s="11" t="s">
         <v>418</v>
       </c>
@@ -19568,11 +19565,11 @@
       <c r="H179" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="I179" s="47" t="s">
+      <c r="I179" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J179" s="47"/>
-      <c r="K179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="49"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15"/>
       <c r="N179" s="15" t="s">
@@ -19581,11 +19578,11 @@
       <c r="O179" s="19" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="P179" s="38" t="s">
+      <c r="P179" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q179" s="38"/>
-      <c r="R179" s="38"/>
+      <c r="Q179" s="39"/>
+      <c r="R179" s="39"/>
       <c r="S179" s="11" t="s">
         <v>56</v>
       </c>
@@ -19594,14 +19591,14 @@
       </c>
       <c r="U179" s="11"/>
       <c r="V179" s="11"/>
-      <c r="W179" s="39"/>
+      <c r="W179" s="40"/>
       <c r="X179" s="11"/>
       <c r="Y179" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z179" s="11"/>
       <c r="AA179" s="11"/>
-      <c r="AB179" s="40" t="n">
+      <c r="AB179" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC179" s="11"/>
@@ -19668,24 +19665,24 @@
       <c r="L180" s="15"/>
       <c r="M180" s="15"/>
       <c r="N180" s="11"/>
-      <c r="O180" s="49"/>
-      <c r="P180" s="49"/>
-      <c r="Q180" s="49"/>
-      <c r="R180" s="49"/>
+      <c r="O180" s="50"/>
+      <c r="P180" s="50"/>
+      <c r="Q180" s="50"/>
+      <c r="R180" s="50"/>
       <c r="S180" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
       <c r="V180" s="11"/>
-      <c r="W180" s="39"/>
+      <c r="W180" s="40"/>
       <c r="X180" s="11"/>
       <c r="Y180" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z180" s="11"/>
       <c r="AA180" s="11"/>
-      <c r="AB180" s="40" t="n">
+      <c r="AB180" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC180" s="11"/>
@@ -19701,12 +19698,12 @@
       </c>
       <c r="AH180" s="15"/>
       <c r="AI180" s="15"/>
-      <c r="AJ180" s="44" t="s">
+      <c r="AJ180" s="45" t="s">
         <v>442</v>
       </c>
       <c r="AK180" s="15"/>
       <c r="AL180" s="15"/>
-      <c r="AM180" s="50" t="s">
+      <c r="AM180" s="51" t="s">
         <v>418</v>
       </c>
       <c r="AN180" s="11" t="n">
@@ -19715,10 +19712,10 @@
       <c r="AO180" s="13" t="n">
         <v>179</v>
       </c>
-      <c r="AP180" s="41" t="s">
+      <c r="AP180" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="AQ180" s="51" t="s">
+      <c r="AQ180" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR180" s="11"/>
@@ -19761,25 +19758,25 @@
       <c r="O181" s="19" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="P181" s="38"/>
-      <c r="Q181" s="38"/>
-      <c r="R181" s="38"/>
+      <c r="P181" s="39"/>
+      <c r="Q181" s="39"/>
+      <c r="R181" s="39"/>
       <c r="S181" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T181" s="52" t="s">
+      <c r="T181" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U181" s="11"/>
       <c r="V181" s="11"/>
-      <c r="W181" s="39"/>
+      <c r="W181" s="40"/>
       <c r="X181" s="11"/>
       <c r="Y181" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z181" s="11"/>
       <c r="AA181" s="11"/>
-      <c r="AB181" s="40" t="n">
+      <c r="AB181" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC181" s="11"/>
@@ -19849,25 +19846,25 @@
       <c r="O182" s="19" t="n">
         <v>5449000004864</v>
       </c>
-      <c r="P182" s="38"/>
-      <c r="Q182" s="38"/>
-      <c r="R182" s="38"/>
+      <c r="P182" s="39"/>
+      <c r="Q182" s="39"/>
+      <c r="R182" s="39"/>
       <c r="S182" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T182" s="52" t="s">
+      <c r="T182" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U182" s="11"/>
       <c r="V182" s="11"/>
-      <c r="W182" s="39"/>
+      <c r="W182" s="40"/>
       <c r="X182" s="11"/>
       <c r="Y182" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z182" s="11"/>
       <c r="AA182" s="11"/>
-      <c r="AB182" s="40" t="n">
+      <c r="AB182" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC182" s="11"/>
@@ -19937,25 +19934,25 @@
       <c r="O183" s="19" t="n">
         <v>5449000004840</v>
       </c>
-      <c r="P183" s="38"/>
-      <c r="Q183" s="38"/>
-      <c r="R183" s="38"/>
+      <c r="P183" s="39"/>
+      <c r="Q183" s="39"/>
+      <c r="R183" s="39"/>
       <c r="S183" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T183" s="52" t="s">
+      <c r="T183" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U183" s="11"/>
       <c r="V183" s="11"/>
-      <c r="W183" s="39"/>
+      <c r="W183" s="40"/>
       <c r="X183" s="11"/>
       <c r="Y183" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z183" s="11"/>
       <c r="AA183" s="11"/>
-      <c r="AB183" s="40" t="n">
+      <c r="AB183" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC183" s="11"/>
@@ -20020,24 +20017,24 @@
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
       <c r="N184" s="11"/>
-      <c r="O184" s="38"/>
-      <c r="P184" s="38"/>
-      <c r="Q184" s="38"/>
-      <c r="R184" s="38"/>
+      <c r="O184" s="39"/>
+      <c r="P184" s="39"/>
+      <c r="Q184" s="39"/>
+      <c r="R184" s="39"/>
       <c r="S184" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
       <c r="V184" s="11"/>
-      <c r="W184" s="39"/>
+      <c r="W184" s="40"/>
       <c r="X184" s="11"/>
       <c r="Y184" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z184" s="11"/>
       <c r="AA184" s="11"/>
-      <c r="AB184" s="40" t="n">
+      <c r="AB184" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC184" s="11"/>
@@ -20063,7 +20060,7 @@
       <c r="AO184" s="13" t="n">
         <v>183</v>
       </c>
-      <c r="AP184" s="41" t="s">
+      <c r="AP184" s="42" t="s">
         <v>454</v>
       </c>
       <c r="AQ184" s="11"/>
@@ -20104,14 +20101,14 @@
       <c r="N185" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O185" s="38" t="s">
+      <c r="O185" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P185" s="38" t="s">
+      <c r="P185" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q185" s="38"/>
-      <c r="R185" s="38"/>
+      <c r="Q185" s="39"/>
+      <c r="R185" s="39"/>
       <c r="S185" s="11" t="s">
         <v>56</v>
       </c>
@@ -20120,14 +20117,14 @@
       </c>
       <c r="U185" s="11"/>
       <c r="V185" s="11"/>
-      <c r="W185" s="39"/>
+      <c r="W185" s="40"/>
       <c r="X185" s="11"/>
       <c r="Y185" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z185" s="11"/>
       <c r="AA185" s="11"/>
-      <c r="AB185" s="40" t="n">
+      <c r="AB185" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC185" s="11"/>
@@ -20169,77 +20166,77 @@
       <c r="C186" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D186" s="42" t="s">
+      <c r="D186" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E186" s="42" t="s">
+      <c r="E186" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F186" s="42"/>
-      <c r="G186" s="43" t="s">
+      <c r="F186" s="43"/>
+      <c r="G186" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="H186" s="43" t="s">
+      <c r="H186" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="I186" s="44" t="s">
+      <c r="I186" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J186" s="44"/>
-      <c r="K186" s="44" t="n">
+      <c r="J186" s="45"/>
+      <c r="K186" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L186" s="44"/>
-      <c r="M186" s="44"/>
-      <c r="N186" s="43"/>
-      <c r="O186" s="45"/>
-      <c r="P186" s="45"/>
-      <c r="Q186" s="45"/>
-      <c r="R186" s="45"/>
-      <c r="S186" s="43" t="s">
+      <c r="L186" s="45"/>
+      <c r="M186" s="45"/>
+      <c r="N186" s="44"/>
+      <c r="O186" s="46"/>
+      <c r="P186" s="46"/>
+      <c r="Q186" s="46"/>
+      <c r="R186" s="46"/>
+      <c r="S186" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T186" s="43" t="s">
+      <c r="T186" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U186" s="43"/>
-      <c r="V186" s="43"/>
-      <c r="W186" s="44" t="s">
+      <c r="U186" s="44"/>
+      <c r="V186" s="44"/>
+      <c r="W186" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="X186" s="43"/>
-      <c r="Y186" s="43" t="s">
+      <c r="X186" s="44"/>
+      <c r="Y186" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="Z186" s="43"/>
-      <c r="AA186" s="43"/>
-      <c r="AB186" s="40" t="n">
+      <c r="Z186" s="44"/>
+      <c r="AA186" s="44"/>
+      <c r="AB186" s="41" t="n">
         <v>1101</v>
       </c>
-      <c r="AC186" s="43"/>
-      <c r="AD186" s="43"/>
-      <c r="AE186" s="43" t="s">
+      <c r="AC186" s="44"/>
+      <c r="AD186" s="44"/>
+      <c r="AE186" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF186" s="44" t="s">
+      <c r="AF186" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG186" s="46" t="n">
+      <c r="AG186" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH186" s="44"/>
-      <c r="AI186" s="44"/>
-      <c r="AJ186" s="44"/>
-      <c r="AK186" s="44"/>
-      <c r="AL186" s="44"/>
-      <c r="AM186" s="44"/>
-      <c r="AN186" s="43" t="n">
+      <c r="AH186" s="45"/>
+      <c r="AI186" s="45"/>
+      <c r="AJ186" s="45"/>
+      <c r="AK186" s="45"/>
+      <c r="AL186" s="45"/>
+      <c r="AM186" s="45"/>
+      <c r="AN186" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO186" s="13" t="n">
         <v>185</v>
       </c>
-      <c r="AP186" s="43"/>
+      <c r="AP186" s="44"/>
       <c r="AQ186" s="11" t="s">
         <v>451</v>
       </c>
@@ -20255,13 +20252,13 @@
       <c r="C187" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D187" s="53" t="s">
+      <c r="D187" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E187" s="53" t="s">
+      <c r="E187" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F187" s="53"/>
+      <c r="F187" s="54"/>
       <c r="G187" s="15" t="s">
         <v>461</v>
       </c>
@@ -20278,24 +20275,24 @@
       <c r="L187" s="15"/>
       <c r="M187" s="15"/>
       <c r="N187" s="11"/>
-      <c r="O187" s="38"/>
-      <c r="P187" s="38"/>
-      <c r="Q187" s="38"/>
-      <c r="R187" s="38"/>
+      <c r="O187" s="39"/>
+      <c r="P187" s="39"/>
+      <c r="Q187" s="39"/>
+      <c r="R187" s="39"/>
       <c r="S187" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T187" s="11"/>
       <c r="U187" s="11"/>
       <c r="V187" s="11"/>
-      <c r="W187" s="39"/>
+      <c r="W187" s="40"/>
       <c r="X187" s="11"/>
       <c r="Y187" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z187" s="11"/>
       <c r="AA187" s="11"/>
-      <c r="AB187" s="40" t="n">
+      <c r="AB187" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC187" s="11"/>
@@ -20321,7 +20318,7 @@
       <c r="AO187" s="13" t="n">
         <v>186</v>
       </c>
-      <c r="AP187" s="41" t="s">
+      <c r="AP187" s="42" t="s">
         <v>464</v>
       </c>
       <c r="AQ187" s="11" t="s">
@@ -20352,17 +20349,17 @@
       <c r="H188" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="I188" s="47" t="s">
+      <c r="I188" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J188" s="47"/>
-      <c r="K188" s="48"/>
+      <c r="J188" s="48"/>
+      <c r="K188" s="49"/>
       <c r="L188" s="15"/>
       <c r="M188" s="15"/>
-      <c r="N188" s="52" t="s">
+      <c r="N188" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O188" s="54" t="n">
+      <c r="O188" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P188" s="20"/>
@@ -20376,14 +20373,14 @@
       </c>
       <c r="U188" s="11"/>
       <c r="V188" s="11"/>
-      <c r="W188" s="39"/>
+      <c r="W188" s="40"/>
       <c r="X188" s="11"/>
       <c r="Y188" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z188" s="11"/>
       <c r="AA188" s="11"/>
-      <c r="AB188" s="40" t="n">
+      <c r="AB188" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC188" s="11"/>
@@ -20440,14 +20437,14 @@
       <c r="H189" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="I189" s="47" t="s">
+      <c r="I189" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J189" s="47"/>
-      <c r="K189" s="48"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="49"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
-      <c r="N189" s="52" t="s">
+      <c r="N189" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O189" s="20" t="n">
@@ -20464,14 +20461,14 @@
       </c>
       <c r="U189" s="11"/>
       <c r="V189" s="11"/>
-      <c r="W189" s="39"/>
+      <c r="W189" s="40"/>
       <c r="X189" s="11"/>
       <c r="Y189" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z189" s="11"/>
       <c r="AA189" s="11"/>
-      <c r="AB189" s="40" t="n">
+      <c r="AB189" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC189" s="11"/>
@@ -20538,24 +20535,24 @@
       <c r="L190" s="15"/>
       <c r="M190" s="15"/>
       <c r="N190" s="11"/>
-      <c r="O190" s="49"/>
-      <c r="P190" s="49"/>
-      <c r="Q190" s="49"/>
-      <c r="R190" s="49"/>
+      <c r="O190" s="50"/>
+      <c r="P190" s="50"/>
+      <c r="Q190" s="50"/>
+      <c r="R190" s="50"/>
       <c r="S190" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
       <c r="V190" s="11"/>
-      <c r="W190" s="39"/>
+      <c r="W190" s="40"/>
       <c r="X190" s="11"/>
       <c r="Y190" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z190" s="11"/>
       <c r="AA190" s="11"/>
-      <c r="AB190" s="40" t="n">
+      <c r="AB190" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC190" s="11"/>
@@ -20571,12 +20568,12 @@
       </c>
       <c r="AH190" s="15"/>
       <c r="AI190" s="15"/>
-      <c r="AJ190" s="44" t="s">
+      <c r="AJ190" s="45" t="s">
         <v>473</v>
       </c>
       <c r="AK190" s="15"/>
       <c r="AL190" s="15"/>
-      <c r="AM190" s="50" t="s">
+      <c r="AM190" s="51" t="s">
         <v>451</v>
       </c>
       <c r="AN190" s="11" t="n">
@@ -20585,10 +20582,10 @@
       <c r="AO190" s="13" t="n">
         <v>189</v>
       </c>
-      <c r="AP190" s="41" t="s">
+      <c r="AP190" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="AQ190" s="51" t="s">
+      <c r="AQ190" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR190" s="11"/>
@@ -20625,10 +20622,10 @@
       </c>
       <c r="L191" s="15"/>
       <c r="M191" s="15"/>
-      <c r="N191" s="52" t="s">
+      <c r="N191" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O191" s="54" t="n">
+      <c r="O191" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P191" s="20"/>
@@ -20637,19 +20634,19 @@
       <c r="S191" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T191" s="52" t="s">
+      <c r="T191" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U191" s="11"/>
       <c r="V191" s="11"/>
-      <c r="W191" s="39"/>
+      <c r="W191" s="40"/>
       <c r="X191" s="11"/>
       <c r="Y191" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z191" s="11"/>
       <c r="AA191" s="11"/>
-      <c r="AB191" s="40" t="n">
+      <c r="AB191" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC191" s="11"/>
@@ -20713,7 +20710,7 @@
       </c>
       <c r="L192" s="15"/>
       <c r="M192" s="15"/>
-      <c r="N192" s="52" t="s">
+      <c r="N192" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O192" s="20" t="n">
@@ -20725,19 +20722,19 @@
       <c r="S192" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T192" s="52" t="s">
+      <c r="T192" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U192" s="11"/>
       <c r="V192" s="11"/>
-      <c r="W192" s="39"/>
+      <c r="W192" s="40"/>
       <c r="X192" s="11"/>
       <c r="Y192" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z192" s="11"/>
       <c r="AA192" s="11"/>
-      <c r="AB192" s="40" t="n">
+      <c r="AB192" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC192" s="11"/>
@@ -20801,7 +20798,7 @@
       </c>
       <c r="L193" s="15"/>
       <c r="M193" s="15"/>
-      <c r="N193" s="52" t="s">
+      <c r="N193" s="53" t="s">
         <v>241</v>
       </c>
       <c r="O193" s="20" t="n">
@@ -20813,19 +20810,19 @@
       <c r="S193" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T193" s="52" t="s">
+      <c r="T193" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U193" s="11"/>
       <c r="V193" s="11"/>
-      <c r="W193" s="39"/>
+      <c r="W193" s="40"/>
       <c r="X193" s="11"/>
       <c r="Y193" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z193" s="11"/>
       <c r="AA193" s="11"/>
-      <c r="AB193" s="40" t="n">
+      <c r="AB193" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC193" s="11"/>
@@ -20889,7 +20886,7 @@
       </c>
       <c r="L194" s="15"/>
       <c r="M194" s="15"/>
-      <c r="N194" s="52" t="s">
+      <c r="N194" s="53" t="s">
         <v>243</v>
       </c>
       <c r="O194" s="20" t="n">
@@ -20901,19 +20898,19 @@
       <c r="S194" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T194" s="52" t="s">
+      <c r="T194" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U194" s="11"/>
       <c r="V194" s="11"/>
-      <c r="W194" s="39"/>
+      <c r="W194" s="40"/>
       <c r="X194" s="11"/>
       <c r="Y194" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z194" s="11"/>
       <c r="AA194" s="11"/>
-      <c r="AB194" s="40" t="n">
+      <c r="AB194" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC194" s="11"/>
@@ -20978,24 +20975,24 @@
       <c r="L195" s="15"/>
       <c r="M195" s="15"/>
       <c r="N195" s="11"/>
-      <c r="O195" s="38"/>
-      <c r="P195" s="38"/>
-      <c r="Q195" s="38"/>
-      <c r="R195" s="38"/>
+      <c r="O195" s="39"/>
+      <c r="P195" s="39"/>
+      <c r="Q195" s="39"/>
+      <c r="R195" s="39"/>
       <c r="S195" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T195" s="11"/>
       <c r="U195" s="11"/>
       <c r="V195" s="11"/>
-      <c r="W195" s="39"/>
+      <c r="W195" s="40"/>
       <c r="X195" s="11"/>
       <c r="Y195" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z195" s="11"/>
       <c r="AA195" s="11"/>
-      <c r="AB195" s="40" t="n">
+      <c r="AB195" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC195" s="11"/>
@@ -21021,7 +21018,7 @@
       <c r="AO195" s="13" t="n">
         <v>194</v>
       </c>
-      <c r="AP195" s="41" t="s">
+      <c r="AP195" s="42" t="s">
         <v>485</v>
       </c>
       <c r="AQ195" s="11"/>
@@ -21062,14 +21059,14 @@
       <c r="N196" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O196" s="38" t="s">
+      <c r="O196" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P196" s="38" t="s">
+      <c r="P196" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q196" s="38"/>
-      <c r="R196" s="38"/>
+      <c r="Q196" s="39"/>
+      <c r="R196" s="39"/>
       <c r="S196" s="11" t="s">
         <v>56</v>
       </c>
@@ -21078,14 +21075,14 @@
       </c>
       <c r="U196" s="11"/>
       <c r="V196" s="11"/>
-      <c r="W196" s="39"/>
+      <c r="W196" s="40"/>
       <c r="X196" s="11"/>
       <c r="Y196" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z196" s="11"/>
       <c r="AA196" s="11"/>
-      <c r="AB196" s="40" t="n">
+      <c r="AB196" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC196" s="11"/>
@@ -21127,77 +21124,77 @@
       <c r="C197" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="42" t="s">
+      <c r="E197" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F197" s="42"/>
-      <c r="G197" s="43" t="s">
+      <c r="F197" s="43"/>
+      <c r="G197" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="H197" s="43" t="s">
+      <c r="H197" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="I197" s="44" t="s">
+      <c r="I197" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J197" s="44"/>
-      <c r="K197" s="44" t="n">
+      <c r="J197" s="45"/>
+      <c r="K197" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L197" s="44"/>
-      <c r="M197" s="44"/>
-      <c r="N197" s="43"/>
-      <c r="O197" s="45"/>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-      <c r="S197" s="43" t="s">
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="44"/>
+      <c r="O197" s="46"/>
+      <c r="P197" s="46"/>
+      <c r="Q197" s="46"/>
+      <c r="R197" s="46"/>
+      <c r="S197" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T197" s="43" t="s">
+      <c r="T197" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U197" s="43"/>
-      <c r="V197" s="43"/>
-      <c r="W197" s="44" t="s">
+      <c r="U197" s="44"/>
+      <c r="V197" s="44"/>
+      <c r="W197" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="X197" s="43"/>
-      <c r="Y197" s="43" t="s">
+      <c r="X197" s="44"/>
+      <c r="Y197" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z197" s="43"/>
-      <c r="AA197" s="43"/>
-      <c r="AB197" s="40" t="n">
+      <c r="Z197" s="44"/>
+      <c r="AA197" s="44"/>
+      <c r="AB197" s="41" t="n">
         <v>102</v>
       </c>
-      <c r="AC197" s="43"/>
-      <c r="AD197" s="43"/>
-      <c r="AE197" s="43" t="s">
+      <c r="AC197" s="44"/>
+      <c r="AD197" s="44"/>
+      <c r="AE197" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF197" s="44" t="s">
+      <c r="AF197" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG197" s="46" t="n">
+      <c r="AG197" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH197" s="44"/>
-      <c r="AI197" s="44"/>
-      <c r="AJ197" s="44"/>
-      <c r="AK197" s="44"/>
-      <c r="AL197" s="44"/>
-      <c r="AM197" s="44"/>
-      <c r="AN197" s="43" t="n">
+      <c r="AH197" s="45"/>
+      <c r="AI197" s="45"/>
+      <c r="AJ197" s="45"/>
+      <c r="AK197" s="45"/>
+      <c r="AL197" s="45"/>
+      <c r="AM197" s="45"/>
+      <c r="AN197" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO197" s="13" t="n">
         <v>196</v>
       </c>
-      <c r="AP197" s="43"/>
+      <c r="AP197" s="44"/>
       <c r="AQ197" s="11" t="s">
         <v>483</v>
       </c>
@@ -21213,30 +21210,30 @@
       <c r="C198" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D198" s="53" t="s">
+      <c r="D198" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E198" s="53" t="s">
+      <c r="E198" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F198" s="53"/>
+      <c r="F198" s="54"/>
       <c r="G198" s="15" t="s">
         <v>491</v>
       </c>
       <c r="H198" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="I198" s="47" t="s">
+      <c r="I198" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J198" s="47"/>
-      <c r="K198" s="48"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="49"/>
       <c r="L198" s="15"/>
       <c r="M198" s="15"/>
       <c r="N198" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O198" s="38" t="n">
+      <c r="O198" s="39" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P198" s="20" t="s">
@@ -21252,14 +21249,14 @@
       </c>
       <c r="U198" s="11"/>
       <c r="V198" s="11"/>
-      <c r="W198" s="39"/>
+      <c r="W198" s="40"/>
       <c r="X198" s="11"/>
       <c r="Y198" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z198" s="11"/>
       <c r="AA198" s="11"/>
-      <c r="AB198" s="40" t="n">
+      <c r="AB198" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC198" s="11"/>
@@ -21326,24 +21323,24 @@
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
       <c r="N199" s="11"/>
-      <c r="O199" s="49"/>
-      <c r="P199" s="49"/>
-      <c r="Q199" s="49"/>
-      <c r="R199" s="49"/>
+      <c r="O199" s="50"/>
+      <c r="P199" s="50"/>
+      <c r="Q199" s="50"/>
+      <c r="R199" s="50"/>
       <c r="S199" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T199" s="11"/>
       <c r="U199" s="11"/>
       <c r="V199" s="11"/>
-      <c r="W199" s="39"/>
+      <c r="W199" s="40"/>
       <c r="X199" s="11"/>
       <c r="Y199" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z199" s="11"/>
       <c r="AA199" s="11"/>
-      <c r="AB199" s="40" t="n">
+      <c r="AB199" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC199" s="11"/>
@@ -21359,12 +21356,12 @@
       </c>
       <c r="AH199" s="15"/>
       <c r="AI199" s="15"/>
-      <c r="AJ199" s="44" t="s">
+      <c r="AJ199" s="45" t="s">
         <v>496</v>
       </c>
       <c r="AK199" s="15"/>
       <c r="AL199" s="15"/>
-      <c r="AM199" s="50" t="s">
+      <c r="AM199" s="51" t="s">
         <v>483</v>
       </c>
       <c r="AN199" s="11" t="n">
@@ -21373,10 +21370,10 @@
       <c r="AO199" s="13" t="n">
         <v>198</v>
       </c>
-      <c r="AP199" s="41" t="s">
+      <c r="AP199" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="AQ199" s="51" t="s">
+      <c r="AQ199" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR199" s="11"/>
@@ -21425,19 +21422,19 @@
       <c r="S200" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T200" s="52" t="s">
+      <c r="T200" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U200" s="11"/>
       <c r="V200" s="11"/>
-      <c r="W200" s="39"/>
+      <c r="W200" s="40"/>
       <c r="X200" s="11"/>
       <c r="Y200" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z200" s="11"/>
       <c r="AA200" s="11"/>
-      <c r="AB200" s="40" t="n">
+      <c r="AB200" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC200" s="11"/>
@@ -21513,19 +21510,19 @@
       <c r="S201" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T201" s="52" t="s">
+      <c r="T201" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U201" s="11"/>
       <c r="V201" s="11"/>
-      <c r="W201" s="39"/>
+      <c r="W201" s="40"/>
       <c r="X201" s="11"/>
       <c r="Y201" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z201" s="11"/>
       <c r="AA201" s="11"/>
-      <c r="AB201" s="40" t="n">
+      <c r="AB201" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC201" s="11"/>
@@ -21590,17 +21587,17 @@
       <c r="L202" s="15"/>
       <c r="M202" s="15"/>
       <c r="N202" s="11"/>
-      <c r="O202" s="38"/>
-      <c r="P202" s="38"/>
-      <c r="Q202" s="38"/>
-      <c r="R202" s="38"/>
+      <c r="O202" s="39"/>
+      <c r="P202" s="39"/>
+      <c r="Q202" s="39"/>
+      <c r="R202" s="39"/>
       <c r="S202" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
       <c r="V202" s="11"/>
-      <c r="W202" s="39"/>
+      <c r="W202" s="40"/>
       <c r="X202" s="11"/>
       <c r="Y202" s="11" t="s">
         <v>504</v>
@@ -21631,7 +21628,7 @@
       <c r="AO202" s="13" t="n">
         <v>201</v>
       </c>
-      <c r="AP202" s="41" t="s">
+      <c r="AP202" s="42" t="s">
         <v>505</v>
       </c>
       <c r="AQ202" s="11"/>
@@ -21672,14 +21669,14 @@
       <c r="N203" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O203" s="38" t="s">
+      <c r="O203" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="P203" s="38" t="s">
+      <c r="P203" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="Q203" s="38"/>
-      <c r="R203" s="38"/>
+      <c r="Q203" s="39"/>
+      <c r="R203" s="39"/>
       <c r="S203" s="11" t="s">
         <v>56</v>
       </c>
@@ -21688,7 +21685,7 @@
       </c>
       <c r="U203" s="11"/>
       <c r="V203" s="11"/>
-      <c r="W203" s="39"/>
+      <c r="W203" s="40"/>
       <c r="X203" s="11"/>
       <c r="Y203" s="11" t="s">
         <v>504</v>
@@ -21735,75 +21732,75 @@
       <c r="C204" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D204" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E204" s="42" t="s">
+      <c r="E204" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F204" s="42"/>
-      <c r="G204" s="43" t="s">
+      <c r="F204" s="43"/>
+      <c r="G204" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="H204" s="43" t="s">
+      <c r="H204" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="I204" s="44" t="s">
+      <c r="I204" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J204" s="44"/>
-      <c r="K204" s="44" t="n">
+      <c r="J204" s="45"/>
+      <c r="K204" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L204" s="44"/>
-      <c r="M204" s="44"/>
-      <c r="N204" s="43"/>
-      <c r="O204" s="45"/>
-      <c r="P204" s="45"/>
-      <c r="Q204" s="45"/>
-      <c r="R204" s="45"/>
-      <c r="S204" s="43" t="s">
+      <c r="L204" s="45"/>
+      <c r="M204" s="45"/>
+      <c r="N204" s="44"/>
+      <c r="O204" s="46"/>
+      <c r="P204" s="46"/>
+      <c r="Q204" s="46"/>
+      <c r="R204" s="46"/>
+      <c r="S204" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T204" s="43" t="s">
+      <c r="T204" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U204" s="43"/>
-      <c r="V204" s="43"/>
-      <c r="W204" s="44" t="s">
+      <c r="U204" s="44"/>
+      <c r="V204" s="44"/>
+      <c r="W204" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="X204" s="43"/>
-      <c r="Y204" s="43" t="s">
+      <c r="X204" s="44"/>
+      <c r="Y204" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="Z204" s="43"/>
-      <c r="AA204" s="43"/>
-      <c r="AB204" s="44"/>
-      <c r="AC204" s="43"/>
-      <c r="AD204" s="43"/>
-      <c r="AE204" s="43" t="s">
+      <c r="Z204" s="44"/>
+      <c r="AA204" s="44"/>
+      <c r="AB204" s="45"/>
+      <c r="AC204" s="44"/>
+      <c r="AD204" s="44"/>
+      <c r="AE204" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF204" s="44" t="s">
+      <c r="AF204" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG204" s="46" t="n">
+      <c r="AG204" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH204" s="44"/>
-      <c r="AI204" s="44"/>
-      <c r="AJ204" s="44"/>
-      <c r="AK204" s="44"/>
-      <c r="AL204" s="44"/>
-      <c r="AM204" s="44"/>
-      <c r="AN204" s="43" t="n">
+      <c r="AH204" s="45"/>
+      <c r="AI204" s="45"/>
+      <c r="AJ204" s="45"/>
+      <c r="AK204" s="45"/>
+      <c r="AL204" s="45"/>
+      <c r="AM204" s="45"/>
+      <c r="AN204" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO204" s="13" t="n">
         <v>203</v>
       </c>
-      <c r="AP204" s="43"/>
+      <c r="AP204" s="44"/>
       <c r="AQ204" s="11" t="s">
         <v>502</v>
       </c>
@@ -21819,13 +21816,13 @@
       <c r="C205" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D205" s="53" t="s">
+      <c r="D205" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E205" s="53" t="s">
+      <c r="E205" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F205" s="53"/>
+      <c r="F205" s="54"/>
       <c r="G205" s="15" t="s">
         <v>512</v>
       </c>
@@ -21842,17 +21839,17 @@
       <c r="L205" s="15"/>
       <c r="M205" s="15"/>
       <c r="N205" s="11"/>
-      <c r="O205" s="38"/>
-      <c r="P205" s="38"/>
-      <c r="Q205" s="38"/>
-      <c r="R205" s="38"/>
+      <c r="O205" s="39"/>
+      <c r="P205" s="39"/>
+      <c r="Q205" s="39"/>
+      <c r="R205" s="39"/>
       <c r="S205" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
       <c r="V205" s="11"/>
-      <c r="W205" s="39"/>
+      <c r="W205" s="40"/>
       <c r="X205" s="11"/>
       <c r="Y205" s="11" t="s">
         <v>504</v>
@@ -21883,7 +21880,7 @@
       <c r="AO205" s="13" t="n">
         <v>204</v>
       </c>
-      <c r="AP205" s="41" t="s">
+      <c r="AP205" s="42" t="s">
         <v>514</v>
       </c>
       <c r="AQ205" s="11" t="s">
@@ -21901,7 +21898,7 @@
       <c r="C206" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D206" s="53" t="s">
+      <c r="D206" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E206" s="14" t="s">
@@ -21914,11 +21911,11 @@
       <c r="H206" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="I206" s="47" t="s">
+      <c r="I206" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J206" s="47"/>
-      <c r="K206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="49"/>
       <c r="L206" s="15"/>
       <c r="M206" s="15"/>
       <c r="N206" s="15" t="s">
@@ -21938,7 +21935,7 @@
       </c>
       <c r="U206" s="11"/>
       <c r="V206" s="11"/>
-      <c r="W206" s="39"/>
+      <c r="W206" s="40"/>
       <c r="X206" s="11"/>
       <c r="Y206" s="11" t="s">
         <v>504</v>
@@ -21987,7 +21984,7 @@
       <c r="C207" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D207" s="53" t="s">
+      <c r="D207" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E207" s="14" t="s">
@@ -22000,11 +21997,11 @@
       <c r="H207" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="I207" s="47" t="s">
+      <c r="I207" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J207" s="47"/>
-      <c r="K207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="49"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15"/>
       <c r="N207" s="15" t="s">
@@ -22024,7 +22021,7 @@
       </c>
       <c r="U207" s="11"/>
       <c r="V207" s="11"/>
-      <c r="W207" s="39"/>
+      <c r="W207" s="40"/>
       <c r="X207" s="11"/>
       <c r="Y207" s="11" t="s">
         <v>504</v>
@@ -22096,17 +22093,17 @@
       <c r="L208" s="15"/>
       <c r="M208" s="15"/>
       <c r="N208" s="11"/>
-      <c r="O208" s="38"/>
-      <c r="P208" s="38"/>
-      <c r="Q208" s="38"/>
-      <c r="R208" s="38"/>
+      <c r="O208" s="39"/>
+      <c r="P208" s="39"/>
+      <c r="Q208" s="39"/>
+      <c r="R208" s="39"/>
       <c r="S208" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
       <c r="V208" s="11"/>
-      <c r="W208" s="39"/>
+      <c r="W208" s="40"/>
       <c r="X208" s="11"/>
       <c r="Y208" s="11" t="s">
         <v>523</v>
@@ -22137,7 +22134,7 @@
       <c r="AO208" s="13" t="n">
         <v>207</v>
       </c>
-      <c r="AP208" s="41" t="s">
+      <c r="AP208" s="42" t="s">
         <v>524</v>
       </c>
       <c r="AQ208" s="11"/>
@@ -22178,14 +22175,14 @@
       <c r="N209" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O209" s="38" t="s">
+      <c r="O209" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P209" s="38" t="s">
+      <c r="P209" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="Q209" s="38"/>
-      <c r="R209" s="38"/>
+      <c r="Q209" s="39"/>
+      <c r="R209" s="39"/>
       <c r="S209" s="11" t="s">
         <v>56</v>
       </c>
@@ -22194,7 +22191,7 @@
       </c>
       <c r="U209" s="11"/>
       <c r="V209" s="11"/>
-      <c r="W209" s="39"/>
+      <c r="W209" s="40"/>
       <c r="X209" s="11"/>
       <c r="Y209" s="11" t="s">
         <v>523</v>
@@ -22241,75 +22238,75 @@
       <c r="C210" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="42" t="s">
+      <c r="D210" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E210" s="42" t="s">
+      <c r="E210" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F210" s="42"/>
-      <c r="G210" s="43" t="s">
+      <c r="F210" s="43"/>
+      <c r="G210" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="H210" s="43" t="s">
+      <c r="H210" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="I210" s="44" t="s">
+      <c r="I210" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J210" s="44"/>
-      <c r="K210" s="44" t="n">
+      <c r="J210" s="45"/>
+      <c r="K210" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L210" s="44"/>
-      <c r="M210" s="44"/>
-      <c r="N210" s="43"/>
-      <c r="O210" s="45"/>
-      <c r="P210" s="45"/>
-      <c r="Q210" s="45"/>
-      <c r="R210" s="45"/>
-      <c r="S210" s="43" t="s">
+      <c r="L210" s="45"/>
+      <c r="M210" s="45"/>
+      <c r="N210" s="44"/>
+      <c r="O210" s="46"/>
+      <c r="P210" s="46"/>
+      <c r="Q210" s="46"/>
+      <c r="R210" s="46"/>
+      <c r="S210" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T210" s="43" t="s">
+      <c r="T210" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U210" s="43"/>
-      <c r="V210" s="43"/>
-      <c r="W210" s="44" t="s">
+      <c r="U210" s="44"/>
+      <c r="V210" s="44"/>
+      <c r="W210" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="X210" s="43"/>
-      <c r="Y210" s="43" t="s">
+      <c r="X210" s="44"/>
+      <c r="Y210" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="Z210" s="43"/>
-      <c r="AA210" s="43"/>
-      <c r="AB210" s="44"/>
-      <c r="AC210" s="43"/>
-      <c r="AD210" s="43"/>
-      <c r="AE210" s="43" t="s">
+      <c r="Z210" s="44"/>
+      <c r="AA210" s="44"/>
+      <c r="AB210" s="45"/>
+      <c r="AC210" s="44"/>
+      <c r="AD210" s="44"/>
+      <c r="AE210" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF210" s="44" t="s">
+      <c r="AF210" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG210" s="46" t="n">
+      <c r="AG210" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH210" s="44"/>
-      <c r="AI210" s="44"/>
-      <c r="AJ210" s="44"/>
-      <c r="AK210" s="44"/>
-      <c r="AL210" s="44"/>
-      <c r="AM210" s="44"/>
-      <c r="AN210" s="43" t="n">
+      <c r="AH210" s="45"/>
+      <c r="AI210" s="45"/>
+      <c r="AJ210" s="45"/>
+      <c r="AK210" s="45"/>
+      <c r="AL210" s="45"/>
+      <c r="AM210" s="45"/>
+      <c r="AN210" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO210" s="13" t="n">
         <v>209</v>
       </c>
-      <c r="AP210" s="43"/>
+      <c r="AP210" s="44"/>
       <c r="AQ210" s="11" t="s">
         <v>521</v>
       </c>
@@ -22335,14 +22332,14 @@
       <c r="G211" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="H211" s="40" t="s">
+      <c r="H211" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="I211" s="47" t="s">
+      <c r="I211" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J211" s="47"/>
-      <c r="K211" s="48"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="49"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
       <c r="N211" s="15" t="s">
@@ -22351,9 +22348,9 @@
       <c r="O211" s="19" t="n">
         <v>5449000032805</v>
       </c>
-      <c r="P211" s="38"/>
-      <c r="Q211" s="38"/>
-      <c r="R211" s="38"/>
+      <c r="P211" s="39"/>
+      <c r="Q211" s="39"/>
+      <c r="R211" s="39"/>
       <c r="S211" s="11" t="s">
         <v>56</v>
       </c>
@@ -22362,7 +22359,7 @@
       </c>
       <c r="U211" s="11"/>
       <c r="V211" s="11"/>
-      <c r="W211" s="39"/>
+      <c r="W211" s="40"/>
       <c r="X211" s="11"/>
       <c r="Y211" s="11" t="s">
         <v>523</v>
@@ -22434,24 +22431,24 @@
       <c r="L212" s="15"/>
       <c r="M212" s="15"/>
       <c r="N212" s="11"/>
-      <c r="O212" s="38"/>
-      <c r="P212" s="38"/>
-      <c r="Q212" s="38"/>
-      <c r="R212" s="38"/>
+      <c r="O212" s="39"/>
+      <c r="P212" s="39"/>
+      <c r="Q212" s="39"/>
+      <c r="R212" s="39"/>
       <c r="S212" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
       <c r="V212" s="11"/>
-      <c r="W212" s="39"/>
+      <c r="W212" s="40"/>
       <c r="X212" s="11"/>
       <c r="Y212" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z212" s="11"/>
       <c r="AA212" s="11"/>
-      <c r="AB212" s="40" t="n">
+      <c r="AB212" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC212" s="11"/>
@@ -22477,7 +22474,7 @@
       <c r="AO212" s="13" t="n">
         <v>211</v>
       </c>
-      <c r="AP212" s="41" t="s">
+      <c r="AP212" s="42" t="s">
         <v>536</v>
       </c>
       <c r="AQ212" s="11"/>
@@ -22518,14 +22515,14 @@
       <c r="N213" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O213" s="38" t="s">
+      <c r="O213" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P213" s="38" t="s">
+      <c r="P213" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q213" s="38"/>
-      <c r="R213" s="38"/>
+      <c r="Q213" s="39"/>
+      <c r="R213" s="39"/>
       <c r="S213" s="11" t="s">
         <v>56</v>
       </c>
@@ -22534,14 +22531,14 @@
       </c>
       <c r="U213" s="11"/>
       <c r="V213" s="11"/>
-      <c r="W213" s="39"/>
+      <c r="W213" s="40"/>
       <c r="X213" s="11"/>
       <c r="Y213" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z213" s="11"/>
       <c r="AA213" s="11"/>
-      <c r="AB213" s="40" t="n">
+      <c r="AB213" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC213" s="11"/>
@@ -22583,77 +22580,77 @@
       <c r="C214" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D214" s="42" t="s">
+      <c r="D214" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E214" s="42" t="s">
+      <c r="E214" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F214" s="42"/>
-      <c r="G214" s="43" t="s">
+      <c r="F214" s="43"/>
+      <c r="G214" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H214" s="43" t="s">
+      <c r="H214" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="I214" s="44" t="s">
+      <c r="I214" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J214" s="44"/>
-      <c r="K214" s="44" t="n">
+      <c r="J214" s="45"/>
+      <c r="K214" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L214" s="44"/>
-      <c r="M214" s="44"/>
-      <c r="N214" s="43"/>
-      <c r="O214" s="45"/>
-      <c r="P214" s="45"/>
-      <c r="Q214" s="45"/>
-      <c r="R214" s="45"/>
-      <c r="S214" s="43" t="s">
+      <c r="L214" s="45"/>
+      <c r="M214" s="45"/>
+      <c r="N214" s="44"/>
+      <c r="O214" s="46"/>
+      <c r="P214" s="46"/>
+      <c r="Q214" s="46"/>
+      <c r="R214" s="46"/>
+      <c r="S214" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T214" s="43" t="s">
+      <c r="T214" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U214" s="43"/>
-      <c r="V214" s="43"/>
-      <c r="W214" s="44" t="s">
+      <c r="U214" s="44"/>
+      <c r="V214" s="44"/>
+      <c r="W214" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="X214" s="43"/>
-      <c r="Y214" s="43" t="s">
+      <c r="X214" s="44"/>
+      <c r="Y214" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z214" s="43"/>
-      <c r="AA214" s="43"/>
-      <c r="AB214" s="40" t="n">
+      <c r="Z214" s="44"/>
+      <c r="AA214" s="44"/>
+      <c r="AB214" s="41" t="n">
         <v>103</v>
       </c>
-      <c r="AC214" s="43"/>
-      <c r="AD214" s="43"/>
-      <c r="AE214" s="43" t="s">
+      <c r="AC214" s="44"/>
+      <c r="AD214" s="44"/>
+      <c r="AE214" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF214" s="44" t="s">
+      <c r="AF214" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG214" s="46" t="n">
+      <c r="AG214" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH214" s="44"/>
-      <c r="AI214" s="44"/>
-      <c r="AJ214" s="44"/>
-      <c r="AK214" s="44"/>
-      <c r="AL214" s="44"/>
-      <c r="AM214" s="44"/>
-      <c r="AN214" s="43" t="n">
+      <c r="AH214" s="45"/>
+      <c r="AI214" s="45"/>
+      <c r="AJ214" s="45"/>
+      <c r="AK214" s="45"/>
+      <c r="AL214" s="45"/>
+      <c r="AM214" s="45"/>
+      <c r="AN214" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO214" s="13" t="n">
         <v>213</v>
       </c>
-      <c r="AP214" s="43"/>
+      <c r="AP214" s="44"/>
       <c r="AQ214" s="11" t="s">
         <v>534</v>
       </c>
@@ -22669,24 +22666,24 @@
       <c r="C215" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D215" s="53" t="s">
+      <c r="D215" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E215" s="53" t="s">
+      <c r="E215" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F215" s="53"/>
+      <c r="F215" s="54"/>
       <c r="G215" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="H215" s="40" t="s">
+      <c r="H215" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="I215" s="47" t="s">
+      <c r="I215" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J215" s="47"/>
-      <c r="K215" s="48"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="49"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
       <c r="N215" s="15" t="s">
@@ -22708,14 +22705,14 @@
       </c>
       <c r="U215" s="11"/>
       <c r="V215" s="11"/>
-      <c r="W215" s="39"/>
+      <c r="W215" s="40"/>
       <c r="X215" s="11"/>
       <c r="Y215" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z215" s="11"/>
       <c r="AA215" s="11"/>
-      <c r="AB215" s="40" t="n">
+      <c r="AB215" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC215" s="11"/>
@@ -22782,17 +22779,17 @@
       <c r="L216" s="15"/>
       <c r="M216" s="15"/>
       <c r="N216" s="11"/>
-      <c r="O216" s="38"/>
-      <c r="P216" s="38"/>
-      <c r="Q216" s="38"/>
-      <c r="R216" s="38"/>
+      <c r="O216" s="39"/>
+      <c r="P216" s="39"/>
+      <c r="Q216" s="39"/>
+      <c r="R216" s="39"/>
       <c r="S216" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
       <c r="V216" s="11"/>
-      <c r="W216" s="39"/>
+      <c r="W216" s="40"/>
       <c r="X216" s="11"/>
       <c r="Y216" s="11" t="s">
         <v>547</v>
@@ -22823,7 +22820,7 @@
       <c r="AO216" s="13" t="n">
         <v>215</v>
       </c>
-      <c r="AP216" s="41" t="s">
+      <c r="AP216" s="42" t="s">
         <v>548</v>
       </c>
       <c r="AQ216" s="11"/>
@@ -22864,14 +22861,14 @@
       <c r="N217" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O217" s="38" t="s">
+      <c r="O217" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="P217" s="38" t="s">
+      <c r="P217" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="Q217" s="38"/>
-      <c r="R217" s="38"/>
+      <c r="Q217" s="39"/>
+      <c r="R217" s="39"/>
       <c r="S217" s="11" t="s">
         <v>56</v>
       </c>
@@ -22880,7 +22877,7 @@
       </c>
       <c r="U217" s="11"/>
       <c r="V217" s="11"/>
-      <c r="W217" s="39"/>
+      <c r="W217" s="40"/>
       <c r="X217" s="11"/>
       <c r="Y217" s="11" t="s">
         <v>547</v>
@@ -22927,75 +22924,75 @@
       <c r="C218" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D218" s="42" t="s">
+      <c r="D218" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E218" s="42" t="s">
+      <c r="E218" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F218" s="42"/>
-      <c r="G218" s="43" t="s">
+      <c r="F218" s="43"/>
+      <c r="G218" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="H218" s="43" t="s">
+      <c r="H218" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="I218" s="44" t="s">
+      <c r="I218" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J218" s="44"/>
-      <c r="K218" s="44" t="n">
+      <c r="J218" s="45"/>
+      <c r="K218" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L218" s="44"/>
-      <c r="M218" s="44"/>
-      <c r="N218" s="43"/>
-      <c r="O218" s="45"/>
-      <c r="P218" s="45"/>
-      <c r="Q218" s="45"/>
-      <c r="R218" s="45"/>
-      <c r="S218" s="43" t="s">
+      <c r="L218" s="45"/>
+      <c r="M218" s="45"/>
+      <c r="N218" s="44"/>
+      <c r="O218" s="46"/>
+      <c r="P218" s="46"/>
+      <c r="Q218" s="46"/>
+      <c r="R218" s="46"/>
+      <c r="S218" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T218" s="43" t="s">
+      <c r="T218" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U218" s="43"/>
-      <c r="V218" s="43"/>
-      <c r="W218" s="44" t="s">
+      <c r="U218" s="44"/>
+      <c r="V218" s="44"/>
+      <c r="W218" s="45" t="s">
         <v>554</v>
       </c>
-      <c r="X218" s="43"/>
-      <c r="Y218" s="43" t="s">
+      <c r="X218" s="44"/>
+      <c r="Y218" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="Z218" s="43"/>
-      <c r="AA218" s="43"/>
-      <c r="AB218" s="44"/>
-      <c r="AC218" s="43"/>
-      <c r="AD218" s="43"/>
-      <c r="AE218" s="43" t="s">
+      <c r="Z218" s="44"/>
+      <c r="AA218" s="44"/>
+      <c r="AB218" s="45"/>
+      <c r="AC218" s="44"/>
+      <c r="AD218" s="44"/>
+      <c r="AE218" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF218" s="44" t="s">
+      <c r="AF218" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG218" s="46" t="n">
+      <c r="AG218" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH218" s="44"/>
-      <c r="AI218" s="44"/>
-      <c r="AJ218" s="44"/>
-      <c r="AK218" s="44"/>
-      <c r="AL218" s="44"/>
-      <c r="AM218" s="44"/>
-      <c r="AN218" s="43" t="n">
+      <c r="AH218" s="45"/>
+      <c r="AI218" s="45"/>
+      <c r="AJ218" s="45"/>
+      <c r="AK218" s="45"/>
+      <c r="AL218" s="45"/>
+      <c r="AM218" s="45"/>
+      <c r="AN218" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO218" s="13" t="n">
         <v>217</v>
       </c>
-      <c r="AP218" s="43"/>
+      <c r="AP218" s="44"/>
       <c r="AQ218" s="11" t="s">
         <v>545</v>
       </c>
@@ -23011,17 +23008,17 @@
       <c r="C219" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D219" s="53" t="s">
+      <c r="D219" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E219" s="53" t="s">
+      <c r="E219" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F219" s="53"/>
+      <c r="F219" s="54"/>
       <c r="G219" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="H219" s="40" t="s">
+      <c r="H219" s="41" t="s">
         <v>556</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -23034,17 +23031,17 @@
       <c r="L219" s="15"/>
       <c r="M219" s="15"/>
       <c r="N219" s="11"/>
-      <c r="O219" s="38"/>
-      <c r="P219" s="38"/>
-      <c r="Q219" s="38"/>
-      <c r="R219" s="38"/>
+      <c r="O219" s="39"/>
+      <c r="P219" s="39"/>
+      <c r="Q219" s="39"/>
+      <c r="R219" s="39"/>
       <c r="S219" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T219" s="11"/>
       <c r="U219" s="11"/>
       <c r="V219" s="11"/>
-      <c r="W219" s="39"/>
+      <c r="W219" s="40"/>
       <c r="X219" s="11"/>
       <c r="Y219" s="11" t="s">
         <v>547</v>
@@ -23075,7 +23072,7 @@
       <c r="AO219" s="13" t="n">
         <v>218</v>
       </c>
-      <c r="AP219" s="41" t="s">
+      <c r="AP219" s="42" t="s">
         <v>557</v>
       </c>
       <c r="AQ219" s="11" t="s">
@@ -23093,7 +23090,7 @@
       <c r="C220" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D220" s="53" t="s">
+      <c r="D220" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E220" s="14" t="s">
@@ -23103,14 +23100,14 @@
       <c r="G220" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H220" s="40" t="s">
+      <c r="H220" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="I220" s="47" t="s">
+      <c r="I220" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J220" s="47"/>
-      <c r="K220" s="48"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="49"/>
       <c r="L220" s="15"/>
       <c r="M220" s="15"/>
       <c r="N220" s="15" t="s">
@@ -23130,7 +23127,7 @@
       </c>
       <c r="U220" s="11"/>
       <c r="V220" s="11"/>
-      <c r="W220" s="39"/>
+      <c r="W220" s="40"/>
       <c r="X220" s="11"/>
       <c r="Y220" s="11" t="s">
         <v>547</v>
@@ -23179,7 +23176,7 @@
       <c r="C221" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E221" s="14" t="s">
@@ -23189,14 +23186,14 @@
       <c r="G221" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="H221" s="40" t="s">
+      <c r="H221" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="I221" s="47" t="s">
+      <c r="I221" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J221" s="47"/>
-      <c r="K221" s="48"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="49"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15"/>
       <c r="N221" s="15" t="s">
@@ -23216,7 +23213,7 @@
       </c>
       <c r="U221" s="11"/>
       <c r="V221" s="11"/>
-      <c r="W221" s="39"/>
+      <c r="W221" s="40"/>
       <c r="X221" s="11"/>
       <c r="Y221" s="11" t="s">
         <v>547</v>
@@ -23288,17 +23285,17 @@
       <c r="L222" s="15"/>
       <c r="M222" s="15"/>
       <c r="N222" s="11"/>
-      <c r="O222" s="38"/>
-      <c r="P222" s="38"/>
-      <c r="Q222" s="38"/>
-      <c r="R222" s="38"/>
+      <c r="O222" s="39"/>
+      <c r="P222" s="39"/>
+      <c r="Q222" s="39"/>
+      <c r="R222" s="39"/>
       <c r="S222" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T222" s="11"/>
       <c r="U222" s="11"/>
       <c r="V222" s="11"/>
-      <c r="W222" s="39"/>
+      <c r="W222" s="40"/>
       <c r="X222" s="11"/>
       <c r="Y222" s="11" t="s">
         <v>453</v>
@@ -23331,7 +23328,7 @@
       <c r="AO222" s="13" t="n">
         <v>221</v>
       </c>
-      <c r="AP222" s="41" t="s">
+      <c r="AP222" s="42" t="s">
         <v>566</v>
       </c>
       <c r="AQ222" s="11"/>
@@ -23372,14 +23369,14 @@
       <c r="N223" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O223" s="38" t="s">
+      <c r="O223" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P223" s="38" t="s">
+      <c r="P223" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q223" s="38"/>
-      <c r="R223" s="38"/>
+      <c r="Q223" s="39"/>
+      <c r="R223" s="39"/>
       <c r="S223" s="11" t="s">
         <v>56</v>
       </c>
@@ -23388,7 +23385,7 @@
       </c>
       <c r="U223" s="11"/>
       <c r="V223" s="11"/>
-      <c r="W223" s="39"/>
+      <c r="W223" s="40"/>
       <c r="X223" s="11"/>
       <c r="Y223" s="11" t="s">
         <v>453</v>
@@ -23437,77 +23434,77 @@
       <c r="C224" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D224" s="42" t="s">
+      <c r="D224" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E224" s="42" t="s">
+      <c r="E224" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F224" s="42"/>
-      <c r="G224" s="43" t="s">
+      <c r="F224" s="43"/>
+      <c r="G224" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="H224" s="43" t="s">
+      <c r="H224" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="I224" s="44" t="s">
+      <c r="I224" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J224" s="44"/>
-      <c r="K224" s="44" t="n">
+      <c r="J224" s="45"/>
+      <c r="K224" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L224" s="44"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="43"/>
-      <c r="O224" s="45"/>
-      <c r="P224" s="45"/>
-      <c r="Q224" s="45"/>
-      <c r="R224" s="45"/>
-      <c r="S224" s="43" t="s">
+      <c r="L224" s="45"/>
+      <c r="M224" s="45"/>
+      <c r="N224" s="44"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+      <c r="Q224" s="46"/>
+      <c r="R224" s="46"/>
+      <c r="S224" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T224" s="43" t="s">
+      <c r="T224" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U224" s="43"/>
-      <c r="V224" s="43"/>
-      <c r="W224" s="44" t="s">
+      <c r="U224" s="44"/>
+      <c r="V224" s="44"/>
+      <c r="W224" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="X224" s="43"/>
-      <c r="Y224" s="43" t="s">
+      <c r="X224" s="44"/>
+      <c r="Y224" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="Z224" s="43"/>
-      <c r="AA224" s="43"/>
-      <c r="AB224" s="44" t="n">
+      <c r="Z224" s="44"/>
+      <c r="AA224" s="44"/>
+      <c r="AB224" s="45" t="n">
         <v>1102</v>
       </c>
-      <c r="AC224" s="43"/>
-      <c r="AD224" s="43"/>
-      <c r="AE224" s="43" t="s">
+      <c r="AC224" s="44"/>
+      <c r="AD224" s="44"/>
+      <c r="AE224" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF224" s="44" t="s">
+      <c r="AF224" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG224" s="46" t="n">
+      <c r="AG224" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH224" s="44"/>
-      <c r="AI224" s="44"/>
-      <c r="AJ224" s="44"/>
-      <c r="AK224" s="44"/>
-      <c r="AL224" s="44"/>
-      <c r="AM224" s="44"/>
-      <c r="AN224" s="43" t="n">
+      <c r="AH224" s="45"/>
+      <c r="AI224" s="45"/>
+      <c r="AJ224" s="45"/>
+      <c r="AK224" s="45"/>
+      <c r="AL224" s="45"/>
+      <c r="AM224" s="45"/>
+      <c r="AN224" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO224" s="13" t="n">
         <v>223</v>
       </c>
-      <c r="AP224" s="43"/>
+      <c r="AP224" s="44"/>
       <c r="AQ224" s="11" t="s">
         <v>564</v>
       </c>
@@ -23523,30 +23520,30 @@
       <c r="C225" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D225" s="53" t="s">
+      <c r="D225" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E225" s="53" t="s">
+      <c r="E225" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F225" s="53"/>
+      <c r="F225" s="54"/>
       <c r="G225" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="H225" s="40" t="s">
+      <c r="H225" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="I225" s="47" t="s">
+      <c r="I225" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J225" s="47"/>
-      <c r="K225" s="48"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="49"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15"/>
       <c r="N225" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="O225" s="54" t="n">
+      <c r="O225" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P225" s="20"/>
@@ -23560,7 +23557,7 @@
       </c>
       <c r="U225" s="11"/>
       <c r="V225" s="11"/>
-      <c r="W225" s="39"/>
+      <c r="W225" s="40"/>
       <c r="X225" s="11"/>
       <c r="Y225" s="11" t="s">
         <v>453</v>
@@ -23634,17 +23631,17 @@
       <c r="L226" s="15"/>
       <c r="M226" s="15"/>
       <c r="N226" s="11"/>
-      <c r="O226" s="38"/>
-      <c r="P226" s="38"/>
-      <c r="Q226" s="38"/>
-      <c r="R226" s="38"/>
+      <c r="O226" s="39"/>
+      <c r="P226" s="39"/>
+      <c r="Q226" s="39"/>
+      <c r="R226" s="39"/>
       <c r="S226" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T226" s="11"/>
       <c r="U226" s="11"/>
       <c r="V226" s="11"/>
-      <c r="W226" s="39"/>
+      <c r="W226" s="40"/>
       <c r="X226" s="11"/>
       <c r="Y226" s="15" t="s">
         <v>576</v>
@@ -23677,7 +23674,7 @@
       <c r="AO226" s="13" t="n">
         <v>225</v>
       </c>
-      <c r="AP226" s="41" t="s">
+      <c r="AP226" s="42" t="s">
         <v>578</v>
       </c>
       <c r="AQ226" s="11"/>
@@ -23718,14 +23715,14 @@
       <c r="N227" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="O227" s="38" t="s">
+      <c r="O227" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="P227" s="55"/>
-      <c r="Q227" s="55" t="s">
+      <c r="P227" s="56"/>
+      <c r="Q227" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="R227" s="38"/>
+      <c r="R227" s="39"/>
       <c r="S227" s="11" t="s">
         <v>56</v>
       </c>
@@ -23734,7 +23731,7 @@
       </c>
       <c r="U227" s="11"/>
       <c r="V227" s="11"/>
-      <c r="W227" s="39"/>
+      <c r="W227" s="40"/>
       <c r="X227" s="11"/>
       <c r="Y227" s="15" t="s">
         <v>576</v>
@@ -23783,77 +23780,77 @@
       <c r="C228" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="42" t="s">
+      <c r="D228" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E228" s="42" t="s">
+      <c r="E228" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F228" s="42"/>
-      <c r="G228" s="43" t="s">
+      <c r="F228" s="43"/>
+      <c r="G228" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="H228" s="43" t="s">
+      <c r="H228" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="I228" s="44" t="s">
+      <c r="I228" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J228" s="44"/>
-      <c r="K228" s="44" t="n">
+      <c r="J228" s="45"/>
+      <c r="K228" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L228" s="44"/>
-      <c r="M228" s="44"/>
-      <c r="N228" s="43"/>
-      <c r="O228" s="45"/>
-      <c r="P228" s="45"/>
-      <c r="Q228" s="45"/>
-      <c r="R228" s="45"/>
-      <c r="S228" s="43" t="s">
+      <c r="L228" s="45"/>
+      <c r="M228" s="45"/>
+      <c r="N228" s="44"/>
+      <c r="O228" s="46"/>
+      <c r="P228" s="46"/>
+      <c r="Q228" s="46"/>
+      <c r="R228" s="46"/>
+      <c r="S228" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T228" s="43" t="s">
+      <c r="T228" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U228" s="43"/>
-      <c r="V228" s="43"/>
-      <c r="W228" s="44" t="s">
+      <c r="U228" s="44"/>
+      <c r="V228" s="44"/>
+      <c r="W228" s="45" t="s">
         <v>586</v>
       </c>
-      <c r="X228" s="43"/>
-      <c r="Y228" s="44" t="s">
+      <c r="X228" s="44"/>
+      <c r="Y228" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="Z228" s="43" t="s">
+      <c r="Z228" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="AA228" s="43"/>
-      <c r="AB228" s="44"/>
-      <c r="AC228" s="43"/>
-      <c r="AD228" s="43"/>
-      <c r="AE228" s="43" t="s">
+      <c r="AA228" s="44"/>
+      <c r="AB228" s="45"/>
+      <c r="AC228" s="44"/>
+      <c r="AD228" s="44"/>
+      <c r="AE228" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF228" s="44" t="s">
+      <c r="AF228" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG228" s="46" t="n">
+      <c r="AG228" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH228" s="44"/>
-      <c r="AI228" s="44"/>
-      <c r="AJ228" s="44"/>
-      <c r="AK228" s="44"/>
-      <c r="AL228" s="44"/>
-      <c r="AM228" s="44"/>
-      <c r="AN228" s="43" t="n">
+      <c r="AH228" s="45"/>
+      <c r="AI228" s="45"/>
+      <c r="AJ228" s="45"/>
+      <c r="AK228" s="45"/>
+      <c r="AL228" s="45"/>
+      <c r="AM228" s="45"/>
+      <c r="AN228" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO228" s="13" t="n">
         <v>227</v>
       </c>
-      <c r="AP228" s="56"/>
+      <c r="AP228" s="57"/>
       <c r="AQ228" s="11" t="s">
         <v>574</v>
       </c>
@@ -23869,13 +23866,13 @@
       <c r="C229" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="53" t="s">
+      <c r="D229" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E229" s="53" t="s">
+      <c r="E229" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F229" s="53"/>
+      <c r="F229" s="54"/>
       <c r="G229" s="15" t="s">
         <v>587</v>
       </c>
@@ -23892,17 +23889,17 @@
       <c r="L229" s="15"/>
       <c r="M229" s="15"/>
       <c r="N229" s="11"/>
-      <c r="O229" s="38"/>
-      <c r="P229" s="38"/>
-      <c r="Q229" s="38"/>
-      <c r="R229" s="38"/>
+      <c r="O229" s="39"/>
+      <c r="P229" s="39"/>
+      <c r="Q229" s="39"/>
+      <c r="R229" s="39"/>
       <c r="S229" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T229" s="11"/>
       <c r="U229" s="11"/>
       <c r="V229" s="11"/>
-      <c r="W229" s="39"/>
+      <c r="W229" s="40"/>
       <c r="X229" s="11"/>
       <c r="Y229" s="15" t="s">
         <v>576</v>
@@ -23935,7 +23932,7 @@
       <c r="AO229" s="13" t="n">
         <v>228</v>
       </c>
-      <c r="AP229" s="41" t="s">
+      <c r="AP229" s="42" t="s">
         <v>589</v>
       </c>
       <c r="AQ229" s="11" t="s">
@@ -23953,7 +23950,7 @@
       <c r="C230" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D230" s="53" t="s">
+      <c r="D230" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E230" s="14" t="s">
@@ -23963,14 +23960,14 @@
       <c r="G230" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="H230" s="57" t="s">
+      <c r="H230" s="58" t="s">
         <v>591</v>
       </c>
-      <c r="I230" s="47" t="s">
+      <c r="I230" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J230" s="47"/>
-      <c r="K230" s="48"/>
+      <c r="J230" s="48"/>
+      <c r="K230" s="49"/>
       <c r="L230" s="15"/>
       <c r="M230" s="15"/>
       <c r="N230" s="22" t="s">
@@ -23990,7 +23987,7 @@
       </c>
       <c r="U230" s="11"/>
       <c r="V230" s="11"/>
-      <c r="W230" s="39"/>
+      <c r="W230" s="40"/>
       <c r="X230" s="11"/>
       <c r="Y230" s="15" t="s">
         <v>576</v>
@@ -24041,7 +24038,7 @@
       <c r="C231" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D231" s="53" t="s">
+      <c r="D231" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E231" s="14" t="s">
@@ -24051,20 +24048,20 @@
       <c r="G231" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="H231" s="40" t="s">
+      <c r="H231" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="I231" s="47" t="s">
+      <c r="I231" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J231" s="47"/>
-      <c r="K231" s="48"/>
+      <c r="J231" s="48"/>
+      <c r="K231" s="49"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15"/>
       <c r="N231" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="O231" s="58" t="n">
+      <c r="O231" s="59" t="n">
         <v>5449000000996</v>
       </c>
       <c r="P231" s="20"/>
@@ -24078,7 +24075,7 @@
       </c>
       <c r="U231" s="11"/>
       <c r="V231" s="11"/>
-      <c r="W231" s="39"/>
+      <c r="W231" s="40"/>
       <c r="X231" s="11"/>
       <c r="Y231" s="15" t="s">
         <v>576</v>
@@ -24129,7 +24126,7 @@
       <c r="C232" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D232" s="53" t="s">
+      <c r="D232" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E232" s="14" t="s">
@@ -24139,20 +24136,20 @@
       <c r="G232" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="H232" s="40" t="s">
+      <c r="H232" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="I232" s="47" t="s">
+      <c r="I232" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J232" s="47"/>
-      <c r="K232" s="48"/>
+      <c r="J232" s="48"/>
+      <c r="K232" s="49"/>
       <c r="L232" s="15"/>
       <c r="M232" s="15"/>
       <c r="N232" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O232" s="59" t="n">
+      <c r="O232" s="60" t="n">
         <v>5449000044808</v>
       </c>
       <c r="P232" s="20"/>
@@ -24166,7 +24163,7 @@
       </c>
       <c r="U232" s="11"/>
       <c r="V232" s="11"/>
-      <c r="W232" s="39"/>
+      <c r="W232" s="40"/>
       <c r="X232" s="11"/>
       <c r="Y232" s="15" t="s">
         <v>576</v>
@@ -24217,7 +24214,7 @@
       <c r="C233" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D233" s="53" t="s">
+      <c r="D233" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E233" s="14" t="s">
@@ -24227,20 +24224,20 @@
       <c r="G233" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="H233" s="40" t="s">
+      <c r="H233" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="I233" s="47" t="s">
+      <c r="I233" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J233" s="47"/>
-      <c r="K233" s="48"/>
+      <c r="J233" s="48"/>
+      <c r="K233" s="49"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15"/>
       <c r="N233" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="O233" s="58" t="n">
+      <c r="O233" s="59" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P233" s="20"/>
@@ -24254,7 +24251,7 @@
       </c>
       <c r="U233" s="11"/>
       <c r="V233" s="11"/>
-      <c r="W233" s="39"/>
+      <c r="W233" s="40"/>
       <c r="X233" s="11"/>
       <c r="Y233" s="15" t="s">
         <v>576</v>
@@ -24330,14 +24327,14 @@
       <c r="N234" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O234" s="38" t="s">
+      <c r="O234" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P234" s="38" t="s">
+      <c r="P234" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q234" s="38"/>
-      <c r="R234" s="38"/>
+      <c r="Q234" s="39"/>
+      <c r="R234" s="39"/>
       <c r="S234" s="11"/>
       <c r="T234" s="11" t="s">
         <v>428</v>
@@ -24360,7 +24357,7 @@
       <c r="AF234" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG234" s="60" t="n">
+      <c r="AG234" s="61" t="n">
         <v>0.05</v>
       </c>
       <c r="AH234" s="15"/>
@@ -24376,7 +24373,7 @@
         <v>233</v>
       </c>
       <c r="AP234" s="11"/>
-      <c r="AQ234" s="61"/>
+      <c r="AQ234" s="62"/>
       <c r="AR234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24412,10 +24409,10 @@
       <c r="L235" s="15"/>
       <c r="M235" s="15"/>
       <c r="N235" s="11"/>
-      <c r="O235" s="38"/>
-      <c r="P235" s="38"/>
-      <c r="Q235" s="38"/>
-      <c r="R235" s="38"/>
+      <c r="O235" s="39"/>
+      <c r="P235" s="39"/>
+      <c r="Q235" s="39"/>
+      <c r="R235" s="39"/>
       <c r="S235" s="15" t="s">
         <v>421</v>
       </c>
@@ -24440,7 +24437,7 @@
       <c r="AF235" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG235" s="60" t="n">
+      <c r="AG235" s="61" t="n">
         <v>0.01</v>
       </c>
       <c r="AH235" s="15"/>
@@ -24455,10 +24452,10 @@
       <c r="AO235" s="13" t="n">
         <v>234</v>
       </c>
-      <c r="AP235" s="41" t="s">
+      <c r="AP235" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="AQ235" s="62" t="s">
+      <c r="AQ235" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR235" s="11"/>
@@ -24483,7 +24480,7 @@
       <c r="G236" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="H236" s="40" t="s">
+      <c r="H236" s="41" t="s">
         <v>616</v>
       </c>
       <c r="I236" s="15" t="s">
@@ -24495,7 +24492,7 @@
       </c>
       <c r="L236" s="15"/>
       <c r="M236" s="15"/>
-      <c r="N236" s="63" t="s">
+      <c r="N236" s="64" t="s">
         <v>68</v>
       </c>
       <c r="O236" s="20" t="n">
@@ -24504,10 +24501,10 @@
       <c r="P236" s="20"/>
       <c r="Q236" s="20"/>
       <c r="R236" s="20"/>
-      <c r="S236" s="63" t="s">
+      <c r="S236" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T236" s="63" t="s">
+      <c r="T236" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U236" s="11"/>
@@ -24530,7 +24527,7 @@
       <c r="AF236" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG236" s="60" t="n">
+      <c r="AG236" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH236" s="15"/>
@@ -24571,7 +24568,7 @@
       <c r="G237" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="H237" s="40" t="s">
+      <c r="H237" s="41" t="s">
         <v>618</v>
       </c>
       <c r="I237" s="15" t="s">
@@ -24583,7 +24580,7 @@
       </c>
       <c r="L237" s="15"/>
       <c r="M237" s="15"/>
-      <c r="N237" s="63" t="s">
+      <c r="N237" s="64" t="s">
         <v>99</v>
       </c>
       <c r="O237" s="20" t="n">
@@ -24592,10 +24589,10 @@
       <c r="P237" s="20"/>
       <c r="Q237" s="20"/>
       <c r="R237" s="20"/>
-      <c r="S237" s="63" t="s">
+      <c r="S237" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T237" s="63" t="s">
+      <c r="T237" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U237" s="11"/>
@@ -24618,7 +24615,7 @@
       <c r="AF237" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG237" s="60" t="n">
+      <c r="AG237" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH237" s="15"/>
@@ -24659,7 +24656,7 @@
       <c r="G238" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="H238" s="40" t="s">
+      <c r="H238" s="41" t="s">
         <v>620</v>
       </c>
       <c r="I238" s="15" t="s">
@@ -24680,10 +24677,10 @@
       <c r="P238" s="20"/>
       <c r="Q238" s="20"/>
       <c r="R238" s="20"/>
-      <c r="S238" s="63" t="s">
+      <c r="S238" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T238" s="63" t="s">
+      <c r="T238" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U238" s="11"/>
@@ -24706,7 +24703,7 @@
       <c r="AF238" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG238" s="60" t="n">
+      <c r="AG238" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH238" s="15"/>
@@ -24747,7 +24744,7 @@
       <c r="G239" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="H239" s="40" t="s">
+      <c r="H239" s="41" t="s">
         <v>622</v>
       </c>
       <c r="I239" s="15" t="s">
@@ -24762,16 +24759,16 @@
       <c r="N239" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O239" s="49" t="n">
+      <c r="O239" s="50" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P239" s="49"/>
-      <c r="Q239" s="49"/>
-      <c r="R239" s="49"/>
-      <c r="S239" s="63" t="s">
+      <c r="P239" s="50"/>
+      <c r="Q239" s="50"/>
+      <c r="R239" s="50"/>
+      <c r="S239" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T239" s="63" t="s">
+      <c r="T239" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U239" s="11"/>
@@ -24794,7 +24791,7 @@
       <c r="AF239" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG239" s="60" t="n">
+      <c r="AG239" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH239" s="15"/>
@@ -24835,7 +24832,7 @@
       <c r="G240" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="H240" s="40" t="s">
+      <c r="H240" s="41" t="s">
         <v>624</v>
       </c>
       <c r="I240" s="15" t="s">
@@ -24856,10 +24853,10 @@
       <c r="P240" s="20"/>
       <c r="Q240" s="20"/>
       <c r="R240" s="20"/>
-      <c r="S240" s="63" t="s">
+      <c r="S240" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T240" s="63" t="s">
+      <c r="T240" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U240" s="11"/>
@@ -24882,7 +24879,7 @@
       <c r="AF240" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG240" s="60" t="n">
+      <c r="AG240" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH240" s="15"/>
@@ -24923,7 +24920,7 @@
       <c r="G241" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="H241" s="40" t="s">
+      <c r="H241" s="41" t="s">
         <v>627</v>
       </c>
       <c r="I241" s="15" t="s">
@@ -24944,10 +24941,10 @@
       <c r="P241" s="20"/>
       <c r="Q241" s="20"/>
       <c r="R241" s="20"/>
-      <c r="S241" s="63" t="s">
+      <c r="S241" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T241" s="63" t="s">
+      <c r="T241" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U241" s="11"/>
@@ -24970,7 +24967,7 @@
       <c r="AF241" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG241" s="60" t="n">
+      <c r="AG241" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH241" s="15"/>
@@ -25011,7 +25008,7 @@
       <c r="G242" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="H242" s="40" t="s">
+      <c r="H242" s="41" t="s">
         <v>630</v>
       </c>
       <c r="I242" s="15" t="s">
@@ -25032,10 +25029,10 @@
       <c r="P242" s="20"/>
       <c r="Q242" s="20"/>
       <c r="R242" s="20"/>
-      <c r="S242" s="63" t="s">
+      <c r="S242" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T242" s="63" t="s">
+      <c r="T242" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U242" s="11"/>
@@ -25058,7 +25055,7 @@
       <c r="AF242" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG242" s="60" t="n">
+      <c r="AG242" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH242" s="15"/>
@@ -25114,14 +25111,14 @@
       <c r="N243" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O243" s="38" t="s">
+      <c r="O243" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P243" s="38" t="s">
+      <c r="P243" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="Q243" s="38"/>
-      <c r="R243" s="38"/>
+      <c r="Q243" s="39"/>
+      <c r="R243" s="39"/>
       <c r="S243" s="11"/>
       <c r="T243" s="11" t="s">
         <v>428</v>
@@ -25160,7 +25157,7 @@
         <v>242</v>
       </c>
       <c r="AP243" s="11"/>
-      <c r="AQ243" s="61"/>
+      <c r="AQ243" s="62"/>
       <c r="AR243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25196,11 +25193,11 @@
       <c r="L244" s="15"/>
       <c r="M244" s="15"/>
       <c r="N244" s="11"/>
-      <c r="O244" s="38"/>
-      <c r="P244" s="38"/>
-      <c r="Q244" s="38"/>
-      <c r="R244" s="38"/>
-      <c r="S244" s="63" t="s">
+      <c r="O244" s="39"/>
+      <c r="P244" s="39"/>
+      <c r="Q244" s="39"/>
+      <c r="R244" s="39"/>
+      <c r="S244" s="64" t="s">
         <v>421</v>
       </c>
       <c r="T244" s="11"/>
@@ -25239,10 +25236,10 @@
       <c r="AO244" s="13" t="n">
         <v>243</v>
       </c>
-      <c r="AP244" s="64" t="s">
+      <c r="AP244" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="AQ244" s="62" t="s">
+      <c r="AQ244" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR244" s="11"/>
@@ -25267,7 +25264,7 @@
       <c r="G245" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="H245" s="40" t="s">
+      <c r="H245" s="41" t="s">
         <v>639</v>
       </c>
       <c r="I245" s="15" t="s">
@@ -25279,7 +25276,7 @@
       </c>
       <c r="L245" s="15"/>
       <c r="M245" s="15"/>
-      <c r="N245" s="52" t="s">
+      <c r="N245" s="53" t="s">
         <v>640</v>
       </c>
       <c r="O245" s="20" t="n">
@@ -25288,10 +25285,10 @@
       <c r="P245" s="20"/>
       <c r="Q245" s="20"/>
       <c r="R245" s="20"/>
-      <c r="S245" s="63" t="s">
+      <c r="S245" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T245" s="52" t="s">
+      <c r="T245" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U245" s="11"/>
@@ -25370,14 +25367,14 @@
       <c r="N246" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O246" s="38" t="s">
+      <c r="O246" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P246" s="38" t="s">
+      <c r="P246" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q246" s="38"/>
-      <c r="R246" s="38"/>
+      <c r="Q246" s="39"/>
+      <c r="R246" s="39"/>
       <c r="S246" s="11"/>
       <c r="T246" s="11" t="s">
         <v>428</v>
@@ -25416,7 +25413,7 @@
         <v>245</v>
       </c>
       <c r="AP246" s="11"/>
-      <c r="AQ246" s="61"/>
+      <c r="AQ246" s="62"/>
       <c r="AR246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25452,10 +25449,10 @@
       <c r="L247" s="15"/>
       <c r="M247" s="15"/>
       <c r="N247" s="11"/>
-      <c r="O247" s="38"/>
-      <c r="P247" s="38"/>
-      <c r="Q247" s="38"/>
-      <c r="R247" s="38"/>
+      <c r="O247" s="39"/>
+      <c r="P247" s="39"/>
+      <c r="Q247" s="39"/>
+      <c r="R247" s="39"/>
       <c r="S247" s="15" t="s">
         <v>421</v>
       </c>
@@ -25495,10 +25492,10 @@
       <c r="AO247" s="13" t="n">
         <v>246</v>
       </c>
-      <c r="AP247" s="41" t="s">
+      <c r="AP247" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="AQ247" s="62" t="s">
+      <c r="AQ247" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR247" s="11"/>
@@ -25523,7 +25520,7 @@
       <c r="G248" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="H248" s="40" t="s">
+      <c r="H248" s="41" t="s">
         <v>648</v>
       </c>
       <c r="I248" s="15" t="s">
@@ -25535,19 +25532,19 @@
       </c>
       <c r="L248" s="15"/>
       <c r="M248" s="15"/>
-      <c r="N248" s="52" t="s">
+      <c r="N248" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O248" s="65" t="n">
+      <c r="O248" s="66" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P248" s="20"/>
       <c r="Q248" s="20"/>
       <c r="R248" s="20"/>
-      <c r="S248" s="52" t="s">
+      <c r="S248" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T248" s="52" t="s">
+      <c r="T248" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U248" s="11"/>
@@ -25611,7 +25608,7 @@
       <c r="G249" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="H249" s="40" t="s">
+      <c r="H249" s="41" t="s">
         <v>650</v>
       </c>
       <c r="I249" s="15" t="s">
@@ -25623,7 +25620,7 @@
       </c>
       <c r="L249" s="15"/>
       <c r="M249" s="15"/>
-      <c r="N249" s="52" t="s">
+      <c r="N249" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O249" s="20" t="n">
@@ -25632,10 +25629,10 @@
       <c r="P249" s="20"/>
       <c r="Q249" s="20"/>
       <c r="R249" s="20"/>
-      <c r="S249" s="52" t="s">
+      <c r="S249" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T249" s="52" t="s">
+      <c r="T249" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U249" s="11"/>
@@ -25699,7 +25696,7 @@
       <c r="G250" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="H250" s="40" t="s">
+      <c r="H250" s="41" t="s">
         <v>652</v>
       </c>
       <c r="I250" s="15" t="s">
@@ -25711,7 +25708,7 @@
       </c>
       <c r="L250" s="15"/>
       <c r="M250" s="15"/>
-      <c r="N250" s="52" t="s">
+      <c r="N250" s="53" t="s">
         <v>241</v>
       </c>
       <c r="O250" s="20" t="n">
@@ -25720,10 +25717,10 @@
       <c r="P250" s="20"/>
       <c r="Q250" s="20"/>
       <c r="R250" s="20"/>
-      <c r="S250" s="52" t="s">
+      <c r="S250" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T250" s="52" t="s">
+      <c r="T250" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U250" s="11"/>
@@ -25787,7 +25784,7 @@
       <c r="G251" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="H251" s="40" t="s">
+      <c r="H251" s="41" t="s">
         <v>654</v>
       </c>
       <c r="I251" s="15" t="s">
@@ -25799,19 +25796,19 @@
       </c>
       <c r="L251" s="15"/>
       <c r="M251" s="15"/>
-      <c r="N251" s="52" t="s">
+      <c r="N251" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="O251" s="54" t="n">
+      <c r="O251" s="55" t="n">
         <v>4607042439155</v>
       </c>
-      <c r="P251" s="66"/>
-      <c r="Q251" s="66"/>
-      <c r="R251" s="66"/>
-      <c r="S251" s="52" t="s">
+      <c r="P251" s="67"/>
+      <c r="Q251" s="67"/>
+      <c r="R251" s="67"/>
+      <c r="S251" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T251" s="52" t="s">
+      <c r="T251" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U251" s="11"/>
@@ -25875,7 +25872,7 @@
       <c r="G252" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="H252" s="40" t="s">
+      <c r="H252" s="41" t="s">
         <v>656</v>
       </c>
       <c r="I252" s="15" t="s">
@@ -25887,19 +25884,19 @@
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15"/>
-      <c r="N252" s="52" t="s">
+      <c r="N252" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="O252" s="67" t="n">
+      <c r="O252" s="68" t="n">
         <v>4607042439216</v>
       </c>
-      <c r="P252" s="66"/>
-      <c r="Q252" s="66"/>
-      <c r="R252" s="66"/>
-      <c r="S252" s="52" t="s">
+      <c r="P252" s="67"/>
+      <c r="Q252" s="67"/>
+      <c r="R252" s="67"/>
+      <c r="S252" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T252" s="52" t="s">
+      <c r="T252" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U252" s="11"/>
@@ -25978,15 +25975,15 @@
       <c r="N253" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O253" s="49" t="s">
+      <c r="O253" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="P253" s="49" t="s">
+      <c r="P253" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="Q253" s="49"/>
-      <c r="R253" s="49"/>
-      <c r="S253" s="52"/>
+      <c r="Q253" s="50"/>
+      <c r="R253" s="50"/>
+      <c r="S253" s="53"/>
       <c r="T253" s="11" t="s">
         <v>428</v>
       </c>
@@ -26024,7 +26021,7 @@
         <v>252</v>
       </c>
       <c r="AP253" s="11"/>
-      <c r="AQ253" s="61"/>
+      <c r="AQ253" s="62"/>
       <c r="AR253" s="11"/>
     </row>
     <row r="254" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26060,11 +26057,11 @@
       <c r="L254" s="15"/>
       <c r="M254" s="15"/>
       <c r="N254" s="11"/>
-      <c r="O254" s="49"/>
-      <c r="P254" s="49"/>
-      <c r="Q254" s="49"/>
-      <c r="R254" s="49"/>
-      <c r="S254" s="63" t="s">
+      <c r="O254" s="50"/>
+      <c r="P254" s="50"/>
+      <c r="Q254" s="50"/>
+      <c r="R254" s="50"/>
+      <c r="S254" s="64" t="s">
         <v>421</v>
       </c>
       <c r="T254" s="11"/>
@@ -26103,10 +26100,10 @@
       <c r="AO254" s="13" t="n">
         <v>253</v>
       </c>
-      <c r="AP254" s="41" t="s">
+      <c r="AP254" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="AQ254" s="62" t="s">
+      <c r="AQ254" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR254" s="11"/>
@@ -26131,7 +26128,7 @@
       <c r="G255" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H255" s="40" t="s">
+      <c r="H255" s="41" t="s">
         <v>664</v>
       </c>
       <c r="I255" s="15" t="s">
@@ -26146,16 +26143,16 @@
       <c r="N255" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="O255" s="68" t="n">
+      <c r="O255" s="69" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P255" s="68"/>
-      <c r="Q255" s="68"/>
-      <c r="R255" s="68"/>
-      <c r="S255" s="63" t="s">
+      <c r="P255" s="69"/>
+      <c r="Q255" s="69"/>
+      <c r="R255" s="69"/>
+      <c r="S255" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T255" s="52" t="s">
+      <c r="T255" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U255" s="11"/>
@@ -26219,7 +26216,7 @@
       <c r="G256" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="H256" s="40" t="s">
+      <c r="H256" s="41" t="s">
         <v>666</v>
       </c>
       <c r="I256" s="15" t="s">
@@ -26234,16 +26231,16 @@
       <c r="N256" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="O256" s="68" t="n">
+      <c r="O256" s="69" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
-      <c r="S256" s="63" t="s">
+      <c r="P256" s="69"/>
+      <c r="Q256" s="69"/>
+      <c r="R256" s="69"/>
+      <c r="S256" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T256" s="52" t="s">
+      <c r="T256" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U256" s="11"/>
@@ -26322,14 +26319,14 @@
       <c r="N257" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O257" s="49" t="s">
+      <c r="O257" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="P257" s="49" t="s">
+      <c r="P257" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="Q257" s="49"/>
-      <c r="R257" s="49"/>
+      <c r="Q257" s="50"/>
+      <c r="R257" s="50"/>
       <c r="S257" s="11"/>
       <c r="T257" s="11" t="s">
         <v>428</v>
@@ -26381,13 +26378,13 @@
       <c r="C258" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D258" s="69" t="s">
+      <c r="D258" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E258" s="69" t="s">
+      <c r="E258" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F258" s="69"/>
+      <c r="F258" s="70"/>
       <c r="G258" s="15" t="s">
         <v>670</v>
       </c>
@@ -26437,7 +26434,7 @@
       <c r="AO258" s="13" t="n">
         <v>257</v>
       </c>
-      <c r="AP258" s="41" t="s">
+      <c r="AP258" s="42" t="s">
         <v>673</v>
       </c>
       <c r="AQ258" s="11"/>
@@ -26453,17 +26450,17 @@
       <c r="C259" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D259" s="69" t="s">
+      <c r="D259" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E259" s="69" t="s">
+      <c r="E259" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69" t="s">
+      <c r="F259" s="70"/>
+      <c r="G259" s="70" t="s">
         <v>674</v>
       </c>
-      <c r="H259" s="70" t="s">
+      <c r="H259" s="71" t="s">
         <v>675</v>
       </c>
       <c r="I259" s="15" t="s">
@@ -26475,7 +26472,7 @@
       </c>
       <c r="L259" s="15"/>
       <c r="M259" s="15"/>
-      <c r="N259" s="69" t="s">
+      <c r="N259" s="70" t="s">
         <v>674</v>
       </c>
       <c r="O259" s="19" t="n">
@@ -26526,7 +26523,7 @@
         <v>258</v>
       </c>
       <c r="AP259" s="11"/>
-      <c r="AQ259" s="71" t="s">
+      <c r="AQ259" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR259" s="12"/>
@@ -26541,17 +26538,17 @@
       <c r="C260" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D260" s="69" t="s">
+      <c r="D260" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E260" s="69" t="s">
+      <c r="E260" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F260" s="69"/>
-      <c r="G260" s="69" t="s">
+      <c r="F260" s="70"/>
+      <c r="G260" s="70" t="s">
         <v>676</v>
       </c>
-      <c r="H260" s="70" t="s">
+      <c r="H260" s="71" t="s">
         <v>677</v>
       </c>
       <c r="I260" s="15" t="s">
@@ -26563,7 +26560,7 @@
       </c>
       <c r="L260" s="15"/>
       <c r="M260" s="15"/>
-      <c r="N260" s="69" t="s">
+      <c r="N260" s="70" t="s">
         <v>676</v>
       </c>
       <c r="O260" s="19" t="n">
@@ -26614,7 +26611,7 @@
         <v>259</v>
       </c>
       <c r="AP260" s="11"/>
-      <c r="AQ260" s="71" t="s">
+      <c r="AQ260" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR260" s="12"/>
@@ -26629,13 +26626,13 @@
       <c r="C261" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D261" s="69" t="s">
+      <c r="D261" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E261" s="69" t="s">
+      <c r="E261" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F261" s="69"/>
+      <c r="F261" s="70"/>
       <c r="G261" s="11" t="s">
         <v>678</v>
       </c>
@@ -26702,7 +26699,7 @@
         <v>260</v>
       </c>
       <c r="AP261" s="11"/>
-      <c r="AQ261" s="71" t="s">
+      <c r="AQ261" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR261" s="12"/>
@@ -26717,13 +26714,13 @@
       <c r="C262" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D262" s="69" t="s">
+      <c r="D262" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E262" s="69" t="s">
+      <c r="E262" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F262" s="69"/>
+      <c r="F262" s="70"/>
       <c r="G262" s="11" t="s">
         <v>680</v>
       </c>
@@ -26790,7 +26787,7 @@
         <v>261</v>
       </c>
       <c r="AP262" s="11"/>
-      <c r="AQ262" s="71" t="s">
+      <c r="AQ262" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR262" s="12"/>
@@ -26825,10 +26822,10 @@
       <c r="L263" s="15"/>
       <c r="M263" s="15"/>
       <c r="N263" s="11"/>
-      <c r="O263" s="38"/>
-      <c r="P263" s="38"/>
-      <c r="Q263" s="38"/>
-      <c r="R263" s="38"/>
+      <c r="O263" s="39"/>
+      <c r="P263" s="39"/>
+      <c r="Q263" s="39"/>
+      <c r="R263" s="39"/>
       <c r="S263" s="2" t="s">
         <v>685</v>
       </c>
@@ -26866,7 +26863,7 @@
       <c r="AO263" s="13" t="n">
         <v>262</v>
       </c>
-      <c r="AP263" s="41" t="s">
+      <c r="AP263" s="42" t="s">
         <v>687</v>
       </c>
       <c r="AQ263" s="11"/>
@@ -26895,10 +26892,10 @@
       <c r="H264" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="I264" s="72" t="s">
+      <c r="I264" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="J264" s="72"/>
+      <c r="J264" s="73"/>
       <c r="K264" s="15" t="n">
         <v>0.5</v>
       </c>
@@ -26909,12 +26906,12 @@
       <c r="N264" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O264" s="49" t="s">
+      <c r="O264" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P264" s="49"/>
-      <c r="Q264" s="49"/>
-      <c r="R264" s="49"/>
+      <c r="P264" s="50"/>
+      <c r="Q264" s="50"/>
+      <c r="R264" s="50"/>
       <c r="S264" s="11"/>
       <c r="T264" s="2" t="s">
         <v>583</v>
@@ -26993,12 +26990,12 @@
       <c r="N265" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O265" s="38" t="s">
+      <c r="O265" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="P265" s="38"/>
-      <c r="Q265" s="38"/>
-      <c r="R265" s="38"/>
+      <c r="P265" s="39"/>
+      <c r="Q265" s="39"/>
+      <c r="R265" s="39"/>
       <c r="S265" s="11"/>
       <c r="T265" s="2" t="s">
         <v>583</v>
@@ -27062,30 +27059,30 @@
       <c r="G266" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="H266" s="63" t="s">
+      <c r="H266" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="I266" s="63" t="s">
+      <c r="I266" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="J266" s="63"/>
-      <c r="K266" s="63" t="n">
+      <c r="J266" s="64"/>
+      <c r="K266" s="64" t="n">
         <v>1</v>
       </c>
       <c r="L266" s="15"/>
       <c r="M266" s="15"/>
       <c r="N266" s="11"/>
-      <c r="O266" s="38"/>
-      <c r="P266" s="38"/>
-      <c r="Q266" s="38"/>
-      <c r="R266" s="38"/>
+      <c r="O266" s="39"/>
+      <c r="P266" s="39"/>
+      <c r="Q266" s="39"/>
+      <c r="R266" s="39"/>
       <c r="S266" s="11"/>
       <c r="T266" s="11" t="s">
         <v>699</v>
       </c>
       <c r="U266" s="11"/>
       <c r="V266" s="11"/>
-      <c r="W266" s="44" t="s">
+      <c r="W266" s="45" t="s">
         <v>700</v>
       </c>
       <c r="X266" s="11"/>
@@ -27108,7 +27105,7 @@
       </c>
       <c r="AH266" s="15"/>
       <c r="AI266" s="15"/>
-      <c r="AJ266" s="73" t="s">
+      <c r="AJ266" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK266" s="15"/>
@@ -27123,7 +27120,7 @@
         <v>265</v>
       </c>
       <c r="AP266" s="11"/>
-      <c r="AQ266" s="74" t="s">
+      <c r="AQ266" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR266" s="11"/>
@@ -27156,19 +27153,19 @@
       </c>
       <c r="J267" s="12"/>
       <c r="K267" s="15"/>
-      <c r="L267" s="63" t="n">
+      <c r="L267" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="M267" s="63" t="n">
+      <c r="M267" s="64" t="n">
         <v>23</v>
       </c>
       <c r="N267" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O267" s="38"/>
-      <c r="P267" s="38"/>
-      <c r="Q267" s="38"/>
-      <c r="R267" s="38"/>
+      <c r="O267" s="39"/>
+      <c r="P267" s="39"/>
+      <c r="Q267" s="39"/>
+      <c r="R267" s="39"/>
       <c r="S267" s="11"/>
       <c r="T267" s="11"/>
       <c r="U267" s="11"/>
@@ -27194,7 +27191,7 @@
       </c>
       <c r="AH267" s="15"/>
       <c r="AI267" s="15"/>
-      <c r="AJ267" s="73" t="s">
+      <c r="AJ267" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK267" s="15"/>
@@ -27209,7 +27206,7 @@
         <v>266</v>
       </c>
       <c r="AP267" s="11"/>
-      <c r="AQ267" s="74" t="s">
+      <c r="AQ267" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR267" s="11"/>
@@ -27237,20 +27234,20 @@
       <c r="H268" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="I268" s="63" t="s">
+      <c r="I268" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="J268" s="63"/>
+      <c r="J268" s="64"/>
       <c r="K268" s="15" t="n">
         <v>16</v>
       </c>
       <c r="L268" s="15"/>
       <c r="M268" s="15"/>
       <c r="N268" s="11"/>
-      <c r="O268" s="66"/>
-      <c r="P268" s="38"/>
-      <c r="Q268" s="38"/>
-      <c r="R268" s="38"/>
+      <c r="O268" s="67"/>
+      <c r="P268" s="39"/>
+      <c r="Q268" s="39"/>
+      <c r="R268" s="39"/>
       <c r="S268" s="15" t="s">
         <v>421</v>
       </c>
@@ -27270,19 +27267,19 @@
       <c r="AE268" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF268" s="75" t="s">
+      <c r="AF268" s="76" t="s">
         <v>708</v>
       </c>
       <c r="AG268" s="21" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AH268" s="76" t="n">
+      <c r="AH268" s="77" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI268" s="44" t="n">
+      <c r="AI268" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="AJ268" s="73" t="s">
+      <c r="AJ268" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK268" s="15"/>
@@ -27296,10 +27293,10 @@
       <c r="AO268" s="13" t="n">
         <v>267</v>
       </c>
-      <c r="AP268" s="41" t="s">
+      <c r="AP268" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="AQ268" s="74" t="s">
+      <c r="AQ268" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR268" s="11"/>
@@ -27324,7 +27321,7 @@
       <c r="G269" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="H269" s="40" t="s">
+      <c r="H269" s="41" t="s">
         <v>711</v>
       </c>
       <c r="I269" s="15" t="s">
@@ -27342,9 +27339,9 @@
       <c r="O269" s="20" t="n">
         <v>40822426</v>
       </c>
-      <c r="P269" s="38"/>
-      <c r="Q269" s="38"/>
-      <c r="R269" s="38"/>
+      <c r="P269" s="39"/>
+      <c r="Q269" s="39"/>
+      <c r="R269" s="39"/>
       <c r="S269" s="15" t="s">
         <v>56</v>
       </c>
@@ -27374,7 +27371,7 @@
       </c>
       <c r="AH269" s="15"/>
       <c r="AI269" s="15"/>
-      <c r="AJ269" s="73" t="s">
+      <c r="AJ269" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK269" s="15"/>
@@ -27414,7 +27411,7 @@
       <c r="G270" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="H270" s="40" t="s">
+      <c r="H270" s="41" t="s">
         <v>713</v>
       </c>
       <c r="I270" s="15" t="s">
@@ -27432,9 +27429,9 @@
       <c r="O270" s="20" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P270" s="38"/>
-      <c r="Q270" s="38"/>
-      <c r="R270" s="38"/>
+      <c r="P270" s="39"/>
+      <c r="Q270" s="39"/>
+      <c r="R270" s="39"/>
       <c r="S270" s="15" t="s">
         <v>56</v>
       </c>
@@ -27464,7 +27461,7 @@
       </c>
       <c r="AH270" s="15"/>
       <c r="AI270" s="15"/>
-      <c r="AJ270" s="73" t="s">
+      <c r="AJ270" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK270" s="15"/>
@@ -27504,7 +27501,7 @@
       <c r="G271" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="H271" s="40" t="s">
+      <c r="H271" s="41" t="s">
         <v>715</v>
       </c>
       <c r="I271" s="15" t="s">
@@ -27522,9 +27519,9 @@
       <c r="O271" s="20" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P271" s="38"/>
-      <c r="Q271" s="38"/>
-      <c r="R271" s="38"/>
+      <c r="P271" s="39"/>
+      <c r="Q271" s="39"/>
+      <c r="R271" s="39"/>
       <c r="S271" s="15" t="s">
         <v>56</v>
       </c>
@@ -27554,7 +27551,7 @@
       </c>
       <c r="AH271" s="15"/>
       <c r="AI271" s="15"/>
-      <c r="AJ271" s="73" t="s">
+      <c r="AJ271" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK271" s="15"/>
@@ -27594,7 +27591,7 @@
       <c r="G272" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="H272" s="40" t="s">
+      <c r="H272" s="41" t="s">
         <v>717</v>
       </c>
       <c r="I272" s="15" t="s">
@@ -27612,9 +27609,9 @@
       <c r="O272" s="20" t="n">
         <v>54491472</v>
       </c>
-      <c r="P272" s="38"/>
-      <c r="Q272" s="38"/>
-      <c r="R272" s="38"/>
+      <c r="P272" s="39"/>
+      <c r="Q272" s="39"/>
+      <c r="R272" s="39"/>
       <c r="S272" s="15" t="s">
         <v>56</v>
       </c>
@@ -27644,7 +27641,7 @@
       </c>
       <c r="AH272" s="15"/>
       <c r="AI272" s="15"/>
-      <c r="AJ272" s="73" t="s">
+      <c r="AJ272" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK272" s="15"/>
@@ -27684,7 +27681,7 @@
       <c r="G273" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="H273" s="57" t="s">
+      <c r="H273" s="58" t="s">
         <v>719</v>
       </c>
       <c r="I273" s="15" t="s">
@@ -27696,15 +27693,15 @@
       </c>
       <c r="L273" s="15"/>
       <c r="M273" s="15"/>
-      <c r="N273" s="50" t="s">
+      <c r="N273" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O273" s="77" t="s">
+      <c r="O273" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="P273" s="38"/>
-      <c r="Q273" s="38"/>
-      <c r="R273" s="38"/>
+      <c r="P273" s="39"/>
+      <c r="Q273" s="39"/>
+      <c r="R273" s="39"/>
       <c r="S273" s="15" t="s">
         <v>56</v>
       </c>
@@ -27734,7 +27731,7 @@
       </c>
       <c r="AH273" s="15"/>
       <c r="AI273" s="15"/>
-      <c r="AJ273" s="73" t="s">
+      <c r="AJ273" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK273" s="15"/>
@@ -27774,7 +27771,7 @@
       <c r="G274" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="H274" s="40" t="s">
+      <c r="H274" s="41" t="s">
         <v>721</v>
       </c>
       <c r="I274" s="15" t="s">
@@ -27792,9 +27789,9 @@
       <c r="O274" s="20" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P274" s="38"/>
-      <c r="Q274" s="38"/>
-      <c r="R274" s="38"/>
+      <c r="P274" s="39"/>
+      <c r="Q274" s="39"/>
+      <c r="R274" s="39"/>
       <c r="S274" s="15" t="s">
         <v>56</v>
       </c>
@@ -27824,7 +27821,7 @@
       </c>
       <c r="AH274" s="15"/>
       <c r="AI274" s="15"/>
-      <c r="AJ274" s="73" t="s">
+      <c r="AJ274" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK274" s="15"/>
@@ -27864,7 +27861,7 @@
       <c r="G275" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="H275" s="57" t="s">
+      <c r="H275" s="58" t="s">
         <v>723</v>
       </c>
       <c r="I275" s="15" t="s">
@@ -27876,15 +27873,15 @@
       </c>
       <c r="L275" s="15"/>
       <c r="M275" s="15"/>
-      <c r="N275" s="50" t="s">
+      <c r="N275" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="O275" s="77" t="s">
+      <c r="O275" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="P275" s="38"/>
-      <c r="Q275" s="38"/>
-      <c r="R275" s="38"/>
+      <c r="P275" s="39"/>
+      <c r="Q275" s="39"/>
+      <c r="R275" s="39"/>
       <c r="S275" s="15" t="s">
         <v>56</v>
       </c>
@@ -27914,7 +27911,7 @@
       </c>
       <c r="AH275" s="15"/>
       <c r="AI275" s="15"/>
-      <c r="AJ275" s="73" t="s">
+      <c r="AJ275" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK275" s="15"/>
@@ -27954,7 +27951,7 @@
       <c r="G276" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="H276" s="40" t="s">
+      <c r="H276" s="41" t="s">
         <v>725</v>
       </c>
       <c r="I276" s="15" t="s">
@@ -27972,9 +27969,9 @@
       <c r="O276" s="20" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="P276" s="38"/>
-      <c r="Q276" s="38"/>
-      <c r="R276" s="38"/>
+      <c r="P276" s="39"/>
+      <c r="Q276" s="39"/>
+      <c r="R276" s="39"/>
       <c r="S276" s="15" t="s">
         <v>56</v>
       </c>
@@ -28004,7 +28001,7 @@
       </c>
       <c r="AH276" s="15"/>
       <c r="AI276" s="15"/>
-      <c r="AJ276" s="73" t="s">
+      <c r="AJ276" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK276" s="15"/>
@@ -28044,7 +28041,7 @@
       <c r="G277" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="H277" s="40" t="s">
+      <c r="H277" s="41" t="s">
         <v>727</v>
       </c>
       <c r="I277" s="15" t="s">
@@ -28062,9 +28059,9 @@
       <c r="O277" s="20" t="n">
         <v>40822938</v>
       </c>
-      <c r="P277" s="38"/>
-      <c r="Q277" s="38"/>
-      <c r="R277" s="38"/>
+      <c r="P277" s="39"/>
+      <c r="Q277" s="39"/>
+      <c r="R277" s="39"/>
       <c r="S277" s="15" t="s">
         <v>56</v>
       </c>
@@ -28094,7 +28091,7 @@
       </c>
       <c r="AH277" s="15"/>
       <c r="AI277" s="15"/>
-      <c r="AJ277" s="73" t="s">
+      <c r="AJ277" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK277" s="15"/>
@@ -28134,7 +28131,7 @@
       <c r="G278" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="H278" s="57" t="s">
+      <c r="H278" s="58" t="s">
         <v>729</v>
       </c>
       <c r="I278" s="15" t="s">
@@ -28146,15 +28143,15 @@
       </c>
       <c r="L278" s="15"/>
       <c r="M278" s="15"/>
-      <c r="N278" s="50" t="s">
+      <c r="N278" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="O278" s="77" t="s">
+      <c r="O278" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="P278" s="38"/>
-      <c r="Q278" s="38"/>
-      <c r="R278" s="38"/>
+      <c r="P278" s="39"/>
+      <c r="Q278" s="39"/>
+      <c r="R278" s="39"/>
       <c r="S278" s="15" t="s">
         <v>56</v>
       </c>
@@ -28184,7 +28181,7 @@
       </c>
       <c r="AH278" s="15"/>
       <c r="AI278" s="15"/>
-      <c r="AJ278" s="73" t="s">
+      <c r="AJ278" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK278" s="15"/>
@@ -28224,7 +28221,7 @@
       <c r="G279" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="H279" s="40" t="s">
+      <c r="H279" s="41" t="s">
         <v>731</v>
       </c>
       <c r="I279" s="15" t="s">
@@ -28242,9 +28239,9 @@
       <c r="O279" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="P279" s="38"/>
-      <c r="Q279" s="38"/>
-      <c r="R279" s="38"/>
+      <c r="P279" s="39"/>
+      <c r="Q279" s="39"/>
+      <c r="R279" s="39"/>
       <c r="S279" s="15" t="s">
         <v>56</v>
       </c>
@@ -28274,7 +28271,7 @@
       </c>
       <c r="AH279" s="15"/>
       <c r="AI279" s="15"/>
-      <c r="AJ279" s="73" t="s">
+      <c r="AJ279" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK279" s="15"/>
@@ -28314,7 +28311,7 @@
       <c r="G280" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="H280" s="40" t="s">
+      <c r="H280" s="41" t="s">
         <v>735</v>
       </c>
       <c r="I280" s="15" t="s">
@@ -28332,9 +28329,9 @@
       <c r="O280" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="P280" s="38"/>
-      <c r="Q280" s="38"/>
-      <c r="R280" s="38"/>
+      <c r="P280" s="39"/>
+      <c r="Q280" s="39"/>
+      <c r="R280" s="39"/>
       <c r="S280" s="15" t="s">
         <v>56</v>
       </c>
@@ -28364,7 +28361,7 @@
       </c>
       <c r="AH280" s="15"/>
       <c r="AI280" s="15"/>
-      <c r="AJ280" s="73" t="s">
+      <c r="AJ280" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK280" s="15"/>
@@ -28404,7 +28401,7 @@
       <c r="G281" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="H281" s="40" t="s">
+      <c r="H281" s="41" t="s">
         <v>739</v>
       </c>
       <c r="I281" s="15" t="s">
@@ -28422,9 +28419,9 @@
       <c r="O281" s="20" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P281" s="38"/>
-      <c r="Q281" s="38"/>
-      <c r="R281" s="38"/>
+      <c r="P281" s="39"/>
+      <c r="Q281" s="39"/>
+      <c r="R281" s="39"/>
       <c r="S281" s="15" t="s">
         <v>56</v>
       </c>
@@ -28454,7 +28451,7 @@
       </c>
       <c r="AH281" s="15"/>
       <c r="AI281" s="15"/>
-      <c r="AJ281" s="73" t="s">
+      <c r="AJ281" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK281" s="15"/>
@@ -28494,7 +28491,7 @@
       <c r="G282" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="H282" s="40" t="s">
+      <c r="H282" s="41" t="s">
         <v>741</v>
       </c>
       <c r="I282" s="15" t="s">
@@ -28512,9 +28509,9 @@
       <c r="O282" s="20" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="P282" s="38"/>
-      <c r="Q282" s="38"/>
-      <c r="R282" s="38"/>
+      <c r="P282" s="39"/>
+      <c r="Q282" s="39"/>
+      <c r="R282" s="39"/>
       <c r="S282" s="15" t="s">
         <v>56</v>
       </c>
@@ -28544,7 +28541,7 @@
       </c>
       <c r="AH282" s="15"/>
       <c r="AI282" s="15"/>
-      <c r="AJ282" s="73" t="s">
+      <c r="AJ282" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK282" s="15"/>
@@ -28584,7 +28581,7 @@
       <c r="G283" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H283" s="40" t="s">
+      <c r="H283" s="41" t="s">
         <v>743</v>
       </c>
       <c r="I283" s="15" t="s">
@@ -28602,9 +28599,9 @@
       <c r="O283" s="20" t="n">
         <v>54491069</v>
       </c>
-      <c r="P283" s="38"/>
-      <c r="Q283" s="38"/>
-      <c r="R283" s="38"/>
+      <c r="P283" s="39"/>
+      <c r="Q283" s="39"/>
+      <c r="R283" s="39"/>
       <c r="S283" s="15" t="s">
         <v>56</v>
       </c>
@@ -28634,7 +28631,7 @@
       </c>
       <c r="AH283" s="15"/>
       <c r="AI283" s="15"/>
-      <c r="AJ283" s="73" t="s">
+      <c r="AJ283" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK283" s="15"/>
@@ -28674,7 +28671,7 @@
       <c r="G284" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="H284" s="57" t="s">
+      <c r="H284" s="58" t="s">
         <v>745</v>
       </c>
       <c r="I284" s="15" t="s">
@@ -28686,15 +28683,15 @@
       </c>
       <c r="L284" s="15"/>
       <c r="M284" s="15"/>
-      <c r="N284" s="50" t="s">
+      <c r="N284" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="O284" s="77" t="s">
+      <c r="O284" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="P284" s="38"/>
-      <c r="Q284" s="38"/>
-      <c r="R284" s="38"/>
+      <c r="P284" s="39"/>
+      <c r="Q284" s="39"/>
+      <c r="R284" s="39"/>
       <c r="S284" s="15" t="s">
         <v>56</v>
       </c>
@@ -28724,7 +28721,7 @@
       </c>
       <c r="AH284" s="15"/>
       <c r="AI284" s="15"/>
-      <c r="AJ284" s="73" t="s">
+      <c r="AJ284" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK284" s="15"/>
@@ -28767,20 +28764,20 @@
       <c r="H285" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="I285" s="63" t="s">
+      <c r="I285" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="J285" s="63"/>
+      <c r="J285" s="64"/>
       <c r="K285" s="15"/>
       <c r="L285" s="15"/>
       <c r="M285" s="15"/>
       <c r="N285" s="15"/>
-      <c r="O285" s="49" t="s">
+      <c r="O285" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P285" s="49"/>
-      <c r="Q285" s="49"/>
-      <c r="R285" s="49"/>
+      <c r="P285" s="50"/>
+      <c r="Q285" s="50"/>
+      <c r="R285" s="50"/>
       <c r="S285" s="11"/>
       <c r="T285" s="11" t="s">
         <v>583</v>
@@ -28808,7 +28805,7 @@
       </c>
       <c r="AH285" s="15"/>
       <c r="AI285" s="15"/>
-      <c r="AJ285" s="73" t="s">
+      <c r="AJ285" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK285" s="15"/>
@@ -28823,7 +28820,7 @@
         <v>284</v>
       </c>
       <c r="AP285" s="11"/>
-      <c r="AQ285" s="74" t="s">
+      <c r="AQ285" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR285" s="11"/>
@@ -28860,13 +28857,13 @@
       </c>
       <c r="L286" s="15"/>
       <c r="M286" s="15"/>
-      <c r="N286" s="49"/>
-      <c r="O286" s="49" t="s">
+      <c r="N286" s="50"/>
+      <c r="O286" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="P286" s="49"/>
-      <c r="Q286" s="49"/>
-      <c r="R286" s="49" t="s">
+      <c r="P286" s="50"/>
+      <c r="Q286" s="50"/>
+      <c r="R286" s="50" t="s">
         <v>751</v>
       </c>
       <c r="S286" s="15" t="s">
@@ -28886,7 +28883,7 @@
       <c r="AA286" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="AB286" s="63"/>
+      <c r="AB286" s="64"/>
       <c r="AC286" s="15"/>
       <c r="AD286" s="15"/>
       <c r="AE286" s="11" t="s">
@@ -28895,7 +28892,7 @@
       <c r="AF286" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG286" s="78" t="n">
+      <c r="AG286" s="79" t="n">
         <v>0.005</v>
       </c>
       <c r="AH286" s="15"/>
@@ -28911,7 +28908,7 @@
         <v>285</v>
       </c>
       <c r="AP286" s="11"/>
-      <c r="AQ286" s="79" t="s">
+      <c r="AQ286" s="80" t="s">
         <v>755</v>
       </c>
       <c r="AR286" s="11"/>
@@ -28926,83 +28923,83 @@
       <c r="C287" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D287" s="80" t="s">
+      <c r="D287" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="E287" s="80" t="s">
+      <c r="E287" s="81" t="s">
         <v>439</v>
       </c>
-      <c r="F287" s="80"/>
-      <c r="G287" s="81" t="s">
+      <c r="F287" s="81"/>
+      <c r="G287" s="82" t="s">
         <v>756</v>
       </c>
-      <c r="H287" s="61" t="s">
+      <c r="H287" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="I287" s="81" t="s">
+      <c r="I287" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="J287" s="81"/>
-      <c r="K287" s="81" t="n">
+      <c r="J287" s="82"/>
+      <c r="K287" s="82" t="n">
         <v>5</v>
       </c>
-      <c r="L287" s="81"/>
-      <c r="M287" s="81"/>
-      <c r="N287" s="81"/>
-      <c r="O287" s="82" t="s">
+      <c r="L287" s="82"/>
+      <c r="M287" s="82"/>
+      <c r="N287" s="82"/>
+      <c r="O287" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="P287" s="82"/>
-      <c r="Q287" s="82"/>
-      <c r="R287" s="82" t="s">
+      <c r="P287" s="83"/>
+      <c r="Q287" s="83"/>
+      <c r="R287" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="S287" s="81" t="s">
+      <c r="S287" s="82" t="s">
         <v>56</v>
       </c>
       <c r="T287" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="U287" s="81"/>
-      <c r="V287" s="81"/>
-      <c r="W287" s="81"/>
-      <c r="X287" s="81"/>
+      <c r="U287" s="82"/>
+      <c r="V287" s="82"/>
+      <c r="W287" s="82"/>
+      <c r="X287" s="82"/>
       <c r="Y287" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="Z287" s="81"/>
+      <c r="Z287" s="82"/>
       <c r="AA287" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="AB287" s="83"/>
-      <c r="AC287" s="81"/>
-      <c r="AD287" s="81"/>
-      <c r="AE287" s="61" t="s">
+      <c r="AB287" s="84"/>
+      <c r="AC287" s="82"/>
+      <c r="AD287" s="82"/>
+      <c r="AE287" s="62" t="s">
         <v>51</v>
       </c>
       <c r="AF287" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG287" s="78" t="n">
+      <c r="AG287" s="79" t="n">
         <v>0.005</v>
       </c>
       <c r="AH287" s="15"/>
       <c r="AI287" s="15"/>
-      <c r="AJ287" s="81"/>
-      <c r="AK287" s="81"/>
-      <c r="AL287" s="81"/>
-      <c r="AM287" s="81"/>
-      <c r="AN287" s="61" t="n">
+      <c r="AJ287" s="82"/>
+      <c r="AK287" s="82"/>
+      <c r="AL287" s="82"/>
+      <c r="AM287" s="82"/>
+      <c r="AN287" s="62" t="n">
         <v>2</v>
       </c>
       <c r="AO287" s="13" t="n">
         <v>286</v>
       </c>
-      <c r="AP287" s="61"/>
-      <c r="AQ287" s="79" t="s">
+      <c r="AP287" s="62"/>
+      <c r="AQ287" s="80" t="s">
         <v>755</v>
       </c>
-      <c r="AR287" s="61"/>
+      <c r="AR287" s="62"/>
     </row>
     <row r="288" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13" t="n">
@@ -29037,10 +29034,10 @@
       <c r="L288" s="15"/>
       <c r="M288" s="15"/>
       <c r="N288" s="15"/>
-      <c r="O288" s="49"/>
-      <c r="P288" s="49"/>
-      <c r="Q288" s="49"/>
-      <c r="R288" s="49"/>
+      <c r="O288" s="50"/>
+      <c r="P288" s="50"/>
+      <c r="Q288" s="50"/>
+      <c r="R288" s="50"/>
       <c r="S288" s="15" t="s">
         <v>56</v>
       </c>
@@ -29052,7 +29049,7 @@
       <c r="Y288" s="15"/>
       <c r="Z288" s="15"/>
       <c r="AA288" s="15"/>
-      <c r="AB288" s="63"/>
+      <c r="AB288" s="64"/>
       <c r="AC288" s="15"/>
       <c r="AD288" s="15"/>
       <c r="AE288" s="11" t="s">
@@ -29076,10 +29073,10 @@
       <c r="AO288" s="13" t="n">
         <v>287</v>
       </c>
-      <c r="AP288" s="41" t="s">
+      <c r="AP288" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="AQ288" s="79" t="s">
+      <c r="AQ288" s="80" t="s">
         <v>762</v>
       </c>
       <c r="AR288" s="11"/>
@@ -29117,10 +29114,10 @@
       <c r="L289" s="15"/>
       <c r="M289" s="15"/>
       <c r="N289" s="15"/>
-      <c r="O289" s="49"/>
-      <c r="P289" s="49"/>
-      <c r="Q289" s="49"/>
-      <c r="R289" s="49"/>
+      <c r="O289" s="50"/>
+      <c r="P289" s="50"/>
+      <c r="Q289" s="50"/>
+      <c r="R289" s="50"/>
       <c r="S289" s="15" t="s">
         <v>56</v>
       </c>
@@ -29199,10 +29196,10 @@
       <c r="L290" s="15"/>
       <c r="M290" s="15"/>
       <c r="N290" s="15"/>
-      <c r="O290" s="49"/>
-      <c r="P290" s="49"/>
-      <c r="Q290" s="49"/>
-      <c r="R290" s="49"/>
+      <c r="O290" s="50"/>
+      <c r="P290" s="50"/>
+      <c r="Q290" s="50"/>
+      <c r="R290" s="50"/>
       <c r="S290" s="15" t="s">
         <v>56</v>
       </c>
@@ -29281,10 +29278,10 @@
       <c r="L291" s="15"/>
       <c r="M291" s="15"/>
       <c r="N291" s="15"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
+      <c r="O291" s="50"/>
+      <c r="P291" s="50"/>
+      <c r="Q291" s="50"/>
+      <c r="R291" s="50"/>
       <c r="S291" s="15" t="s">
         <v>56</v>
       </c>
@@ -29363,10 +29360,10 @@
       <c r="L292" s="15"/>
       <c r="M292" s="15"/>
       <c r="N292" s="15"/>
-      <c r="O292" s="49"/>
-      <c r="P292" s="49"/>
-      <c r="Q292" s="49"/>
-      <c r="R292" s="49"/>
+      <c r="O292" s="50"/>
+      <c r="P292" s="50"/>
+      <c r="Q292" s="50"/>
+      <c r="R292" s="50"/>
       <c r="S292" s="15" t="s">
         <v>56</v>
       </c>
@@ -29447,10 +29444,10 @@
       <c r="N293" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="O293" s="49"/>
-      <c r="P293" s="49"/>
-      <c r="Q293" s="49"/>
-      <c r="R293" s="49"/>
+      <c r="O293" s="50"/>
+      <c r="P293" s="50"/>
+      <c r="Q293" s="50"/>
+      <c r="R293" s="50"/>
       <c r="S293" s="15" t="s">
         <v>56</v>
       </c>
@@ -29509,30 +29506,30 @@
       <c r="D294" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="E294" s="84" t="s">
+      <c r="E294" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="F294" s="84"/>
+      <c r="F294" s="85"/>
       <c r="G294" s="15" t="s">
         <v>779</v>
       </c>
       <c r="H294" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="I294" s="85" t="s">
+      <c r="I294" s="86" t="s">
         <v>684</v>
       </c>
-      <c r="J294" s="85"/>
+      <c r="J294" s="86"/>
       <c r="K294" s="15" t="n">
         <v>4</v>
       </c>
       <c r="L294" s="15"/>
       <c r="M294" s="15"/>
       <c r="N294" s="15"/>
-      <c r="O294" s="49"/>
-      <c r="P294" s="49"/>
-      <c r="Q294" s="49"/>
-      <c r="R294" s="49"/>
+      <c r="O294" s="50"/>
+      <c r="P294" s="50"/>
+      <c r="Q294" s="50"/>
+      <c r="R294" s="50"/>
       <c r="S294" s="11" t="s">
         <v>56</v>
       </c>
@@ -29546,7 +29543,7 @@
       </c>
       <c r="Z294" s="15"/>
       <c r="AA294" s="15"/>
-      <c r="AB294" s="63"/>
+      <c r="AB294" s="64"/>
       <c r="AC294" s="15"/>
       <c r="AD294" s="15"/>
       <c r="AE294" s="11" t="s">
@@ -29570,10 +29567,10 @@
       <c r="AO294" s="13" t="n">
         <v>293</v>
       </c>
-      <c r="AP294" s="64" t="s">
+      <c r="AP294" s="65" t="s">
         <v>781</v>
       </c>
-      <c r="AQ294" s="74" t="s">
+      <c r="AQ294" s="75" t="s">
         <v>782</v>
       </c>
       <c r="AR294" s="11"/>
@@ -29591,20 +29588,20 @@
       <c r="D295" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="E295" s="84" t="s">
+      <c r="E295" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="F295" s="84"/>
+      <c r="F295" s="85"/>
       <c r="G295" s="15" t="s">
         <v>783</v>
       </c>
       <c r="H295" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="I295" s="86" t="s">
+      <c r="I295" s="87" t="s">
         <v>785</v>
       </c>
-      <c r="J295" s="86"/>
+      <c r="J295" s="87"/>
       <c r="K295" s="15" t="n">
         <v>1</v>
       </c>
@@ -29615,12 +29612,12 @@
       <c r="N295" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="O295" s="49" t="s">
+      <c r="O295" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P295" s="49"/>
-      <c r="Q295" s="49"/>
-      <c r="R295" s="49"/>
+      <c r="P295" s="50"/>
+      <c r="Q295" s="50"/>
+      <c r="R295" s="50"/>
       <c r="S295" s="15" t="s">
         <v>56</v>
       </c>
@@ -29636,7 +29633,7 @@
       </c>
       <c r="Z295" s="15"/>
       <c r="AA295" s="15"/>
-      <c r="AB295" s="63"/>
+      <c r="AB295" s="64"/>
       <c r="AC295" s="15"/>
       <c r="AD295" s="15"/>
       <c r="AE295" s="11" t="s">
@@ -29663,7 +29660,7 @@
         <v>294</v>
       </c>
       <c r="AP295" s="11"/>
-      <c r="AQ295" s="87" t="s">
+      <c r="AQ295" s="88" t="s">
         <v>779</v>
       </c>
       <c r="AR295" s="11"/>
@@ -29678,67 +29675,67 @@
       <c r="C296" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D296" s="88" t="s">
+      <c r="D296" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E296" s="89" t="s">
+      <c r="E296" s="90" t="s">
         <v>789</v>
       </c>
-      <c r="F296" s="89" t="s">
+      <c r="F296" s="90" t="s">
         <v>790</v>
       </c>
-      <c r="G296" s="90" t="s">
+      <c r="G296" s="91" t="s">
         <v>755</v>
       </c>
-      <c r="H296" s="90"/>
-      <c r="I296" s="91" t="s">
+      <c r="H296" s="91"/>
+      <c r="I296" s="92" t="s">
         <v>791</v>
       </c>
-      <c r="J296" s="92" t="s">
+      <c r="J296" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="K296" s="93"/>
-      <c r="L296" s="93"/>
-      <c r="M296" s="92"/>
-      <c r="N296" s="92"/>
-      <c r="O296" s="93"/>
-      <c r="P296" s="93"/>
-      <c r="Q296" s="93"/>
-      <c r="R296" s="93"/>
-      <c r="S296" s="93"/>
-      <c r="T296" s="93" t="s">
+      <c r="K296" s="94"/>
+      <c r="L296" s="94"/>
+      <c r="M296" s="93"/>
+      <c r="N296" s="93"/>
+      <c r="O296" s="94"/>
+      <c r="P296" s="94"/>
+      <c r="Q296" s="94"/>
+      <c r="R296" s="94"/>
+      <c r="S296" s="94"/>
+      <c r="T296" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U296" s="93"/>
-      <c r="V296" s="93"/>
-      <c r="W296" s="93"/>
-      <c r="X296" s="93"/>
-      <c r="Y296" s="93"/>
-      <c r="Z296" s="93"/>
-      <c r="AA296" s="93"/>
-      <c r="AB296" s="93"/>
-      <c r="AC296" s="93"/>
-      <c r="AD296" s="93"/>
-      <c r="AE296" s="93"/>
-      <c r="AF296" s="93"/>
-      <c r="AG296" s="94" t="n">
+      <c r="U296" s="94"/>
+      <c r="V296" s="94"/>
+      <c r="W296" s="94"/>
+      <c r="X296" s="94"/>
+      <c r="Y296" s="94"/>
+      <c r="Z296" s="94"/>
+      <c r="AA296" s="94"/>
+      <c r="AB296" s="94"/>
+      <c r="AC296" s="94"/>
+      <c r="AD296" s="94"/>
+      <c r="AE296" s="94"/>
+      <c r="AF296" s="94"/>
+      <c r="AG296" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH296" s="93"/>
-      <c r="AI296" s="93"/>
-      <c r="AJ296" s="93"/>
-      <c r="AK296" s="93"/>
-      <c r="AL296" s="93"/>
-      <c r="AM296" s="93"/>
-      <c r="AN296" s="95"/>
+      <c r="AH296" s="94"/>
+      <c r="AI296" s="94"/>
+      <c r="AJ296" s="94"/>
+      <c r="AK296" s="94"/>
+      <c r="AL296" s="94"/>
+      <c r="AM296" s="94"/>
+      <c r="AN296" s="96"/>
       <c r="AO296" s="13" t="n">
         <v>295</v>
       </c>
-      <c r="AP296" s="92" t="s">
+      <c r="AP296" s="93" t="s">
         <v>794</v>
       </c>
-      <c r="AQ296" s="93"/>
-      <c r="AR296" s="93"/>
+      <c r="AQ296" s="94"/>
+      <c r="AR296" s="94"/>
     </row>
     <row r="297" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="n">
@@ -29750,67 +29747,67 @@
       <c r="C297" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D297" s="88" t="s">
+      <c r="D297" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E297" s="96" t="s">
+      <c r="E297" s="97" t="s">
         <v>795</v>
       </c>
-      <c r="F297" s="96" t="s">
+      <c r="F297" s="97" t="s">
         <v>796</v>
       </c>
-      <c r="G297" s="96" t="s">
+      <c r="G297" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="H297" s="97"/>
-      <c r="I297" s="98" t="s">
+      <c r="H297" s="98"/>
+      <c r="I297" s="99" t="s">
         <v>797</v>
       </c>
-      <c r="J297" s="92" t="s">
+      <c r="J297" s="93" t="s">
         <v>798</v>
       </c>
-      <c r="K297" s="93"/>
-      <c r="L297" s="93"/>
-      <c r="M297" s="92"/>
-      <c r="N297" s="92"/>
-      <c r="O297" s="93"/>
-      <c r="P297" s="93"/>
-      <c r="Q297" s="93"/>
-      <c r="R297" s="93"/>
-      <c r="S297" s="93"/>
-      <c r="T297" s="93" t="s">
+      <c r="K297" s="94"/>
+      <c r="L297" s="94"/>
+      <c r="M297" s="93"/>
+      <c r="N297" s="93"/>
+      <c r="O297" s="94"/>
+      <c r="P297" s="94"/>
+      <c r="Q297" s="94"/>
+      <c r="R297" s="94"/>
+      <c r="S297" s="94"/>
+      <c r="T297" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U297" s="93"/>
-      <c r="V297" s="93"/>
-      <c r="W297" s="93"/>
-      <c r="X297" s="93"/>
-      <c r="Y297" s="93"/>
-      <c r="Z297" s="93"/>
-      <c r="AA297" s="93"/>
-      <c r="AB297" s="93"/>
-      <c r="AC297" s="93"/>
-      <c r="AD297" s="93"/>
-      <c r="AE297" s="93"/>
-      <c r="AF297" s="93"/>
-      <c r="AG297" s="94" t="n">
+      <c r="U297" s="94"/>
+      <c r="V297" s="94"/>
+      <c r="W297" s="94"/>
+      <c r="X297" s="94"/>
+      <c r="Y297" s="94"/>
+      <c r="Z297" s="94"/>
+      <c r="AA297" s="94"/>
+      <c r="AB297" s="94"/>
+      <c r="AC297" s="94"/>
+      <c r="AD297" s="94"/>
+      <c r="AE297" s="94"/>
+      <c r="AF297" s="94"/>
+      <c r="AG297" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH297" s="93"/>
-      <c r="AI297" s="93"/>
-      <c r="AJ297" s="93"/>
-      <c r="AK297" s="93"/>
-      <c r="AL297" s="93"/>
-      <c r="AM297" s="93"/>
-      <c r="AN297" s="95"/>
+      <c r="AH297" s="94"/>
+      <c r="AI297" s="94"/>
+      <c r="AJ297" s="94"/>
+      <c r="AK297" s="94"/>
+      <c r="AL297" s="94"/>
+      <c r="AM297" s="94"/>
+      <c r="AN297" s="96"/>
       <c r="AO297" s="13" t="n">
         <v>296</v>
       </c>
-      <c r="AP297" s="92" t="s">
+      <c r="AP297" s="93" t="s">
         <v>799</v>
       </c>
-      <c r="AQ297" s="93"/>
-      <c r="AR297" s="93"/>
+      <c r="AQ297" s="94"/>
+      <c r="AR297" s="94"/>
     </row>
     <row r="298" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="n">
@@ -29822,67 +29819,67 @@
       <c r="C298" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="88" t="s">
+      <c r="D298" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E298" s="89" t="s">
+      <c r="E298" s="90" t="s">
         <v>800</v>
       </c>
-      <c r="F298" s="89" t="s">
+      <c r="F298" s="90" t="s">
         <v>801</v>
       </c>
-      <c r="G298" s="90" t="s">
+      <c r="G298" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="H298" s="90"/>
-      <c r="I298" s="91" t="s">
+      <c r="H298" s="91"/>
+      <c r="I298" s="92" t="s">
         <v>797</v>
       </c>
-      <c r="J298" s="93" t="s">
+      <c r="J298" s="94" t="s">
         <v>798</v>
       </c>
-      <c r="K298" s="93"/>
-      <c r="L298" s="93"/>
-      <c r="M298" s="92"/>
-      <c r="N298" s="92"/>
-      <c r="O298" s="93"/>
-      <c r="P298" s="93"/>
-      <c r="Q298" s="93"/>
-      <c r="R298" s="93"/>
-      <c r="S298" s="93"/>
-      <c r="T298" s="93" t="s">
+      <c r="K298" s="94"/>
+      <c r="L298" s="94"/>
+      <c r="M298" s="93"/>
+      <c r="N298" s="93"/>
+      <c r="O298" s="94"/>
+      <c r="P298" s="94"/>
+      <c r="Q298" s="94"/>
+      <c r="R298" s="94"/>
+      <c r="S298" s="94"/>
+      <c r="T298" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U298" s="93"/>
-      <c r="V298" s="93"/>
-      <c r="W298" s="93"/>
-      <c r="X298" s="93"/>
-      <c r="Y298" s="93"/>
-      <c r="Z298" s="93"/>
-      <c r="AA298" s="93"/>
-      <c r="AB298" s="93"/>
-      <c r="AC298" s="93"/>
-      <c r="AD298" s="93"/>
-      <c r="AE298" s="93"/>
-      <c r="AF298" s="93"/>
-      <c r="AG298" s="94" t="n">
+      <c r="U298" s="94"/>
+      <c r="V298" s="94"/>
+      <c r="W298" s="94"/>
+      <c r="X298" s="94"/>
+      <c r="Y298" s="94"/>
+      <c r="Z298" s="94"/>
+      <c r="AA298" s="94"/>
+      <c r="AB298" s="94"/>
+      <c r="AC298" s="94"/>
+      <c r="AD298" s="94"/>
+      <c r="AE298" s="94"/>
+      <c r="AF298" s="94"/>
+      <c r="AG298" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH298" s="93"/>
-      <c r="AI298" s="93"/>
-      <c r="AJ298" s="93"/>
-      <c r="AK298" s="93"/>
-      <c r="AL298" s="93"/>
-      <c r="AM298" s="93"/>
-      <c r="AN298" s="95"/>
+      <c r="AH298" s="94"/>
+      <c r="AI298" s="94"/>
+      <c r="AJ298" s="94"/>
+      <c r="AK298" s="94"/>
+      <c r="AL298" s="94"/>
+      <c r="AM298" s="94"/>
+      <c r="AN298" s="96"/>
       <c r="AO298" s="13" t="n">
         <v>297</v>
       </c>
-      <c r="AP298" s="92" t="s">
+      <c r="AP298" s="93" t="s">
         <v>802</v>
       </c>
-      <c r="AQ298" s="93"/>
-      <c r="AR298" s="93"/>
+      <c r="AQ298" s="94"/>
+      <c r="AR298" s="94"/>
     </row>
     <row r="299" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="n">
@@ -29894,69 +29891,69 @@
       <c r="C299" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D299" s="88" t="s">
+      <c r="D299" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E299" s="96" t="s">
+      <c r="E299" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="F299" s="96" t="s">
+      <c r="F299" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="G299" s="99" t="s">
+      <c r="G299" s="100" t="s">
         <v>762</v>
       </c>
-      <c r="H299" s="90" t="s">
+      <c r="H299" s="91" t="s">
         <v>805</v>
       </c>
-      <c r="I299" s="91" t="s">
+      <c r="I299" s="92" t="s">
         <v>806</v>
       </c>
-      <c r="J299" s="93" t="s">
+      <c r="J299" s="94" t="s">
         <v>798</v>
       </c>
-      <c r="K299" s="93"/>
-      <c r="L299" s="93"/>
-      <c r="M299" s="92"/>
-      <c r="N299" s="92"/>
-      <c r="O299" s="93"/>
-      <c r="P299" s="93"/>
-      <c r="Q299" s="93"/>
-      <c r="R299" s="93"/>
-      <c r="S299" s="93"/>
-      <c r="T299" s="93" t="s">
+      <c r="K299" s="94"/>
+      <c r="L299" s="94"/>
+      <c r="M299" s="93"/>
+      <c r="N299" s="93"/>
+      <c r="O299" s="94"/>
+      <c r="P299" s="94"/>
+      <c r="Q299" s="94"/>
+      <c r="R299" s="94"/>
+      <c r="S299" s="94"/>
+      <c r="T299" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U299" s="93"/>
-      <c r="V299" s="93"/>
-      <c r="W299" s="93"/>
-      <c r="X299" s="93"/>
-      <c r="Y299" s="93"/>
-      <c r="Z299" s="93"/>
-      <c r="AA299" s="93"/>
-      <c r="AB299" s="93"/>
-      <c r="AC299" s="93"/>
-      <c r="AD299" s="93"/>
-      <c r="AE299" s="93"/>
-      <c r="AF299" s="93"/>
-      <c r="AG299" s="100" t="n">
+      <c r="U299" s="94"/>
+      <c r="V299" s="94"/>
+      <c r="W299" s="94"/>
+      <c r="X299" s="94"/>
+      <c r="Y299" s="94"/>
+      <c r="Z299" s="94"/>
+      <c r="AA299" s="94"/>
+      <c r="AB299" s="94"/>
+      <c r="AC299" s="94"/>
+      <c r="AD299" s="94"/>
+      <c r="AE299" s="94"/>
+      <c r="AF299" s="94"/>
+      <c r="AG299" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="AH299" s="93"/>
-      <c r="AI299" s="93"/>
-      <c r="AJ299" s="93"/>
-      <c r="AK299" s="93"/>
-      <c r="AL299" s="93"/>
-      <c r="AM299" s="93"/>
-      <c r="AN299" s="95"/>
+      <c r="AH299" s="94"/>
+      <c r="AI299" s="94"/>
+      <c r="AJ299" s="94"/>
+      <c r="AK299" s="94"/>
+      <c r="AL299" s="94"/>
+      <c r="AM299" s="94"/>
+      <c r="AN299" s="96"/>
       <c r="AO299" s="13" t="n">
         <v>298</v>
       </c>
-      <c r="AP299" s="93" t="n">
+      <c r="AP299" s="94" t="n">
         <v>287</v>
       </c>
-      <c r="AQ299" s="93"/>
-      <c r="AR299" s="93"/>
+      <c r="AQ299" s="94"/>
+      <c r="AR299" s="94"/>
     </row>
     <row r="300" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="n">
@@ -29968,67 +29965,67 @@
       <c r="C300" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D300" s="88" t="s">
+      <c r="D300" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E300" s="96" t="s">
+      <c r="E300" s="97" t="s">
         <v>807</v>
       </c>
-      <c r="F300" s="96" t="s">
+      <c r="F300" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="G300" s="96" t="s">
+      <c r="G300" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="H300" s="90"/>
-      <c r="I300" s="91" t="s">
+      <c r="H300" s="91"/>
+      <c r="I300" s="92" t="s">
         <v>809</v>
       </c>
-      <c r="J300" s="93" t="s">
+      <c r="J300" s="94" t="s">
         <v>792</v>
       </c>
-      <c r="K300" s="93"/>
-      <c r="L300" s="93"/>
-      <c r="M300" s="92"/>
-      <c r="N300" s="92"/>
-      <c r="O300" s="93"/>
-      <c r="P300" s="93"/>
-      <c r="Q300" s="93"/>
-      <c r="R300" s="93"/>
-      <c r="S300" s="93"/>
-      <c r="T300" s="93" t="s">
+      <c r="K300" s="94"/>
+      <c r="L300" s="94"/>
+      <c r="M300" s="93"/>
+      <c r="N300" s="93"/>
+      <c r="O300" s="94"/>
+      <c r="P300" s="94"/>
+      <c r="Q300" s="94"/>
+      <c r="R300" s="94"/>
+      <c r="S300" s="94"/>
+      <c r="T300" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U300" s="93"/>
-      <c r="V300" s="93"/>
-      <c r="W300" s="93"/>
-      <c r="X300" s="93"/>
-      <c r="Y300" s="93"/>
-      <c r="Z300" s="93"/>
-      <c r="AA300" s="93"/>
-      <c r="AB300" s="93"/>
-      <c r="AC300" s="93"/>
-      <c r="AD300" s="93"/>
-      <c r="AE300" s="93"/>
-      <c r="AF300" s="93"/>
-      <c r="AG300" s="94" t="n">
+      <c r="U300" s="94"/>
+      <c r="V300" s="94"/>
+      <c r="W300" s="94"/>
+      <c r="X300" s="94"/>
+      <c r="Y300" s="94"/>
+      <c r="Z300" s="94"/>
+      <c r="AA300" s="94"/>
+      <c r="AB300" s="94"/>
+      <c r="AC300" s="94"/>
+      <c r="AD300" s="94"/>
+      <c r="AE300" s="94"/>
+      <c r="AF300" s="94"/>
+      <c r="AG300" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH300" s="93"/>
-      <c r="AI300" s="93"/>
-      <c r="AJ300" s="93"/>
-      <c r="AK300" s="93"/>
-      <c r="AL300" s="93"/>
-      <c r="AM300" s="93"/>
-      <c r="AN300" s="95"/>
+      <c r="AH300" s="94"/>
+      <c r="AI300" s="94"/>
+      <c r="AJ300" s="94"/>
+      <c r="AK300" s="94"/>
+      <c r="AL300" s="94"/>
+      <c r="AM300" s="94"/>
+      <c r="AN300" s="96"/>
       <c r="AO300" s="13" t="n">
         <v>299</v>
       </c>
-      <c r="AP300" s="92" t="s">
+      <c r="AP300" s="93" t="s">
         <v>810</v>
       </c>
-      <c r="AQ300" s="93"/>
-      <c r="AR300" s="93"/>
+      <c r="AQ300" s="94"/>
+      <c r="AR300" s="94"/>
     </row>
     <row r="301" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="n">
@@ -30040,69 +30037,69 @@
       <c r="C301" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D301" s="88" t="s">
+      <c r="D301" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E301" s="96" t="s">
+      <c r="E301" s="97" t="s">
         <v>811</v>
       </c>
-      <c r="F301" s="96" t="s">
+      <c r="F301" s="97" t="s">
         <v>812</v>
       </c>
-      <c r="G301" s="96" t="s">
+      <c r="G301" s="97" t="s">
         <v>782</v>
       </c>
-      <c r="H301" s="90" t="s">
+      <c r="H301" s="91" t="s">
         <v>813</v>
       </c>
-      <c r="I301" s="91" t="s">
+      <c r="I301" s="92" t="s">
         <v>806</v>
       </c>
-      <c r="J301" s="93" t="s">
+      <c r="J301" s="94" t="s">
         <v>792</v>
       </c>
-      <c r="K301" s="93"/>
-      <c r="L301" s="93"/>
-      <c r="M301" s="92"/>
-      <c r="N301" s="92"/>
-      <c r="O301" s="93"/>
-      <c r="P301" s="93"/>
-      <c r="Q301" s="93"/>
-      <c r="R301" s="93"/>
-      <c r="S301" s="93"/>
-      <c r="T301" s="93" t="s">
+      <c r="K301" s="94"/>
+      <c r="L301" s="94"/>
+      <c r="M301" s="93"/>
+      <c r="N301" s="93"/>
+      <c r="O301" s="94"/>
+      <c r="P301" s="94"/>
+      <c r="Q301" s="94"/>
+      <c r="R301" s="94"/>
+      <c r="S301" s="94"/>
+      <c r="T301" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U301" s="93"/>
-      <c r="V301" s="93"/>
-      <c r="W301" s="93"/>
-      <c r="X301" s="93"/>
-      <c r="Y301" s="93"/>
-      <c r="Z301" s="93"/>
-      <c r="AA301" s="93"/>
-      <c r="AB301" s="93"/>
-      <c r="AC301" s="93"/>
-      <c r="AD301" s="93"/>
-      <c r="AE301" s="93"/>
-      <c r="AF301" s="93"/>
-      <c r="AG301" s="94" t="n">
+      <c r="U301" s="94"/>
+      <c r="V301" s="94"/>
+      <c r="W301" s="94"/>
+      <c r="X301" s="94"/>
+      <c r="Y301" s="94"/>
+      <c r="Z301" s="94"/>
+      <c r="AA301" s="94"/>
+      <c r="AB301" s="94"/>
+      <c r="AC301" s="94"/>
+      <c r="AD301" s="94"/>
+      <c r="AE301" s="94"/>
+      <c r="AF301" s="94"/>
+      <c r="AG301" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH301" s="93"/>
-      <c r="AI301" s="93"/>
-      <c r="AJ301" s="93"/>
-      <c r="AK301" s="93"/>
-      <c r="AL301" s="93"/>
-      <c r="AM301" s="93"/>
-      <c r="AN301" s="95"/>
+      <c r="AH301" s="94"/>
+      <c r="AI301" s="94"/>
+      <c r="AJ301" s="94"/>
+      <c r="AK301" s="94"/>
+      <c r="AL301" s="94"/>
+      <c r="AM301" s="94"/>
+      <c r="AN301" s="96"/>
       <c r="AO301" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="AP301" s="93" t="n">
+      <c r="AP301" s="94" t="n">
         <v>293</v>
       </c>
-      <c r="AQ301" s="93"/>
-      <c r="AR301" s="93"/>
+      <c r="AQ301" s="94"/>
+      <c r="AR301" s="94"/>
     </row>
     <row r="302" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="13" t="n">
@@ -30114,69 +30111,69 @@
       <c r="C302" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D302" s="88" t="s">
+      <c r="D302" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E302" s="96" t="s">
+      <c r="E302" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="F302" s="96" t="s">
+      <c r="F302" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="G302" s="96" t="s">
+      <c r="G302" s="97" t="s">
         <v>816</v>
       </c>
-      <c r="H302" s="97"/>
-      <c r="I302" s="98" t="s">
+      <c r="H302" s="98"/>
+      <c r="I302" s="99" t="s">
         <v>817</v>
       </c>
-      <c r="J302" s="92" t="s">
+      <c r="J302" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="K302" s="93"/>
-      <c r="L302" s="93"/>
-      <c r="M302" s="92"/>
-      <c r="N302" s="92"/>
-      <c r="O302" s="93" t="s">
+      <c r="K302" s="94"/>
+      <c r="L302" s="94"/>
+      <c r="M302" s="93"/>
+      <c r="N302" s="93"/>
+      <c r="O302" s="94" t="s">
         <v>818</v>
       </c>
-      <c r="P302" s="93"/>
-      <c r="Q302" s="93"/>
-      <c r="R302" s="93"/>
-      <c r="S302" s="93"/>
-      <c r="T302" s="93" t="s">
+      <c r="P302" s="94"/>
+      <c r="Q302" s="94"/>
+      <c r="R302" s="94"/>
+      <c r="S302" s="94"/>
+      <c r="T302" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U302" s="93"/>
-      <c r="V302" s="93"/>
-      <c r="W302" s="93"/>
-      <c r="X302" s="93"/>
-      <c r="Y302" s="93"/>
-      <c r="Z302" s="92" t="s">
+      <c r="U302" s="94"/>
+      <c r="V302" s="94"/>
+      <c r="W302" s="94"/>
+      <c r="X302" s="94"/>
+      <c r="Y302" s="94"/>
+      <c r="Z302" s="93" t="s">
         <v>820</v>
       </c>
-      <c r="AA302" s="93"/>
-      <c r="AB302" s="93"/>
-      <c r="AC302" s="93"/>
-      <c r="AD302" s="93"/>
-      <c r="AE302" s="93"/>
-      <c r="AF302" s="93"/>
-      <c r="AG302" s="93" t="n">
+      <c r="AA302" s="94"/>
+      <c r="AB302" s="94"/>
+      <c r="AC302" s="94"/>
+      <c r="AD302" s="94"/>
+      <c r="AE302" s="94"/>
+      <c r="AF302" s="94"/>
+      <c r="AG302" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH302" s="93"/>
-      <c r="AI302" s="93"/>
-      <c r="AJ302" s="93"/>
-      <c r="AK302" s="93"/>
-      <c r="AL302" s="93"/>
-      <c r="AM302" s="93"/>
-      <c r="AN302" s="95"/>
+      <c r="AH302" s="94"/>
+      <c r="AI302" s="94"/>
+      <c r="AJ302" s="94"/>
+      <c r="AK302" s="94"/>
+      <c r="AL302" s="94"/>
+      <c r="AM302" s="94"/>
+      <c r="AN302" s="96"/>
       <c r="AO302" s="13" t="n">
         <v>301</v>
       </c>
-      <c r="AP302" s="93"/>
-      <c r="AQ302" s="93"/>
-      <c r="AR302" s="93"/>
+      <c r="AP302" s="94"/>
+      <c r="AQ302" s="94"/>
+      <c r="AR302" s="94"/>
     </row>
     <row r="303" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="n">
@@ -30188,69 +30185,69 @@
       <c r="C303" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="88" t="s">
+      <c r="D303" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E303" s="96" t="s">
+      <c r="E303" s="97" t="s">
         <v>821</v>
       </c>
-      <c r="F303" s="96" t="s">
+      <c r="F303" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G303" s="96" t="s">
+      <c r="G303" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="H303" s="97"/>
-      <c r="I303" s="98" t="s">
+      <c r="H303" s="98"/>
+      <c r="I303" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="J303" s="92" t="s">
+      <c r="J303" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K303" s="93"/>
-      <c r="L303" s="93"/>
-      <c r="M303" s="92"/>
-      <c r="N303" s="92"/>
-      <c r="O303" s="93" t="s">
+      <c r="K303" s="94"/>
+      <c r="L303" s="94"/>
+      <c r="M303" s="93"/>
+      <c r="N303" s="93"/>
+      <c r="O303" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="P303" s="93"/>
-      <c r="Q303" s="93"/>
-      <c r="R303" s="93"/>
-      <c r="S303" s="93"/>
-      <c r="T303" s="93" t="s">
+      <c r="P303" s="94"/>
+      <c r="Q303" s="94"/>
+      <c r="R303" s="94"/>
+      <c r="S303" s="94"/>
+      <c r="T303" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U303" s="93"/>
-      <c r="V303" s="93"/>
-      <c r="W303" s="93"/>
-      <c r="X303" s="93"/>
-      <c r="Y303" s="93"/>
-      <c r="Z303" s="92" t="s">
+      <c r="U303" s="94"/>
+      <c r="V303" s="94"/>
+      <c r="W303" s="94"/>
+      <c r="X303" s="94"/>
+      <c r="Y303" s="94"/>
+      <c r="Z303" s="93" t="s">
         <v>826</v>
       </c>
-      <c r="AA303" s="93"/>
-      <c r="AB303" s="93"/>
-      <c r="AC303" s="93"/>
-      <c r="AD303" s="93"/>
-      <c r="AE303" s="93"/>
-      <c r="AF303" s="93"/>
-      <c r="AG303" s="93" t="n">
+      <c r="AA303" s="94"/>
+      <c r="AB303" s="94"/>
+      <c r="AC303" s="94"/>
+      <c r="AD303" s="94"/>
+      <c r="AE303" s="94"/>
+      <c r="AF303" s="94"/>
+      <c r="AG303" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH303" s="93"/>
-      <c r="AI303" s="93"/>
-      <c r="AJ303" s="93"/>
-      <c r="AK303" s="93"/>
-      <c r="AL303" s="93"/>
-      <c r="AM303" s="93"/>
-      <c r="AN303" s="95"/>
+      <c r="AH303" s="94"/>
+      <c r="AI303" s="94"/>
+      <c r="AJ303" s="94"/>
+      <c r="AK303" s="94"/>
+      <c r="AL303" s="94"/>
+      <c r="AM303" s="94"/>
+      <c r="AN303" s="96"/>
       <c r="AO303" s="13" t="n">
         <v>302</v>
       </c>
-      <c r="AP303" s="93"/>
-      <c r="AQ303" s="93"/>
-      <c r="AR303" s="93"/>
+      <c r="AP303" s="94"/>
+      <c r="AQ303" s="94"/>
+      <c r="AR303" s="94"/>
     </row>
     <row r="304" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="n">
@@ -30262,69 +30259,69 @@
       <c r="C304" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="88" t="s">
+      <c r="D304" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E304" s="96" t="s">
+      <c r="E304" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="F304" s="96" t="s">
+      <c r="F304" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G304" s="96" t="s">
+      <c r="G304" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="H304" s="97"/>
-      <c r="I304" s="98" t="s">
+      <c r="H304" s="98"/>
+      <c r="I304" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="J304" s="92" t="s">
+      <c r="J304" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K304" s="93"/>
-      <c r="L304" s="93"/>
-      <c r="M304" s="92"/>
-      <c r="N304" s="92"/>
-      <c r="O304" s="93" t="s">
+      <c r="K304" s="94"/>
+      <c r="L304" s="94"/>
+      <c r="M304" s="93"/>
+      <c r="N304" s="93"/>
+      <c r="O304" s="94" t="s">
         <v>830</v>
       </c>
-      <c r="P304" s="93"/>
-      <c r="Q304" s="93"/>
-      <c r="R304" s="93"/>
-      <c r="S304" s="93"/>
-      <c r="T304" s="93" t="s">
+      <c r="P304" s="94"/>
+      <c r="Q304" s="94"/>
+      <c r="R304" s="94"/>
+      <c r="S304" s="94"/>
+      <c r="T304" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U304" s="93"/>
-      <c r="V304" s="93"/>
-      <c r="W304" s="93"/>
-      <c r="X304" s="93"/>
-      <c r="Y304" s="93"/>
-      <c r="Z304" s="92" t="s">
+      <c r="U304" s="94"/>
+      <c r="V304" s="94"/>
+      <c r="W304" s="94"/>
+      <c r="X304" s="94"/>
+      <c r="Y304" s="94"/>
+      <c r="Z304" s="93" t="s">
         <v>826</v>
       </c>
-      <c r="AA304" s="93"/>
-      <c r="AB304" s="93"/>
-      <c r="AC304" s="93"/>
-      <c r="AD304" s="93"/>
-      <c r="AE304" s="93"/>
-      <c r="AF304" s="93"/>
-      <c r="AG304" s="93" t="n">
+      <c r="AA304" s="94"/>
+      <c r="AB304" s="94"/>
+      <c r="AC304" s="94"/>
+      <c r="AD304" s="94"/>
+      <c r="AE304" s="94"/>
+      <c r="AF304" s="94"/>
+      <c r="AG304" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH304" s="93"/>
-      <c r="AI304" s="93"/>
-      <c r="AJ304" s="93"/>
-      <c r="AK304" s="93"/>
-      <c r="AL304" s="93"/>
-      <c r="AM304" s="93"/>
-      <c r="AN304" s="95"/>
+      <c r="AH304" s="94"/>
+      <c r="AI304" s="94"/>
+      <c r="AJ304" s="94"/>
+      <c r="AK304" s="94"/>
+      <c r="AL304" s="94"/>
+      <c r="AM304" s="94"/>
+      <c r="AN304" s="96"/>
       <c r="AO304" s="13" t="n">
         <v>303</v>
       </c>
-      <c r="AP304" s="93"/>
-      <c r="AQ304" s="93"/>
-      <c r="AR304" s="93"/>
+      <c r="AP304" s="94"/>
+      <c r="AQ304" s="94"/>
+      <c r="AR304" s="94"/>
     </row>
     <row r="305" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="n">
@@ -30336,73 +30333,73 @@
       <c r="C305" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="88" t="s">
+      <c r="D305" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E305" s="96" t="s">
+      <c r="E305" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F305" s="96" t="s">
+      <c r="F305" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G305" s="96" t="s">
+      <c r="G305" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H305" s="97" t="s">
+      <c r="H305" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="I305" s="98" t="s">
+      <c r="I305" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J305" s="92" t="s">
+      <c r="J305" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K305" s="93"/>
-      <c r="L305" s="93"/>
-      <c r="M305" s="92"/>
-      <c r="N305" s="92"/>
-      <c r="O305" s="92" t="s">
+      <c r="K305" s="94"/>
+      <c r="L305" s="94"/>
+      <c r="M305" s="93"/>
+      <c r="N305" s="93"/>
+      <c r="O305" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P305" s="93"/>
-      <c r="Q305" s="93"/>
-      <c r="R305" s="93"/>
-      <c r="S305" s="93"/>
-      <c r="T305" s="93" t="s">
+      <c r="P305" s="94"/>
+      <c r="Q305" s="94"/>
+      <c r="R305" s="94"/>
+      <c r="S305" s="94"/>
+      <c r="T305" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U305" s="93"/>
-      <c r="V305" s="93"/>
-      <c r="W305" s="93"/>
-      <c r="X305" s="93"/>
-      <c r="Y305" s="93"/>
-      <c r="Z305" s="92" t="s">
+      <c r="U305" s="94"/>
+      <c r="V305" s="94"/>
+      <c r="W305" s="94"/>
+      <c r="X305" s="94"/>
+      <c r="Y305" s="94"/>
+      <c r="Z305" s="93" t="s">
         <v>836</v>
       </c>
-      <c r="AA305" s="93"/>
-      <c r="AB305" s="93"/>
-      <c r="AC305" s="93"/>
-      <c r="AD305" s="93"/>
-      <c r="AE305" s="93"/>
-      <c r="AF305" s="93"/>
-      <c r="AG305" s="93" t="n">
+      <c r="AA305" s="94"/>
+      <c r="AB305" s="94"/>
+      <c r="AC305" s="94"/>
+      <c r="AD305" s="94"/>
+      <c r="AE305" s="94"/>
+      <c r="AF305" s="94"/>
+      <c r="AG305" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH305" s="93"/>
-      <c r="AI305" s="93"/>
-      <c r="AJ305" s="93"/>
-      <c r="AK305" s="93"/>
-      <c r="AL305" s="93"/>
-      <c r="AM305" s="93"/>
-      <c r="AN305" s="95"/>
+      <c r="AH305" s="94"/>
+      <c r="AI305" s="94"/>
+      <c r="AJ305" s="94"/>
+      <c r="AK305" s="94"/>
+      <c r="AL305" s="94"/>
+      <c r="AM305" s="94"/>
+      <c r="AN305" s="96"/>
       <c r="AO305" s="13" t="n">
         <v>304</v>
       </c>
-      <c r="AP305" s="93" t="n">
+      <c r="AP305" s="94" t="n">
         <v>175</v>
       </c>
-      <c r="AQ305" s="93"/>
-      <c r="AR305" s="93"/>
+      <c r="AQ305" s="94"/>
+      <c r="AR305" s="94"/>
     </row>
     <row r="306" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="13" t="n">
@@ -30414,73 +30411,73 @@
       <c r="C306" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D306" s="88" t="s">
+      <c r="D306" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E306" s="96" t="s">
+      <c r="E306" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F306" s="96" t="s">
+      <c r="F306" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G306" s="96" t="s">
+      <c r="G306" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H306" s="97" t="s">
+      <c r="H306" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="I306" s="98" t="s">
+      <c r="I306" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J306" s="92" t="s">
+      <c r="J306" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K306" s="93"/>
-      <c r="L306" s="93"/>
-      <c r="M306" s="92"/>
-      <c r="N306" s="92"/>
-      <c r="O306" s="92" t="s">
+      <c r="K306" s="94"/>
+      <c r="L306" s="94"/>
+      <c r="M306" s="93"/>
+      <c r="N306" s="93"/>
+      <c r="O306" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P306" s="93"/>
-      <c r="Q306" s="93"/>
-      <c r="R306" s="93"/>
-      <c r="S306" s="93"/>
-      <c r="T306" s="93" t="s">
+      <c r="P306" s="94"/>
+      <c r="Q306" s="94"/>
+      <c r="R306" s="94"/>
+      <c r="S306" s="94"/>
+      <c r="T306" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U306" s="93"/>
-      <c r="V306" s="93"/>
-      <c r="W306" s="93"/>
-      <c r="X306" s="93"/>
-      <c r="Y306" s="93"/>
-      <c r="Z306" s="92" t="s">
+      <c r="U306" s="94"/>
+      <c r="V306" s="94"/>
+      <c r="W306" s="94"/>
+      <c r="X306" s="94"/>
+      <c r="Y306" s="94"/>
+      <c r="Z306" s="93" t="s">
         <v>838</v>
       </c>
-      <c r="AA306" s="93"/>
-      <c r="AB306" s="93"/>
-      <c r="AC306" s="93"/>
-      <c r="AD306" s="93"/>
-      <c r="AE306" s="93"/>
-      <c r="AF306" s="93"/>
-      <c r="AG306" s="93" t="n">
+      <c r="AA306" s="94"/>
+      <c r="AB306" s="94"/>
+      <c r="AC306" s="94"/>
+      <c r="AD306" s="94"/>
+      <c r="AE306" s="94"/>
+      <c r="AF306" s="94"/>
+      <c r="AG306" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH306" s="93"/>
-      <c r="AI306" s="93"/>
-      <c r="AJ306" s="93"/>
-      <c r="AK306" s="93"/>
-      <c r="AL306" s="93"/>
-      <c r="AM306" s="93"/>
-      <c r="AN306" s="95"/>
+      <c r="AH306" s="94"/>
+      <c r="AI306" s="94"/>
+      <c r="AJ306" s="94"/>
+      <c r="AK306" s="94"/>
+      <c r="AL306" s="94"/>
+      <c r="AM306" s="94"/>
+      <c r="AN306" s="96"/>
       <c r="AO306" s="13" t="n">
         <v>305</v>
       </c>
-      <c r="AP306" s="93" t="n">
+      <c r="AP306" s="94" t="n">
         <v>183</v>
       </c>
-      <c r="AQ306" s="93"/>
-      <c r="AR306" s="93"/>
+      <c r="AQ306" s="94"/>
+      <c r="AR306" s="94"/>
     </row>
     <row r="307" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="n">
@@ -30492,73 +30489,73 @@
       <c r="C307" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D307" s="88" t="s">
+      <c r="D307" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E307" s="96" t="s">
+      <c r="E307" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F307" s="96" t="s">
+      <c r="F307" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G307" s="96" t="s">
+      <c r="G307" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H307" s="97" t="s">
+      <c r="H307" s="98" t="s">
         <v>483</v>
       </c>
-      <c r="I307" s="98" t="s">
+      <c r="I307" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J307" s="92" t="s">
+      <c r="J307" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K307" s="93"/>
-      <c r="L307" s="93"/>
-      <c r="M307" s="92"/>
-      <c r="N307" s="92"/>
-      <c r="O307" s="92" t="s">
+      <c r="K307" s="94"/>
+      <c r="L307" s="94"/>
+      <c r="M307" s="93"/>
+      <c r="N307" s="93"/>
+      <c r="O307" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P307" s="93"/>
-      <c r="Q307" s="93"/>
-      <c r="R307" s="93"/>
-      <c r="S307" s="93"/>
-      <c r="T307" s="93" t="s">
+      <c r="P307" s="94"/>
+      <c r="Q307" s="94"/>
+      <c r="R307" s="94"/>
+      <c r="S307" s="94"/>
+      <c r="T307" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U307" s="93"/>
-      <c r="V307" s="93"/>
-      <c r="W307" s="93"/>
-      <c r="X307" s="93"/>
-      <c r="Y307" s="93"/>
-      <c r="Z307" s="92" t="s">
+      <c r="U307" s="94"/>
+      <c r="V307" s="94"/>
+      <c r="W307" s="94"/>
+      <c r="X307" s="94"/>
+      <c r="Y307" s="94"/>
+      <c r="Z307" s="93" t="s">
         <v>839</v>
       </c>
-      <c r="AA307" s="93"/>
-      <c r="AB307" s="93"/>
-      <c r="AC307" s="93"/>
-      <c r="AD307" s="93"/>
-      <c r="AE307" s="93"/>
-      <c r="AF307" s="93"/>
-      <c r="AG307" s="93" t="n">
+      <c r="AA307" s="94"/>
+      <c r="AB307" s="94"/>
+      <c r="AC307" s="94"/>
+      <c r="AD307" s="94"/>
+      <c r="AE307" s="94"/>
+      <c r="AF307" s="94"/>
+      <c r="AG307" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH307" s="93"/>
-      <c r="AI307" s="93"/>
-      <c r="AJ307" s="93"/>
-      <c r="AK307" s="93"/>
-      <c r="AL307" s="93"/>
-      <c r="AM307" s="93"/>
-      <c r="AN307" s="95"/>
+      <c r="AH307" s="94"/>
+      <c r="AI307" s="94"/>
+      <c r="AJ307" s="94"/>
+      <c r="AK307" s="94"/>
+      <c r="AL307" s="94"/>
+      <c r="AM307" s="94"/>
+      <c r="AN307" s="96"/>
       <c r="AO307" s="13" t="n">
         <v>306</v>
       </c>
-      <c r="AP307" s="93" t="n">
+      <c r="AP307" s="94" t="n">
         <v>194</v>
       </c>
-      <c r="AQ307" s="93"/>
-      <c r="AR307" s="93"/>
+      <c r="AQ307" s="94"/>
+      <c r="AR307" s="94"/>
     </row>
     <row r="308" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="n">
@@ -30570,73 +30567,73 @@
       <c r="C308" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D308" s="88" t="s">
+      <c r="D308" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E308" s="96" t="s">
+      <c r="E308" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F308" s="96" t="s">
+      <c r="F308" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G308" s="96" t="s">
+      <c r="G308" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H308" s="97" t="s">
+      <c r="H308" s="98" t="s">
         <v>502</v>
       </c>
-      <c r="I308" s="98" t="s">
+      <c r="I308" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J308" s="92" t="s">
+      <c r="J308" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K308" s="93"/>
-      <c r="L308" s="93"/>
-      <c r="M308" s="92"/>
-      <c r="N308" s="92"/>
-      <c r="O308" s="92" t="s">
+      <c r="K308" s="94"/>
+      <c r="L308" s="94"/>
+      <c r="M308" s="93"/>
+      <c r="N308" s="93"/>
+      <c r="O308" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P308" s="93"/>
-      <c r="Q308" s="93"/>
-      <c r="R308" s="93"/>
-      <c r="S308" s="93"/>
-      <c r="T308" s="93" t="s">
+      <c r="P308" s="94"/>
+      <c r="Q308" s="94"/>
+      <c r="R308" s="94"/>
+      <c r="S308" s="94"/>
+      <c r="T308" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U308" s="93"/>
-      <c r="V308" s="93"/>
-      <c r="W308" s="93"/>
-      <c r="X308" s="93"/>
-      <c r="Y308" s="93"/>
-      <c r="Z308" s="101" t="s">
+      <c r="U308" s="94"/>
+      <c r="V308" s="94"/>
+      <c r="W308" s="94"/>
+      <c r="X308" s="94"/>
+      <c r="Y308" s="94"/>
+      <c r="Z308" s="102" t="s">
         <v>841</v>
       </c>
-      <c r="AA308" s="93"/>
-      <c r="AB308" s="93"/>
-      <c r="AC308" s="93"/>
-      <c r="AD308" s="93"/>
-      <c r="AE308" s="93"/>
-      <c r="AF308" s="93"/>
-      <c r="AG308" s="93" t="n">
+      <c r="AA308" s="94"/>
+      <c r="AB308" s="94"/>
+      <c r="AC308" s="94"/>
+      <c r="AD308" s="94"/>
+      <c r="AE308" s="94"/>
+      <c r="AF308" s="94"/>
+      <c r="AG308" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH308" s="93"/>
-      <c r="AI308" s="93"/>
-      <c r="AJ308" s="93"/>
-      <c r="AK308" s="93"/>
-      <c r="AL308" s="93"/>
-      <c r="AM308" s="93"/>
-      <c r="AN308" s="95"/>
+      <c r="AH308" s="94"/>
+      <c r="AI308" s="94"/>
+      <c r="AJ308" s="94"/>
+      <c r="AK308" s="94"/>
+      <c r="AL308" s="94"/>
+      <c r="AM308" s="94"/>
+      <c r="AN308" s="96"/>
       <c r="AO308" s="13" t="n">
         <v>307</v>
       </c>
-      <c r="AP308" s="93" t="n">
+      <c r="AP308" s="94" t="n">
         <v>201</v>
       </c>
-      <c r="AQ308" s="93"/>
-      <c r="AR308" s="93"/>
+      <c r="AQ308" s="94"/>
+      <c r="AR308" s="94"/>
     </row>
     <row r="309" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="n">
@@ -30648,73 +30645,73 @@
       <c r="C309" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D309" s="88" t="s">
+      <c r="D309" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E309" s="96" t="s">
+      <c r="E309" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F309" s="96" t="s">
+      <c r="F309" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G309" s="96" t="s">
+      <c r="G309" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H309" s="97" t="s">
+      <c r="H309" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="I309" s="98" t="s">
+      <c r="I309" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J309" s="92" t="s">
+      <c r="J309" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K309" s="93"/>
-      <c r="L309" s="93"/>
-      <c r="M309" s="92"/>
-      <c r="N309" s="92"/>
-      <c r="O309" s="92" t="s">
+      <c r="K309" s="94"/>
+      <c r="L309" s="94"/>
+      <c r="M309" s="93"/>
+      <c r="N309" s="93"/>
+      <c r="O309" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P309" s="93"/>
-      <c r="Q309" s="93"/>
-      <c r="R309" s="93"/>
-      <c r="S309" s="93"/>
-      <c r="T309" s="93" t="s">
+      <c r="P309" s="94"/>
+      <c r="Q309" s="94"/>
+      <c r="R309" s="94"/>
+      <c r="S309" s="94"/>
+      <c r="T309" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U309" s="93"/>
-      <c r="V309" s="93"/>
-      <c r="W309" s="93"/>
-      <c r="X309" s="93"/>
-      <c r="Y309" s="93"/>
-      <c r="Z309" s="92" t="s">
+      <c r="U309" s="94"/>
+      <c r="V309" s="94"/>
+      <c r="W309" s="94"/>
+      <c r="X309" s="94"/>
+      <c r="Y309" s="94"/>
+      <c r="Z309" s="93" t="s">
         <v>842</v>
       </c>
-      <c r="AA309" s="93"/>
-      <c r="AB309" s="93"/>
-      <c r="AC309" s="93"/>
-      <c r="AD309" s="93"/>
-      <c r="AE309" s="93"/>
-      <c r="AF309" s="93"/>
-      <c r="AG309" s="93" t="n">
+      <c r="AA309" s="94"/>
+      <c r="AB309" s="94"/>
+      <c r="AC309" s="94"/>
+      <c r="AD309" s="94"/>
+      <c r="AE309" s="94"/>
+      <c r="AF309" s="94"/>
+      <c r="AG309" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH309" s="93"/>
-      <c r="AI309" s="93"/>
-      <c r="AJ309" s="93"/>
-      <c r="AK309" s="93"/>
-      <c r="AL309" s="93"/>
-      <c r="AM309" s="93"/>
-      <c r="AN309" s="95"/>
+      <c r="AH309" s="94"/>
+      <c r="AI309" s="94"/>
+      <c r="AJ309" s="94"/>
+      <c r="AK309" s="94"/>
+      <c r="AL309" s="94"/>
+      <c r="AM309" s="94"/>
+      <c r="AN309" s="96"/>
       <c r="AO309" s="13" t="n">
         <v>308</v>
       </c>
-      <c r="AP309" s="93" t="n">
+      <c r="AP309" s="94" t="n">
         <v>207</v>
       </c>
-      <c r="AQ309" s="93"/>
-      <c r="AR309" s="93"/>
+      <c r="AQ309" s="94"/>
+      <c r="AR309" s="94"/>
     </row>
     <row r="310" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="n">
@@ -30726,73 +30723,73 @@
       <c r="C310" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D310" s="88" t="s">
+      <c r="D310" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E310" s="96" t="s">
+      <c r="E310" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F310" s="96" t="s">
+      <c r="F310" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G310" s="96" t="s">
+      <c r="G310" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H310" s="97" t="s">
+      <c r="H310" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="I310" s="98" t="s">
+      <c r="I310" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J310" s="92" t="s">
+      <c r="J310" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K310" s="93"/>
-      <c r="L310" s="93"/>
-      <c r="M310" s="92"/>
-      <c r="N310" s="92"/>
-      <c r="O310" s="92" t="s">
+      <c r="K310" s="94"/>
+      <c r="L310" s="94"/>
+      <c r="M310" s="93"/>
+      <c r="N310" s="93"/>
+      <c r="O310" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P310" s="93"/>
-      <c r="Q310" s="93"/>
-      <c r="R310" s="93"/>
-      <c r="S310" s="93"/>
-      <c r="T310" s="93" t="s">
+      <c r="P310" s="94"/>
+      <c r="Q310" s="94"/>
+      <c r="R310" s="94"/>
+      <c r="S310" s="94"/>
+      <c r="T310" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U310" s="93"/>
-      <c r="V310" s="93"/>
-      <c r="W310" s="93"/>
-      <c r="X310" s="93"/>
-      <c r="Y310" s="93"/>
-      <c r="Z310" s="92" t="s">
+      <c r="U310" s="94"/>
+      <c r="V310" s="94"/>
+      <c r="W310" s="94"/>
+      <c r="X310" s="94"/>
+      <c r="Y310" s="94"/>
+      <c r="Z310" s="93" t="s">
         <v>843</v>
       </c>
-      <c r="AA310" s="93"/>
-      <c r="AB310" s="93"/>
-      <c r="AC310" s="93"/>
-      <c r="AD310" s="93"/>
-      <c r="AE310" s="93"/>
-      <c r="AF310" s="93"/>
-      <c r="AG310" s="93" t="n">
+      <c r="AA310" s="94"/>
+      <c r="AB310" s="94"/>
+      <c r="AC310" s="94"/>
+      <c r="AD310" s="94"/>
+      <c r="AE310" s="94"/>
+      <c r="AF310" s="94"/>
+      <c r="AG310" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH310" s="93"/>
-      <c r="AI310" s="93"/>
-      <c r="AJ310" s="93"/>
-      <c r="AK310" s="93"/>
-      <c r="AL310" s="93"/>
-      <c r="AM310" s="93"/>
-      <c r="AN310" s="95"/>
+      <c r="AH310" s="94"/>
+      <c r="AI310" s="94"/>
+      <c r="AJ310" s="94"/>
+      <c r="AK310" s="94"/>
+      <c r="AL310" s="94"/>
+      <c r="AM310" s="94"/>
+      <c r="AN310" s="96"/>
       <c r="AO310" s="13" t="n">
         <v>309</v>
       </c>
-      <c r="AP310" s="93" t="n">
+      <c r="AP310" s="94" t="n">
         <v>211</v>
       </c>
-      <c r="AQ310" s="93"/>
-      <c r="AR310" s="93"/>
+      <c r="AQ310" s="94"/>
+      <c r="AR310" s="94"/>
     </row>
     <row r="311" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="n">
@@ -30804,73 +30801,73 @@
       <c r="C311" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D311" s="88" t="s">
+      <c r="D311" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E311" s="96" t="s">
+      <c r="E311" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F311" s="96" t="s">
+      <c r="F311" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G311" s="96" t="s">
+      <c r="G311" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H311" s="97" t="s">
+      <c r="H311" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="I311" s="98" t="s">
+      <c r="I311" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J311" s="92" t="s">
+      <c r="J311" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K311" s="93"/>
-      <c r="L311" s="93"/>
-      <c r="M311" s="92"/>
-      <c r="N311" s="92"/>
-      <c r="O311" s="92" t="s">
+      <c r="K311" s="94"/>
+      <c r="L311" s="94"/>
+      <c r="M311" s="93"/>
+      <c r="N311" s="93"/>
+      <c r="O311" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P311" s="93"/>
-      <c r="Q311" s="93"/>
-      <c r="R311" s="93"/>
-      <c r="S311" s="93"/>
-      <c r="T311" s="93" t="s">
+      <c r="P311" s="94"/>
+      <c r="Q311" s="94"/>
+      <c r="R311" s="94"/>
+      <c r="S311" s="94"/>
+      <c r="T311" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U311" s="93"/>
-      <c r="V311" s="93"/>
-      <c r="W311" s="93"/>
-      <c r="X311" s="93"/>
-      <c r="Y311" s="93"/>
-      <c r="Z311" s="92" t="s">
+      <c r="U311" s="94"/>
+      <c r="V311" s="94"/>
+      <c r="W311" s="94"/>
+      <c r="X311" s="94"/>
+      <c r="Y311" s="94"/>
+      <c r="Z311" s="93" t="s">
         <v>844</v>
       </c>
-      <c r="AA311" s="93"/>
-      <c r="AB311" s="93"/>
-      <c r="AC311" s="93"/>
-      <c r="AD311" s="93"/>
-      <c r="AE311" s="93"/>
-      <c r="AF311" s="93"/>
-      <c r="AG311" s="93" t="n">
+      <c r="AA311" s="94"/>
+      <c r="AB311" s="94"/>
+      <c r="AC311" s="94"/>
+      <c r="AD311" s="94"/>
+      <c r="AE311" s="94"/>
+      <c r="AF311" s="94"/>
+      <c r="AG311" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH311" s="93"/>
-      <c r="AI311" s="93"/>
-      <c r="AJ311" s="93"/>
-      <c r="AK311" s="93"/>
-      <c r="AL311" s="93"/>
-      <c r="AM311" s="93"/>
-      <c r="AN311" s="95"/>
+      <c r="AH311" s="94"/>
+      <c r="AI311" s="94"/>
+      <c r="AJ311" s="94"/>
+      <c r="AK311" s="94"/>
+      <c r="AL311" s="94"/>
+      <c r="AM311" s="94"/>
+      <c r="AN311" s="96"/>
       <c r="AO311" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="AP311" s="93" t="n">
+      <c r="AP311" s="94" t="n">
         <v>215</v>
       </c>
-      <c r="AQ311" s="93"/>
-      <c r="AR311" s="93"/>
+      <c r="AQ311" s="94"/>
+      <c r="AR311" s="94"/>
     </row>
     <row r="312" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="13" t="n">
@@ -30882,73 +30879,73 @@
       <c r="C312" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D312" s="88" t="s">
+      <c r="D312" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E312" s="96" t="s">
+      <c r="E312" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F312" s="96" t="s">
+      <c r="F312" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G312" s="96" t="s">
+      <c r="G312" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H312" s="97" t="s">
+      <c r="H312" s="98" t="s">
         <v>564</v>
       </c>
-      <c r="I312" s="98" t="s">
+      <c r="I312" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J312" s="92" t="s">
+      <c r="J312" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K312" s="93"/>
-      <c r="L312" s="93"/>
-      <c r="M312" s="92"/>
-      <c r="N312" s="92"/>
-      <c r="O312" s="92" t="s">
+      <c r="K312" s="94"/>
+      <c r="L312" s="94"/>
+      <c r="M312" s="93"/>
+      <c r="N312" s="93"/>
+      <c r="O312" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P312" s="93"/>
-      <c r="Q312" s="93"/>
-      <c r="R312" s="93"/>
-      <c r="S312" s="93"/>
-      <c r="T312" s="93" t="s">
+      <c r="P312" s="94"/>
+      <c r="Q312" s="94"/>
+      <c r="R312" s="94"/>
+      <c r="S312" s="94"/>
+      <c r="T312" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U312" s="93"/>
-      <c r="V312" s="93"/>
-      <c r="W312" s="93"/>
-      <c r="X312" s="93"/>
-      <c r="Y312" s="93"/>
-      <c r="Z312" s="92" t="s">
+      <c r="U312" s="94"/>
+      <c r="V312" s="94"/>
+      <c r="W312" s="94"/>
+      <c r="X312" s="94"/>
+      <c r="Y312" s="94"/>
+      <c r="Z312" s="93" t="s">
         <v>845</v>
       </c>
-      <c r="AA312" s="93"/>
-      <c r="AB312" s="93"/>
-      <c r="AC312" s="93"/>
-      <c r="AD312" s="93"/>
-      <c r="AE312" s="93"/>
-      <c r="AF312" s="93"/>
-      <c r="AG312" s="93" t="n">
+      <c r="AA312" s="94"/>
+      <c r="AB312" s="94"/>
+      <c r="AC312" s="94"/>
+      <c r="AD312" s="94"/>
+      <c r="AE312" s="94"/>
+      <c r="AF312" s="94"/>
+      <c r="AG312" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH312" s="93"/>
-      <c r="AI312" s="93"/>
-      <c r="AJ312" s="93"/>
-      <c r="AK312" s="93"/>
-      <c r="AL312" s="93"/>
-      <c r="AM312" s="93"/>
-      <c r="AN312" s="95"/>
+      <c r="AH312" s="94"/>
+      <c r="AI312" s="94"/>
+      <c r="AJ312" s="94"/>
+      <c r="AK312" s="94"/>
+      <c r="AL312" s="94"/>
+      <c r="AM312" s="94"/>
+      <c r="AN312" s="96"/>
       <c r="AO312" s="13" t="n">
         <v>311</v>
       </c>
-      <c r="AP312" s="93" t="n">
+      <c r="AP312" s="94" t="n">
         <v>211</v>
       </c>
-      <c r="AQ312" s="93"/>
-      <c r="AR312" s="93"/>
+      <c r="AQ312" s="94"/>
+      <c r="AR312" s="94"/>
     </row>
     <row r="313" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="n">
@@ -30960,77 +30957,77 @@
       <c r="C313" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D313" s="88" t="s">
+      <c r="D313" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E313" s="96" t="s">
+      <c r="E313" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F313" s="96" t="s">
+      <c r="F313" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G313" s="96" t="s">
+      <c r="G313" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H313" s="97" t="s">
+      <c r="H313" s="98" t="s">
         <v>574</v>
       </c>
-      <c r="I313" s="98" t="s">
+      <c r="I313" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J313" s="92" t="s">
+      <c r="J313" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K313" s="93"/>
-      <c r="L313" s="93"/>
-      <c r="M313" s="92"/>
-      <c r="N313" s="92"/>
-      <c r="O313" s="92" t="s">
+      <c r="K313" s="94"/>
+      <c r="L313" s="94"/>
+      <c r="M313" s="93"/>
+      <c r="N313" s="93"/>
+      <c r="O313" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P313" s="93"/>
-      <c r="Q313" s="93"/>
-      <c r="R313" s="93"/>
-      <c r="S313" s="93"/>
-      <c r="T313" s="93" t="s">
+      <c r="P313" s="94"/>
+      <c r="Q313" s="94"/>
+      <c r="R313" s="94"/>
+      <c r="S313" s="94"/>
+      <c r="T313" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U313" s="93"/>
-      <c r="V313" s="93"/>
-      <c r="W313" s="93"/>
-      <c r="X313" s="93"/>
-      <c r="Y313" s="93"/>
-      <c r="Z313" s="92" t="s">
+      <c r="U313" s="94"/>
+      <c r="V313" s="94"/>
+      <c r="W313" s="94"/>
+      <c r="X313" s="94"/>
+      <c r="Y313" s="94"/>
+      <c r="Z313" s="93" t="s">
         <v>577</v>
       </c>
-      <c r="AA313" s="93"/>
-      <c r="AB313" s="93"/>
-      <c r="AC313" s="93"/>
-      <c r="AD313" s="93"/>
-      <c r="AE313" s="93"/>
-      <c r="AF313" s="93"/>
-      <c r="AG313" s="93" t="n">
+      <c r="AA313" s="94"/>
+      <c r="AB313" s="94"/>
+      <c r="AC313" s="94"/>
+      <c r="AD313" s="94"/>
+      <c r="AE313" s="94"/>
+      <c r="AF313" s="94"/>
+      <c r="AG313" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH313" s="93"/>
-      <c r="AI313" s="93"/>
-      <c r="AJ313" s="93"/>
-      <c r="AK313" s="93"/>
-      <c r="AL313" s="93"/>
-      <c r="AM313" s="93"/>
-      <c r="AN313" s="95"/>
+      <c r="AH313" s="94"/>
+      <c r="AI313" s="94"/>
+      <c r="AJ313" s="94"/>
+      <c r="AK313" s="94"/>
+      <c r="AL313" s="94"/>
+      <c r="AM313" s="94"/>
+      <c r="AN313" s="96"/>
       <c r="AO313" s="13" t="n">
         <v>312</v>
       </c>
-      <c r="AP313" s="93" t="n">
+      <c r="AP313" s="94" t="n">
         <v>225</v>
       </c>
-      <c r="AQ313" s="93"/>
-      <c r="AR313" s="93"/>
+      <c r="AQ313" s="94"/>
+      <c r="AR313" s="94"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -31055,17 +31052,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>701</v>
       </c>
     </row>
@@ -31092,53 +31086,50 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>846</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="105" t="s">
         <v>847</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="105" t="s">
         <v>848</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>849</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2543,10 +2545,10 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+    <t xml:space="preserve">Cooler: Max 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 26 СКЮ на дверь</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU per Door RANGE</t>
@@ -2648,7 +2650,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
@@ -3605,16 +3607,16 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="M268" activeCellId="0" sqref="M268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.3967611336032"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="40.1983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.3967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.497975708502"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26857,7 +26859,7 @@
         <v>1</v>
       </c>
       <c r="M267" s="14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N267" s="9" t="s">
         <v>426</v>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,45 +13,46 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1999,7 +2000,7 @@
     <t xml:space="preserve">Вода Дисплей: Зона</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrance of Water Section</t>
+    <t xml:space="preserve">Entrance of Water section</t>
   </si>
   <si>
     <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
@@ -2034,7 +2035,7 @@
     <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrance of SSD Section</t>
+    <t xml:space="preserve">Entrance of SSD section</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
@@ -3606,17 +3607,17 @@
   </sheetPr>
   <dimension ref="A1:AR313"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M268" activeCellId="0" sqref="M268"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="W309" activeCellId="0" sqref="W309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="41.8704453441296"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30728,7 +30729,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS313"/>
+  <autoFilter ref="A1:AR313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30748,13 +30749,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30785,13 +30786,13 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,46 +13,47 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3607,17 +3608,17 @@
   </sheetPr>
   <dimension ref="A1:AR313"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="W309" activeCellId="0" sqref="W309"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="AH269" activeCellId="0" sqref="AH269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="41.8704453441296"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26977,7 +26978,7 @@
         <v>0.0225</v>
       </c>
       <c r="AH268" s="36" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AI268" s="10" t="n">
         <v>1</v>
@@ -30729,7 +30730,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30749,13 +30750,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30786,13 +30787,13 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,48 +13,49 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1366,9 +1367,7 @@
     <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dobriy - Berry Smoothie - 0.11L
-</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
@@ -3564,7 +3563,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3773,16 +3772,16 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L174" activeCellId="0" sqref="L174"/>
+      <selection pane="bottomLeft" activeCell="G129" activeCellId="0" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30894,7 +30893,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,49 +13,50 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1414,7 +1415,7 @@
     <t xml:space="preserve">Moya Semya - Citrus Mix - 1.93L, Moya Semya - Citrus Mix - 2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4650075421376, 4650075421376</t>
+    <t xml:space="preserve">4650075421376, 4650075420034</t>
   </si>
   <si>
     <t xml:space="preserve">Moya Semya - Apricot-Peach - 1.93L</t>
@@ -3772,16 +3773,16 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G129" activeCellId="0" sqref="G129"/>
+      <selection pane="bottomLeft" activeCell="L130" activeCellId="0" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30893,7 +30894,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS313"/>
+  <autoFilter ref="A1:AR313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,7 +56,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2783,7 +2785,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 4607042430879</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
@@ -3253,7 +3255,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3326,6 +3328,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3455,7 +3464,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3624,6 +3633,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3644,7 +3657,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3676,15 +3689,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3709,7 +3722,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -3772,17 +3785,17 @@
   </sheetPr>
   <dimension ref="A1:AR313"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L130" activeCellId="0" sqref="L130"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="AH269" activeCellId="0" sqref="AH269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="51.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="16.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27142,7 +27155,7 @@
         <v>0.0225</v>
       </c>
       <c r="AH268" s="41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AI268" s="10" t="n">
         <v>1</v>
@@ -28104,7 +28117,7 @@
       <c r="N279" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="O279" s="16" t="s">
+      <c r="O279" s="42" t="s">
         <v>780</v>
       </c>
       <c r="P279" s="28"/>
@@ -28760,7 +28773,7 @@
       <c r="AF286" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="AG286" s="42" t="n">
+      <c r="AG286" s="43" t="n">
         <v>0.005</v>
       </c>
       <c r="AH286" s="10"/>
@@ -28776,7 +28789,7 @@
         <v>285</v>
       </c>
       <c r="AP286" s="9"/>
-      <c r="AQ286" s="43" t="s">
+      <c r="AQ286" s="44" t="s">
         <v>802</v>
       </c>
       <c r="AR286" s="9"/>
@@ -28798,65 +28811,65 @@
         <v>486</v>
       </c>
       <c r="F287" s="33"/>
-      <c r="G287" s="44" t="s">
+      <c r="G287" s="45" t="s">
         <v>803</v>
       </c>
       <c r="H287" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="I287" s="44" t="s">
+      <c r="I287" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="J287" s="44"/>
-      <c r="K287" s="44" t="n">
+      <c r="J287" s="45"/>
+      <c r="K287" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="L287" s="44"/>
-      <c r="M287" s="44"/>
-      <c r="N287" s="44"/>
-      <c r="O287" s="45" t="s">
+      <c r="L287" s="45"/>
+      <c r="M287" s="45"/>
+      <c r="N287" s="45"/>
+      <c r="O287" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="P287" s="45"/>
-      <c r="Q287" s="45"/>
-      <c r="R287" s="45" t="s">
+      <c r="P287" s="46"/>
+      <c r="Q287" s="46"/>
+      <c r="R287" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="S287" s="44" t="s">
+      <c r="S287" s="45" t="s">
         <v>56</v>
       </c>
       <c r="T287" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="U287" s="44"/>
-      <c r="V287" s="44"/>
-      <c r="W287" s="44"/>
-      <c r="X287" s="44"/>
+      <c r="U287" s="45"/>
+      <c r="V287" s="45"/>
+      <c r="W287" s="45"/>
+      <c r="X287" s="45"/>
       <c r="Y287" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="Z287" s="44"/>
+      <c r="Z287" s="45"/>
       <c r="AA287" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="AB287" s="46"/>
-      <c r="AC287" s="44"/>
-      <c r="AD287" s="44"/>
+      <c r="AB287" s="47"/>
+      <c r="AC287" s="45"/>
+      <c r="AD287" s="45"/>
       <c r="AE287" s="33" t="s">
         <v>51</v>
       </c>
       <c r="AF287" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="AG287" s="42" t="n">
+      <c r="AG287" s="43" t="n">
         <v>0.005</v>
       </c>
       <c r="AH287" s="10"/>
       <c r="AI287" s="10"/>
-      <c r="AJ287" s="44"/>
-      <c r="AK287" s="44"/>
-      <c r="AL287" s="44"/>
-      <c r="AM287" s="44"/>
+      <c r="AJ287" s="45"/>
+      <c r="AK287" s="45"/>
+      <c r="AL287" s="45"/>
+      <c r="AM287" s="45"/>
       <c r="AN287" s="33" t="n">
         <v>2</v>
       </c>
@@ -28864,7 +28877,7 @@
         <v>286</v>
       </c>
       <c r="AP287" s="33"/>
-      <c r="AQ287" s="43" t="s">
+      <c r="AQ287" s="44" t="s">
         <v>802</v>
       </c>
       <c r="AR287" s="33"/>
@@ -28944,7 +28957,7 @@
       <c r="AP288" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="AQ288" s="43" t="s">
+      <c r="AQ288" s="44" t="s">
         <v>809</v>
       </c>
       <c r="AR288" s="9"/>
@@ -29374,10 +29387,10 @@
       <c r="D294" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E294" s="47" t="s">
+      <c r="E294" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="F294" s="47"/>
+      <c r="F294" s="48"/>
       <c r="G294" s="10" t="s">
         <v>826</v>
       </c>
@@ -29456,10 +29469,10 @@
       <c r="D295" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E295" s="47" t="s">
+      <c r="E295" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="F295" s="47"/>
+      <c r="F295" s="48"/>
       <c r="G295" s="10" t="s">
         <v>830</v>
       </c>
@@ -29543,7 +29556,7 @@
       <c r="C296" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D296" s="48" t="s">
+      <c r="D296" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E296" s="30" t="s">
@@ -29586,7 +29599,7 @@
       <c r="AD296" s="9"/>
       <c r="AE296" s="9"/>
       <c r="AF296" s="9"/>
-      <c r="AG296" s="49" t="n">
+      <c r="AG296" s="50" t="n">
         <v>0</v>
       </c>
       <c r="AH296" s="9"/>
@@ -29615,7 +29628,7 @@
       <c r="C297" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D297" s="48" t="s">
+      <c r="D297" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E297" s="40" t="s">
@@ -29658,7 +29671,7 @@
       <c r="AD297" s="9"/>
       <c r="AE297" s="9"/>
       <c r="AF297" s="9"/>
-      <c r="AG297" s="49" t="n">
+      <c r="AG297" s="50" t="n">
         <v>0</v>
       </c>
       <c r="AH297" s="9"/>
@@ -29687,7 +29700,7 @@
       <c r="C298" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="48" t="s">
+      <c r="D298" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E298" s="30" t="s">
@@ -29730,7 +29743,7 @@
       <c r="AD298" s="9"/>
       <c r="AE298" s="9"/>
       <c r="AF298" s="9"/>
-      <c r="AG298" s="49" t="n">
+      <c r="AG298" s="50" t="n">
         <v>0</v>
       </c>
       <c r="AH298" s="9"/>
@@ -29759,7 +29772,7 @@
       <c r="C299" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D299" s="48" t="s">
+      <c r="D299" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E299" s="40" t="s">
@@ -29768,7 +29781,7 @@
       <c r="F299" s="40" t="s">
         <v>851</v>
       </c>
-      <c r="G299" s="50" t="s">
+      <c r="G299" s="51" t="s">
         <v>809</v>
       </c>
       <c r="H299" s="34" t="s">
@@ -29804,7 +29817,7 @@
       <c r="AD299" s="9"/>
       <c r="AE299" s="9"/>
       <c r="AF299" s="9"/>
-      <c r="AG299" s="51" t="n">
+      <c r="AG299" s="52" t="n">
         <v>0</v>
       </c>
       <c r="AH299" s="9"/>
@@ -29833,7 +29846,7 @@
       <c r="C300" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D300" s="48" t="s">
+      <c r="D300" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E300" s="40" t="s">
@@ -29876,7 +29889,7 @@
       <c r="AD300" s="9"/>
       <c r="AE300" s="9"/>
       <c r="AF300" s="9"/>
-      <c r="AG300" s="49" t="n">
+      <c r="AG300" s="50" t="n">
         <v>0</v>
       </c>
       <c r="AH300" s="9"/>
@@ -29905,7 +29918,7 @@
       <c r="C301" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D301" s="48" t="s">
+      <c r="D301" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E301" s="40" t="s">
@@ -29950,7 +29963,7 @@
       <c r="AD301" s="9"/>
       <c r="AE301" s="9"/>
       <c r="AF301" s="9"/>
-      <c r="AG301" s="49" t="n">
+      <c r="AG301" s="50" t="n">
         <v>0</v>
       </c>
       <c r="AH301" s="9"/>
@@ -29979,7 +29992,7 @@
       <c r="C302" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D302" s="48" t="s">
+      <c r="D302" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E302" s="40" t="s">
@@ -30053,7 +30066,7 @@
       <c r="C303" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="48" t="s">
+      <c r="D303" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E303" s="40" t="s">
@@ -30127,7 +30140,7 @@
       <c r="C304" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="48" t="s">
+      <c r="D304" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E304" s="40" t="s">
@@ -30201,7 +30214,7 @@
       <c r="C305" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="48" t="s">
+      <c r="D305" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E305" s="40" t="s">
@@ -30279,7 +30292,7 @@
       <c r="C306" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D306" s="48" t="s">
+      <c r="D306" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E306" s="40" t="s">
@@ -30357,7 +30370,7 @@
       <c r="C307" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D307" s="48" t="s">
+      <c r="D307" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E307" s="40" t="s">
@@ -30435,7 +30448,7 @@
       <c r="C308" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D308" s="48" t="s">
+      <c r="D308" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E308" s="40" t="s">
@@ -30475,7 +30488,7 @@
       <c r="W308" s="9"/>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
-      <c r="Z308" s="52" t="s">
+      <c r="Z308" s="53" t="s">
         <v>888</v>
       </c>
       <c r="AA308" s="9"/>
@@ -30513,7 +30526,7 @@
       <c r="C309" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D309" s="48" t="s">
+      <c r="D309" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E309" s="40" t="s">
@@ -30591,7 +30604,7 @@
       <c r="C310" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D310" s="48" t="s">
+      <c r="D310" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E310" s="40" t="s">
@@ -30669,7 +30682,7 @@
       <c r="C311" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D311" s="48" t="s">
+      <c r="D311" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E311" s="40" t="s">
@@ -30747,7 +30760,7 @@
       <c r="C312" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D312" s="48" t="s">
+      <c r="D312" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E312" s="40" t="s">
@@ -30825,7 +30838,7 @@
       <c r="C313" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D313" s="48" t="s">
+      <c r="D313" s="49" t="s">
         <v>835</v>
       </c>
       <c r="E313" s="40" t="s">
@@ -30921,12 +30934,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>748</v>
       </c>
     </row>
@@ -30955,48 +30968,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>893</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>894</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="57" t="s">
         <v>895</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="57" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>896</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,52 +13,53 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3359,7 +3360,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3380,8 +3381,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF66CC00"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF66CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -3464,7 +3471,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3625,6 +3632,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3681,11 +3692,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3762,7 +3773,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF66CC00"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -3785,17 +3796,17 @@
   </sheetPr>
   <dimension ref="A1:AR313"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="AH269" activeCellId="0" sqref="AH269"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J264" activeCellId="0" sqref="J264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="51.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="53.8461538461539"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="17.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26780,8 +26791,8 @@
       <c r="K264" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="L264" s="10" t="n">
-        <v>28</v>
+      <c r="L264" s="40" t="n">
+        <v>24</v>
       </c>
       <c r="M264" s="10"/>
       <c r="N264" s="9" t="s">
@@ -27001,7 +27012,7 @@
         <v>265</v>
       </c>
       <c r="AP266" s="9"/>
-      <c r="AQ266" s="40" t="s">
+      <c r="AQ266" s="41" t="s">
         <v>749</v>
       </c>
       <c r="AR266" s="9"/>
@@ -27087,7 +27098,7 @@
         <v>266</v>
       </c>
       <c r="AP267" s="9"/>
-      <c r="AQ267" s="40" t="s">
+      <c r="AQ267" s="41" t="s">
         <v>749</v>
       </c>
       <c r="AR267" s="9"/>
@@ -27154,7 +27165,7 @@
       <c r="AG268" s="17" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AH268" s="41" t="n">
+      <c r="AH268" s="42" t="n">
         <v>0.5</v>
       </c>
       <c r="AI268" s="10" t="n">
@@ -27177,7 +27188,7 @@
       <c r="AP268" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="AQ268" s="40" t="s">
+      <c r="AQ268" s="41" t="s">
         <v>749</v>
       </c>
       <c r="AR268" s="9"/>
@@ -28117,7 +28128,7 @@
       <c r="N279" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="O279" s="42" t="s">
+      <c r="O279" s="43" t="s">
         <v>780</v>
       </c>
       <c r="P279" s="28"/>
@@ -28701,7 +28712,7 @@
         <v>284</v>
       </c>
       <c r="AP285" s="9"/>
-      <c r="AQ285" s="40" t="s">
+      <c r="AQ285" s="41" t="s">
         <v>749</v>
       </c>
       <c r="AR285" s="9"/>
@@ -28773,7 +28784,7 @@
       <c r="AF286" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="AG286" s="43" t="n">
+      <c r="AG286" s="44" t="n">
         <v>0.005</v>
       </c>
       <c r="AH286" s="10"/>
@@ -28789,7 +28800,7 @@
         <v>285</v>
       </c>
       <c r="AP286" s="9"/>
-      <c r="AQ286" s="44" t="s">
+      <c r="AQ286" s="45" t="s">
         <v>802</v>
       </c>
       <c r="AR286" s="9"/>
@@ -28811,65 +28822,65 @@
         <v>486</v>
       </c>
       <c r="F287" s="33"/>
-      <c r="G287" s="45" t="s">
+      <c r="G287" s="46" t="s">
         <v>803</v>
       </c>
       <c r="H287" s="33" t="s">
         <v>804</v>
       </c>
-      <c r="I287" s="45" t="s">
+      <c r="I287" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J287" s="45"/>
-      <c r="K287" s="45" t="n">
+      <c r="J287" s="46"/>
+      <c r="K287" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="L287" s="45"/>
-      <c r="M287" s="45"/>
-      <c r="N287" s="45"/>
-      <c r="O287" s="46" t="s">
+      <c r="L287" s="46"/>
+      <c r="M287" s="46"/>
+      <c r="N287" s="46"/>
+      <c r="O287" s="47" t="s">
         <v>805</v>
       </c>
-      <c r="P287" s="46"/>
-      <c r="Q287" s="46"/>
-      <c r="R287" s="46" t="s">
+      <c r="P287" s="47"/>
+      <c r="Q287" s="47"/>
+      <c r="R287" s="47" t="s">
         <v>805</v>
       </c>
-      <c r="S287" s="45" t="s">
+      <c r="S287" s="46" t="s">
         <v>56</v>
       </c>
       <c r="T287" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="U287" s="45"/>
-      <c r="V287" s="45"/>
-      <c r="W287" s="45"/>
-      <c r="X287" s="45"/>
+      <c r="U287" s="46"/>
+      <c r="V287" s="46"/>
+      <c r="W287" s="46"/>
+      <c r="X287" s="46"/>
       <c r="Y287" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="Z287" s="45"/>
+      <c r="Z287" s="46"/>
       <c r="AA287" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="AB287" s="47"/>
-      <c r="AC287" s="45"/>
-      <c r="AD287" s="45"/>
+      <c r="AB287" s="48"/>
+      <c r="AC287" s="46"/>
+      <c r="AD287" s="46"/>
       <c r="AE287" s="33" t="s">
         <v>51</v>
       </c>
       <c r="AF287" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="AG287" s="43" t="n">
+      <c r="AG287" s="44" t="n">
         <v>0.005</v>
       </c>
       <c r="AH287" s="10"/>
       <c r="AI287" s="10"/>
-      <c r="AJ287" s="45"/>
-      <c r="AK287" s="45"/>
-      <c r="AL287" s="45"/>
-      <c r="AM287" s="45"/>
+      <c r="AJ287" s="46"/>
+      <c r="AK287" s="46"/>
+      <c r="AL287" s="46"/>
+      <c r="AM287" s="46"/>
       <c r="AN287" s="33" t="n">
         <v>2</v>
       </c>
@@ -28877,7 +28888,7 @@
         <v>286</v>
       </c>
       <c r="AP287" s="33"/>
-      <c r="AQ287" s="44" t="s">
+      <c r="AQ287" s="45" t="s">
         <v>802</v>
       </c>
       <c r="AR287" s="33"/>
@@ -28957,7 +28968,7 @@
       <c r="AP288" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="AQ288" s="44" t="s">
+      <c r="AQ288" s="45" t="s">
         <v>809</v>
       </c>
       <c r="AR288" s="9"/>
@@ -29387,10 +29398,10 @@
       <c r="D294" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E294" s="48" t="s">
+      <c r="E294" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="F294" s="48"/>
+      <c r="F294" s="49"/>
       <c r="G294" s="10" t="s">
         <v>826</v>
       </c>
@@ -29451,7 +29462,7 @@
       <c r="AP294" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="AQ294" s="40" t="s">
+      <c r="AQ294" s="41" t="s">
         <v>829</v>
       </c>
       <c r="AR294" s="9"/>
@@ -29469,10 +29480,10 @@
       <c r="D295" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E295" s="48" t="s">
+      <c r="E295" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="F295" s="48"/>
+      <c r="F295" s="49"/>
       <c r="G295" s="10" t="s">
         <v>830</v>
       </c>
@@ -29556,7 +29567,7 @@
       <c r="C296" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D296" s="49" t="s">
+      <c r="D296" s="50" t="s">
         <v>835</v>
       </c>
       <c r="E296" s="30" t="s">
@@ -29599,7 +29610,7 @@
       <c r="AD296" s="9"/>
       <c r="AE296" s="9"/>
       <c r="AF296" s="9"/>
-      <c r="AG296" s="50" t="n">
+      <c r="AG296" s="51" t="n">
         <v>0</v>
       </c>
       <c r="AH296" s="9"/>
@@ -29628,16 +29639,16 @@
       <c r="C297" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D297" s="49" t="s">
+      <c r="D297" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E297" s="40" t="s">
+      <c r="E297" s="41" t="s">
         <v>842</v>
       </c>
-      <c r="F297" s="40" t="s">
+      <c r="F297" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="G297" s="40" t="s">
+      <c r="G297" s="41" t="s">
         <v>491</v>
       </c>
       <c r="H297" s="9"/>
@@ -29671,7 +29682,7 @@
       <c r="AD297" s="9"/>
       <c r="AE297" s="9"/>
       <c r="AF297" s="9"/>
-      <c r="AG297" s="50" t="n">
+      <c r="AG297" s="51" t="n">
         <v>0</v>
       </c>
       <c r="AH297" s="9"/>
@@ -29700,7 +29711,7 @@
       <c r="C298" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="49" t="s">
+      <c r="D298" s="50" t="s">
         <v>835</v>
       </c>
       <c r="E298" s="30" t="s">
@@ -29743,7 +29754,7 @@
       <c r="AD298" s="9"/>
       <c r="AE298" s="9"/>
       <c r="AF298" s="9"/>
-      <c r="AG298" s="50" t="n">
+      <c r="AG298" s="51" t="n">
         <v>0</v>
       </c>
       <c r="AH298" s="9"/>
@@ -29772,16 +29783,16 @@
       <c r="C299" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D299" s="49" t="s">
+      <c r="D299" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E299" s="40" t="s">
+      <c r="E299" s="41" t="s">
         <v>850</v>
       </c>
-      <c r="F299" s="40" t="s">
+      <c r="F299" s="41" t="s">
         <v>851</v>
       </c>
-      <c r="G299" s="51" t="s">
+      <c r="G299" s="52" t="s">
         <v>809</v>
       </c>
       <c r="H299" s="34" t="s">
@@ -29817,7 +29828,7 @@
       <c r="AD299" s="9"/>
       <c r="AE299" s="9"/>
       <c r="AF299" s="9"/>
-      <c r="AG299" s="52" t="n">
+      <c r="AG299" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH299" s="9"/>
@@ -29846,16 +29857,16 @@
       <c r="C300" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D300" s="49" t="s">
+      <c r="D300" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E300" s="40" t="s">
+      <c r="E300" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="F300" s="40" t="s">
+      <c r="F300" s="41" t="s">
         <v>855</v>
       </c>
-      <c r="G300" s="40" t="s">
+      <c r="G300" s="41" t="s">
         <v>749</v>
       </c>
       <c r="H300" s="34"/>
@@ -29889,7 +29900,7 @@
       <c r="AD300" s="9"/>
       <c r="AE300" s="9"/>
       <c r="AF300" s="9"/>
-      <c r="AG300" s="50" t="n">
+      <c r="AG300" s="51" t="n">
         <v>0</v>
       </c>
       <c r="AH300" s="9"/>
@@ -29918,16 +29929,16 @@
       <c r="C301" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D301" s="49" t="s">
+      <c r="D301" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E301" s="40" t="s">
+      <c r="E301" s="41" t="s">
         <v>858</v>
       </c>
-      <c r="F301" s="40" t="s">
+      <c r="F301" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="G301" s="40" t="s">
+      <c r="G301" s="41" t="s">
         <v>829</v>
       </c>
       <c r="H301" s="34" t="s">
@@ -29963,7 +29974,7 @@
       <c r="AD301" s="9"/>
       <c r="AE301" s="9"/>
       <c r="AF301" s="9"/>
-      <c r="AG301" s="50" t="n">
+      <c r="AG301" s="51" t="n">
         <v>0</v>
       </c>
       <c r="AH301" s="9"/>
@@ -29992,16 +30003,16 @@
       <c r="C302" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D302" s="49" t="s">
+      <c r="D302" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E302" s="40" t="s">
+      <c r="E302" s="41" t="s">
         <v>861</v>
       </c>
-      <c r="F302" s="40" t="s">
+      <c r="F302" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="G302" s="40" t="s">
+      <c r="G302" s="41" t="s">
         <v>863</v>
       </c>
       <c r="H302" s="9"/>
@@ -30066,16 +30077,16 @@
       <c r="C303" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="49" t="s">
+      <c r="D303" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E303" s="40" t="s">
+      <c r="E303" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="F303" s="40" t="s">
+      <c r="F303" s="41" t="s">
         <v>869</v>
       </c>
-      <c r="G303" s="40" t="s">
+      <c r="G303" s="41" t="s">
         <v>870</v>
       </c>
       <c r="H303" s="9"/>
@@ -30140,16 +30151,16 @@
       <c r="C304" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="49" t="s">
+      <c r="D304" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E304" s="40" t="s">
+      <c r="E304" s="41" t="s">
         <v>874</v>
       </c>
-      <c r="F304" s="40" t="s">
+      <c r="F304" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="G304" s="40" t="s">
+      <c r="G304" s="41" t="s">
         <v>876</v>
       </c>
       <c r="H304" s="9"/>
@@ -30214,16 +30225,16 @@
       <c r="C305" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="49" t="s">
+      <c r="D305" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E305" s="40" t="s">
+      <c r="E305" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F305" s="40" t="s">
+      <c r="F305" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G305" s="40" t="s">
+      <c r="G305" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H305" s="9" t="s">
@@ -30292,16 +30303,16 @@
       <c r="C306" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D306" s="49" t="s">
+      <c r="D306" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E306" s="40" t="s">
+      <c r="E306" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F306" s="40" t="s">
+      <c r="F306" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G306" s="40" t="s">
+      <c r="G306" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H306" s="9" t="s">
@@ -30370,16 +30381,16 @@
       <c r="C307" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D307" s="49" t="s">
+      <c r="D307" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E307" s="40" t="s">
+      <c r="E307" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F307" s="40" t="s">
+      <c r="F307" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G307" s="40" t="s">
+      <c r="G307" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H307" s="9" t="s">
@@ -30448,16 +30459,16 @@
       <c r="C308" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D308" s="49" t="s">
+      <c r="D308" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E308" s="40" t="s">
+      <c r="E308" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F308" s="40" t="s">
+      <c r="F308" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G308" s="40" t="s">
+      <c r="G308" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H308" s="9" t="s">
@@ -30488,7 +30499,7 @@
       <c r="W308" s="9"/>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
-      <c r="Z308" s="53" t="s">
+      <c r="Z308" s="54" t="s">
         <v>888</v>
       </c>
       <c r="AA308" s="9"/>
@@ -30526,16 +30537,16 @@
       <c r="C309" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D309" s="49" t="s">
+      <c r="D309" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E309" s="40" t="s">
+      <c r="E309" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F309" s="40" t="s">
+      <c r="F309" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G309" s="40" t="s">
+      <c r="G309" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H309" s="9" t="s">
@@ -30604,16 +30615,16 @@
       <c r="C310" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D310" s="49" t="s">
+      <c r="D310" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E310" s="40" t="s">
+      <c r="E310" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F310" s="40" t="s">
+      <c r="F310" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G310" s="40" t="s">
+      <c r="G310" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H310" s="9" t="s">
@@ -30682,16 +30693,16 @@
       <c r="C311" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D311" s="49" t="s">
+      <c r="D311" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E311" s="40" t="s">
+      <c r="E311" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F311" s="40" t="s">
+      <c r="F311" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G311" s="40" t="s">
+      <c r="G311" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H311" s="9" t="s">
@@ -30760,16 +30771,16 @@
       <c r="C312" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D312" s="49" t="s">
+      <c r="D312" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E312" s="40" t="s">
+      <c r="E312" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F312" s="40" t="s">
+      <c r="F312" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G312" s="40" t="s">
+      <c r="G312" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H312" s="9" t="s">
@@ -30838,16 +30849,16 @@
       <c r="C313" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D313" s="49" t="s">
+      <c r="D313" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="E313" s="40" t="s">
+      <c r="E313" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="F313" s="40" t="s">
+      <c r="F313" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="G313" s="40" t="s">
+      <c r="G313" s="41" t="s">
         <v>880</v>
       </c>
       <c r="H313" s="9" t="s">
@@ -30907,7 +30918,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30934,12 +30945,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>748</v>
       </c>
     </row>
@@ -30968,48 +30979,48 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>893</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="58" t="s">
         <v>894</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>895</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>896</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,54 +13,55 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="894">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2877,8 +2878,7 @@
     <t xml:space="preserve">288
 289
 290
-291
-292</t>
+291</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations SAP</t>
@@ -2899,37 +2899,25 @@
     <t xml:space="preserve">RGM Активации: Сок с едой</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+    <t xml:space="preserve">Juice with Meal</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations: On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Активации: На ходу</t>
+    <t xml:space="preserve">RGM Активации: Энергетики или SSD в Прикассовой зоне </t>
   </si>
   <si>
     <t xml:space="preserve">On-the-go</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Activations: Premium Spirits displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: Дисплеи алкоголя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: BF, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Alcohol</t>
+    <t xml:space="preserve">RGM Activations: SSD with Snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD со снеками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
     <t xml:space="preserve">Promo Displays</t>
@@ -3802,19 +3790,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR313"/>
+  <dimension ref="A1:AR312"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O84" activeCellId="0" sqref="O84"/>
+      <selection pane="bottomLeft" activeCell="AP288" activeCellId="0" sqref="AP288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="56.2712550607287"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.2105263157895"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29311,7 +29299,7 @@
     </row>
     <row r="293" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="8" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>44</v>
@@ -29322,58 +29310,54 @@
       <c r="D293" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E293" s="9" t="s">
+      <c r="E293" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="F293" s="9"/>
+      <c r="F293" s="50"/>
       <c r="G293" s="10" t="s">
         <v>823</v>
       </c>
       <c r="H293" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="I293" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="J293" s="9"/>
+      <c r="I293" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J293" s="0"/>
       <c r="K293" s="10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L293" s="10"/>
       <c r="M293" s="10"/>
-      <c r="N293" s="10" t="s">
-        <v>825</v>
-      </c>
+      <c r="N293" s="10"/>
       <c r="O293" s="12"/>
       <c r="P293" s="12"/>
       <c r="Q293" s="12"/>
       <c r="R293" s="12"/>
-      <c r="S293" s="10" t="s">
+      <c r="S293" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T293" s="10" t="s">
-        <v>480</v>
-      </c>
+      <c r="T293" s="10"/>
       <c r="U293" s="10"/>
       <c r="V293" s="10"/>
       <c r="W293" s="10"/>
       <c r="X293" s="10"/>
-      <c r="Y293" s="10"/>
-      <c r="Z293" s="10" t="s">
-        <v>826</v>
-      </c>
+      <c r="Y293" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z293" s="10"/>
       <c r="AA293" s="10"/>
-      <c r="AB293" s="10"/>
+      <c r="AB293" s="14"/>
       <c r="AC293" s="10"/>
       <c r="AD293" s="10"/>
       <c r="AE293" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AF293" s="10" t="s">
-        <v>60</v>
+        <v>656</v>
       </c>
       <c r="AG293" s="17" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AH293" s="10"/>
       <c r="AI293" s="10"/>
@@ -29382,20 +29366,22 @@
       <c r="AL293" s="10"/>
       <c r="AM293" s="10"/>
       <c r="AN293" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO293" s="8" t="n">
-        <v>292</v>
-      </c>
-      <c r="AP293" s="10"/>
-      <c r="AQ293" s="10" t="s">
-        <v>807</v>
+        <v>293</v>
+      </c>
+      <c r="AP293" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="AQ293" s="42" t="s">
+        <v>826</v>
       </c>
       <c r="AR293" s="9"/>
     </row>
     <row r="294" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="8" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>44</v>
@@ -29416,30 +29402,38 @@
       <c r="H294" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="I294" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J294" s="0"/>
+      <c r="I294" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="J294" s="10"/>
       <c r="K294" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L294" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="L294" s="10" t="n">
+        <v>8</v>
+      </c>
       <c r="M294" s="10"/>
-      <c r="N294" s="10"/>
-      <c r="O294" s="12"/>
+      <c r="N294" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="O294" s="12" t="s">
+        <v>739</v>
+      </c>
       <c r="P294" s="12"/>
       <c r="Q294" s="12"/>
       <c r="R294" s="12"/>
-      <c r="S294" s="9" t="s">
+      <c r="S294" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="T294" s="10"/>
+      <c r="T294" s="10" t="s">
+        <v>631</v>
+      </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10"/>
       <c r="W294" s="10"/>
       <c r="X294" s="10"/>
       <c r="Y294" s="10" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="Z294" s="10"/>
       <c r="AA294" s="10"/>
@@ -29450,34 +29444,34 @@
         <v>51</v>
       </c>
       <c r="AF294" s="10" t="s">
-        <v>656</v>
+        <v>830</v>
       </c>
       <c r="AG294" s="17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH294" s="10"/>
       <c r="AI294" s="10"/>
-      <c r="AJ294" s="10"/>
+      <c r="AJ294" s="10" t="s">
+        <v>831</v>
+      </c>
       <c r="AK294" s="10"/>
       <c r="AL294" s="10"/>
       <c r="AM294" s="10"/>
       <c r="AN294" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO294" s="8" t="n">
-        <v>293</v>
-      </c>
-      <c r="AP294" s="36" t="s">
-        <v>829</v>
-      </c>
-      <c r="AQ294" s="42" t="s">
-        <v>830</v>
+        <v>294</v>
+      </c>
+      <c r="AP294" s="9"/>
+      <c r="AQ294" s="14" t="s">
+        <v>823</v>
       </c>
       <c r="AR294" s="9"/>
     </row>
     <row r="295" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="8" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" s="9" t="s">
         <v>44</v>
@@ -29485,89 +29479,71 @@
       <c r="C295" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D295" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E295" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="F295" s="50"/>
-      <c r="G295" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="H295" s="9" t="s">
+      <c r="D295" s="51" t="s">
         <v>832</v>
       </c>
-      <c r="I295" s="10" t="s">
+      <c r="E295" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="J295" s="10"/>
-      <c r="K295" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L295" s="10" t="n">
-        <v>8</v>
-      </c>
+      <c r="F295" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="G295" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="H295" s="35"/>
+      <c r="I295" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="J295" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="K295" s="9"/>
+      <c r="L295" s="9"/>
       <c r="M295" s="10"/>
-      <c r="N295" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="O295" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="P295" s="12"/>
-      <c r="Q295" s="12"/>
-      <c r="R295" s="12"/>
-      <c r="S295" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T295" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="U295" s="10"/>
-      <c r="V295" s="10"/>
-      <c r="W295" s="10"/>
-      <c r="X295" s="10"/>
-      <c r="Y295" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="Z295" s="10"/>
-      <c r="AA295" s="10"/>
-      <c r="AB295" s="14"/>
-      <c r="AC295" s="10"/>
-      <c r="AD295" s="10"/>
-      <c r="AE295" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF295" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="AG295" s="17" t="n">
+      <c r="N295" s="10"/>
+      <c r="O295" s="9"/>
+      <c r="P295" s="9"/>
+      <c r="Q295" s="9"/>
+      <c r="R295" s="9"/>
+      <c r="S295" s="9"/>
+      <c r="T295" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="U295" s="9"/>
+      <c r="V295" s="9"/>
+      <c r="W295" s="9"/>
+      <c r="X295" s="9"/>
+      <c r="Y295" s="9"/>
+      <c r="Z295" s="9"/>
+      <c r="AA295" s="9"/>
+      <c r="AB295" s="9"/>
+      <c r="AC295" s="9"/>
+      <c r="AD295" s="9"/>
+      <c r="AE295" s="9"/>
+      <c r="AF295" s="9"/>
+      <c r="AG295" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AH295" s="10"/>
-      <c r="AI295" s="10"/>
-      <c r="AJ295" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="AK295" s="10"/>
-      <c r="AL295" s="10"/>
-      <c r="AM295" s="10"/>
-      <c r="AN295" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="AH295" s="9"/>
+      <c r="AI295" s="9"/>
+      <c r="AJ295" s="9"/>
+      <c r="AK295" s="9"/>
+      <c r="AL295" s="9"/>
+      <c r="AM295" s="9"/>
+      <c r="AN295" s="9"/>
       <c r="AO295" s="8" t="n">
-        <v>294</v>
-      </c>
-      <c r="AP295" s="9"/>
-      <c r="AQ295" s="14" t="s">
-        <v>827</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AP295" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="AQ295" s="9"/>
       <c r="AR295" s="9"/>
     </row>
     <row r="296" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>44</v>
@@ -29576,23 +29552,23 @@
         <v>45</v>
       </c>
       <c r="D296" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="E296" s="31" t="s">
-        <v>837</v>
-      </c>
-      <c r="F296" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="G296" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="H296" s="35"/>
-      <c r="I296" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E296" s="42" t="s">
         <v>839</v>
       </c>
+      <c r="F296" s="42" t="s">
+        <v>840</v>
+      </c>
+      <c r="G296" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="H296" s="9"/>
+      <c r="I296" s="10" t="s">
+        <v>841</v>
+      </c>
       <c r="J296" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
@@ -29604,7 +29580,7 @@
       <c r="R296" s="9"/>
       <c r="S296" s="9"/>
       <c r="T296" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
@@ -29629,17 +29605,17 @@
       <c r="AM296" s="9"/>
       <c r="AN296" s="9"/>
       <c r="AO296" s="8" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP296" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AQ296" s="9"/>
       <c r="AR296" s="9"/>
     </row>
     <row r="297" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="8" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>44</v>
@@ -29648,23 +29624,23 @@
         <v>45</v>
       </c>
       <c r="D297" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="E297" s="42" t="s">
-        <v>843</v>
-      </c>
-      <c r="F297" s="42" t="s">
+        <v>832</v>
+      </c>
+      <c r="E297" s="31" t="s">
         <v>844</v>
       </c>
-      <c r="G297" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="H297" s="9"/>
-      <c r="I297" s="10" t="s">
+      <c r="F297" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="J297" s="10" t="s">
-        <v>846</v>
+      <c r="G297" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="H297" s="35"/>
+      <c r="I297" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="J297" s="9" t="s">
+        <v>842</v>
       </c>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
@@ -29676,7 +29652,7 @@
       <c r="R297" s="9"/>
       <c r="S297" s="9"/>
       <c r="T297" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
@@ -29701,17 +29677,17 @@
       <c r="AM297" s="9"/>
       <c r="AN297" s="9"/>
       <c r="AO297" s="8" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP297" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AQ297" s="9"/>
       <c r="AR297" s="9"/>
     </row>
     <row r="298" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="8" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>44</v>
@@ -29720,23 +29696,25 @@
         <v>45</v>
       </c>
       <c r="D298" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="E298" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="E298" s="42" t="s">
+        <v>847</v>
+      </c>
+      <c r="F298" s="42" t="s">
         <v>848</v>
       </c>
-      <c r="F298" s="31" t="s">
+      <c r="G298" s="53" t="s">
+        <v>810</v>
+      </c>
+      <c r="H298" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="G298" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="H298" s="35"/>
       <c r="I298" s="9" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -29748,7 +29726,7 @@
       <c r="R298" s="9"/>
       <c r="S298" s="9"/>
       <c r="T298" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
@@ -29762,7 +29740,7 @@
       <c r="AD298" s="9"/>
       <c r="AE298" s="9"/>
       <c r="AF298" s="9"/>
-      <c r="AG298" s="52" t="n">
+      <c r="AG298" s="54" t="n">
         <v>0</v>
       </c>
       <c r="AH298" s="9"/>
@@ -29773,17 +29751,17 @@
       <c r="AM298" s="9"/>
       <c r="AN298" s="9"/>
       <c r="AO298" s="8" t="n">
-        <v>297</v>
-      </c>
-      <c r="AP298" s="10" t="s">
-        <v>850</v>
+        <v>298</v>
+      </c>
+      <c r="AP298" s="9" t="n">
+        <v>287</v>
       </c>
       <c r="AQ298" s="9"/>
       <c r="AR298" s="9"/>
     </row>
     <row r="299" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="8" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>44</v>
@@ -29792,7 +29770,7 @@
         <v>45</v>
       </c>
       <c r="D299" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E299" s="42" t="s">
         <v>851</v>
@@ -29800,17 +29778,15 @@
       <c r="F299" s="42" t="s">
         <v>852</v>
       </c>
-      <c r="G299" s="53" t="s">
-        <v>810</v>
-      </c>
-      <c r="H299" s="35" t="s">
+      <c r="G299" s="42" t="s">
+        <v>750</v>
+      </c>
+      <c r="H299" s="35"/>
+      <c r="I299" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="I299" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="J299" s="9" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
@@ -29822,7 +29798,7 @@
       <c r="R299" s="9"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
@@ -29836,7 +29812,7 @@
       <c r="AD299" s="9"/>
       <c r="AE299" s="9"/>
       <c r="AF299" s="9"/>
-      <c r="AG299" s="54" t="n">
+      <c r="AG299" s="52" t="n">
         <v>0</v>
       </c>
       <c r="AH299" s="9"/>
@@ -29847,17 +29823,17 @@
       <c r="AM299" s="9"/>
       <c r="AN299" s="9"/>
       <c r="AO299" s="8" t="n">
-        <v>298</v>
-      </c>
-      <c r="AP299" s="9" t="n">
-        <v>287</v>
+        <v>299</v>
+      </c>
+      <c r="AP299" s="10" t="s">
+        <v>854</v>
       </c>
       <c r="AQ299" s="9"/>
       <c r="AR299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="8" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>44</v>
@@ -29866,7 +29842,7 @@
         <v>45</v>
       </c>
       <c r="D300" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E300" s="42" t="s">
         <v>855</v>
@@ -29875,14 +29851,16 @@
         <v>856</v>
       </c>
       <c r="G300" s="42" t="s">
-        <v>750</v>
-      </c>
-      <c r="H300" s="35"/>
+        <v>826</v>
+      </c>
+      <c r="H300" s="35" t="s">
+        <v>857</v>
+      </c>
       <c r="I300" s="9" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
@@ -29894,7 +29872,7 @@
       <c r="R300" s="9"/>
       <c r="S300" s="9"/>
       <c r="T300" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
@@ -29919,17 +29897,17 @@
       <c r="AM300" s="9"/>
       <c r="AN300" s="9"/>
       <c r="AO300" s="8" t="n">
-        <v>299</v>
-      </c>
-      <c r="AP300" s="10" t="s">
-        <v>858</v>
+        <v>300</v>
+      </c>
+      <c r="AP300" s="9" t="n">
+        <v>293</v>
       </c>
       <c r="AQ300" s="9"/>
       <c r="AR300" s="9"/>
     </row>
     <row r="301" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="8" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>44</v>
@@ -29938,51 +29916,53 @@
         <v>45</v>
       </c>
       <c r="D301" s="51" t="s">
+        <v>832</v>
+      </c>
+      <c r="E301" s="42" t="s">
+        <v>858</v>
+      </c>
+      <c r="F301" s="42" t="s">
+        <v>859</v>
+      </c>
+      <c r="G301" s="42" t="s">
+        <v>860</v>
+      </c>
+      <c r="H301" s="9"/>
+      <c r="I301" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="J301" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="E301" s="42" t="s">
-        <v>859</v>
-      </c>
-      <c r="F301" s="42" t="s">
-        <v>860</v>
-      </c>
-      <c r="G301" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="H301" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="I301" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="J301" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
       <c r="M301" s="10"/>
       <c r="N301" s="10"/>
-      <c r="O301" s="9"/>
+      <c r="O301" s="9" t="s">
+        <v>862</v>
+      </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="S301" s="9"/>
       <c r="T301" s="9" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
       <c r="W301" s="9"/>
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
-      <c r="Z301" s="9"/>
+      <c r="Z301" s="10" t="s">
+        <v>864</v>
+      </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
       <c r="AD301" s="9"/>
       <c r="AE301" s="9"/>
       <c r="AF301" s="9"/>
-      <c r="AG301" s="52" t="n">
+      <c r="AG301" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AH301" s="9"/>
@@ -29993,17 +29973,15 @@
       <c r="AM301" s="9"/>
       <c r="AN301" s="9"/>
       <c r="AO301" s="8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP301" s="9" t="n">
-        <v>293</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP301" s="9"/>
       <c r="AQ301" s="9"/>
       <c r="AR301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>44</v>
@@ -30012,37 +29990,37 @@
         <v>45</v>
       </c>
       <c r="D302" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E302" s="42" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="F302" s="42" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="G302" s="42" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="10" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
       <c r="M302" s="10"/>
       <c r="N302" s="10"/>
       <c r="O302" s="9" t="s">
-        <v>866</v>
+        <v>51</v>
       </c>
       <c r="P302" s="9"/>
       <c r="Q302" s="9"/>
       <c r="R302" s="9"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
@@ -30050,7 +30028,7 @@
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="10" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -30069,7 +30047,7 @@
       <c r="AM302" s="9"/>
       <c r="AN302" s="9"/>
       <c r="AO302" s="8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP302" s="9"/>
       <c r="AQ302" s="9"/>
@@ -30077,7 +30055,7 @@
     </row>
     <row r="303" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="8" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>44</v>
@@ -30086,37 +30064,37 @@
         <v>45</v>
       </c>
       <c r="D303" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E303" s="42" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F303" s="42" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G303" s="42" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="10" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="J303" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="10"/>
       <c r="N303" s="10"/>
       <c r="O303" s="9" t="s">
-        <v>51</v>
+        <v>874</v>
       </c>
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
       <c r="S303" s="9"/>
       <c r="T303" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
@@ -30124,7 +30102,7 @@
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="10" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -30143,7 +30121,7 @@
       <c r="AM303" s="9"/>
       <c r="AN303" s="9"/>
       <c r="AO303" s="8" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP303" s="9"/>
       <c r="AQ303" s="9"/>
@@ -30151,7 +30129,7 @@
     </row>
     <row r="304" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>44</v>
@@ -30160,7 +30138,7 @@
         <v>45</v>
       </c>
       <c r="D304" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E304" s="42" t="s">
         <v>875</v>
@@ -30171,26 +30149,28 @@
       <c r="G304" s="42" t="s">
         <v>877</v>
       </c>
-      <c r="H304" s="9"/>
+      <c r="H304" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="I304" s="10" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
-      <c r="O304" s="9" t="s">
-        <v>878</v>
+      <c r="O304" s="10" t="s">
+        <v>879</v>
       </c>
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="9"/>
       <c r="T304" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
@@ -30198,7 +30178,7 @@
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="10" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -30217,15 +30197,17 @@
       <c r="AM304" s="9"/>
       <c r="AN304" s="9"/>
       <c r="AO304" s="8" t="n">
-        <v>303</v>
-      </c>
-      <c r="AP304" s="9"/>
+        <v>304</v>
+      </c>
+      <c r="AP304" s="9" t="n">
+        <v>175</v>
+      </c>
       <c r="AQ304" s="9"/>
       <c r="AR304" s="9"/>
     </row>
     <row r="305" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>44</v>
@@ -30234,39 +30216,39 @@
         <v>45</v>
       </c>
       <c r="D305" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F305" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="I305" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J305" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
       <c r="M305" s="10"/>
       <c r="N305" s="10"/>
       <c r="O305" s="10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
       <c r="S305" s="9"/>
       <c r="T305" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
@@ -30274,7 +30256,7 @@
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -30293,17 +30275,17 @@
       <c r="AM305" s="9"/>
       <c r="AN305" s="9"/>
       <c r="AO305" s="8" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP305" s="9" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AQ305" s="9"/>
       <c r="AR305" s="9"/>
     </row>
     <row r="306" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="8" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>44</v>
@@ -30312,39 +30294,39 @@
         <v>45</v>
       </c>
       <c r="D306" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F306" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="I306" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10"/>
       <c r="O306" s="10" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
       <c r="S306" s="9"/>
       <c r="T306" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
@@ -30352,7 +30334,7 @@
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="10" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -30371,17 +30353,17 @@
       <c r="AM306" s="9"/>
       <c r="AN306" s="9"/>
       <c r="AO306" s="8" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP306" s="9" t="n">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AQ306" s="9"/>
       <c r="AR306" s="9"/>
     </row>
     <row r="307" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="8" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>44</v>
@@ -30390,47 +30372,47 @@
         <v>45</v>
       </c>
       <c r="D307" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F307" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G307" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H307" s="9" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="I307" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J307" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
       <c r="M307" s="10"/>
       <c r="N307" s="10"/>
       <c r="O307" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P307" s="9"/>
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
       <c r="S307" s="9"/>
       <c r="T307" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
       <c r="W307" s="9"/>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
-      <c r="Z307" s="10" t="s">
-        <v>887</v>
+      <c r="Z307" s="55" t="s">
+        <v>885</v>
       </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -30449,17 +30431,17 @@
       <c r="AM307" s="9"/>
       <c r="AN307" s="9"/>
       <c r="AO307" s="8" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP307" s="9" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AQ307" s="9"/>
       <c r="AR307" s="9"/>
     </row>
     <row r="308" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>44</v>
@@ -30468,47 +30450,47 @@
         <v>45</v>
       </c>
       <c r="D308" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E308" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F308" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G308" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H308" s="9" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="I308" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
       <c r="M308" s="10"/>
       <c r="N308" s="10"/>
       <c r="O308" s="10" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="P308" s="9"/>
       <c r="Q308" s="9"/>
       <c r="R308" s="9"/>
       <c r="S308" s="9"/>
       <c r="T308" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
       <c r="W308" s="9"/>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
-      <c r="Z308" s="55" t="s">
-        <v>889</v>
+      <c r="Z308" s="10" t="s">
+        <v>886</v>
       </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -30527,17 +30509,17 @@
       <c r="AM308" s="9"/>
       <c r="AN308" s="9"/>
       <c r="AO308" s="8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP308" s="9" t="n">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AQ308" s="9"/>
       <c r="AR308" s="9"/>
     </row>
     <row r="309" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>44</v>
@@ -30546,39 +30528,39 @@
         <v>45</v>
       </c>
       <c r="D309" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F309" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G309" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="I309" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J309" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
       <c r="M309" s="10"/>
       <c r="N309" s="10"/>
       <c r="O309" s="10" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="P309" s="9"/>
       <c r="Q309" s="9"/>
       <c r="R309" s="9"/>
       <c r="S309" s="9"/>
       <c r="T309" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
@@ -30586,7 +30568,7 @@
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -30605,17 +30587,17 @@
       <c r="AM309" s="9"/>
       <c r="AN309" s="9"/>
       <c r="AO309" s="8" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AP309" s="9" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AQ309" s="9"/>
       <c r="AR309" s="9"/>
     </row>
     <row r="310" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" s="9" t="s">
         <v>44</v>
@@ -30624,39 +30606,39 @@
         <v>45</v>
       </c>
       <c r="D310" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E310" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F310" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G310" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="I310" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
       <c r="M310" s="10"/>
       <c r="N310" s="10"/>
       <c r="O310" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
       <c r="R310" s="9"/>
       <c r="S310" s="9"/>
       <c r="T310" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
@@ -30664,7 +30646,7 @@
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -30683,17 +30665,17 @@
       <c r="AM310" s="9"/>
       <c r="AN310" s="9"/>
       <c r="AO310" s="8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP310" s="9" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AQ310" s="9"/>
       <c r="AR310" s="9"/>
     </row>
     <row r="311" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>44</v>
@@ -30702,39 +30684,39 @@
         <v>45</v>
       </c>
       <c r="D311" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E311" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F311" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G311" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="I311" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J311" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
       <c r="M311" s="10"/>
       <c r="N311" s="10"/>
       <c r="O311" s="10" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9"/>
       <c r="S311" s="9"/>
       <c r="T311" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
@@ -30742,7 +30724,7 @@
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -30761,17 +30743,17 @@
       <c r="AM311" s="9"/>
       <c r="AN311" s="9"/>
       <c r="AO311" s="8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP311" s="9" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AQ311" s="9"/>
       <c r="AR311" s="9"/>
     </row>
     <row r="312" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="8" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>44</v>
@@ -30780,39 +30762,39 @@
         <v>45</v>
       </c>
       <c r="D312" s="51" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E312" s="42" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F312" s="42" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G312" s="42" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="I312" s="10" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
       <c r="M312" s="10"/>
       <c r="N312" s="10"/>
       <c r="O312" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P312" s="9"/>
       <c r="Q312" s="9"/>
       <c r="R312" s="9"/>
       <c r="S312" s="9"/>
       <c r="T312" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
@@ -30820,7 +30802,7 @@
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
       <c r="Z312" s="10" t="s">
-        <v>893</v>
+        <v>625</v>
       </c>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
@@ -30839,94 +30821,16 @@
       <c r="AM312" s="9"/>
       <c r="AN312" s="9"/>
       <c r="AO312" s="8" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP312" s="9" t="n">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="AQ312" s="9"/>
       <c r="AR312" s="9"/>
     </row>
-    <row r="313" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C313" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D313" s="51" t="s">
-        <v>836</v>
-      </c>
-      <c r="E313" s="42" t="s">
-        <v>879</v>
-      </c>
-      <c r="F313" s="42" t="s">
-        <v>880</v>
-      </c>
-      <c r="G313" s="42" t="s">
-        <v>881</v>
-      </c>
-      <c r="H313" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="I313" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="J313" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="K313" s="9"/>
-      <c r="L313" s="9"/>
-      <c r="M313" s="10"/>
-      <c r="N313" s="10"/>
-      <c r="O313" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="P313" s="9"/>
-      <c r="Q313" s="9"/>
-      <c r="R313" s="9"/>
-      <c r="S313" s="9"/>
-      <c r="T313" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="U313" s="9"/>
-      <c r="V313" s="9"/>
-      <c r="W313" s="9"/>
-      <c r="X313" s="9"/>
-      <c r="Y313" s="9"/>
-      <c r="Z313" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA313" s="9"/>
-      <c r="AB313" s="9"/>
-      <c r="AC313" s="9"/>
-      <c r="AD313" s="9"/>
-      <c r="AE313" s="9"/>
-      <c r="AF313" s="9"/>
-      <c r="AG313" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH313" s="9"/>
-      <c r="AI313" s="9"/>
-      <c r="AJ313" s="9"/>
-      <c r="AK313" s="9"/>
-      <c r="AL313" s="9"/>
-      <c r="AM313" s="9"/>
-      <c r="AN313" s="9"/>
-      <c r="AO313" s="8" t="n">
-        <v>312</v>
-      </c>
-      <c r="AP313" s="9" t="n">
-        <v>225</v>
-      </c>
-      <c r="AQ313" s="9"/>
-      <c r="AR313" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30947,10 +30851,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O84 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="56" t="s">
@@ -30981,10 +30888,13 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O84 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="58" t="s">
@@ -31006,10 +30916,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I1" s="59" t="s">
         <v>35</v>
@@ -31018,7 +30928,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>36</v>
@@ -31029,7 +30939,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="60" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,55 +13,56 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3792,17 +3793,17 @@
   </sheetPr>
   <dimension ref="A1:AR312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AP288" activeCellId="0" sqref="AP288"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="K292" activeCellId="0" sqref="K292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="56.663967611336"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="59.2712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28917,7 +28918,7 @@
       </c>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L288" s="10"/>
       <c r="M288" s="10"/>
@@ -30830,7 +30831,7 @@
       <c r="AR312" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS312"/>
+  <autoFilter ref="A1:AR312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30856,7 +30857,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30893,7 +30894,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,56 +13,57 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -221,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="895">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2889,6 +2890,9 @@
   </si>
   <si>
     <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
   </si>
   <si>
     <t xml:space="preserve">SSD with Meal</t>
@@ -3793,17 +3797,17 @@
   </sheetPr>
   <dimension ref="A1:AR312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K292" activeCellId="0" sqref="K292"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I291" activeCellId="0" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="59.2712550607287"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.9595141700405"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28994,7 +28998,7 @@
         <v>812</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>479</v>
+        <v>813</v>
       </c>
       <c r="J289" s="9"/>
       <c r="K289" s="10" t="n">
@@ -29019,7 +29023,7 @@
       <c r="X289" s="10"/>
       <c r="Y289" s="10"/>
       <c r="Z289" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AA289" s="10"/>
       <c r="AB289" s="10"/>
@@ -29070,13 +29074,13 @@
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>479</v>
+        <v>813</v>
       </c>
       <c r="J290" s="9"/>
       <c r="K290" s="10" t="n">
@@ -29101,7 +29105,7 @@
       <c r="X290" s="10"/>
       <c r="Y290" s="10"/>
       <c r="Z290" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AA290" s="10"/>
       <c r="AB290" s="10"/>
@@ -29152,13 +29156,13 @@
       </c>
       <c r="F291" s="9"/>
       <c r="G291" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>479</v>
+        <v>813</v>
       </c>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="n">
@@ -29183,7 +29187,7 @@
       <c r="X291" s="10"/>
       <c r="Y291" s="10"/>
       <c r="Z291" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AA291" s="10"/>
       <c r="AB291" s="10"/>
@@ -29234,13 +29238,13 @@
       </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H292" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>479</v>
+        <v>813</v>
       </c>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="n">
@@ -29265,7 +29269,7 @@
       <c r="X292" s="10"/>
       <c r="Y292" s="10"/>
       <c r="Z292" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AA292" s="10"/>
       <c r="AB292" s="10"/>
@@ -29316,10 +29320,10 @@
       </c>
       <c r="F293" s="50"/>
       <c r="G293" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H293" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>732</v>
@@ -29344,7 +29348,7 @@
       <c r="W293" s="10"/>
       <c r="X293" s="10"/>
       <c r="Y293" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z293" s="10"/>
       <c r="AA293" s="10"/>
@@ -29373,10 +29377,10 @@
         <v>293</v>
       </c>
       <c r="AP293" s="36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AQ293" s="42" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AR293" s="9"/>
     </row>
@@ -29398,13 +29402,13 @@
       </c>
       <c r="F294" s="50"/>
       <c r="G294" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H294" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I294" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="n">
@@ -29434,7 +29438,7 @@
       <c r="W294" s="10"/>
       <c r="X294" s="10"/>
       <c r="Y294" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z294" s="10"/>
       <c r="AA294" s="10"/>
@@ -29445,7 +29449,7 @@
         <v>51</v>
       </c>
       <c r="AF294" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AG294" s="17" t="n">
         <v>0</v>
@@ -29453,7 +29457,7 @@
       <c r="AH294" s="10"/>
       <c r="AI294" s="10"/>
       <c r="AJ294" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AK294" s="10"/>
       <c r="AL294" s="10"/>
@@ -29466,7 +29470,7 @@
       </c>
       <c r="AP294" s="9"/>
       <c r="AQ294" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AR294" s="9"/>
     </row>
@@ -29481,23 +29485,23 @@
         <v>45</v>
       </c>
       <c r="D295" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F295" s="31" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G295" s="35" t="s">
         <v>803</v>
       </c>
       <c r="H295" s="35"/>
       <c r="I295" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J295" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
@@ -29509,7 +29513,7 @@
       <c r="R295" s="9"/>
       <c r="S295" s="9"/>
       <c r="T295" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U295" s="9"/>
       <c r="V295" s="9"/>
@@ -29537,7 +29541,7 @@
         <v>295</v>
       </c>
       <c r="AP295" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AQ295" s="9"/>
       <c r="AR295" s="9"/>
@@ -29553,23 +29557,23 @@
         <v>45</v>
       </c>
       <c r="D296" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F296" s="42" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G296" s="42" t="s">
         <v>492</v>
       </c>
       <c r="H296" s="9"/>
       <c r="I296" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J296" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
@@ -29581,7 +29585,7 @@
       <c r="R296" s="9"/>
       <c r="S296" s="9"/>
       <c r="T296" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
@@ -29609,7 +29613,7 @@
         <v>296</v>
       </c>
       <c r="AP296" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AQ296" s="9"/>
       <c r="AR296" s="9"/>
@@ -29625,23 +29629,23 @@
         <v>45</v>
       </c>
       <c r="D297" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F297" s="31" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G297" s="35" t="s">
         <v>662</v>
       </c>
       <c r="H297" s="35"/>
       <c r="I297" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
@@ -29653,7 +29657,7 @@
       <c r="R297" s="9"/>
       <c r="S297" s="9"/>
       <c r="T297" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
@@ -29681,7 +29685,7 @@
         <v>297</v>
       </c>
       <c r="AP297" s="10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AQ297" s="9"/>
       <c r="AR297" s="9"/>
@@ -29697,25 +29701,25 @@
         <v>45</v>
       </c>
       <c r="D298" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E298" s="42" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F298" s="42" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G298" s="53" t="s">
         <v>810</v>
       </c>
       <c r="H298" s="35" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -29727,7 +29731,7 @@
       <c r="R298" s="9"/>
       <c r="S298" s="9"/>
       <c r="T298" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
@@ -29771,23 +29775,23 @@
         <v>45</v>
       </c>
       <c r="D299" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E299" s="42" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F299" s="42" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G299" s="42" t="s">
         <v>750</v>
       </c>
       <c r="H299" s="35"/>
       <c r="I299" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
@@ -29799,7 +29803,7 @@
       <c r="R299" s="9"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
@@ -29827,7 +29831,7 @@
         <v>299</v>
       </c>
       <c r="AP299" s="10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AQ299" s="9"/>
       <c r="AR299" s="9"/>
@@ -29843,25 +29847,25 @@
         <v>45</v>
       </c>
       <c r="D300" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E300" s="42" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F300" s="42" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G300" s="42" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H300" s="35" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
@@ -29873,7 +29877,7 @@
       <c r="R300" s="9"/>
       <c r="S300" s="9"/>
       <c r="T300" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
@@ -29917,37 +29921,37 @@
         <v>45</v>
       </c>
       <c r="D301" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E301" s="42" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F301" s="42" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G301" s="42" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H301" s="9"/>
       <c r="I301" s="10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J301" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
       <c r="M301" s="10"/>
       <c r="N301" s="10"/>
       <c r="O301" s="9" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="S301" s="9"/>
       <c r="T301" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
@@ -29955,7 +29959,7 @@
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
       <c r="Z301" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
@@ -29991,23 +29995,23 @@
         <v>45</v>
       </c>
       <c r="D302" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E302" s="42" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F302" s="42" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G302" s="42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
@@ -30021,7 +30025,7 @@
       <c r="R302" s="9"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
@@ -30029,7 +30033,7 @@
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -30065,37 +30069,37 @@
         <v>45</v>
       </c>
       <c r="D303" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E303" s="42" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F303" s="42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G303" s="42" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J303" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="10"/>
       <c r="N303" s="10"/>
       <c r="O303" s="9" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
       <c r="S303" s="9"/>
       <c r="T303" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
@@ -30103,7 +30107,7 @@
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -30139,39 +30143,39 @@
         <v>45</v>
       </c>
       <c r="D304" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F304" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G304" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H304" s="9" t="s">
         <v>466</v>
       </c>
       <c r="I304" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
       <c r="O304" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="9"/>
       <c r="T304" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
@@ -30179,7 +30183,7 @@
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -30217,39 +30221,39 @@
         <v>45</v>
       </c>
       <c r="D305" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F305" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H305" s="9" t="s">
         <v>499</v>
       </c>
       <c r="I305" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J305" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
       <c r="M305" s="10"/>
       <c r="N305" s="10"/>
       <c r="O305" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
       <c r="S305" s="9"/>
       <c r="T305" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
@@ -30257,7 +30261,7 @@
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -30295,39 +30299,39 @@
         <v>45</v>
       </c>
       <c r="D306" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F306" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H306" s="9" t="s">
         <v>531</v>
       </c>
       <c r="I306" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10"/>
       <c r="O306" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
       <c r="S306" s="9"/>
       <c r="T306" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
@@ -30335,7 +30339,7 @@
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -30373,39 +30377,39 @@
         <v>45</v>
       </c>
       <c r="D307" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F307" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G307" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H307" s="9" t="s">
         <v>550</v>
       </c>
       <c r="I307" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J307" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
       <c r="M307" s="10"/>
       <c r="N307" s="10"/>
       <c r="O307" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P307" s="9"/>
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
       <c r="S307" s="9"/>
       <c r="T307" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
@@ -30413,7 +30417,7 @@
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
       <c r="Z307" s="55" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -30451,39 +30455,39 @@
         <v>45</v>
       </c>
       <c r="D308" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E308" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F308" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G308" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H308" s="9" t="s">
         <v>569</v>
       </c>
       <c r="I308" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
       <c r="M308" s="10"/>
       <c r="N308" s="10"/>
       <c r="O308" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P308" s="9"/>
       <c r="Q308" s="9"/>
       <c r="R308" s="9"/>
       <c r="S308" s="9"/>
       <c r="T308" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
@@ -30491,7 +30495,7 @@
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
       <c r="Z308" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -30529,39 +30533,39 @@
         <v>45</v>
       </c>
       <c r="D309" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F309" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G309" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H309" s="9" t="s">
         <v>582</v>
       </c>
       <c r="I309" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J309" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
       <c r="M309" s="10"/>
       <c r="N309" s="10"/>
       <c r="O309" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P309" s="9"/>
       <c r="Q309" s="9"/>
       <c r="R309" s="9"/>
       <c r="S309" s="9"/>
       <c r="T309" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
@@ -30569,7 +30573,7 @@
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -30607,39 +30611,39 @@
         <v>45</v>
       </c>
       <c r="D310" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E310" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F310" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G310" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H310" s="9" t="s">
         <v>593</v>
       </c>
       <c r="I310" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
       <c r="M310" s="10"/>
       <c r="N310" s="10"/>
       <c r="O310" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
       <c r="R310" s="9"/>
       <c r="S310" s="9"/>
       <c r="T310" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
@@ -30647,7 +30651,7 @@
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -30685,39 +30689,39 @@
         <v>45</v>
       </c>
       <c r="D311" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E311" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F311" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G311" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H311" s="9" t="s">
         <v>612</v>
       </c>
       <c r="I311" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J311" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
       <c r="M311" s="10"/>
       <c r="N311" s="10"/>
       <c r="O311" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9"/>
       <c r="S311" s="9"/>
       <c r="T311" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
@@ -30725,7 +30729,7 @@
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="10" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -30763,39 +30767,39 @@
         <v>45</v>
       </c>
       <c r="D312" s="51" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E312" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F312" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G312" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H312" s="9" t="s">
         <v>622</v>
       </c>
       <c r="I312" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
       <c r="M312" s="10"/>
       <c r="N312" s="10"/>
       <c r="O312" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P312" s="9"/>
       <c r="Q312" s="9"/>
       <c r="R312" s="9"/>
       <c r="S312" s="9"/>
       <c r="T312" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
@@ -30831,7 +30835,7 @@
       <c r="AR312" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR312"/>
+  <autoFilter ref="A1:AS312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30857,12 +30861,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30894,7 +30898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30917,10 +30921,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I1" s="59" t="s">
         <v>35</v>
@@ -30929,7 +30933,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>36</v>
@@ -30940,7 +30944,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="60" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,57 +13,58 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="896">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2869,6 +2870,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wild Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations</t>
@@ -3798,16 +3802,16 @@
   <dimension ref="A1:AR312"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I291" activeCellId="0" sqref="I291"/>
+      <selection pane="bottomLeft" activeCell="A287" activeCellId="0" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.1740890688259"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28843,7 +28847,9 @@
         <v>806</v>
       </c>
       <c r="P287" s="48"/>
-      <c r="Q287" s="48"/>
+      <c r="Q287" s="48" t="s">
+        <v>807</v>
+      </c>
       <c r="R287" s="48" t="s">
         <v>806</v>
       </c>
@@ -28912,10 +28918,10 @@
       </c>
       <c r="F288" s="9"/>
       <c r="G288" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H288" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I288" s="10" t="s">
         <v>659</v>
@@ -28967,10 +28973,10 @@
         <v>287</v>
       </c>
       <c r="AP288" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AQ288" s="46" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AR288" s="9"/>
     </row>
@@ -28992,13 +28998,13 @@
       </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J289" s="9"/>
       <c r="K289" s="10" t="n">
@@ -29023,7 +29029,7 @@
       <c r="X289" s="10"/>
       <c r="Y289" s="10"/>
       <c r="Z289" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AA289" s="10"/>
       <c r="AB289" s="10"/>
@@ -29052,7 +29058,7 @@
       </c>
       <c r="AP289" s="10"/>
       <c r="AQ289" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AR289" s="9"/>
     </row>
@@ -29074,13 +29080,13 @@
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J290" s="9"/>
       <c r="K290" s="10" t="n">
@@ -29105,7 +29111,7 @@
       <c r="X290" s="10"/>
       <c r="Y290" s="10"/>
       <c r="Z290" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AA290" s="10"/>
       <c r="AB290" s="10"/>
@@ -29134,7 +29140,7 @@
       </c>
       <c r="AP290" s="10"/>
       <c r="AQ290" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AR290" s="9"/>
     </row>
@@ -29156,13 +29162,13 @@
       </c>
       <c r="F291" s="9"/>
       <c r="G291" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="n">
@@ -29187,7 +29193,7 @@
       <c r="X291" s="10"/>
       <c r="Y291" s="10"/>
       <c r="Z291" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AA291" s="10"/>
       <c r="AB291" s="10"/>
@@ -29216,7 +29222,7 @@
       </c>
       <c r="AP291" s="10"/>
       <c r="AQ291" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AR291" s="9"/>
     </row>
@@ -29238,13 +29244,13 @@
       </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H292" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="n">
@@ -29269,7 +29275,7 @@
       <c r="X292" s="10"/>
       <c r="Y292" s="10"/>
       <c r="Z292" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AA292" s="10"/>
       <c r="AB292" s="10"/>
@@ -29298,7 +29304,7 @@
       </c>
       <c r="AP292" s="10"/>
       <c r="AQ292" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AR292" s="9"/>
     </row>
@@ -29320,10 +29326,10 @@
       </c>
       <c r="F293" s="50"/>
       <c r="G293" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H293" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>732</v>
@@ -29348,7 +29354,7 @@
       <c r="W293" s="10"/>
       <c r="X293" s="10"/>
       <c r="Y293" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Z293" s="10"/>
       <c r="AA293" s="10"/>
@@ -29377,10 +29383,10 @@
         <v>293</v>
       </c>
       <c r="AP293" s="36" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AQ293" s="42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AR293" s="9"/>
     </row>
@@ -29402,13 +29408,13 @@
       </c>
       <c r="F294" s="50"/>
       <c r="G294" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H294" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I294" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="n">
@@ -29438,7 +29444,7 @@
       <c r="W294" s="10"/>
       <c r="X294" s="10"/>
       <c r="Y294" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="Z294" s="10"/>
       <c r="AA294" s="10"/>
@@ -29449,7 +29455,7 @@
         <v>51</v>
       </c>
       <c r="AF294" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG294" s="17" t="n">
         <v>0</v>
@@ -29457,7 +29463,7 @@
       <c r="AH294" s="10"/>
       <c r="AI294" s="10"/>
       <c r="AJ294" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AK294" s="10"/>
       <c r="AL294" s="10"/>
@@ -29470,7 +29476,7 @@
       </c>
       <c r="AP294" s="9"/>
       <c r="AQ294" s="14" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AR294" s="9"/>
     </row>
@@ -29485,23 +29491,23 @@
         <v>45</v>
       </c>
       <c r="D295" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F295" s="31" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G295" s="35" t="s">
         <v>803</v>
       </c>
       <c r="H295" s="35"/>
       <c r="I295" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J295" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
@@ -29513,7 +29519,7 @@
       <c r="R295" s="9"/>
       <c r="S295" s="9"/>
       <c r="T295" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U295" s="9"/>
       <c r="V295" s="9"/>
@@ -29541,7 +29547,7 @@
         <v>295</v>
       </c>
       <c r="AP295" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AQ295" s="9"/>
       <c r="AR295" s="9"/>
@@ -29557,23 +29563,23 @@
         <v>45</v>
       </c>
       <c r="D296" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F296" s="42" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G296" s="42" t="s">
         <v>492</v>
       </c>
       <c r="H296" s="9"/>
       <c r="I296" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J296" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
@@ -29585,7 +29591,7 @@
       <c r="R296" s="9"/>
       <c r="S296" s="9"/>
       <c r="T296" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
@@ -29613,7 +29619,7 @@
         <v>296</v>
       </c>
       <c r="AP296" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AQ296" s="9"/>
       <c r="AR296" s="9"/>
@@ -29629,23 +29635,23 @@
         <v>45</v>
       </c>
       <c r="D297" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F297" s="31" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G297" s="35" t="s">
         <v>662</v>
       </c>
       <c r="H297" s="35"/>
       <c r="I297" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
@@ -29657,7 +29663,7 @@
       <c r="R297" s="9"/>
       <c r="S297" s="9"/>
       <c r="T297" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
@@ -29685,7 +29691,7 @@
         <v>297</v>
       </c>
       <c r="AP297" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AQ297" s="9"/>
       <c r="AR297" s="9"/>
@@ -29701,25 +29707,25 @@
         <v>45</v>
       </c>
       <c r="D298" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E298" s="42" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F298" s="42" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G298" s="53" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H298" s="35" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -29731,7 +29737,7 @@
       <c r="R298" s="9"/>
       <c r="S298" s="9"/>
       <c r="T298" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
@@ -29775,23 +29781,23 @@
         <v>45</v>
       </c>
       <c r="D299" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E299" s="42" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F299" s="42" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G299" s="42" t="s">
         <v>750</v>
       </c>
       <c r="H299" s="35"/>
       <c r="I299" s="9" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
@@ -29803,7 +29809,7 @@
       <c r="R299" s="9"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
@@ -29831,7 +29837,7 @@
         <v>299</v>
       </c>
       <c r="AP299" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AQ299" s="9"/>
       <c r="AR299" s="9"/>
@@ -29847,25 +29853,25 @@
         <v>45</v>
       </c>
       <c r="D300" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E300" s="42" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F300" s="42" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G300" s="42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H300" s="35" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
@@ -29877,7 +29883,7 @@
       <c r="R300" s="9"/>
       <c r="S300" s="9"/>
       <c r="T300" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
@@ -29921,37 +29927,37 @@
         <v>45</v>
       </c>
       <c r="D301" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E301" s="42" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F301" s="42" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G301" s="42" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H301" s="9"/>
       <c r="I301" s="10" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J301" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
       <c r="M301" s="10"/>
       <c r="N301" s="10"/>
       <c r="O301" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="S301" s="9"/>
       <c r="T301" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
@@ -29959,7 +29965,7 @@
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
       <c r="Z301" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
@@ -29995,23 +30001,23 @@
         <v>45</v>
       </c>
       <c r="D302" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E302" s="42" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F302" s="42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G302" s="42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
@@ -30025,7 +30031,7 @@
       <c r="R302" s="9"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
@@ -30033,7 +30039,7 @@
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="10" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -30069,37 +30075,37 @@
         <v>45</v>
       </c>
       <c r="D303" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E303" s="42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F303" s="42" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G303" s="42" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J303" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="10"/>
       <c r="N303" s="10"/>
       <c r="O303" s="9" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
       <c r="S303" s="9"/>
       <c r="T303" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
@@ -30107,7 +30113,7 @@
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="10" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -30143,39 +30149,39 @@
         <v>45</v>
       </c>
       <c r="D304" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F304" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G304" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H304" s="9" t="s">
         <v>466</v>
       </c>
       <c r="I304" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
       <c r="O304" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="9"/>
       <c r="T304" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
@@ -30183,7 +30189,7 @@
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -30221,39 +30227,39 @@
         <v>45</v>
       </c>
       <c r="D305" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F305" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H305" s="9" t="s">
         <v>499</v>
       </c>
       <c r="I305" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J305" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
       <c r="M305" s="10"/>
       <c r="N305" s="10"/>
       <c r="O305" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
       <c r="S305" s="9"/>
       <c r="T305" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
@@ -30261,7 +30267,7 @@
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -30299,39 +30305,39 @@
         <v>45</v>
       </c>
       <c r="D306" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F306" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H306" s="9" t="s">
         <v>531</v>
       </c>
       <c r="I306" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10"/>
       <c r="O306" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
       <c r="S306" s="9"/>
       <c r="T306" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
@@ -30339,7 +30345,7 @@
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -30377,39 +30383,39 @@
         <v>45</v>
       </c>
       <c r="D307" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F307" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G307" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H307" s="9" t="s">
         <v>550</v>
       </c>
       <c r="I307" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J307" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
       <c r="M307" s="10"/>
       <c r="N307" s="10"/>
       <c r="O307" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P307" s="9"/>
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
       <c r="S307" s="9"/>
       <c r="T307" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
@@ -30417,7 +30423,7 @@
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
       <c r="Z307" s="55" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -30455,39 +30461,39 @@
         <v>45</v>
       </c>
       <c r="D308" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E308" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F308" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G308" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H308" s="9" t="s">
         <v>569</v>
       </c>
       <c r="I308" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
       <c r="M308" s="10"/>
       <c r="N308" s="10"/>
       <c r="O308" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P308" s="9"/>
       <c r="Q308" s="9"/>
       <c r="R308" s="9"/>
       <c r="S308" s="9"/>
       <c r="T308" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
@@ -30495,7 +30501,7 @@
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
       <c r="Z308" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -30533,39 +30539,39 @@
         <v>45</v>
       </c>
       <c r="D309" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F309" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G309" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H309" s="9" t="s">
         <v>582</v>
       </c>
       <c r="I309" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J309" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
       <c r="M309" s="10"/>
       <c r="N309" s="10"/>
       <c r="O309" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P309" s="9"/>
       <c r="Q309" s="9"/>
       <c r="R309" s="9"/>
       <c r="S309" s="9"/>
       <c r="T309" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
@@ -30573,7 +30579,7 @@
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -30611,39 +30617,39 @@
         <v>45</v>
       </c>
       <c r="D310" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E310" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F310" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G310" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H310" s="9" t="s">
         <v>593</v>
       </c>
       <c r="I310" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
       <c r="M310" s="10"/>
       <c r="N310" s="10"/>
       <c r="O310" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
       <c r="R310" s="9"/>
       <c r="S310" s="9"/>
       <c r="T310" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
@@ -30651,7 +30657,7 @@
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="10" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -30689,39 +30695,39 @@
         <v>45</v>
       </c>
       <c r="D311" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E311" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F311" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G311" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H311" s="9" t="s">
         <v>612</v>
       </c>
       <c r="I311" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J311" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
       <c r="M311" s="10"/>
       <c r="N311" s="10"/>
       <c r="O311" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9"/>
       <c r="S311" s="9"/>
       <c r="T311" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
@@ -30729,7 +30735,7 @@
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="10" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -30767,39 +30773,39 @@
         <v>45</v>
       </c>
       <c r="D312" s="51" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E312" s="42" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F312" s="42" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G312" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H312" s="9" t="s">
         <v>622</v>
       </c>
       <c r="I312" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
       <c r="M312" s="10"/>
       <c r="N312" s="10"/>
       <c r="O312" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P312" s="9"/>
       <c r="Q312" s="9"/>
       <c r="R312" s="9"/>
       <c r="S312" s="9"/>
       <c r="T312" s="9" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
@@ -30835,7 +30841,7 @@
       <c r="AR312" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS312"/>
+  <autoFilter ref="A1:AR312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30866,7 +30872,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="56" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30921,10 +30927,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I1" s="59" t="s">
         <v>35</v>
@@ -30933,7 +30939,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>36</v>
@@ -30944,7 +30950,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="60" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,58 +13,59 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -223,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4628" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="896">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2613,6 +2614,9 @@
     <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
   </si>
   <si>
+    <t xml:space="preserve">CAMPARI</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Alco Brand</t>
   </si>
   <si>
@@ -2870,9 +2874,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wild Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">RGM Activations</t>
@@ -3801,17 +3802,17 @@
   </sheetPr>
   <dimension ref="A1:AR312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A287" activeCellId="0" sqref="A287"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N260" activeCellId="0" sqref="N260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26463,7 +26464,9 @@
         <v>4607174573314</v>
       </c>
       <c r="P260" s="16"/>
-      <c r="Q260" s="16"/>
+      <c r="Q260" s="16" t="s">
+        <v>726</v>
+      </c>
       <c r="R260" s="16"/>
       <c r="S260" s="10" t="s">
         <v>56</v>
@@ -26530,10 +26533,10 @@
       </c>
       <c r="F261" s="8"/>
       <c r="G261" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I261" s="10" t="s">
         <v>55</v>
@@ -26545,7 +26548,7 @@
       <c r="L261" s="9"/>
       <c r="M261" s="9"/>
       <c r="N261" s="9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O261" s="15" t="n">
         <v>4607174573338</v>
@@ -26618,10 +26621,10 @@
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="H262" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="H262" s="9" t="s">
-        <v>727</v>
       </c>
       <c r="I262" s="10" t="s">
         <v>55</v>
@@ -26633,7 +26636,7 @@
       <c r="L262" s="9"/>
       <c r="M262" s="9"/>
       <c r="N262" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O262" s="15" t="n">
         <v>4607152740738</v>
@@ -26702,17 +26705,17 @@
         <v>46</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F263" s="9"/>
       <c r="G263" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J263" s="10"/>
       <c r="K263" s="0"/>
@@ -26724,7 +26727,7 @@
       <c r="Q263" s="29"/>
       <c r="R263" s="29"/>
       <c r="S263" s="9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="T263" s="9"/>
       <c r="U263" s="9"/>
@@ -26749,7 +26752,7 @@
       <c r="AH263" s="10"/>
       <c r="AI263" s="10"/>
       <c r="AJ263" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AK263" s="10"/>
       <c r="AL263" s="10"/>
@@ -26761,7 +26764,7 @@
         <v>262</v>
       </c>
       <c r="AP263" s="13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AQ263" s="9"/>
       <c r="AR263" s="9"/>
@@ -26780,17 +26783,17 @@
         <v>46</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F264" s="9"/>
       <c r="G264" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H264" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I264" s="40" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J264" s="40"/>
       <c r="K264" s="10" t="n">
@@ -26804,7 +26807,7 @@
         <v>474</v>
       </c>
       <c r="O264" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P264" s="12"/>
       <c r="Q264" s="12"/>
@@ -26818,7 +26821,7 @@
       <c r="W264" s="9"/>
       <c r="X264" s="9"/>
       <c r="Y264" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -26848,7 +26851,7 @@
       </c>
       <c r="AP264" s="9"/>
       <c r="AQ264" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AR264" s="9"/>
     </row>
@@ -26866,17 +26869,17 @@
         <v>46</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F265" s="9"/>
       <c r="G265" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="n">
@@ -26888,7 +26891,7 @@
         <v>474</v>
       </c>
       <c r="O265" s="29" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P265" s="29"/>
       <c r="Q265" s="29"/>
@@ -26902,7 +26905,7 @@
       <c r="W265" s="9"/>
       <c r="X265" s="9"/>
       <c r="Y265" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -26932,7 +26935,7 @@
       </c>
       <c r="AP265" s="9"/>
       <c r="AQ265" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AR265" s="9"/>
     </row>
@@ -26954,10 +26957,10 @@
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H266" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="I266" s="14" t="s">
         <v>479</v>
@@ -26975,16 +26978,16 @@
       <c r="R266" s="29"/>
       <c r="S266" s="9"/>
       <c r="T266" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="U266" s="9"/>
       <c r="V266" s="9"/>
       <c r="W266" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -27003,12 +27006,12 @@
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
       <c r="AM266" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN266" s="9" t="n">
         <v>2</v>
@@ -27018,7 +27021,7 @@
       </c>
       <c r="AP266" s="9"/>
       <c r="AQ266" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AR266" s="9"/>
     </row>
@@ -27040,13 +27043,13 @@
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H267" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="I267" s="14" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J267" s="14"/>
       <c r="K267" s="10"/>
@@ -27070,7 +27073,7 @@
       <c r="W267" s="9"/>
       <c r="X267" s="9"/>
       <c r="Y267" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -27089,12 +27092,12 @@
       <c r="AH267" s="10"/>
       <c r="AI267" s="10"/>
       <c r="AJ267" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK267" s="10"/>
       <c r="AL267" s="10"/>
       <c r="AM267" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN267" s="9" t="n">
         <v>2</v>
@@ -27104,7 +27107,7 @@
       </c>
       <c r="AP267" s="9"/>
       <c r="AQ267" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AR267" s="9"/>
     </row>
@@ -27126,10 +27129,10 @@
       </c>
       <c r="F268" s="9"/>
       <c r="G268" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I268" s="14" t="s">
         <v>659</v>
@@ -27154,7 +27157,7 @@
       <c r="W268" s="9"/>
       <c r="X268" s="9"/>
       <c r="Y268" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -27165,7 +27168,7 @@
         <v>51</v>
       </c>
       <c r="AF268" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG268" s="17" t="n">
         <v>0.0225</v>
@@ -27177,12 +27180,12 @@
         <v>1</v>
       </c>
       <c r="AJ268" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
       <c r="AM268" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN268" s="9" t="n">
         <v>2</v>
@@ -27191,10 +27194,10 @@
         <v>267</v>
       </c>
       <c r="AP268" s="13" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AQ268" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AR268" s="9"/>
     </row>
@@ -27216,10 +27219,10 @@
       </c>
       <c r="F269" s="9"/>
       <c r="G269" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I269" s="10" t="s">
         <v>55</v>
@@ -27250,7 +27253,7 @@
       <c r="W269" s="9"/>
       <c r="X269" s="9"/>
       <c r="Y269" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -27269,12 +27272,12 @@
       <c r="AH269" s="10"/>
       <c r="AI269" s="10"/>
       <c r="AJ269" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK269" s="10"/>
       <c r="AL269" s="10"/>
       <c r="AM269" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN269" s="9" t="n">
         <v>3</v>
@@ -27284,7 +27287,7 @@
       </c>
       <c r="AP269" s="9"/>
       <c r="AQ269" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR269" s="9"/>
     </row>
@@ -27306,10 +27309,10 @@
       </c>
       <c r="F270" s="9"/>
       <c r="G270" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H270" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I270" s="10" t="s">
         <v>55</v>
@@ -27340,7 +27343,7 @@
       <c r="W270" s="9"/>
       <c r="X270" s="9"/>
       <c r="Y270" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -27359,12 +27362,12 @@
       <c r="AH270" s="10"/>
       <c r="AI270" s="10"/>
       <c r="AJ270" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK270" s="10"/>
       <c r="AL270" s="10"/>
       <c r="AM270" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN270" s="9" t="n">
         <v>3</v>
@@ -27374,7 +27377,7 @@
       </c>
       <c r="AP270" s="9"/>
       <c r="AQ270" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR270" s="9"/>
     </row>
@@ -27396,10 +27399,10 @@
       </c>
       <c r="F271" s="9"/>
       <c r="G271" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I271" s="10" t="s">
         <v>55</v>
@@ -27430,7 +27433,7 @@
       <c r="W271" s="9"/>
       <c r="X271" s="9"/>
       <c r="Y271" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -27449,12 +27452,12 @@
       <c r="AH271" s="10"/>
       <c r="AI271" s="10"/>
       <c r="AJ271" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK271" s="10"/>
       <c r="AL271" s="10"/>
       <c r="AM271" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN271" s="9" t="n">
         <v>3</v>
@@ -27464,7 +27467,7 @@
       </c>
       <c r="AP271" s="9"/>
       <c r="AQ271" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR271" s="9"/>
     </row>
@@ -27486,10 +27489,10 @@
       </c>
       <c r="F272" s="9"/>
       <c r="G272" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I272" s="10" t="s">
         <v>55</v>
@@ -27520,7 +27523,7 @@
       <c r="W272" s="9"/>
       <c r="X272" s="9"/>
       <c r="Y272" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -27539,12 +27542,12 @@
       <c r="AH272" s="10"/>
       <c r="AI272" s="10"/>
       <c r="AJ272" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK272" s="10"/>
       <c r="AL272" s="10"/>
       <c r="AM272" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN272" s="9" t="n">
         <v>3</v>
@@ -27554,7 +27557,7 @@
       </c>
       <c r="AP272" s="9"/>
       <c r="AQ272" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR272" s="9"/>
     </row>
@@ -27576,10 +27579,10 @@
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I273" s="10" t="s">
         <v>55</v>
@@ -27610,7 +27613,7 @@
       <c r="W273" s="9"/>
       <c r="X273" s="9"/>
       <c r="Y273" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -27629,12 +27632,12 @@
       <c r="AH273" s="10"/>
       <c r="AI273" s="10"/>
       <c r="AJ273" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK273" s="10"/>
       <c r="AL273" s="10"/>
       <c r="AM273" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN273" s="9" t="n">
         <v>3</v>
@@ -27644,7 +27647,7 @@
       </c>
       <c r="AP273" s="9"/>
       <c r="AQ273" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR273" s="9"/>
     </row>
@@ -27666,10 +27669,10 @@
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H274" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I274" s="10" t="s">
         <v>55</v>
@@ -27700,7 +27703,7 @@
       <c r="W274" s="9"/>
       <c r="X274" s="9"/>
       <c r="Y274" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -27719,12 +27722,12 @@
       <c r="AH274" s="10"/>
       <c r="AI274" s="10"/>
       <c r="AJ274" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK274" s="10"/>
       <c r="AL274" s="10"/>
       <c r="AM274" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN274" s="9" t="n">
         <v>3</v>
@@ -27734,7 +27737,7 @@
       </c>
       <c r="AP274" s="9"/>
       <c r="AQ274" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR274" s="9"/>
     </row>
@@ -27756,10 +27759,10 @@
       </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I275" s="10" t="s">
         <v>55</v>
@@ -27790,7 +27793,7 @@
       <c r="W275" s="9"/>
       <c r="X275" s="9"/>
       <c r="Y275" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -27809,12 +27812,12 @@
       <c r="AH275" s="10"/>
       <c r="AI275" s="10"/>
       <c r="AJ275" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK275" s="10"/>
       <c r="AL275" s="10"/>
       <c r="AM275" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN275" s="9" t="n">
         <v>3</v>
@@ -27824,7 +27827,7 @@
       </c>
       <c r="AP275" s="9"/>
       <c r="AQ275" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR275" s="9"/>
     </row>
@@ -27846,10 +27849,10 @@
       </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H276" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I276" s="10" t="s">
         <v>55</v>
@@ -27880,7 +27883,7 @@
       <c r="W276" s="9"/>
       <c r="X276" s="9"/>
       <c r="Y276" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -27899,12 +27902,12 @@
       <c r="AH276" s="10"/>
       <c r="AI276" s="10"/>
       <c r="AJ276" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK276" s="10"/>
       <c r="AL276" s="10"/>
       <c r="AM276" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN276" s="9" t="n">
         <v>3</v>
@@ -27914,7 +27917,7 @@
       </c>
       <c r="AP276" s="9"/>
       <c r="AQ276" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR276" s="9"/>
     </row>
@@ -27936,10 +27939,10 @@
       </c>
       <c r="F277" s="9"/>
       <c r="G277" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H277" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I277" s="10" t="s">
         <v>55</v>
@@ -27970,7 +27973,7 @@
       <c r="W277" s="9"/>
       <c r="X277" s="9"/>
       <c r="Y277" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -27989,12 +27992,12 @@
       <c r="AH277" s="10"/>
       <c r="AI277" s="10"/>
       <c r="AJ277" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK277" s="10"/>
       <c r="AL277" s="10"/>
       <c r="AM277" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN277" s="9" t="n">
         <v>3</v>
@@ -28004,7 +28007,7 @@
       </c>
       <c r="AP277" s="9"/>
       <c r="AQ277" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR277" s="9"/>
     </row>
@@ -28026,10 +28029,10 @@
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H278" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I278" s="10" t="s">
         <v>55</v>
@@ -28060,7 +28063,7 @@
       <c r="W278" s="9"/>
       <c r="X278" s="9"/>
       <c r="Y278" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -28079,12 +28082,12 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
       <c r="AM278" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN278" s="9" t="n">
         <v>3</v>
@@ -28094,7 +28097,7 @@
       </c>
       <c r="AP278" s="9"/>
       <c r="AQ278" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR278" s="9"/>
     </row>
@@ -28116,10 +28119,10 @@
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I279" s="10" t="s">
         <v>55</v>
@@ -28131,10 +28134,10 @@
       <c r="L279" s="10"/>
       <c r="M279" s="10"/>
       <c r="N279" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="O279" s="44" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="P279" s="29"/>
       <c r="Q279" s="29"/>
@@ -28150,7 +28153,7 @@
       <c r="W279" s="9"/>
       <c r="X279" s="9"/>
       <c r="Y279" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -28169,12 +28172,12 @@
       <c r="AH279" s="10"/>
       <c r="AI279" s="10"/>
       <c r="AJ279" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK279" s="10"/>
       <c r="AL279" s="10"/>
       <c r="AM279" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN279" s="9" t="n">
         <v>3</v>
@@ -28184,7 +28187,7 @@
       </c>
       <c r="AP279" s="9"/>
       <c r="AQ279" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR279" s="9"/>
     </row>
@@ -28206,10 +28209,10 @@
       </c>
       <c r="F280" s="9"/>
       <c r="G280" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I280" s="10" t="s">
         <v>55</v>
@@ -28221,10 +28224,10 @@
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
       <c r="N280" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O280" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="P280" s="29"/>
       <c r="Q280" s="29"/>
@@ -28240,7 +28243,7 @@
       <c r="W280" s="9"/>
       <c r="X280" s="9"/>
       <c r="Y280" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -28259,12 +28262,12 @@
       <c r="AH280" s="10"/>
       <c r="AI280" s="10"/>
       <c r="AJ280" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK280" s="10"/>
       <c r="AL280" s="10"/>
       <c r="AM280" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN280" s="9" t="n">
         <v>3</v>
@@ -28274,7 +28277,7 @@
       </c>
       <c r="AP280" s="9"/>
       <c r="AQ280" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR280" s="9"/>
     </row>
@@ -28296,10 +28299,10 @@
       </c>
       <c r="F281" s="9"/>
       <c r="G281" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I281" s="10" t="s">
         <v>55</v>
@@ -28330,7 +28333,7 @@
       <c r="W281" s="9"/>
       <c r="X281" s="9"/>
       <c r="Y281" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
@@ -28349,12 +28352,12 @@
       <c r="AH281" s="10"/>
       <c r="AI281" s="10"/>
       <c r="AJ281" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK281" s="10"/>
       <c r="AL281" s="10"/>
       <c r="AM281" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN281" s="9" t="n">
         <v>3</v>
@@ -28364,7 +28367,7 @@
       </c>
       <c r="AP281" s="9"/>
       <c r="AQ281" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR281" s="9"/>
     </row>
@@ -28386,10 +28389,10 @@
       </c>
       <c r="F282" s="9"/>
       <c r="G282" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I282" s="10" t="s">
         <v>55</v>
@@ -28420,7 +28423,7 @@
       <c r="W282" s="9"/>
       <c r="X282" s="9"/>
       <c r="Y282" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
@@ -28439,12 +28442,12 @@
       <c r="AH282" s="10"/>
       <c r="AI282" s="10"/>
       <c r="AJ282" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK282" s="10"/>
       <c r="AL282" s="10"/>
       <c r="AM282" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN282" s="9" t="n">
         <v>3</v>
@@ -28454,7 +28457,7 @@
       </c>
       <c r="AP282" s="9"/>
       <c r="AQ282" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR282" s="9"/>
     </row>
@@ -28476,10 +28479,10 @@
       </c>
       <c r="F283" s="9"/>
       <c r="G283" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H283" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="I283" s="10" t="s">
         <v>55</v>
@@ -28510,7 +28513,7 @@
       <c r="W283" s="9"/>
       <c r="X283" s="9"/>
       <c r="Y283" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
@@ -28529,12 +28532,12 @@
       <c r="AH283" s="10"/>
       <c r="AI283" s="10"/>
       <c r="AJ283" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK283" s="10"/>
       <c r="AL283" s="10"/>
       <c r="AM283" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN283" s="9" t="n">
         <v>3</v>
@@ -28544,7 +28547,7 @@
       </c>
       <c r="AP283" s="9"/>
       <c r="AQ283" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR283" s="9"/>
     </row>
@@ -28566,10 +28569,10 @@
       </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H284" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I284" s="10" t="s">
         <v>55</v>
@@ -28600,7 +28603,7 @@
       <c r="W284" s="9"/>
       <c r="X284" s="9"/>
       <c r="Y284" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
@@ -28619,12 +28622,12 @@
       <c r="AH284" s="10"/>
       <c r="AI284" s="10"/>
       <c r="AJ284" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK284" s="10"/>
       <c r="AL284" s="10"/>
       <c r="AM284" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN284" s="9" t="n">
         <v>3</v>
@@ -28634,7 +28637,7 @@
       </c>
       <c r="AP284" s="9"/>
       <c r="AQ284" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AR284" s="9"/>
     </row>
@@ -28656,13 +28659,13 @@
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I285" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J285" s="14"/>
       <c r="K285" s="10"/>
@@ -28670,7 +28673,7 @@
       <c r="M285" s="10"/>
       <c r="N285" s="10"/>
       <c r="O285" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P285" s="12"/>
       <c r="Q285" s="12"/>
@@ -28684,7 +28687,7 @@
       <c r="W285" s="9"/>
       <c r="X285" s="9"/>
       <c r="Y285" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z285" s="10"/>
       <c r="AA285" s="9"/>
@@ -28703,12 +28706,12 @@
       <c r="AH285" s="10"/>
       <c r="AI285" s="10"/>
       <c r="AJ285" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AK285" s="10"/>
       <c r="AL285" s="10"/>
       <c r="AM285" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN285" s="9" t="n">
         <v>2</v>
@@ -28718,7 +28721,7 @@
       </c>
       <c r="AP285" s="9"/>
       <c r="AQ285" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AR285" s="9"/>
     </row>
@@ -28740,10 +28743,10 @@
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I286" s="10" t="s">
         <v>55</v>
@@ -28756,29 +28759,29 @@
       <c r="M286" s="10"/>
       <c r="N286" s="12"/>
       <c r="O286" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="P286" s="12"/>
       <c r="Q286" s="12"/>
       <c r="R286" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S286" s="10" t="s">
         <v>56</v>
       </c>
       <c r="T286" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10"/>
       <c r="W286" s="10"/>
       <c r="X286" s="10"/>
       <c r="Y286" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Z286" s="10"/>
       <c r="AA286" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AB286" s="14"/>
       <c r="AC286" s="10"/>
@@ -28806,7 +28809,7 @@
       </c>
       <c r="AP286" s="9"/>
       <c r="AQ286" s="46" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AR286" s="9"/>
     </row>
@@ -28828,10 +28831,10 @@
       </c>
       <c r="F287" s="34"/>
       <c r="G287" s="47" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H287" s="34" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I287" s="47" t="s">
         <v>55</v>
@@ -28844,31 +28847,31 @@
       <c r="M287" s="47"/>
       <c r="N287" s="47"/>
       <c r="O287" s="48" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P287" s="48"/>
       <c r="Q287" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="R287" s="48" t="s">
         <v>807</v>
-      </c>
-      <c r="R287" s="48" t="s">
-        <v>806</v>
       </c>
       <c r="S287" s="47" t="s">
         <v>56</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="U287" s="47"/>
       <c r="V287" s="47"/>
       <c r="W287" s="47"/>
       <c r="X287" s="47"/>
       <c r="Y287" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Z287" s="47"/>
       <c r="AA287" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AB287" s="49"/>
       <c r="AC287" s="47"/>
@@ -28896,7 +28899,7 @@
       </c>
       <c r="AP287" s="34"/>
       <c r="AQ287" s="46" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AR287" s="34"/>
     </row>
@@ -29332,7 +29335,7 @@
         <v>826</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J293" s="0"/>
       <c r="K293" s="10" t="n">
@@ -29428,7 +29431,7 @@
         <v>474</v>
       </c>
       <c r="O294" s="12" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P294" s="12"/>
       <c r="Q294" s="12"/>
@@ -29500,7 +29503,7 @@
         <v>836</v>
       </c>
       <c r="G295" s="35" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H295" s="35"/>
       <c r="I295" s="9" t="s">
@@ -29790,7 +29793,7 @@
         <v>854</v>
       </c>
       <c r="G299" s="42" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H299" s="35"/>
       <c r="I299" s="9" t="s">
@@ -30841,7 +30844,7 @@
       <c r="AR312" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR312"/>
+  <autoFilter ref="A1:AS312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30877,7 +30880,7 @@
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU/Data/Hypermarket PoS 2018.xlsx
@@ -13,59 +13,60 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$312</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4633" uniqueCount="900">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1314,6 +1315,9 @@
     <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607174579385, 4650075422144</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
   </si>
   <si>
@@ -1715,18 +1719,27 @@
     <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042436079, 4650075421024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
   </si>
   <si>
     <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042436086, 4650075421000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rich - Cherry - 0.3L PET</t>
   </si>
   <si>
     <t xml:space="preserve">Рич - Вишня PET - 0.3л ПЭТ</t>
   </si>
   <si>
+    <t xml:space="preserve">4607042436437, 4650075421048</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moya Semya - Tomato-Celery - 0.95L</t>
   </si>
   <si>
@@ -1772,7 +1785,7 @@
     <t xml:space="preserve">Rich - Mango-Orange - 0.3L PET, Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4650075422144, 4607174578289</t>
+    <t xml:space="preserve">4650075422144, 4607174578289, 4650075422144</t>
   </si>
   <si>
     <t xml:space="preserve">Rich - Orange - 0.2L glass</t>
@@ -2810,7 +2823,7 @@
     <t xml:space="preserve">ANY Fuze Black 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124, 5449000259455, 5449000235947, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
@@ -3473,7 +3486,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3654,6 +3667,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3802,17 +3819,17 @@
   </sheetPr>
   <dimension ref="A1:AR312"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N260" activeCellId="0" sqref="N260"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="O280" activeCellId="0" sqref="O280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.4939271255061"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14024,8 +14041,8 @@
       <c r="N117" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="O117" s="15" t="n">
-        <v>4607174579385</v>
+      <c r="O117" s="26" t="s">
+        <v>308</v>
       </c>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
@@ -14095,10 +14112,10 @@
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>55</v>
@@ -14110,7 +14127,7 @@
       <c r="L118" s="10"/>
       <c r="M118" s="10"/>
       <c r="N118" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O118" s="15" t="n">
         <v>4607042434938</v>
@@ -14183,10 +14200,10 @@
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>55</v>
@@ -14198,7 +14215,7 @@
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
       <c r="N119" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O119" s="15" t="n">
         <v>4650075420980</v>
@@ -14271,10 +14288,10 @@
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>55</v>
@@ -14286,7 +14303,7 @@
       <c r="L120" s="10"/>
       <c r="M120" s="10"/>
       <c r="N120" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O120" s="15" t="n">
         <v>4607174574922</v>
@@ -14359,10 +14376,10 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>55</v>
@@ -14374,7 +14391,7 @@
       <c r="L121" s="10"/>
       <c r="M121" s="10"/>
       <c r="N121" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O121" s="15" t="n">
         <v>4650075420263</v>
@@ -14447,10 +14464,10 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>55</v>
@@ -14462,7 +14479,7 @@
       <c r="L122" s="10"/>
       <c r="M122" s="10"/>
       <c r="N122" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O122" s="15" t="n">
         <v>4650075421123</v>
@@ -14535,10 +14552,10 @@
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>55</v>
@@ -14550,7 +14567,7 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O123" s="15" t="n">
         <v>4607174579729</v>
@@ -14623,10 +14640,10 @@
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>55</v>
@@ -14638,7 +14655,7 @@
       <c r="L124" s="10"/>
       <c r="M124" s="10"/>
       <c r="N124" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O124" s="15" t="n">
         <v>4607042438967</v>
@@ -14711,10 +14728,10 @@
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>55</v>
@@ -14726,7 +14743,7 @@
       <c r="L125" s="10"/>
       <c r="M125" s="10"/>
       <c r="N125" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O125" s="15" t="n">
         <v>4607042439247</v>
@@ -14799,10 +14816,10 @@
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>55</v>
@@ -14814,7 +14831,7 @@
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
       <c r="N126" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O126" s="15" t="n">
         <v>4650075420966</v>
@@ -14887,10 +14904,10 @@
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>55</v>
@@ -14902,7 +14919,7 @@
       <c r="L127" s="10"/>
       <c r="M127" s="10"/>
       <c r="N127" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O127" s="15" t="n">
         <v>4607042439209</v>
@@ -14975,10 +14992,10 @@
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>55</v>
@@ -14990,7 +15007,7 @@
       <c r="L128" s="10"/>
       <c r="M128" s="10"/>
       <c r="N128" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O128" s="15" t="n">
         <v>4607042439186</v>
@@ -15063,10 +15080,10 @@
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>55</v>
@@ -15078,10 +15095,10 @@
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
       <c r="N129" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O129" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P129" s="16"/>
       <c r="Q129" s="16"/>
@@ -15151,10 +15168,10 @@
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>55</v>
@@ -15166,10 +15183,10 @@
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
       <c r="N130" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O130" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
@@ -15239,10 +15256,10 @@
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>55</v>
@@ -15254,7 +15271,7 @@
       <c r="L131" s="10"/>
       <c r="M131" s="10"/>
       <c r="N131" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O131" s="15" t="n">
         <v>4607174577961</v>
@@ -15327,10 +15344,10 @@
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>55</v>
@@ -15342,7 +15359,7 @@
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
       <c r="N132" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O132" s="15" t="n">
         <v>4607174578005</v>
@@ -15415,10 +15432,10 @@
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="25" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>55</v>
@@ -15430,10 +15447,10 @@
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
       <c r="N133" s="25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O133" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P133" s="16"/>
       <c r="Q133" s="16"/>
@@ -15503,10 +15520,10 @@
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H134" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>55</v>
@@ -15518,10 +15535,10 @@
       <c r="L134" s="10"/>
       <c r="M134" s="10"/>
       <c r="N134" s="25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O134" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P134" s="16"/>
       <c r="Q134" s="16"/>
@@ -15591,10 +15608,10 @@
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>55</v>
@@ -15606,10 +15623,10 @@
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O135" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P135" s="16"/>
       <c r="Q135" s="16"/>
@@ -15679,10 +15696,10 @@
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>55</v>
@@ -15694,7 +15711,7 @@
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
       <c r="N136" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O136" s="15" t="n">
         <v>4607174579842</v>
@@ -15767,10 +15784,10 @@
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>55</v>
@@ -15782,7 +15799,7 @@
       <c r="L137" s="10"/>
       <c r="M137" s="10"/>
       <c r="N137" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O137" s="15" t="n">
         <v>4607174579705</v>
@@ -15855,10 +15872,10 @@
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>55</v>
@@ -15870,7 +15887,7 @@
       <c r="L138" s="10"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O138" s="15" t="n">
         <v>4607174579309</v>
@@ -15943,10 +15960,10 @@
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>55</v>
@@ -15958,7 +15975,7 @@
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O139" s="15" t="n">
         <v>4607174579286</v>
@@ -16031,10 +16048,10 @@
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>55</v>
@@ -16046,7 +16063,7 @@
       <c r="L140" s="10"/>
       <c r="M140" s="10"/>
       <c r="N140" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O140" s="15" t="n">
         <v>4650075420560</v>
@@ -16119,10 +16136,10 @@
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>55</v>
@@ -16134,7 +16151,7 @@
       <c r="L141" s="10"/>
       <c r="M141" s="10"/>
       <c r="N141" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O141" s="15" t="n">
         <v>4650075420584</v>
@@ -16207,10 +16224,10 @@
       </c>
       <c r="F142" s="9"/>
       <c r="G142" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I142" s="10" t="s">
         <v>55</v>
@@ -16222,7 +16239,7 @@
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O142" s="15" t="n">
         <v>4607174579408</v>
@@ -16295,10 +16312,10 @@
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H143" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I143" s="10" t="s">
         <v>55</v>
@@ -16310,10 +16327,10 @@
       <c r="L143" s="10"/>
       <c r="M143" s="10"/>
       <c r="N143" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O143" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P143" s="16"/>
       <c r="Q143" s="16"/>
@@ -16383,10 +16400,10 @@
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H144" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I144" s="10" t="s">
         <v>55</v>
@@ -16398,10 +16415,10 @@
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O144" s="26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P144" s="16"/>
       <c r="Q144" s="16"/>
@@ -16471,10 +16488,10 @@
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I145" s="10" t="s">
         <v>55</v>
@@ -16486,7 +16503,7 @@
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
       <c r="N145" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O145" s="15" t="n">
         <v>4607042431265</v>
@@ -16559,10 +16576,10 @@
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I146" s="10" t="s">
         <v>55</v>
@@ -16574,7 +16591,7 @@
       <c r="L146" s="10"/>
       <c r="M146" s="10"/>
       <c r="N146" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O146" s="15" t="n">
         <v>4607042432286</v>
@@ -16647,10 +16664,10 @@
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I147" s="10" t="s">
         <v>55</v>
@@ -16662,10 +16679,10 @@
       <c r="L147" s="10"/>
       <c r="M147" s="10"/>
       <c r="N147" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O147" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P147" s="16"/>
       <c r="Q147" s="16"/>
@@ -16735,10 +16752,10 @@
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I148" s="10" t="s">
         <v>55</v>
@@ -16750,7 +16767,7 @@
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O148" s="15" t="n">
         <v>4607042439162</v>
@@ -16823,10 +16840,10 @@
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I149" s="10" t="s">
         <v>55</v>
@@ -16838,7 +16855,7 @@
       <c r="L149" s="10"/>
       <c r="M149" s="10"/>
       <c r="N149" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O149" s="15" t="n">
         <v>4607174574366</v>
@@ -16911,10 +16928,10 @@
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I150" s="10" t="s">
         <v>55</v>
@@ -16926,10 +16943,10 @@
       <c r="L150" s="10"/>
       <c r="M150" s="10"/>
       <c r="N150" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O150" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P150" s="16"/>
       <c r="Q150" s="16"/>
@@ -16999,10 +17016,10 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I151" s="10" t="s">
         <v>55</v>
@@ -17014,10 +17031,10 @@
       <c r="L151" s="10"/>
       <c r="M151" s="10"/>
       <c r="N151" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O151" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P151" s="16"/>
       <c r="Q151" s="16"/>
@@ -17087,10 +17104,10 @@
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H152" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I152" s="10" t="s">
         <v>55</v>
@@ -17102,10 +17119,10 @@
       <c r="L152" s="10"/>
       <c r="M152" s="10"/>
       <c r="N152" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O152" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P152" s="16"/>
       <c r="Q152" s="16"/>
@@ -17175,10 +17192,10 @@
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I153" s="10" t="s">
         <v>55</v>
@@ -17190,7 +17207,7 @@
       <c r="L153" s="10"/>
       <c r="M153" s="10"/>
       <c r="N153" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O153" s="15" t="n">
         <v>4607042434914</v>
@@ -17263,10 +17280,10 @@
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H154" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I154" s="10" t="s">
         <v>55</v>
@@ -17278,7 +17295,7 @@
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
       <c r="N154" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O154" s="28" t="n">
         <v>4650075421277</v>
@@ -17351,10 +17368,10 @@
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H155" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I155" s="10" t="s">
         <v>55</v>
@@ -17366,7 +17383,7 @@
       <c r="L155" s="10"/>
       <c r="M155" s="10"/>
       <c r="N155" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O155" s="28" t="n">
         <v>4650075421192</v>
@@ -17439,10 +17456,10 @@
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H156" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I156" s="10" t="s">
         <v>55</v>
@@ -17454,10 +17471,10 @@
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
       <c r="N156" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O156" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P156" s="16"/>
       <c r="Q156" s="16"/>
@@ -17527,10 +17544,10 @@
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I157" s="10" t="s">
         <v>55</v>
@@ -17542,10 +17559,10 @@
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
       <c r="N157" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O157" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P157" s="16"/>
       <c r="Q157" s="16"/>
@@ -17615,10 +17632,10 @@
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I158" s="10" t="s">
         <v>55</v>
@@ -17630,7 +17647,7 @@
       <c r="L158" s="10"/>
       <c r="M158" s="10"/>
       <c r="N158" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O158" s="15" t="n">
         <v>4607174574908</v>
@@ -17703,10 +17720,10 @@
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I159" s="10" t="s">
         <v>55</v>
@@ -17718,10 +17735,10 @@
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
       <c r="N159" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O159" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P159" s="16"/>
       <c r="Q159" s="16"/>
@@ -17791,10 +17808,10 @@
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I160" s="10" t="s">
         <v>55</v>
@@ -17806,10 +17823,10 @@
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
       <c r="N160" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O160" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P160" s="16"/>
       <c r="Q160" s="16"/>
@@ -17879,10 +17896,10 @@
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I161" s="10" t="s">
         <v>55</v>
@@ -17894,7 +17911,7 @@
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
       <c r="N161" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O161" s="15" t="n">
         <v>4607174579347</v>
@@ -17967,10 +17984,10 @@
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I162" s="10" t="s">
         <v>55</v>
@@ -17982,7 +17999,7 @@
       <c r="L162" s="10"/>
       <c r="M162" s="10"/>
       <c r="N162" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O162" s="15" t="n">
         <v>4607174579941</v>
@@ -18055,10 +18072,10 @@
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="25" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I163" s="10" t="s">
         <v>55</v>
@@ -18070,10 +18087,10 @@
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
       <c r="N163" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O163" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P163" s="16"/>
       <c r="Q163" s="16"/>
@@ -18143,10 +18160,10 @@
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I164" s="10" t="s">
         <v>55</v>
@@ -18158,10 +18175,10 @@
       <c r="L164" s="10"/>
       <c r="M164" s="10"/>
       <c r="N164" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O164" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P164" s="16"/>
       <c r="Q164" s="16"/>
@@ -18231,10 +18248,10 @@
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I165" s="10" t="s">
         <v>55</v>
@@ -18246,7 +18263,7 @@
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
       <c r="N165" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O165" s="15" t="n">
         <v>4607174579248</v>
@@ -18319,10 +18336,10 @@
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I166" s="10" t="s">
         <v>55</v>
@@ -18334,7 +18351,7 @@
       <c r="L166" s="10"/>
       <c r="M166" s="10"/>
       <c r="N166" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O166" s="15" t="n">
         <v>4607174579262</v>
@@ -18407,10 +18424,10 @@
       </c>
       <c r="F167" s="9"/>
       <c r="G167" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I167" s="10" t="s">
         <v>55</v>
@@ -18422,10 +18439,10 @@
       <c r="L167" s="10"/>
       <c r="M167" s="10"/>
       <c r="N167" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O167" s="15" t="n">
-        <v>4607042436079</v>
+        <v>440</v>
+      </c>
+      <c r="O167" s="26" t="s">
+        <v>442</v>
       </c>
       <c r="P167" s="16"/>
       <c r="Q167" s="16"/>
@@ -18495,10 +18512,10 @@
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I168" s="10" t="s">
         <v>55</v>
@@ -18510,10 +18527,10 @@
       <c r="L168" s="10"/>
       <c r="M168" s="10"/>
       <c r="N168" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="O168" s="15" t="n">
-        <v>4607042436086</v>
+        <v>443</v>
+      </c>
+      <c r="O168" s="26" t="s">
+        <v>445</v>
       </c>
       <c r="P168" s="16"/>
       <c r="Q168" s="16"/>
@@ -18583,10 +18600,10 @@
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I169" s="10" t="s">
         <v>55</v>
@@ -18598,10 +18615,10 @@
       <c r="L169" s="10"/>
       <c r="M169" s="10"/>
       <c r="N169" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O169" s="15" t="n">
-        <v>4607042436437</v>
+        <v>446</v>
+      </c>
+      <c r="O169" s="26" t="s">
+        <v>448</v>
       </c>
       <c r="P169" s="16"/>
       <c r="Q169" s="16"/>
@@ -18671,10 +18688,10 @@
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="24" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H170" s="24" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I170" s="10" t="s">
         <v>55</v>
@@ -18686,10 +18703,10 @@
       <c r="L170" s="10"/>
       <c r="M170" s="10"/>
       <c r="N170" s="25" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O170" s="26" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P170" s="16"/>
       <c r="Q170" s="16"/>
@@ -18759,10 +18776,10 @@
       </c>
       <c r="F171" s="9"/>
       <c r="G171" s="24" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H171" s="24" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I171" s="10" t="s">
         <v>55</v>
@@ -18774,10 +18791,10 @@
       <c r="L171" s="10"/>
       <c r="M171" s="10"/>
       <c r="N171" s="25" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O171" s="26" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P171" s="16"/>
       <c r="Q171" s="16"/>
@@ -18847,10 +18864,10 @@
       </c>
       <c r="F172" s="9"/>
       <c r="G172" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I172" s="10" t="s">
         <v>55</v>
@@ -18862,7 +18879,7 @@
       <c r="L172" s="10"/>
       <c r="M172" s="10"/>
       <c r="N172" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="O172" s="15" t="n">
         <v>4607174579323</v>
@@ -18935,10 +18952,10 @@
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="24" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H173" s="24" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I173" s="10" t="s">
         <v>55</v>
@@ -18950,7 +18967,7 @@
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
       <c r="N173" s="25" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="O173" s="26" t="n">
         <v>4650075421390</v>
@@ -19023,10 +19040,10 @@
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="24" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I174" s="10" t="s">
         <v>55</v>
@@ -19038,10 +19055,10 @@
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
       <c r="N174" s="25" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="O174" s="26" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P174" s="16"/>
       <c r="Q174" s="16"/>
@@ -19111,10 +19128,10 @@
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="I175" s="10" t="s">
         <v>55</v>
@@ -19126,10 +19143,10 @@
       <c r="L175" s="10"/>
       <c r="M175" s="10"/>
       <c r="N175" s="25" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="O175" s="26" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P175" s="16"/>
       <c r="Q175" s="16"/>
@@ -19195,17 +19212,17 @@
         <v>46</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J176" s="10"/>
       <c r="K176" s="10" t="n">
@@ -19219,7 +19236,7 @@
       <c r="Q176" s="29"/>
       <c r="R176" s="29"/>
       <c r="S176" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
@@ -19227,7 +19244,7 @@
       <c r="W176" s="30"/>
       <c r="X176" s="9"/>
       <c r="Y176" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
@@ -19258,7 +19275,7 @@
         <v>175</v>
       </c>
       <c r="AP176" s="13" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AQ176" s="9"/>
       <c r="AR176" s="9"/>
@@ -19277,14 +19294,14 @@
         <v>46</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H177" s="10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>55</v>
@@ -19296,13 +19313,13 @@
       <c r="L177" s="10"/>
       <c r="M177" s="10"/>
       <c r="N177" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O177" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P177" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q177" s="29"/>
       <c r="R177" s="29"/>
@@ -19310,14 +19327,14 @@
         <v>56</v>
       </c>
       <c r="T177" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U177" s="9"/>
       <c r="V177" s="9"/>
       <c r="W177" s="30"/>
       <c r="X177" s="9"/>
       <c r="Y177" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
@@ -19349,7 +19366,7 @@
       </c>
       <c r="AP177" s="9"/>
       <c r="AQ177" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AR177" s="9"/>
     </row>
@@ -19367,17 +19384,17 @@
         <v>46</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J178" s="10"/>
       <c r="K178" s="10" t="n">
@@ -19394,16 +19411,16 @@
         <v>56</v>
       </c>
       <c r="T178" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U178" s="9"/>
       <c r="V178" s="9"/>
       <c r="W178" s="10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="X178" s="9"/>
       <c r="Y178" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
@@ -19435,7 +19452,7 @@
       </c>
       <c r="AP178" s="9"/>
       <c r="AQ178" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AR178" s="9"/>
     </row>
@@ -19453,17 +19470,17 @@
         <v>46</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H179" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J179" s="10"/>
       <c r="K179" s="10"/>
@@ -19476,7 +19493,7 @@
         <v>5449000000286</v>
       </c>
       <c r="P179" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q179" s="29"/>
       <c r="R179" s="29"/>
@@ -19491,7 +19508,7 @@
       <c r="W179" s="30"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
@@ -19512,7 +19529,7 @@
       <c r="AH179" s="10"/>
       <c r="AI179" s="10"/>
       <c r="AJ179" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AK179" s="10"/>
       <c r="AL179" s="10"/>
@@ -19525,7 +19542,7 @@
       </c>
       <c r="AP179" s="9"/>
       <c r="AQ179" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AR179" s="9"/>
     </row>
@@ -19540,20 +19557,20 @@
         <v>45</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J180" s="10"/>
       <c r="K180" s="10" t="n">
@@ -19567,7 +19584,7 @@
       <c r="Q180" s="12"/>
       <c r="R180" s="12"/>
       <c r="S180" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T180" s="9"/>
       <c r="U180" s="9"/>
@@ -19575,7 +19592,7 @@
       <c r="W180" s="30"/>
       <c r="X180" s="9"/>
       <c r="Y180" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
@@ -19596,12 +19613,12 @@
       <c r="AH180" s="10"/>
       <c r="AI180" s="10"/>
       <c r="AJ180" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AK180" s="10"/>
       <c r="AL180" s="10"/>
       <c r="AM180" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AN180" s="9" t="n">
         <v>2</v>
@@ -19610,10 +19627,10 @@
         <v>179</v>
       </c>
       <c r="AP180" s="13" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AQ180" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AR180" s="9"/>
     </row>
@@ -19628,17 +19645,17 @@
         <v>45</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I181" s="10" t="s">
         <v>55</v>
@@ -19669,7 +19686,7 @@
       <c r="W181" s="30"/>
       <c r="X181" s="9"/>
       <c r="Y181" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
@@ -19701,7 +19718,7 @@
       </c>
       <c r="AP181" s="9"/>
       <c r="AQ181" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AR181" s="9"/>
     </row>
@@ -19716,17 +19733,17 @@
         <v>45</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H182" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="I182" s="10" t="s">
         <v>55</v>
@@ -19757,7 +19774,7 @@
       <c r="W182" s="30"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
@@ -19789,7 +19806,7 @@
       </c>
       <c r="AP182" s="9"/>
       <c r="AQ182" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AR182" s="9"/>
     </row>
@@ -19804,17 +19821,17 @@
         <v>45</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I183" s="10" t="s">
         <v>55</v>
@@ -19845,7 +19862,7 @@
       <c r="W183" s="30"/>
       <c r="X183" s="9"/>
       <c r="Y183" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
@@ -19877,7 +19894,7 @@
       </c>
       <c r="AP183" s="9"/>
       <c r="AQ183" s="9" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AR183" s="9"/>
     </row>
@@ -19895,17 +19912,17 @@
         <v>46</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J184" s="10"/>
       <c r="K184" s="10" t="n">
@@ -19919,7 +19936,7 @@
       <c r="Q184" s="29"/>
       <c r="R184" s="29"/>
       <c r="S184" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T184" s="9"/>
       <c r="U184" s="9"/>
@@ -19927,7 +19944,7 @@
       <c r="W184" s="30"/>
       <c r="X184" s="9"/>
       <c r="Y184" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
@@ -19958,7 +19975,7 @@
         <v>183</v>
       </c>
       <c r="AP184" s="13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="AQ184" s="9"/>
       <c r="AR184" s="9"/>
@@ -19977,14 +19994,14 @@
         <v>46</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H185" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I185" s="10" t="s">
         <v>55</v>
@@ -19996,13 +20013,13 @@
       <c r="L185" s="10"/>
       <c r="M185" s="10"/>
       <c r="N185" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O185" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P185" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q185" s="29"/>
       <c r="R185" s="29"/>
@@ -20010,14 +20027,14 @@
         <v>56</v>
       </c>
       <c r="T185" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U185" s="9"/>
       <c r="V185" s="9"/>
       <c r="W185" s="30"/>
       <c r="X185" s="9"/>
       <c r="Y185" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
@@ -20049,7 +20066,7 @@
       </c>
       <c r="AP185" s="9"/>
       <c r="AQ185" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AR185" s="9"/>
     </row>
@@ -20067,17 +20084,17 @@
         <v>46</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J186" s="10"/>
       <c r="K186" s="10" t="n">
@@ -20094,16 +20111,16 @@
         <v>56</v>
       </c>
       <c r="T186" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U186" s="9"/>
       <c r="V186" s="9"/>
       <c r="W186" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="X186" s="9"/>
       <c r="Y186" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
@@ -20135,7 +20152,7 @@
       </c>
       <c r="AP186" s="9"/>
       <c r="AQ186" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AR186" s="9"/>
     </row>
@@ -20153,17 +20170,17 @@
         <v>46</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J187" s="10"/>
       <c r="K187" s="10" t="n">
@@ -20185,7 +20202,7 @@
       <c r="W187" s="30"/>
       <c r="X187" s="9"/>
       <c r="Y187" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
@@ -20216,10 +20233,10 @@
         <v>186</v>
       </c>
       <c r="AP187" s="13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AQ187" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AR187" s="9"/>
     </row>
@@ -20237,17 +20254,17 @@
         <v>46</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H188" s="10" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J188" s="10"/>
       <c r="K188" s="10"/>
@@ -20273,7 +20290,7 @@
       <c r="W188" s="30"/>
       <c r="X188" s="9"/>
       <c r="Y188" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
@@ -20294,7 +20311,7 @@
       <c r="AH188" s="10"/>
       <c r="AI188" s="10"/>
       <c r="AJ188" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AK188" s="10"/>
       <c r="AL188" s="10"/>
@@ -20307,7 +20324,7 @@
       </c>
       <c r="AP188" s="9"/>
       <c r="AQ188" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AR188" s="9"/>
     </row>
@@ -20325,17 +20342,17 @@
         <v>46</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H189" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J189" s="10"/>
       <c r="K189" s="10"/>
@@ -20361,7 +20378,7 @@
       <c r="W189" s="30"/>
       <c r="X189" s="9"/>
       <c r="Y189" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
@@ -20382,7 +20399,7 @@
       <c r="AH189" s="10"/>
       <c r="AI189" s="10"/>
       <c r="AJ189" s="10" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="AK189" s="10"/>
       <c r="AL189" s="10"/>
@@ -20395,7 +20412,7 @@
       </c>
       <c r="AP189" s="9"/>
       <c r="AQ189" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AR189" s="9"/>
     </row>
@@ -20410,20 +20427,20 @@
         <v>45</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J190" s="10"/>
       <c r="K190" s="10" t="n">
@@ -20437,7 +20454,7 @@
       <c r="Q190" s="12"/>
       <c r="R190" s="12"/>
       <c r="S190" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
@@ -20445,7 +20462,7 @@
       <c r="W190" s="30"/>
       <c r="X190" s="9"/>
       <c r="Y190" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
@@ -20466,12 +20483,12 @@
       <c r="AH190" s="10"/>
       <c r="AI190" s="10"/>
       <c r="AJ190" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AK190" s="10"/>
       <c r="AL190" s="10"/>
       <c r="AM190" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AN190" s="9" t="n">
         <v>2</v>
@@ -20480,10 +20497,10 @@
         <v>189</v>
       </c>
       <c r="AP190" s="13" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AQ190" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AR190" s="9"/>
     </row>
@@ -20498,17 +20515,17 @@
         <v>45</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>55</v>
@@ -20539,7 +20556,7 @@
       <c r="W191" s="30"/>
       <c r="X191" s="9"/>
       <c r="Y191" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
@@ -20571,7 +20588,7 @@
       </c>
       <c r="AP191" s="9"/>
       <c r="AQ191" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AR191" s="9"/>
     </row>
@@ -20586,17 +20603,17 @@
         <v>45</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H192" s="10" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>55</v>
@@ -20627,7 +20644,7 @@
       <c r="W192" s="30"/>
       <c r="X192" s="9"/>
       <c r="Y192" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
@@ -20659,7 +20676,7 @@
       </c>
       <c r="AP192" s="9"/>
       <c r="AQ192" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AR192" s="9"/>
     </row>
@@ -20674,17 +20691,17 @@
         <v>45</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H193" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I193" s="10" t="s">
         <v>55</v>
@@ -20715,7 +20732,7 @@
       <c r="W193" s="30"/>
       <c r="X193" s="9"/>
       <c r="Y193" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
@@ -20747,7 +20764,7 @@
       </c>
       <c r="AP193" s="9"/>
       <c r="AQ193" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AR193" s="9"/>
     </row>
@@ -20762,17 +20779,17 @@
         <v>45</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H194" s="10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I194" s="10" t="s">
         <v>55</v>
@@ -20803,7 +20820,7 @@
       <c r="W194" s="30"/>
       <c r="X194" s="9"/>
       <c r="Y194" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
@@ -20835,7 +20852,7 @@
       </c>
       <c r="AP194" s="9"/>
       <c r="AQ194" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AR194" s="9"/>
     </row>
@@ -20853,17 +20870,17 @@
         <v>46</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="n">
@@ -20877,7 +20894,7 @@
       <c r="Q195" s="29"/>
       <c r="R195" s="29"/>
       <c r="S195" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
@@ -20885,7 +20902,7 @@
       <c r="W195" s="30"/>
       <c r="X195" s="9"/>
       <c r="Y195" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
@@ -20916,7 +20933,7 @@
         <v>194</v>
       </c>
       <c r="AP195" s="13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AQ195" s="9"/>
       <c r="AR195" s="9"/>
@@ -20935,14 +20952,14 @@
         <v>46</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H196" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I196" s="10" t="s">
         <v>55</v>
@@ -20954,13 +20971,13 @@
       <c r="L196" s="10"/>
       <c r="M196" s="10"/>
       <c r="N196" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O196" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P196" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q196" s="29"/>
       <c r="R196" s="29"/>
@@ -20968,14 +20985,14 @@
         <v>56</v>
       </c>
       <c r="T196" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U196" s="9"/>
       <c r="V196" s="9"/>
       <c r="W196" s="30"/>
       <c r="X196" s="9"/>
       <c r="Y196" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
@@ -21007,7 +21024,7 @@
       </c>
       <c r="AP196" s="9"/>
       <c r="AQ196" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AR196" s="9"/>
     </row>
@@ -21025,17 +21042,17 @@
         <v>46</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J197" s="10"/>
       <c r="K197" s="10" t="n">
@@ -21052,16 +21069,16 @@
         <v>56</v>
       </c>
       <c r="T197" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U197" s="9"/>
       <c r="V197" s="9"/>
       <c r="W197" s="10" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="X197" s="9"/>
       <c r="Y197" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
@@ -21093,7 +21110,7 @@
       </c>
       <c r="AP197" s="9"/>
       <c r="AQ197" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AR197" s="9"/>
     </row>
@@ -21111,17 +21128,17 @@
         <v>46</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H198" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J198" s="10"/>
       <c r="K198" s="10"/>
@@ -21134,7 +21151,7 @@
         <v>5449000000439</v>
       </c>
       <c r="P198" s="16" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q198" s="16"/>
       <c r="R198" s="16"/>
@@ -21149,7 +21166,7 @@
       <c r="W198" s="30"/>
       <c r="X198" s="9"/>
       <c r="Y198" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
@@ -21170,7 +21187,7 @@
       <c r="AH198" s="10"/>
       <c r="AI198" s="10"/>
       <c r="AJ198" s="10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AK198" s="10"/>
       <c r="AL198" s="10"/>
@@ -21183,7 +21200,7 @@
       </c>
       <c r="AP198" s="9"/>
       <c r="AQ198" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AR198" s="9"/>
     </row>
@@ -21198,20 +21215,20 @@
         <v>45</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J199" s="10"/>
       <c r="K199" s="10" t="n">
@@ -21225,7 +21242,7 @@
       <c r="Q199" s="12"/>
       <c r="R199" s="12"/>
       <c r="S199" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T199" s="9"/>
       <c r="U199" s="9"/>
@@ -21233,7 +21250,7 @@
       <c r="W199" s="30"/>
       <c r="X199" s="9"/>
       <c r="Y199" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
@@ -21254,12 +21271,12 @@
       <c r="AH199" s="10"/>
       <c r="AI199" s="10"/>
       <c r="AJ199" s="10" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AK199" s="10"/>
       <c r="AL199" s="10"/>
       <c r="AM199" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AN199" s="9" t="n">
         <v>2</v>
@@ -21268,10 +21285,10 @@
         <v>198</v>
       </c>
       <c r="AP199" s="13" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AQ199" s="9" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AR199" s="9"/>
     </row>
@@ -21286,17 +21303,17 @@
         <v>45</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="10" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H200" s="9" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I200" s="10" t="s">
         <v>55</v>
@@ -21327,7 +21344,7 @@
       <c r="W200" s="30"/>
       <c r="X200" s="9"/>
       <c r="Y200" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -21359,7 +21376,7 @@
       </c>
       <c r="AP200" s="9"/>
       <c r="AQ200" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AR200" s="9"/>
     </row>
@@ -21374,17 +21391,17 @@
         <v>45</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="I201" s="10" t="s">
         <v>55</v>
@@ -21415,7 +21432,7 @@
       <c r="W201" s="30"/>
       <c r="X201" s="9"/>
       <c r="Y201" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
@@ -21447,7 +21464,7 @@
       </c>
       <c r="AP201" s="9"/>
       <c r="AQ201" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AR201" s="9"/>
     </row>
@@ -21465,17 +21482,17 @@
         <v>46</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H202" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J202" s="10"/>
       <c r="K202" s="10" t="n">
@@ -21489,7 +21506,7 @@
       <c r="Q202" s="29"/>
       <c r="R202" s="29"/>
       <c r="S202" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T202" s="9"/>
       <c r="U202" s="9"/>
@@ -21497,7 +21514,7 @@
       <c r="W202" s="30"/>
       <c r="X202" s="9"/>
       <c r="Y202" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
@@ -21526,7 +21543,7 @@
         <v>201</v>
       </c>
       <c r="AP202" s="13" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AQ202" s="9"/>
       <c r="AR202" s="9"/>
@@ -21545,14 +21562,14 @@
         <v>46</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H203" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="I203" s="10" t="s">
         <v>55</v>
@@ -21564,13 +21581,13 @@
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
       <c r="N203" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O203" s="29" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P203" s="29" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q203" s="29"/>
       <c r="R203" s="29"/>
@@ -21578,14 +21595,14 @@
         <v>56</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U203" s="9"/>
       <c r="V203" s="9"/>
       <c r="W203" s="30"/>
       <c r="X203" s="9"/>
       <c r="Y203" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
@@ -21615,7 +21632,7 @@
       </c>
       <c r="AP203" s="9"/>
       <c r="AQ203" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AR203" s="9"/>
     </row>
@@ -21633,17 +21650,17 @@
         <v>46</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="I204" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J204" s="10"/>
       <c r="K204" s="10" t="n">
@@ -21660,16 +21677,16 @@
         <v>56</v>
       </c>
       <c r="T204" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U204" s="9"/>
       <c r="V204" s="9"/>
       <c r="W204" s="10" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="X204" s="9"/>
       <c r="Y204" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z204" s="9"/>
       <c r="AA204" s="9"/>
@@ -21699,7 +21716,7 @@
       </c>
       <c r="AP204" s="9"/>
       <c r="AQ204" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AR204" s="9"/>
     </row>
@@ -21717,17 +21734,17 @@
         <v>46</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F205" s="10"/>
       <c r="G205" s="10" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H205" s="10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I205" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J205" s="10"/>
       <c r="K205" s="10" t="n">
@@ -21749,7 +21766,7 @@
       <c r="W205" s="30"/>
       <c r="X205" s="9"/>
       <c r="Y205" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
@@ -21778,10 +21795,10 @@
         <v>204</v>
       </c>
       <c r="AP205" s="13" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AQ205" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AR205" s="9"/>
     </row>
@@ -21799,17 +21816,17 @@
         <v>46</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H206" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I206" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J206" s="10"/>
       <c r="K206" s="10"/>
@@ -21835,7 +21852,7 @@
       <c r="W206" s="30"/>
       <c r="X206" s="9"/>
       <c r="Y206" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
@@ -21854,7 +21871,7 @@
       <c r="AH206" s="10"/>
       <c r="AI206" s="10"/>
       <c r="AJ206" s="10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AK206" s="10"/>
       <c r="AL206" s="10"/>
@@ -21867,7 +21884,7 @@
       </c>
       <c r="AP206" s="9"/>
       <c r="AQ206" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AR206" s="9"/>
     </row>
@@ -21885,17 +21902,17 @@
         <v>46</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H207" s="10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J207" s="10"/>
       <c r="K207" s="10"/>
@@ -21921,7 +21938,7 @@
       <c r="W207" s="30"/>
       <c r="X207" s="9"/>
       <c r="Y207" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
@@ -21940,7 +21957,7 @@
       <c r="AH207" s="10"/>
       <c r="AI207" s="10"/>
       <c r="AJ207" s="10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AK207" s="10"/>
       <c r="AL207" s="10"/>
@@ -21953,7 +21970,7 @@
       </c>
       <c r="AP207" s="9"/>
       <c r="AQ207" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AR207" s="9"/>
     </row>
@@ -21971,17 +21988,17 @@
         <v>46</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J208" s="10"/>
       <c r="K208" s="10" t="n">
@@ -21995,7 +22012,7 @@
       <c r="Q208" s="29"/>
       <c r="R208" s="29"/>
       <c r="S208" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T208" s="9"/>
       <c r="U208" s="9"/>
@@ -22003,7 +22020,7 @@
       <c r="W208" s="30"/>
       <c r="X208" s="9"/>
       <c r="Y208" s="9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
@@ -22032,7 +22049,7 @@
         <v>207</v>
       </c>
       <c r="AP208" s="13" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AQ208" s="9"/>
       <c r="AR208" s="9"/>
@@ -22051,14 +22068,14 @@
         <v>46</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="10" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H209" s="10" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="I209" s="10" t="s">
         <v>55</v>
@@ -22070,13 +22087,13 @@
       <c r="L209" s="10"/>
       <c r="M209" s="10"/>
       <c r="N209" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O209" s="29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P209" s="29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q209" s="29"/>
       <c r="R209" s="29"/>
@@ -22084,14 +22101,14 @@
         <v>56</v>
       </c>
       <c r="T209" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U209" s="9"/>
       <c r="V209" s="9"/>
       <c r="W209" s="30"/>
       <c r="X209" s="9"/>
       <c r="Y209" s="9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
@@ -22121,7 +22138,7 @@
       </c>
       <c r="AP209" s="9"/>
       <c r="AQ209" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AR209" s="9"/>
     </row>
@@ -22139,17 +22156,17 @@
         <v>46</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J210" s="10"/>
       <c r="K210" s="10" t="n">
@@ -22166,16 +22183,16 @@
         <v>56</v>
       </c>
       <c r="T210" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U210" s="9"/>
       <c r="V210" s="9"/>
       <c r="W210" s="10" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="X210" s="9"/>
       <c r="Y210" s="9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
@@ -22205,7 +22222,7 @@
       </c>
       <c r="AP210" s="9"/>
       <c r="AQ210" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AR210" s="9"/>
     </row>
@@ -22223,17 +22240,17 @@
         <v>46</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H211" s="10" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I211" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J211" s="10"/>
       <c r="K211" s="10"/>
@@ -22259,7 +22276,7 @@
       <c r="W211" s="30"/>
       <c r="X211" s="9"/>
       <c r="Y211" s="9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
@@ -22278,7 +22295,7 @@
       <c r="AH211" s="10"/>
       <c r="AI211" s="10"/>
       <c r="AJ211" s="10" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AK211" s="10"/>
       <c r="AL211" s="10"/>
@@ -22291,7 +22308,7 @@
       </c>
       <c r="AP211" s="9"/>
       <c r="AQ211" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AR211" s="9"/>
     </row>
@@ -22309,17 +22326,17 @@
         <v>46</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F212" s="9"/>
       <c r="G212" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J212" s="10"/>
       <c r="K212" s="10" t="n">
@@ -22333,7 +22350,7 @@
       <c r="Q212" s="29"/>
       <c r="R212" s="29"/>
       <c r="S212" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T212" s="9"/>
       <c r="U212" s="9"/>
@@ -22341,7 +22358,7 @@
       <c r="W212" s="30"/>
       <c r="X212" s="9"/>
       <c r="Y212" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
@@ -22372,7 +22389,7 @@
         <v>211</v>
       </c>
       <c r="AP212" s="13" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AQ212" s="9"/>
       <c r="AR212" s="9"/>
@@ -22391,14 +22408,14 @@
         <v>46</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F213" s="9"/>
       <c r="G213" s="10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="I213" s="10" t="s">
         <v>55</v>
@@ -22410,13 +22427,13 @@
       <c r="L213" s="10"/>
       <c r="M213" s="10"/>
       <c r="N213" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O213" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P213" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q213" s="29"/>
       <c r="R213" s="29"/>
@@ -22424,14 +22441,14 @@
         <v>56</v>
       </c>
       <c r="T213" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U213" s="9"/>
       <c r="V213" s="9"/>
       <c r="W213" s="30"/>
       <c r="X213" s="9"/>
       <c r="Y213" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
@@ -22463,7 +22480,7 @@
       </c>
       <c r="AP213" s="9"/>
       <c r="AQ213" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AR213" s="9"/>
     </row>
@@ -22481,17 +22498,17 @@
         <v>46</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F214" s="9"/>
       <c r="G214" s="9" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J214" s="10"/>
       <c r="K214" s="10" t="n">
@@ -22508,16 +22525,16 @@
         <v>56</v>
       </c>
       <c r="T214" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U214" s="9"/>
       <c r="V214" s="9"/>
       <c r="W214" s="10" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="X214" s="9"/>
       <c r="Y214" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
@@ -22549,7 +22566,7 @@
       </c>
       <c r="AP214" s="9"/>
       <c r="AQ214" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AR214" s="9"/>
     </row>
@@ -22567,17 +22584,17 @@
         <v>46</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F215" s="10"/>
       <c r="G215" s="10" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H215" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J215" s="10"/>
       <c r="K215" s="10"/>
@@ -22590,7 +22607,7 @@
         <v>5449000052926</v>
       </c>
       <c r="P215" s="16" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q215" s="16"/>
       <c r="R215" s="16"/>
@@ -22605,7 +22622,7 @@
       <c r="W215" s="30"/>
       <c r="X215" s="9"/>
       <c r="Y215" s="9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
@@ -22626,7 +22643,7 @@
       <c r="AH215" s="10"/>
       <c r="AI215" s="10"/>
       <c r="AJ215" s="10" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AK215" s="10"/>
       <c r="AL215" s="10"/>
@@ -22639,7 +22656,7 @@
       </c>
       <c r="AP215" s="9"/>
       <c r="AQ215" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AR215" s="9"/>
     </row>
@@ -22657,17 +22674,17 @@
         <v>46</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F216" s="9"/>
       <c r="G216" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J216" s="10"/>
       <c r="K216" s="10" t="n">
@@ -22681,7 +22698,7 @@
       <c r="Q216" s="29"/>
       <c r="R216" s="29"/>
       <c r="S216" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T216" s="9"/>
       <c r="U216" s="9"/>
@@ -22689,7 +22706,7 @@
       <c r="W216" s="30"/>
       <c r="X216" s="9"/>
       <c r="Y216" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -22718,7 +22735,7 @@
         <v>215</v>
       </c>
       <c r="AP216" s="13" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AQ216" s="9"/>
       <c r="AR216" s="9"/>
@@ -22737,14 +22754,14 @@
         <v>46</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="10" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H217" s="10" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I217" s="10" t="s">
         <v>55</v>
@@ -22756,13 +22773,13 @@
       <c r="L217" s="10"/>
       <c r="M217" s="10"/>
       <c r="N217" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O217" s="29" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P217" s="29" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q217" s="29"/>
       <c r="R217" s="29"/>
@@ -22770,14 +22787,14 @@
         <v>56</v>
       </c>
       <c r="T217" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U217" s="9"/>
       <c r="V217" s="9"/>
       <c r="W217" s="30"/>
       <c r="X217" s="9"/>
       <c r="Y217" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -22807,7 +22824,7 @@
       </c>
       <c r="AP217" s="9"/>
       <c r="AQ217" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AR217" s="9"/>
     </row>
@@ -22825,17 +22842,17 @@
         <v>46</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F218" s="9"/>
       <c r="G218" s="9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H218" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J218" s="10"/>
       <c r="K218" s="10" t="n">
@@ -22852,16 +22869,16 @@
         <v>56</v>
       </c>
       <c r="T218" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U218" s="9"/>
       <c r="V218" s="9"/>
       <c r="W218" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -22891,7 +22908,7 @@
       </c>
       <c r="AP218" s="9"/>
       <c r="AQ218" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AR218" s="9"/>
     </row>
@@ -22909,17 +22926,17 @@
         <v>46</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F219" s="10"/>
       <c r="G219" s="10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J219" s="10"/>
       <c r="K219" s="10" t="n">
@@ -22941,7 +22958,7 @@
       <c r="W219" s="30"/>
       <c r="X219" s="9"/>
       <c r="Y219" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -22970,10 +22987,10 @@
         <v>218</v>
       </c>
       <c r="AP219" s="13" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="AQ219" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AR219" s="9"/>
     </row>
@@ -22991,17 +23008,17 @@
         <v>46</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F220" s="9"/>
       <c r="G220" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H220" s="10" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J220" s="10"/>
       <c r="K220" s="10"/>
@@ -23027,7 +23044,7 @@
       <c r="W220" s="30"/>
       <c r="X220" s="9"/>
       <c r="Y220" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -23046,7 +23063,7 @@
       <c r="AH220" s="10"/>
       <c r="AI220" s="10"/>
       <c r="AJ220" s="10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
@@ -23059,7 +23076,7 @@
       </c>
       <c r="AP220" s="9"/>
       <c r="AQ220" s="9" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AR220" s="9"/>
     </row>
@@ -23077,17 +23094,17 @@
         <v>46</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F221" s="9"/>
       <c r="G221" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H221" s="10" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J221" s="10"/>
       <c r="K221" s="10"/>
@@ -23113,7 +23130,7 @@
       <c r="W221" s="30"/>
       <c r="X221" s="9"/>
       <c r="Y221" s="9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -23132,7 +23149,7 @@
       <c r="AH221" s="10"/>
       <c r="AI221" s="10"/>
       <c r="AJ221" s="10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AK221" s="10"/>
       <c r="AL221" s="10"/>
@@ -23145,7 +23162,7 @@
       </c>
       <c r="AP221" s="9"/>
       <c r="AQ221" s="9" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AR221" s="9"/>
     </row>
@@ -23163,17 +23180,17 @@
         <v>46</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F222" s="9"/>
       <c r="G222" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J222" s="10"/>
       <c r="K222" s="10" t="n">
@@ -23187,7 +23204,7 @@
       <c r="Q222" s="29"/>
       <c r="R222" s="29"/>
       <c r="S222" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T222" s="9"/>
       <c r="U222" s="9"/>
@@ -23195,7 +23212,7 @@
       <c r="W222" s="30"/>
       <c r="X222" s="9"/>
       <c r="Y222" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -23226,7 +23243,7 @@
         <v>221</v>
       </c>
       <c r="AP222" s="13" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="AQ222" s="9"/>
       <c r="AR222" s="9"/>
@@ -23245,14 +23262,14 @@
         <v>46</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F223" s="9"/>
       <c r="G223" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H223" s="10" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I223" s="10" t="s">
         <v>55</v>
@@ -23264,13 +23281,13 @@
       <c r="L223" s="10"/>
       <c r="M223" s="10"/>
       <c r="N223" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O223" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P223" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q223" s="29"/>
       <c r="R223" s="29"/>
@@ -23278,14 +23295,14 @@
         <v>56</v>
       </c>
       <c r="T223" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U223" s="9"/>
       <c r="V223" s="9"/>
       <c r="W223" s="30"/>
       <c r="X223" s="9"/>
       <c r="Y223" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -23317,7 +23334,7 @@
       </c>
       <c r="AP223" s="9"/>
       <c r="AQ223" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AR223" s="9"/>
     </row>
@@ -23335,17 +23352,17 @@
         <v>46</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F224" s="9"/>
       <c r="G224" s="9" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J224" s="10"/>
       <c r="K224" s="10" t="n">
@@ -23362,16 +23379,16 @@
         <v>56</v>
       </c>
       <c r="T224" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U224" s="9"/>
       <c r="V224" s="9"/>
       <c r="W224" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -23403,7 +23420,7 @@
       </c>
       <c r="AP224" s="9"/>
       <c r="AQ224" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AR224" s="9"/>
     </row>
@@ -23421,17 +23438,17 @@
         <v>46</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F225" s="10"/>
       <c r="G225" s="10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H225" s="10" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J225" s="10"/>
       <c r="K225" s="10"/>
@@ -23457,7 +23474,7 @@
       <c r="W225" s="30"/>
       <c r="X225" s="9"/>
       <c r="Y225" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -23478,7 +23495,7 @@
       <c r="AH225" s="10"/>
       <c r="AI225" s="10"/>
       <c r="AJ225" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AK225" s="10"/>
       <c r="AL225" s="10"/>
@@ -23491,7 +23508,7 @@
       </c>
       <c r="AP225" s="9"/>
       <c r="AQ225" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AR225" s="9"/>
     </row>
@@ -23509,17 +23526,17 @@
         <v>46</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="I226" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J226" s="10"/>
       <c r="K226" s="10" t="n">
@@ -23533,7 +23550,7 @@
       <c r="Q226" s="29"/>
       <c r="R226" s="29"/>
       <c r="S226" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T226" s="9"/>
       <c r="U226" s="9"/>
@@ -23541,10 +23558,10 @@
       <c r="W226" s="30"/>
       <c r="X226" s="9"/>
       <c r="Y226" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z226" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA226" s="9"/>
       <c r="AB226" s="10"/>
@@ -23572,7 +23589,7 @@
         <v>225</v>
       </c>
       <c r="AP226" s="13" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="AQ226" s="9"/>
       <c r="AR226" s="9"/>
@@ -23591,14 +23608,14 @@
         <v>46</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H227" s="10" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="I227" s="10" t="s">
         <v>55</v>
@@ -23610,31 +23627,31 @@
       <c r="L227" s="10"/>
       <c r="M227" s="10"/>
       <c r="N227" s="9" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="O227" s="29" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="P227" s="29"/>
       <c r="Q227" s="29" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="R227" s="29"/>
       <c r="S227" s="9" t="s">
         <v>56</v>
       </c>
       <c r="T227" s="9" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U227" s="9"/>
       <c r="V227" s="9"/>
       <c r="W227" s="30"/>
       <c r="X227" s="9"/>
       <c r="Y227" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z227" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA227" s="9"/>
       <c r="AB227" s="10"/>
@@ -23663,7 +23680,7 @@
       </c>
       <c r="AP227" s="9"/>
       <c r="AQ227" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AR227" s="9"/>
     </row>
@@ -23681,17 +23698,17 @@
         <v>46</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I228" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J228" s="10"/>
       <c r="K228" s="10" t="n">
@@ -23708,19 +23725,19 @@
         <v>56</v>
       </c>
       <c r="T228" s="9" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U228" s="9"/>
       <c r="V228" s="9"/>
       <c r="W228" s="10" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z228" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA228" s="9"/>
       <c r="AB228" s="10"/>
@@ -23749,7 +23766,7 @@
       </c>
       <c r="AP228" s="13"/>
       <c r="AQ228" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AR228" s="9"/>
     </row>
@@ -23767,17 +23784,17 @@
         <v>46</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J229" s="10"/>
       <c r="K229" s="10" t="n">
@@ -23799,10 +23816,10 @@
       <c r="W229" s="30"/>
       <c r="X229" s="9"/>
       <c r="Y229" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z229" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA229" s="9"/>
       <c r="AB229" s="10"/>
@@ -23830,10 +23847,10 @@
         <v>228</v>
       </c>
       <c r="AP229" s="13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="AQ229" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AR229" s="9"/>
     </row>
@@ -23851,17 +23868,17 @@
         <v>46</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H230" s="10" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="I230" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J230" s="10"/>
       <c r="K230" s="10"/>
@@ -23887,10 +23904,10 @@
       <c r="W230" s="30"/>
       <c r="X230" s="9"/>
       <c r="Y230" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z230" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA230" s="9"/>
       <c r="AB230" s="10"/>
@@ -23908,7 +23925,7 @@
       <c r="AH230" s="10"/>
       <c r="AI230" s="10"/>
       <c r="AJ230" s="10" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="AK230" s="10"/>
       <c r="AL230" s="10"/>
@@ -23921,7 +23938,7 @@
       </c>
       <c r="AP230" s="9"/>
       <c r="AQ230" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AR230" s="9"/>
     </row>
@@ -23939,17 +23956,17 @@
         <v>46</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="10" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="H231" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I231" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J231" s="10"/>
       <c r="K231" s="10"/>
@@ -23975,10 +23992,10 @@
       <c r="W231" s="30"/>
       <c r="X231" s="9"/>
       <c r="Y231" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z231" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA231" s="9"/>
       <c r="AB231" s="10"/>
@@ -23996,7 +24013,7 @@
       <c r="AH231" s="10"/>
       <c r="AI231" s="10"/>
       <c r="AJ231" s="10" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="AK231" s="10"/>
       <c r="AL231" s="10"/>
@@ -24009,7 +24026,7 @@
       </c>
       <c r="AP231" s="9"/>
       <c r="AQ231" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AR231" s="9"/>
     </row>
@@ -24027,17 +24044,17 @@
         <v>46</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="10" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H232" s="10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I232" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
@@ -24063,10 +24080,10 @@
       <c r="W232" s="30"/>
       <c r="X232" s="9"/>
       <c r="Y232" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z232" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA232" s="9"/>
       <c r="AB232" s="10"/>
@@ -24084,7 +24101,7 @@
       <c r="AH232" s="10"/>
       <c r="AI232" s="10"/>
       <c r="AJ232" s="10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="AK232" s="10"/>
       <c r="AL232" s="10"/>
@@ -24097,7 +24114,7 @@
       </c>
       <c r="AP232" s="9"/>
       <c r="AQ232" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AR232" s="9"/>
     </row>
@@ -24115,17 +24132,17 @@
         <v>46</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="10" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H233" s="10" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I233" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J233" s="10"/>
       <c r="K233" s="10"/>
@@ -24151,10 +24168,10 @@
       <c r="W233" s="30"/>
       <c r="X233" s="9"/>
       <c r="Y233" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Z233" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA233" s="9"/>
       <c r="AB233" s="10"/>
@@ -24172,7 +24189,7 @@
       <c r="AH233" s="10"/>
       <c r="AI233" s="10"/>
       <c r="AJ233" s="10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="AK233" s="10"/>
       <c r="AL233" s="10"/>
@@ -24185,7 +24202,7 @@
       </c>
       <c r="AP233" s="9"/>
       <c r="AQ233" s="10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AR233" s="9"/>
     </row>
@@ -24203,45 +24220,45 @@
         <v>46</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="10" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="I234" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J234" s="10"/>
       <c r="K234" s="10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="L234" s="10"/>
       <c r="M234" s="10"/>
       <c r="N234" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O234" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P234" s="29" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q234" s="29"/>
       <c r="R234" s="29"/>
       <c r="S234" s="9"/>
       <c r="T234" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U234" s="9"/>
       <c r="V234" s="9"/>
       <c r="W234" s="9"/>
       <c r="X234" s="9"/>
       <c r="Y234" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
@@ -24252,7 +24269,7 @@
         <v>51</v>
       </c>
       <c r="AF234" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG234" s="33" t="n">
         <v>0.05</v>
@@ -24284,20 +24301,20 @@
         <v>45</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H235" s="10" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I235" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J235" s="10"/>
       <c r="K235" s="10" t="n">
@@ -24311,7 +24328,7 @@
       <c r="Q235" s="29"/>
       <c r="R235" s="29"/>
       <c r="S235" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T235" s="9"/>
       <c r="U235" s="9"/>
@@ -24319,14 +24336,14 @@
       <c r="W235" s="9"/>
       <c r="X235" s="9"/>
       <c r="Y235" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="10"/>
       <c r="AC235" s="9"/>
       <c r="AD235" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE235" s="10" t="s">
         <v>51</v>
@@ -24350,10 +24367,10 @@
         <v>234</v>
       </c>
       <c r="AP235" s="13" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="AQ235" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="AR235" s="9"/>
     </row>
@@ -24368,17 +24385,17 @@
         <v>45</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="10" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="H236" s="10" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="I236" s="10" t="s">
         <v>55</v>
@@ -24409,14 +24426,14 @@
       <c r="W236" s="9"/>
       <c r="X236" s="9"/>
       <c r="Y236" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
       <c r="AB236" s="10"/>
       <c r="AC236" s="9"/>
       <c r="AD236" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE236" s="10" t="s">
         <v>51</v>
@@ -24441,7 +24458,7 @@
       </c>
       <c r="AP236" s="9"/>
       <c r="AQ236" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR236" s="9"/>
     </row>
@@ -24456,17 +24473,17 @@
         <v>45</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I237" s="10" t="s">
         <v>55</v>
@@ -24497,14 +24514,14 @@
       <c r="W237" s="9"/>
       <c r="X237" s="9"/>
       <c r="Y237" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
       <c r="AB237" s="10"/>
       <c r="AC237" s="9"/>
       <c r="AD237" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE237" s="10" t="s">
         <v>51</v>
@@ -24529,7 +24546,7 @@
       </c>
       <c r="AP237" s="9"/>
       <c r="AQ237" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR237" s="9"/>
     </row>
@@ -24544,17 +24561,17 @@
         <v>45</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="H238" s="10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="I238" s="10" t="s">
         <v>55</v>
@@ -24585,14 +24602,14 @@
       <c r="W238" s="9"/>
       <c r="X238" s="9"/>
       <c r="Y238" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
       <c r="AB238" s="10"/>
       <c r="AC238" s="9"/>
       <c r="AD238" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE238" s="10" t="s">
         <v>51</v>
@@ -24617,7 +24634,7 @@
       </c>
       <c r="AP238" s="9"/>
       <c r="AQ238" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR238" s="9"/>
     </row>
@@ -24632,17 +24649,17 @@
         <v>45</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="H239" s="10" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="I239" s="10" t="s">
         <v>55</v>
@@ -24673,14 +24690,14 @@
       <c r="W239" s="9"/>
       <c r="X239" s="9"/>
       <c r="Y239" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
       <c r="AB239" s="10"/>
       <c r="AC239" s="9"/>
       <c r="AD239" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE239" s="10" t="s">
         <v>51</v>
@@ -24705,7 +24722,7 @@
       </c>
       <c r="AP239" s="9"/>
       <c r="AQ239" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR239" s="9"/>
     </row>
@@ -24720,17 +24737,17 @@
         <v>45</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H240" s="10" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="I240" s="10" t="s">
         <v>55</v>
@@ -24742,7 +24759,7 @@
       <c r="L240" s="10"/>
       <c r="M240" s="10"/>
       <c r="N240" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="O240" s="16" t="s">
         <v>65</v>
@@ -24761,14 +24778,14 @@
       <c r="W240" s="9"/>
       <c r="X240" s="9"/>
       <c r="Y240" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
       <c r="AB240" s="10"/>
       <c r="AC240" s="9"/>
       <c r="AD240" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE240" s="10" t="s">
         <v>51</v>
@@ -24793,7 +24810,7 @@
       </c>
       <c r="AP240" s="9"/>
       <c r="AQ240" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR240" s="9"/>
     </row>
@@ -24808,17 +24825,17 @@
         <v>45</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="10" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H241" s="10" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="I241" s="10" t="s">
         <v>55</v>
@@ -24830,7 +24847,7 @@
       <c r="L241" s="10"/>
       <c r="M241" s="10"/>
       <c r="N241" s="9" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="O241" s="16" t="s">
         <v>83</v>
@@ -24849,14 +24866,14 @@
       <c r="W241" s="9"/>
       <c r="X241" s="9"/>
       <c r="Y241" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
       <c r="AB241" s="10"/>
       <c r="AC241" s="9"/>
       <c r="AD241" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE241" s="10" t="s">
         <v>51</v>
@@ -24881,7 +24898,7 @@
       </c>
       <c r="AP241" s="9"/>
       <c r="AQ241" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR241" s="9"/>
     </row>
@@ -24896,17 +24913,17 @@
         <v>45</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H242" s="10" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="I242" s="10" t="s">
         <v>55</v>
@@ -24918,7 +24935,7 @@
       <c r="L242" s="10"/>
       <c r="M242" s="10"/>
       <c r="N242" s="9" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="O242" s="16" t="s">
         <v>90</v>
@@ -24937,14 +24954,14 @@
       <c r="W242" s="9"/>
       <c r="X242" s="9"/>
       <c r="Y242" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z242" s="9"/>
       <c r="AA242" s="9"/>
       <c r="AB242" s="10"/>
       <c r="AC242" s="9"/>
       <c r="AD242" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE242" s="10" t="s">
         <v>51</v>
@@ -24969,7 +24986,7 @@
       </c>
       <c r="AP242" s="9"/>
       <c r="AQ242" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AR242" s="9"/>
     </row>
@@ -24987,17 +25004,17 @@
         <v>46</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="10" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H243" s="10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="I243" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J243" s="10"/>
       <c r="K243" s="10" t="n">
@@ -25006,26 +25023,26 @@
       <c r="L243" s="10"/>
       <c r="M243" s="10"/>
       <c r="N243" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O243" s="29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P243" s="29" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q243" s="29"/>
       <c r="R243" s="29"/>
       <c r="S243" s="9"/>
       <c r="T243" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U243" s="9"/>
       <c r="V243" s="9"/>
       <c r="W243" s="9"/>
       <c r="X243" s="9"/>
       <c r="Y243" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z243" s="9"/>
       <c r="AA243" s="9"/>
@@ -25036,7 +25053,7 @@
         <v>51</v>
       </c>
       <c r="AF243" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG243" s="17" t="n">
         <v>0.015</v>
@@ -25068,20 +25085,20 @@
         <v>45</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="10" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="H244" s="10" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="I244" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J244" s="10"/>
       <c r="K244" s="10" t="n">
@@ -25095,7 +25112,7 @@
       <c r="Q244" s="29"/>
       <c r="R244" s="29"/>
       <c r="S244" s="14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T244" s="9"/>
       <c r="U244" s="9"/>
@@ -25103,14 +25120,14 @@
       <c r="W244" s="9"/>
       <c r="X244" s="9"/>
       <c r="Y244" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z244" s="9"/>
       <c r="AA244" s="9"/>
       <c r="AB244" s="10"/>
       <c r="AC244" s="9"/>
       <c r="AD244" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE244" s="10" t="s">
         <v>51</v>
@@ -25134,10 +25151,10 @@
         <v>243</v>
       </c>
       <c r="AP244" s="36" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="AQ244" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="AR244" s="9"/>
     </row>
@@ -25152,17 +25169,17 @@
         <v>45</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="10" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="I245" s="10" t="s">
         <v>55</v>
@@ -25174,7 +25191,7 @@
       <c r="L245" s="10"/>
       <c r="M245" s="10"/>
       <c r="N245" s="31" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="O245" s="16" t="n">
         <v>5449000005489</v>
@@ -25193,14 +25210,14 @@
       <c r="W245" s="9"/>
       <c r="X245" s="9"/>
       <c r="Y245" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z245" s="9"/>
       <c r="AA245" s="9"/>
       <c r="AB245" s="10"/>
       <c r="AC245" s="9"/>
       <c r="AD245" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE245" s="10" t="s">
         <v>51</v>
@@ -25225,7 +25242,7 @@
       </c>
       <c r="AP245" s="9"/>
       <c r="AQ245" s="10" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="AR245" s="9"/>
     </row>
@@ -25243,17 +25260,17 @@
         <v>46</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="10" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H246" s="10" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I246" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J246" s="10"/>
       <c r="K246" s="10" t="n">
@@ -25262,26 +25279,26 @@
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
       <c r="N246" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O246" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P246" s="29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q246" s="29"/>
       <c r="R246" s="29"/>
       <c r="S246" s="9"/>
       <c r="T246" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U246" s="9"/>
       <c r="V246" s="9"/>
       <c r="W246" s="9"/>
       <c r="X246" s="9"/>
       <c r="Y246" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
@@ -25292,7 +25309,7 @@
         <v>51</v>
       </c>
       <c r="AF246" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG246" s="17" t="n">
         <v>0.05</v>
@@ -25324,20 +25341,20 @@
         <v>45</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="H247" s="10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="I247" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J247" s="10"/>
       <c r="K247" s="10" t="n">
@@ -25351,7 +25368,7 @@
       <c r="Q247" s="29"/>
       <c r="R247" s="29"/>
       <c r="S247" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T247" s="9"/>
       <c r="U247" s="9"/>
@@ -25359,14 +25376,14 @@
       <c r="W247" s="9"/>
       <c r="X247" s="9"/>
       <c r="Y247" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
       <c r="AB247" s="10"/>
       <c r="AC247" s="9"/>
       <c r="AD247" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE247" s="10" t="s">
         <v>51</v>
@@ -25390,10 +25407,10 @@
         <v>246</v>
       </c>
       <c r="AP247" s="13" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="AQ247" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="AR247" s="9"/>
     </row>
@@ -25408,17 +25425,17 @@
         <v>45</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="10" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H248" s="10" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="I248" s="10" t="s">
         <v>55</v>
@@ -25449,14 +25466,14 @@
       <c r="W248" s="9"/>
       <c r="X248" s="9"/>
       <c r="Y248" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
       <c r="AB248" s="10"/>
       <c r="AC248" s="9"/>
       <c r="AD248" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE248" s="10" t="s">
         <v>51</v>
@@ -25481,7 +25498,7 @@
       </c>
       <c r="AP248" s="9"/>
       <c r="AQ248" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AR248" s="9"/>
     </row>
@@ -25496,17 +25513,17 @@
         <v>45</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H249" s="10" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I249" s="10" t="s">
         <v>55</v>
@@ -25537,14 +25554,14 @@
       <c r="W249" s="9"/>
       <c r="X249" s="9"/>
       <c r="Y249" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
       <c r="AB249" s="10"/>
       <c r="AC249" s="9"/>
       <c r="AD249" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE249" s="10" t="s">
         <v>51</v>
@@ -25569,7 +25586,7 @@
       </c>
       <c r="AP249" s="9"/>
       <c r="AQ249" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AR249" s="9"/>
     </row>
@@ -25584,17 +25601,17 @@
         <v>45</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="10" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="H250" s="10" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="I250" s="10" t="s">
         <v>55</v>
@@ -25625,14 +25642,14 @@
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
       <c r="Y250" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
       <c r="AB250" s="10"/>
       <c r="AC250" s="9"/>
       <c r="AD250" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE250" s="10" t="s">
         <v>51</v>
@@ -25657,7 +25674,7 @@
       </c>
       <c r="AP250" s="9"/>
       <c r="AQ250" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AR250" s="9"/>
     </row>
@@ -25672,17 +25689,17 @@
         <v>45</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="10" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H251" s="10" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="I251" s="10" t="s">
         <v>55</v>
@@ -25713,14 +25730,14 @@
       <c r="W251" s="9"/>
       <c r="X251" s="9"/>
       <c r="Y251" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
       <c r="AB251" s="10"/>
       <c r="AC251" s="9"/>
       <c r="AD251" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE251" s="10" t="s">
         <v>51</v>
@@ -25745,7 +25762,7 @@
       </c>
       <c r="AP251" s="9"/>
       <c r="AQ251" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AR251" s="9"/>
     </row>
@@ -25760,17 +25777,17 @@
         <v>45</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="10" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H252" s="10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="I252" s="10" t="s">
         <v>55</v>
@@ -25801,14 +25818,14 @@
       <c r="W252" s="9"/>
       <c r="X252" s="9"/>
       <c r="Y252" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
       <c r="AB252" s="10"/>
       <c r="AC252" s="9"/>
       <c r="AD252" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE252" s="10" t="s">
         <v>51</v>
@@ -25833,7 +25850,7 @@
       </c>
       <c r="AP252" s="9"/>
       <c r="AQ252" s="10" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="AR252" s="9"/>
     </row>
@@ -25851,17 +25868,17 @@
         <v>46</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="10" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H253" s="10" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I253" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J253" s="10"/>
       <c r="K253" s="10" t="n">
@@ -25870,26 +25887,26 @@
       <c r="L253" s="10"/>
       <c r="M253" s="10"/>
       <c r="N253" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O253" s="12" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P253" s="12" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="Q253" s="12"/>
       <c r="R253" s="12"/>
       <c r="S253" s="31"/>
       <c r="T253" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U253" s="9"/>
       <c r="V253" s="9"/>
       <c r="W253" s="9"/>
       <c r="X253" s="9"/>
       <c r="Y253" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
@@ -25900,7 +25917,7 @@
         <v>51</v>
       </c>
       <c r="AF253" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG253" s="17" t="n">
         <v>0.03</v>
@@ -25932,20 +25949,20 @@
         <v>45</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H254" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="I254" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J254" s="10"/>
       <c r="K254" s="10" t="n">
@@ -25959,7 +25976,7 @@
       <c r="Q254" s="12"/>
       <c r="R254" s="12"/>
       <c r="S254" s="14" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T254" s="9"/>
       <c r="U254" s="9"/>
@@ -25967,14 +25984,14 @@
       <c r="W254" s="9"/>
       <c r="X254" s="9"/>
       <c r="Y254" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z254" s="9"/>
       <c r="AA254" s="9"/>
       <c r="AB254" s="10"/>
       <c r="AC254" s="9"/>
       <c r="AD254" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE254" s="10" t="s">
         <v>51</v>
@@ -25998,10 +26015,10 @@
         <v>253</v>
       </c>
       <c r="AP254" s="13" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="AQ254" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="AR254" s="9"/>
     </row>
@@ -26016,17 +26033,17 @@
         <v>45</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="10" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="H255" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I255" s="10" t="s">
         <v>55</v>
@@ -26057,14 +26074,14 @@
       <c r="W255" s="9"/>
       <c r="X255" s="9"/>
       <c r="Y255" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z255" s="9"/>
       <c r="AA255" s="9"/>
       <c r="AB255" s="10"/>
       <c r="AC255" s="9"/>
       <c r="AD255" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE255" s="10" t="s">
         <v>51</v>
@@ -26089,7 +26106,7 @@
       </c>
       <c r="AP255" s="9"/>
       <c r="AQ255" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="AR255" s="9"/>
     </row>
@@ -26104,17 +26121,17 @@
         <v>45</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="H256" s="10" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I256" s="10" t="s">
         <v>55</v>
@@ -26145,14 +26162,14 @@
       <c r="W256" s="9"/>
       <c r="X256" s="9"/>
       <c r="Y256" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
       <c r="AB256" s="10"/>
       <c r="AC256" s="9"/>
       <c r="AD256" s="10" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="AE256" s="10" t="s">
         <v>51</v>
@@ -26177,7 +26194,7 @@
       </c>
       <c r="AP256" s="9"/>
       <c r="AQ256" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="AR256" s="9"/>
     </row>
@@ -26195,17 +26212,17 @@
         <v>46</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F257" s="9"/>
       <c r="G257" s="10" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="H257" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J257" s="10"/>
       <c r="K257" s="10" t="n">
@@ -26214,26 +26231,26 @@
       <c r="L257" s="10"/>
       <c r="M257" s="10"/>
       <c r="N257" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O257" s="12" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P257" s="12" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q257" s="12"/>
       <c r="R257" s="12"/>
       <c r="S257" s="9"/>
       <c r="T257" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="U257" s="9"/>
       <c r="V257" s="9"/>
       <c r="W257" s="9"/>
       <c r="X257" s="9"/>
       <c r="Y257" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -26244,7 +26261,7 @@
         <v>51</v>
       </c>
       <c r="AF257" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG257" s="17" t="n">
         <v>0.025</v>
@@ -26276,20 +26293,20 @@
         <v>45</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F258" s="8"/>
       <c r="G258" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H258" s="10" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="I258" s="10" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
@@ -26316,7 +26333,7 @@
         <v>51</v>
       </c>
       <c r="AF258" s="10" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="AG258" s="10"/>
       <c r="AH258" s="10"/>
@@ -26332,7 +26349,7 @@
         <v>257</v>
       </c>
       <c r="AP258" s="13" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="AQ258" s="9"/>
       <c r="AR258" s="9"/>
@@ -26348,17 +26365,17 @@
         <v>45</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F259" s="8"/>
       <c r="G259" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H259" s="39" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="I259" s="10" t="s">
         <v>55</v>
@@ -26370,7 +26387,7 @@
       <c r="L259" s="10"/>
       <c r="M259" s="10"/>
       <c r="N259" s="8" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="O259" s="15" t="n">
         <v>509987300136059</v>
@@ -26421,7 +26438,7 @@
       </c>
       <c r="AP259" s="9"/>
       <c r="AQ259" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="AR259" s="14"/>
     </row>
@@ -26436,17 +26453,17 @@
         <v>45</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F260" s="8"/>
       <c r="G260" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H260" s="39" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="I260" s="10" t="s">
         <v>55</v>
@@ -26458,14 +26475,14 @@
       <c r="L260" s="10"/>
       <c r="M260" s="10"/>
       <c r="N260" s="8" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O260" s="15" t="n">
         <v>4607174573314</v>
       </c>
       <c r="P260" s="16"/>
       <c r="Q260" s="16" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="R260" s="16"/>
       <c r="S260" s="10" t="s">
@@ -26511,7 +26528,7 @@
       </c>
       <c r="AP260" s="9"/>
       <c r="AQ260" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="AR260" s="14"/>
     </row>
@@ -26526,17 +26543,17 @@
         <v>45</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F261" s="8"/>
       <c r="G261" s="9" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I261" s="10" t="s">
         <v>55</v>
@@ -26548,7 +26565,7 @@
       <c r="L261" s="9"/>
       <c r="M261" s="9"/>
       <c r="N261" s="9" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="O261" s="15" t="n">
         <v>4607174573338</v>
@@ -26599,7 +26616,7 @@
       </c>
       <c r="AP261" s="9"/>
       <c r="AQ261" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="AR261" s="14"/>
     </row>
@@ -26614,17 +26631,17 @@
         <v>45</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="9" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H262" s="9" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I262" s="10" t="s">
         <v>55</v>
@@ -26636,7 +26653,7 @@
       <c r="L262" s="9"/>
       <c r="M262" s="9"/>
       <c r="N262" s="9" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="O262" s="15" t="n">
         <v>4607152740738</v>
@@ -26687,7 +26704,7 @@
       </c>
       <c r="AP262" s="9"/>
       <c r="AQ262" s="10" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="AR262" s="14"/>
     </row>
@@ -26705,17 +26722,17 @@
         <v>46</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F263" s="9"/>
       <c r="G263" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="I263" s="10" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="J263" s="10"/>
       <c r="K263" s="0"/>
@@ -26727,7 +26744,7 @@
       <c r="Q263" s="29"/>
       <c r="R263" s="29"/>
       <c r="S263" s="9" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="T263" s="9"/>
       <c r="U263" s="9"/>
@@ -26744,7 +26761,7 @@
         <v>51</v>
       </c>
       <c r="AF263" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG263" s="17" t="n">
         <v>0.09</v>
@@ -26752,7 +26769,7 @@
       <c r="AH263" s="10"/>
       <c r="AI263" s="10"/>
       <c r="AJ263" s="10" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="AK263" s="10"/>
       <c r="AL263" s="10"/>
@@ -26764,7 +26781,7 @@
         <v>262</v>
       </c>
       <c r="AP263" s="13" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="AQ263" s="9"/>
       <c r="AR263" s="9"/>
@@ -26783,17 +26800,17 @@
         <v>46</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F264" s="9"/>
       <c r="G264" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="H264" s="10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I264" s="40" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="J264" s="40"/>
       <c r="K264" s="10" t="n">
@@ -26804,24 +26821,24 @@
       </c>
       <c r="M264" s="10"/>
       <c r="N264" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O264" s="12" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P264" s="12"/>
       <c r="Q264" s="12"/>
       <c r="R264" s="12"/>
       <c r="S264" s="9"/>
       <c r="T264" s="9" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U264" s="9"/>
       <c r="V264" s="9"/>
       <c r="W264" s="9"/>
       <c r="X264" s="9"/>
       <c r="Y264" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -26851,7 +26868,7 @@
       </c>
       <c r="AP264" s="9"/>
       <c r="AQ264" s="9" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="AR264" s="9"/>
     </row>
@@ -26869,17 +26886,17 @@
         <v>46</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F265" s="9"/>
       <c r="G265" s="10" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J265" s="10"/>
       <c r="K265" s="10" t="n">
@@ -26888,24 +26905,24 @@
       <c r="L265" s="10"/>
       <c r="M265" s="10"/>
       <c r="N265" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O265" s="29" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P265" s="29"/>
       <c r="Q265" s="29"/>
       <c r="R265" s="29"/>
       <c r="S265" s="9"/>
       <c r="T265" s="9" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U265" s="9"/>
       <c r="V265" s="9"/>
       <c r="W265" s="9"/>
       <c r="X265" s="9"/>
       <c r="Y265" s="10" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -26935,7 +26952,7 @@
       </c>
       <c r="AP265" s="9"/>
       <c r="AQ265" s="9" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="AR265" s="9"/>
     </row>
@@ -26953,17 +26970,17 @@
         <v>46</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="10" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="H266" s="14" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="I266" s="14" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J266" s="14"/>
       <c r="K266" s="14" t="n">
@@ -26978,16 +26995,16 @@
       <c r="R266" s="29"/>
       <c r="S266" s="9"/>
       <c r="T266" s="9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="U266" s="9"/>
       <c r="V266" s="9"/>
       <c r="W266" s="10" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -27006,12 +27023,12 @@
       <c r="AH266" s="10"/>
       <c r="AI266" s="10"/>
       <c r="AJ266" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK266" s="10"/>
       <c r="AL266" s="10"/>
       <c r="AM266" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN266" s="9" t="n">
         <v>2</v>
@@ -27021,7 +27038,7 @@
       </c>
       <c r="AP266" s="9"/>
       <c r="AQ266" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AR266" s="9"/>
     </row>
@@ -27039,17 +27056,17 @@
         <v>46</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="10" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="H267" s="10" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="I267" s="14" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="J267" s="14"/>
       <c r="K267" s="10"/>
@@ -27060,7 +27077,7 @@
         <v>26</v>
       </c>
       <c r="N267" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O267" s="29"/>
       <c r="P267" s="29"/>
@@ -27073,7 +27090,7 @@
       <c r="W267" s="9"/>
       <c r="X267" s="9"/>
       <c r="Y267" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -27084,7 +27101,7 @@
         <v>51</v>
       </c>
       <c r="AF267" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG267" s="17" t="n">
         <v>0.0225</v>
@@ -27092,12 +27109,12 @@
       <c r="AH267" s="10"/>
       <c r="AI267" s="10"/>
       <c r="AJ267" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK267" s="10"/>
       <c r="AL267" s="10"/>
       <c r="AM267" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN267" s="9" t="n">
         <v>2</v>
@@ -27107,7 +27124,7 @@
       </c>
       <c r="AP267" s="9"/>
       <c r="AQ267" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AR267" s="9"/>
     </row>
@@ -27125,17 +27142,17 @@
         <v>46</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F268" s="9"/>
       <c r="G268" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H268" s="10" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="I268" s="14" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J268" s="14"/>
       <c r="K268" s="10" t="n">
@@ -27149,7 +27166,7 @@
       <c r="Q268" s="29"/>
       <c r="R268" s="29"/>
       <c r="S268" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="T268" s="9"/>
       <c r="U268" s="9"/>
@@ -27157,7 +27174,7 @@
       <c r="W268" s="9"/>
       <c r="X268" s="9"/>
       <c r="Y268" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -27168,7 +27185,7 @@
         <v>51</v>
       </c>
       <c r="AF268" s="10" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="AG268" s="17" t="n">
         <v>0.0225</v>
@@ -27180,12 +27197,12 @@
         <v>1</v>
       </c>
       <c r="AJ268" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK268" s="10"/>
       <c r="AL268" s="10"/>
       <c r="AM268" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN268" s="9" t="n">
         <v>2</v>
@@ -27194,10 +27211,10 @@
         <v>267</v>
       </c>
       <c r="AP268" s="13" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="AQ268" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AR268" s="9"/>
     </row>
@@ -27215,14 +27232,14 @@
         <v>46</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F269" s="9"/>
       <c r="G269" s="10" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H269" s="10" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="I269" s="10" t="s">
         <v>55</v>
@@ -27253,7 +27270,7 @@
       <c r="W269" s="9"/>
       <c r="X269" s="9"/>
       <c r="Y269" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -27272,12 +27289,12 @@
       <c r="AH269" s="10"/>
       <c r="AI269" s="10"/>
       <c r="AJ269" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK269" s="10"/>
       <c r="AL269" s="10"/>
       <c r="AM269" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN269" s="9" t="n">
         <v>3</v>
@@ -27287,7 +27304,7 @@
       </c>
       <c r="AP269" s="9"/>
       <c r="AQ269" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR269" s="9"/>
     </row>
@@ -27305,14 +27322,14 @@
         <v>46</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F270" s="9"/>
       <c r="G270" s="10" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H270" s="10" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I270" s="10" t="s">
         <v>55</v>
@@ -27343,7 +27360,7 @@
       <c r="W270" s="9"/>
       <c r="X270" s="9"/>
       <c r="Y270" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -27362,12 +27379,12 @@
       <c r="AH270" s="10"/>
       <c r="AI270" s="10"/>
       <c r="AJ270" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK270" s="10"/>
       <c r="AL270" s="10"/>
       <c r="AM270" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN270" s="9" t="n">
         <v>3</v>
@@ -27377,7 +27394,7 @@
       </c>
       <c r="AP270" s="9"/>
       <c r="AQ270" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR270" s="9"/>
     </row>
@@ -27395,14 +27412,14 @@
         <v>46</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F271" s="9"/>
       <c r="G271" s="10" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="I271" s="10" t="s">
         <v>55</v>
@@ -27433,7 +27450,7 @@
       <c r="W271" s="9"/>
       <c r="X271" s="9"/>
       <c r="Y271" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -27452,12 +27469,12 @@
       <c r="AH271" s="10"/>
       <c r="AI271" s="10"/>
       <c r="AJ271" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK271" s="10"/>
       <c r="AL271" s="10"/>
       <c r="AM271" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN271" s="9" t="n">
         <v>3</v>
@@ -27467,7 +27484,7 @@
       </c>
       <c r="AP271" s="9"/>
       <c r="AQ271" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR271" s="9"/>
     </row>
@@ -27485,14 +27502,14 @@
         <v>46</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F272" s="9"/>
       <c r="G272" s="10" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="I272" s="10" t="s">
         <v>55</v>
@@ -27523,7 +27540,7 @@
       <c r="W272" s="9"/>
       <c r="X272" s="9"/>
       <c r="Y272" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -27542,12 +27559,12 @@
       <c r="AH272" s="10"/>
       <c r="AI272" s="10"/>
       <c r="AJ272" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK272" s="10"/>
       <c r="AL272" s="10"/>
       <c r="AM272" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN272" s="9" t="n">
         <v>3</v>
@@ -27557,7 +27574,7 @@
       </c>
       <c r="AP272" s="9"/>
       <c r="AQ272" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR272" s="9"/>
     </row>
@@ -27575,14 +27592,14 @@
         <v>46</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="10" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="I273" s="10" t="s">
         <v>55</v>
@@ -27613,7 +27630,7 @@
       <c r="W273" s="9"/>
       <c r="X273" s="9"/>
       <c r="Y273" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -27632,12 +27649,12 @@
       <c r="AH273" s="10"/>
       <c r="AI273" s="10"/>
       <c r="AJ273" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK273" s="10"/>
       <c r="AL273" s="10"/>
       <c r="AM273" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN273" s="9" t="n">
         <v>3</v>
@@ -27647,7 +27664,7 @@
       </c>
       <c r="AP273" s="9"/>
       <c r="AQ273" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR273" s="9"/>
     </row>
@@ -27665,14 +27682,14 @@
         <v>46</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="10" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H274" s="10" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="I274" s="10" t="s">
         <v>55</v>
@@ -27703,7 +27720,7 @@
       <c r="W274" s="9"/>
       <c r="X274" s="9"/>
       <c r="Y274" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -27722,12 +27739,12 @@
       <c r="AH274" s="10"/>
       <c r="AI274" s="10"/>
       <c r="AJ274" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK274" s="10"/>
       <c r="AL274" s="10"/>
       <c r="AM274" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN274" s="9" t="n">
         <v>3</v>
@@ -27737,7 +27754,7 @@
       </c>
       <c r="AP274" s="9"/>
       <c r="AQ274" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR274" s="9"/>
     </row>
@@ -27755,14 +27772,14 @@
         <v>46</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F275" s="9"/>
       <c r="G275" s="10" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="H275" s="10" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="I275" s="10" t="s">
         <v>55</v>
@@ -27793,7 +27810,7 @@
       <c r="W275" s="9"/>
       <c r="X275" s="9"/>
       <c r="Y275" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -27812,12 +27829,12 @@
       <c r="AH275" s="10"/>
       <c r="AI275" s="10"/>
       <c r="AJ275" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK275" s="10"/>
       <c r="AL275" s="10"/>
       <c r="AM275" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN275" s="9" t="n">
         <v>3</v>
@@ -27827,7 +27844,7 @@
       </c>
       <c r="AP275" s="9"/>
       <c r="AQ275" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR275" s="9"/>
     </row>
@@ -27845,14 +27862,14 @@
         <v>46</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F276" s="9"/>
       <c r="G276" s="10" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H276" s="10" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="I276" s="10" t="s">
         <v>55</v>
@@ -27883,7 +27900,7 @@
       <c r="W276" s="9"/>
       <c r="X276" s="9"/>
       <c r="Y276" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -27902,12 +27919,12 @@
       <c r="AH276" s="10"/>
       <c r="AI276" s="10"/>
       <c r="AJ276" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK276" s="10"/>
       <c r="AL276" s="10"/>
       <c r="AM276" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN276" s="9" t="n">
         <v>3</v>
@@ -27917,7 +27934,7 @@
       </c>
       <c r="AP276" s="9"/>
       <c r="AQ276" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR276" s="9"/>
     </row>
@@ -27935,14 +27952,14 @@
         <v>46</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F277" s="9"/>
       <c r="G277" s="10" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="H277" s="10" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="I277" s="10" t="s">
         <v>55</v>
@@ -27973,7 +27990,7 @@
       <c r="W277" s="9"/>
       <c r="X277" s="9"/>
       <c r="Y277" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -27992,12 +28009,12 @@
       <c r="AH277" s="10"/>
       <c r="AI277" s="10"/>
       <c r="AJ277" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK277" s="10"/>
       <c r="AL277" s="10"/>
       <c r="AM277" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN277" s="9" t="n">
         <v>3</v>
@@ -28007,7 +28024,7 @@
       </c>
       <c r="AP277" s="9"/>
       <c r="AQ277" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR277" s="9"/>
     </row>
@@ -28025,14 +28042,14 @@
         <v>46</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="10" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H278" s="10" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="I278" s="10" t="s">
         <v>55</v>
@@ -28063,7 +28080,7 @@
       <c r="W278" s="9"/>
       <c r="X278" s="9"/>
       <c r="Y278" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -28082,12 +28099,12 @@
       <c r="AH278" s="10"/>
       <c r="AI278" s="10"/>
       <c r="AJ278" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK278" s="10"/>
       <c r="AL278" s="10"/>
       <c r="AM278" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN278" s="9" t="n">
         <v>3</v>
@@ -28097,7 +28114,7 @@
       </c>
       <c r="AP278" s="9"/>
       <c r="AQ278" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR278" s="9"/>
     </row>
@@ -28115,14 +28132,14 @@
         <v>46</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="10" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="I279" s="10" t="s">
         <v>55</v>
@@ -28134,10 +28151,10 @@
       <c r="L279" s="10"/>
       <c r="M279" s="10"/>
       <c r="N279" s="9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="O279" s="44" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="P279" s="29"/>
       <c r="Q279" s="29"/>
@@ -28153,7 +28170,7 @@
       <c r="W279" s="9"/>
       <c r="X279" s="9"/>
       <c r="Y279" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -28172,12 +28189,12 @@
       <c r="AH279" s="10"/>
       <c r="AI279" s="10"/>
       <c r="AJ279" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK279" s="10"/>
       <c r="AL279" s="10"/>
       <c r="AM279" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN279" s="9" t="n">
         <v>3</v>
@@ -28187,7 +28204,7 @@
       </c>
       <c r="AP279" s="9"/>
       <c r="AQ279" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR279" s="9"/>
     </row>
@@ -28205,14 +28222,14 @@
         <v>46</v>
       </c>
       <c r="E280" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F280" s="9"/>
       <c r="G280" s="10" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="I280" s="10" t="s">
         <v>55</v>
@@ -28224,10 +28241,10 @@
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
       <c r="N280" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="O280" s="16" t="s">
-        <v>786</v>
+        <v>789</v>
+      </c>
+      <c r="O280" s="45" t="s">
+        <v>790</v>
       </c>
       <c r="P280" s="29"/>
       <c r="Q280" s="29"/>
@@ -28243,7 +28260,7 @@
       <c r="W280" s="9"/>
       <c r="X280" s="9"/>
       <c r="Y280" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -28262,12 +28279,12 @@
       <c r="AH280" s="10"/>
       <c r="AI280" s="10"/>
       <c r="AJ280" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK280" s="10"/>
       <c r="AL280" s="10"/>
       <c r="AM280" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN280" s="9" t="n">
         <v>3</v>
@@ -28277,7 +28294,7 @@
       </c>
       <c r="AP280" s="9"/>
       <c r="AQ280" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR280" s="9"/>
     </row>
@@ -28295,14 +28312,14 @@
         <v>46</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F281" s="9"/>
       <c r="G281" s="10" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="I281" s="10" t="s">
         <v>55</v>
@@ -28333,7 +28350,7 @@
       <c r="W281" s="9"/>
       <c r="X281" s="9"/>
       <c r="Y281" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
@@ -28352,12 +28369,12 @@
       <c r="AH281" s="10"/>
       <c r="AI281" s="10"/>
       <c r="AJ281" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK281" s="10"/>
       <c r="AL281" s="10"/>
       <c r="AM281" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN281" s="9" t="n">
         <v>3</v>
@@ -28367,7 +28384,7 @@
       </c>
       <c r="AP281" s="9"/>
       <c r="AQ281" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR281" s="9"/>
     </row>
@@ -28385,14 +28402,14 @@
         <v>46</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F282" s="9"/>
       <c r="G282" s="10" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="I282" s="10" t="s">
         <v>55</v>
@@ -28423,7 +28440,7 @@
       <c r="W282" s="9"/>
       <c r="X282" s="9"/>
       <c r="Y282" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
@@ -28442,12 +28459,12 @@
       <c r="AH282" s="10"/>
       <c r="AI282" s="10"/>
       <c r="AJ282" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK282" s="10"/>
       <c r="AL282" s="10"/>
       <c r="AM282" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN282" s="9" t="n">
         <v>3</v>
@@ -28457,7 +28474,7 @@
       </c>
       <c r="AP282" s="9"/>
       <c r="AQ282" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR282" s="9"/>
     </row>
@@ -28475,14 +28492,14 @@
         <v>46</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F283" s="9"/>
       <c r="G283" s="10" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H283" s="10" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="I283" s="10" t="s">
         <v>55</v>
@@ -28513,7 +28530,7 @@
       <c r="W283" s="9"/>
       <c r="X283" s="9"/>
       <c r="Y283" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
@@ -28532,12 +28549,12 @@
       <c r="AH283" s="10"/>
       <c r="AI283" s="10"/>
       <c r="AJ283" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK283" s="10"/>
       <c r="AL283" s="10"/>
       <c r="AM283" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN283" s="9" t="n">
         <v>3</v>
@@ -28547,7 +28564,7 @@
       </c>
       <c r="AP283" s="9"/>
       <c r="AQ283" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR283" s="9"/>
     </row>
@@ -28565,14 +28582,14 @@
         <v>46</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F284" s="9"/>
       <c r="G284" s="10" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="H284" s="10" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="I284" s="10" t="s">
         <v>55</v>
@@ -28603,7 +28620,7 @@
       <c r="W284" s="9"/>
       <c r="X284" s="9"/>
       <c r="Y284" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
@@ -28622,12 +28639,12 @@
       <c r="AH284" s="10"/>
       <c r="AI284" s="10"/>
       <c r="AJ284" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK284" s="10"/>
       <c r="AL284" s="10"/>
       <c r="AM284" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN284" s="9" t="n">
         <v>3</v>
@@ -28637,7 +28654,7 @@
       </c>
       <c r="AP284" s="9"/>
       <c r="AQ284" s="10" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="AR284" s="9"/>
     </row>
@@ -28655,17 +28672,17 @@
         <v>46</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="10" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H285" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="I285" s="14" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="J285" s="14"/>
       <c r="K285" s="10"/>
@@ -28673,21 +28690,21 @@
       <c r="M285" s="10"/>
       <c r="N285" s="10"/>
       <c r="O285" s="12" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P285" s="12"/>
       <c r="Q285" s="12"/>
       <c r="R285" s="12"/>
       <c r="S285" s="9"/>
       <c r="T285" s="9" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10"/>
       <c r="W285" s="9"/>
       <c r="X285" s="9"/>
       <c r="Y285" s="10" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="Z285" s="10"/>
       <c r="AA285" s="9"/>
@@ -28698,7 +28715,7 @@
         <v>51</v>
       </c>
       <c r="AF285" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG285" s="17" t="n">
         <v>0.0225</v>
@@ -28706,12 +28723,12 @@
       <c r="AH285" s="10"/>
       <c r="AI285" s="10"/>
       <c r="AJ285" s="10" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="AK285" s="10"/>
       <c r="AL285" s="10"/>
       <c r="AM285" s="10" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="AN285" s="9" t="n">
         <v>2</v>
@@ -28721,7 +28738,7 @@
       </c>
       <c r="AP285" s="9"/>
       <c r="AQ285" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="AR285" s="9"/>
     </row>
@@ -28736,17 +28753,17 @@
         <v>45</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E286" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="10" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="H286" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="I286" s="10" t="s">
         <v>55</v>
@@ -28759,29 +28776,29 @@
       <c r="M286" s="10"/>
       <c r="N286" s="12"/>
       <c r="O286" s="12" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="P286" s="12"/>
       <c r="Q286" s="12"/>
       <c r="R286" s="12" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="S286" s="10" t="s">
         <v>56</v>
       </c>
       <c r="T286" s="10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10"/>
       <c r="W286" s="10"/>
       <c r="X286" s="10"/>
       <c r="Y286" s="10" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="Z286" s="10"/>
       <c r="AA286" s="10" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="AB286" s="14"/>
       <c r="AC286" s="10"/>
@@ -28790,9 +28807,9 @@
         <v>51</v>
       </c>
       <c r="AF286" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="AG286" s="45" t="n">
+        <v>660</v>
+      </c>
+      <c r="AG286" s="46" t="n">
         <v>0.005</v>
       </c>
       <c r="AH286" s="10"/>
@@ -28808,8 +28825,8 @@
         <v>285</v>
       </c>
       <c r="AP286" s="9"/>
-      <c r="AQ286" s="46" t="s">
-        <v>804</v>
+      <c r="AQ286" s="47" t="s">
+        <v>808</v>
       </c>
       <c r="AR286" s="9"/>
     </row>
@@ -28824,73 +28841,73 @@
         <v>45</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E287" s="34" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F287" s="34"/>
-      <c r="G287" s="47" t="s">
+      <c r="G287" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="H287" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="I287" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J287" s="48"/>
+      <c r="K287" s="48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L287" s="48"/>
+      <c r="M287" s="48"/>
+      <c r="N287" s="48"/>
+      <c r="O287" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="P287" s="49"/>
+      <c r="Q287" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="R287" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="S287" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="T287" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="H287" s="34" t="s">
+      <c r="U287" s="48"/>
+      <c r="V287" s="48"/>
+      <c r="W287" s="48"/>
+      <c r="X287" s="48"/>
+      <c r="Y287" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="I287" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="J287" s="47"/>
-      <c r="K287" s="47" t="n">
-        <v>5</v>
-      </c>
-      <c r="L287" s="47"/>
-      <c r="M287" s="47"/>
-      <c r="N287" s="47"/>
-      <c r="O287" s="48" t="s">
+      <c r="Z287" s="48"/>
+      <c r="AA287" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="P287" s="48"/>
-      <c r="Q287" s="48" t="s">
-        <v>726</v>
-      </c>
-      <c r="R287" s="48" t="s">
-        <v>807</v>
-      </c>
-      <c r="S287" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="T287" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="U287" s="47"/>
-      <c r="V287" s="47"/>
-      <c r="W287" s="47"/>
-      <c r="X287" s="47"/>
-      <c r="Y287" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="Z287" s="47"/>
-      <c r="AA287" s="10" t="s">
-        <v>803</v>
-      </c>
-      <c r="AB287" s="49"/>
-      <c r="AC287" s="47"/>
-      <c r="AD287" s="47"/>
+      <c r="AB287" s="50"/>
+      <c r="AC287" s="48"/>
+      <c r="AD287" s="48"/>
       <c r="AE287" s="34" t="s">
         <v>51</v>
       </c>
       <c r="AF287" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="AG287" s="45" t="n">
+        <v>660</v>
+      </c>
+      <c r="AG287" s="46" t="n">
         <v>0.005</v>
       </c>
       <c r="AH287" s="10"/>
       <c r="AI287" s="10"/>
-      <c r="AJ287" s="47"/>
-      <c r="AK287" s="47"/>
-      <c r="AL287" s="47"/>
-      <c r="AM287" s="47"/>
+      <c r="AJ287" s="48"/>
+      <c r="AK287" s="48"/>
+      <c r="AL287" s="48"/>
+      <c r="AM287" s="48"/>
       <c r="AN287" s="34" t="n">
         <v>2</v>
       </c>
@@ -28898,8 +28915,8 @@
         <v>286</v>
       </c>
       <c r="AP287" s="34"/>
-      <c r="AQ287" s="46" t="s">
-        <v>804</v>
+      <c r="AQ287" s="47" t="s">
+        <v>808</v>
       </c>
       <c r="AR287" s="34"/>
     </row>
@@ -28914,20 +28931,20 @@
         <v>45</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F288" s="9"/>
       <c r="G288" s="10" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H288" s="9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="I288" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J288" s="10"/>
       <c r="K288" s="10" t="n">
@@ -28958,7 +28975,7 @@
         <v>51</v>
       </c>
       <c r="AF288" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG288" s="17" t="n">
         <v>0.03</v>
@@ -28976,10 +28993,10 @@
         <v>287</v>
       </c>
       <c r="AP288" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="AQ288" s="46" t="s">
-        <v>811</v>
+        <v>814</v>
+      </c>
+      <c r="AQ288" s="47" t="s">
+        <v>815</v>
       </c>
       <c r="AR288" s="9"/>
     </row>
@@ -28994,20 +29011,20 @@
         <v>45</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F289" s="9"/>
       <c r="G289" s="10" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H289" s="9" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="I289" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J289" s="9"/>
       <c r="K289" s="10" t="n">
@@ -29024,7 +29041,7 @@
         <v>56</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10"/>
@@ -29032,7 +29049,7 @@
       <c r="X289" s="10"/>
       <c r="Y289" s="10"/>
       <c r="Z289" s="10" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="AA289" s="10"/>
       <c r="AB289" s="10"/>
@@ -29061,7 +29078,7 @@
       </c>
       <c r="AP289" s="10"/>
       <c r="AQ289" s="10" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AR289" s="9"/>
     </row>
@@ -29076,20 +29093,20 @@
         <v>45</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="10" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="I290" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J290" s="9"/>
       <c r="K290" s="10" t="n">
@@ -29106,7 +29123,7 @@
         <v>56</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10"/>
@@ -29114,7 +29131,7 @@
       <c r="X290" s="10"/>
       <c r="Y290" s="10"/>
       <c r="Z290" s="10" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="AA290" s="10"/>
       <c r="AB290" s="10"/>
@@ -29143,7 +29160,7 @@
       </c>
       <c r="AP290" s="10"/>
       <c r="AQ290" s="10" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AR290" s="9"/>
     </row>
@@ -29158,20 +29175,20 @@
         <v>45</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F291" s="9"/>
       <c r="G291" s="10" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="I291" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J291" s="9"/>
       <c r="K291" s="10" t="n">
@@ -29188,7 +29205,7 @@
         <v>56</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10"/>
@@ -29196,7 +29213,7 @@
       <c r="X291" s="10"/>
       <c r="Y291" s="10"/>
       <c r="Z291" s="10" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AA291" s="10"/>
       <c r="AB291" s="10"/>
@@ -29225,7 +29242,7 @@
       </c>
       <c r="AP291" s="10"/>
       <c r="AQ291" s="10" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AR291" s="9"/>
     </row>
@@ -29240,20 +29257,20 @@
         <v>45</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F292" s="9"/>
       <c r="G292" s="10" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="H292" s="9" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J292" s="9"/>
       <c r="K292" s="10" t="n">
@@ -29270,7 +29287,7 @@
         <v>56</v>
       </c>
       <c r="T292" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10"/>
@@ -29278,7 +29295,7 @@
       <c r="X292" s="10"/>
       <c r="Y292" s="10"/>
       <c r="Z292" s="10" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="AA292" s="10"/>
       <c r="AB292" s="10"/>
@@ -29307,7 +29324,7 @@
       </c>
       <c r="AP292" s="10"/>
       <c r="AQ292" s="10" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="AR292" s="9"/>
     </row>
@@ -29322,20 +29339,20 @@
         <v>45</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E293" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="F293" s="50"/>
+        <v>490</v>
+      </c>
+      <c r="E293" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="F293" s="51"/>
       <c r="G293" s="10" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H293" s="9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="J293" s="0"/>
       <c r="K293" s="10" t="n">
@@ -29357,7 +29374,7 @@
       <c r="W293" s="10"/>
       <c r="X293" s="10"/>
       <c r="Y293" s="10" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Z293" s="10"/>
       <c r="AA293" s="10"/>
@@ -29368,7 +29385,7 @@
         <v>51</v>
       </c>
       <c r="AF293" s="10" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AG293" s="17" t="n">
         <v>0.02</v>
@@ -29386,10 +29403,10 @@
         <v>293</v>
       </c>
       <c r="AP293" s="36" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="AQ293" s="42" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="AR293" s="9"/>
     </row>
@@ -29404,20 +29421,20 @@
         <v>45</v>
       </c>
       <c r="D294" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E294" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="F294" s="50"/>
+        <v>490</v>
+      </c>
+      <c r="E294" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="F294" s="51"/>
       <c r="G294" s="10" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="H294" s="9" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I294" s="10" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="J294" s="10"/>
       <c r="K294" s="10" t="n">
@@ -29428,10 +29445,10 @@
       </c>
       <c r="M294" s="10"/>
       <c r="N294" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="O294" s="12" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="P294" s="12"/>
       <c r="Q294" s="12"/>
@@ -29440,14 +29457,14 @@
         <v>56</v>
       </c>
       <c r="T294" s="10" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10"/>
       <c r="W294" s="10"/>
       <c r="X294" s="10"/>
       <c r="Y294" s="10" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="Z294" s="10"/>
       <c r="AA294" s="10"/>
@@ -29458,7 +29475,7 @@
         <v>51</v>
       </c>
       <c r="AF294" s="10" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="AG294" s="17" t="n">
         <v>0</v>
@@ -29466,7 +29483,7 @@
       <c r="AH294" s="10"/>
       <c r="AI294" s="10"/>
       <c r="AJ294" s="10" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="AK294" s="10"/>
       <c r="AL294" s="10"/>
@@ -29479,7 +29496,7 @@
       </c>
       <c r="AP294" s="9"/>
       <c r="AQ294" s="14" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="AR294" s="9"/>
     </row>
@@ -29493,24 +29510,24 @@
       <c r="C295" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D295" s="51" t="s">
-        <v>834</v>
+      <c r="D295" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F295" s="31" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="G295" s="35" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="H295" s="35"/>
       <c r="I295" s="9" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="J295" s="10" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
@@ -29522,7 +29539,7 @@
       <c r="R295" s="9"/>
       <c r="S295" s="9"/>
       <c r="T295" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U295" s="9"/>
       <c r="V295" s="9"/>
@@ -29536,7 +29553,7 @@
       <c r="AD295" s="9"/>
       <c r="AE295" s="9"/>
       <c r="AF295" s="9"/>
-      <c r="AG295" s="52" t="n">
+      <c r="AG295" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH295" s="9"/>
@@ -29550,7 +29567,7 @@
         <v>295</v>
       </c>
       <c r="AP295" s="10" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="AQ295" s="9"/>
       <c r="AR295" s="9"/>
@@ -29565,24 +29582,24 @@
       <c r="C296" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D296" s="51" t="s">
-        <v>834</v>
+      <c r="D296" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E296" s="42" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="F296" s="42" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G296" s="42" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H296" s="9"/>
       <c r="I296" s="10" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="J296" s="10" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
@@ -29594,7 +29611,7 @@
       <c r="R296" s="9"/>
       <c r="S296" s="9"/>
       <c r="T296" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U296" s="9"/>
       <c r="V296" s="9"/>
@@ -29608,7 +29625,7 @@
       <c r="AD296" s="9"/>
       <c r="AE296" s="9"/>
       <c r="AF296" s="9"/>
-      <c r="AG296" s="52" t="n">
+      <c r="AG296" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH296" s="9"/>
@@ -29622,7 +29639,7 @@
         <v>296</v>
       </c>
       <c r="AP296" s="10" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="AQ296" s="9"/>
       <c r="AR296" s="9"/>
@@ -29637,24 +29654,24 @@
       <c r="C297" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D297" s="51" t="s">
-        <v>834</v>
+      <c r="D297" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F297" s="31" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="G297" s="35" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="H297" s="35"/>
       <c r="I297" s="9" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="J297" s="9" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
@@ -29666,7 +29683,7 @@
       <c r="R297" s="9"/>
       <c r="S297" s="9"/>
       <c r="T297" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U297" s="9"/>
       <c r="V297" s="9"/>
@@ -29680,7 +29697,7 @@
       <c r="AD297" s="9"/>
       <c r="AE297" s="9"/>
       <c r="AF297" s="9"/>
-      <c r="AG297" s="52" t="n">
+      <c r="AG297" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH297" s="9"/>
@@ -29694,7 +29711,7 @@
         <v>297</v>
       </c>
       <c r="AP297" s="10" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="AQ297" s="9"/>
       <c r="AR297" s="9"/>
@@ -29709,26 +29726,26 @@
       <c r="C298" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="51" t="s">
-        <v>834</v>
+      <c r="D298" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E298" s="42" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F298" s="42" t="s">
-        <v>850</v>
-      </c>
-      <c r="G298" s="53" t="s">
-        <v>811</v>
+        <v>854</v>
+      </c>
+      <c r="G298" s="54" t="s">
+        <v>815</v>
       </c>
       <c r="H298" s="35" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="J298" s="9" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -29740,7 +29757,7 @@
       <c r="R298" s="9"/>
       <c r="S298" s="9"/>
       <c r="T298" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U298" s="9"/>
       <c r="V298" s="9"/>
@@ -29754,7 +29771,7 @@
       <c r="AD298" s="9"/>
       <c r="AE298" s="9"/>
       <c r="AF298" s="9"/>
-      <c r="AG298" s="54" t="n">
+      <c r="AG298" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AH298" s="9"/>
@@ -29783,24 +29800,24 @@
       <c r="C299" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D299" s="51" t="s">
-        <v>834</v>
+      <c r="D299" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E299" s="42" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="F299" s="42" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="G299" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="H299" s="35"/>
       <c r="I299" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
@@ -29812,7 +29829,7 @@
       <c r="R299" s="9"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U299" s="9"/>
       <c r="V299" s="9"/>
@@ -29826,7 +29843,7 @@
       <c r="AD299" s="9"/>
       <c r="AE299" s="9"/>
       <c r="AF299" s="9"/>
-      <c r="AG299" s="52" t="n">
+      <c r="AG299" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH299" s="9"/>
@@ -29840,7 +29857,7 @@
         <v>299</v>
       </c>
       <c r="AP299" s="10" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="AQ299" s="9"/>
       <c r="AR299" s="9"/>
@@ -29855,26 +29872,26 @@
       <c r="C300" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D300" s="51" t="s">
-        <v>834</v>
+      <c r="D300" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E300" s="42" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F300" s="42" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="G300" s="42" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="H300" s="35" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
@@ -29886,7 +29903,7 @@
       <c r="R300" s="9"/>
       <c r="S300" s="9"/>
       <c r="T300" s="9" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="U300" s="9"/>
       <c r="V300" s="9"/>
@@ -29900,7 +29917,7 @@
       <c r="AD300" s="9"/>
       <c r="AE300" s="9"/>
       <c r="AF300" s="9"/>
-      <c r="AG300" s="52" t="n">
+      <c r="AG300" s="53" t="n">
         <v>0</v>
       </c>
       <c r="AH300" s="9"/>
@@ -29929,38 +29946,38 @@
       <c r="C301" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D301" s="51" t="s">
-        <v>834</v>
+      <c r="D301" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E301" s="42" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="F301" s="42" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G301" s="42" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H301" s="9"/>
       <c r="I301" s="10" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="J301" s="10" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
       <c r="M301" s="10"/>
       <c r="N301" s="10"/>
       <c r="O301" s="9" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="P301" s="9"/>
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="S301" s="9"/>
       <c r="T301" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U301" s="9"/>
       <c r="V301" s="9"/>
@@ -29968,7 +29985,7 @@
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
       <c r="Z301" s="10" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
@@ -30003,24 +30020,24 @@
       <c r="C302" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D302" s="51" t="s">
-        <v>834</v>
+      <c r="D302" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E302" s="42" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F302" s="42" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="G302" s="42" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="H302" s="9"/>
       <c r="I302" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="J302" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
@@ -30034,7 +30051,7 @@
       <c r="R302" s="9"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
@@ -30042,7 +30059,7 @@
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="10" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
@@ -30077,38 +30094,38 @@
       <c r="C303" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="51" t="s">
-        <v>834</v>
+      <c r="D303" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E303" s="42" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="F303" s="42" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="G303" s="42" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="H303" s="9"/>
       <c r="I303" s="10" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="J303" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
       <c r="M303" s="10"/>
       <c r="N303" s="10"/>
       <c r="O303" s="9" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
       <c r="S303" s="9"/>
       <c r="T303" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
@@ -30116,7 +30133,7 @@
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="10" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
@@ -30151,40 +30168,40 @@
       <c r="C304" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="51" t="s">
-        <v>834</v>
+      <c r="D304" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E304" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F304" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G304" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H304" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="I304" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J304" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
       <c r="M304" s="10"/>
       <c r="N304" s="10"/>
       <c r="O304" s="10" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="P304" s="9"/>
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
       <c r="S304" s="9"/>
       <c r="T304" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
@@ -30192,7 +30209,7 @@
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="10" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
@@ -30229,40 +30246,40 @@
       <c r="C305" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="51" t="s">
-        <v>834</v>
+      <c r="D305" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E305" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F305" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G305" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I305" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J305" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
       <c r="M305" s="10"/>
       <c r="N305" s="10"/>
       <c r="O305" s="10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
       <c r="S305" s="9"/>
       <c r="T305" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
@@ -30270,7 +30287,7 @@
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="10" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -30307,40 +30324,40 @@
       <c r="C306" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D306" s="51" t="s">
-        <v>834</v>
+      <c r="D306" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E306" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F306" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G306" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H306" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="I306" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J306" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10"/>
       <c r="O306" s="10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="P306" s="9"/>
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
       <c r="S306" s="9"/>
       <c r="T306" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
@@ -30348,7 +30365,7 @@
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="10" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -30385,48 +30402,48 @@
       <c r="C307" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D307" s="51" t="s">
-        <v>834</v>
+      <c r="D307" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E307" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F307" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G307" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H307" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I307" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J307" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
       <c r="M307" s="10"/>
       <c r="N307" s="10"/>
       <c r="O307" s="10" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="P307" s="9"/>
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
       <c r="S307" s="9"/>
       <c r="T307" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
       <c r="W307" s="9"/>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
-      <c r="Z307" s="55" t="s">
-        <v>887</v>
+      <c r="Z307" s="56" t="s">
+        <v>891</v>
       </c>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -30463,40 +30480,40 @@
       <c r="C308" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D308" s="51" t="s">
-        <v>834</v>
+      <c r="D308" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E308" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F308" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G308" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H308" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="I308" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J308" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
       <c r="M308" s="10"/>
       <c r="N308" s="10"/>
       <c r="O308" s="10" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="P308" s="9"/>
       <c r="Q308" s="9"/>
       <c r="R308" s="9"/>
       <c r="S308" s="9"/>
       <c r="T308" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
@@ -30504,7 +30521,7 @@
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
       <c r="Z308" s="10" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -30541,40 +30558,40 @@
       <c r="C309" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D309" s="51" t="s">
-        <v>834</v>
+      <c r="D309" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E309" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F309" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G309" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H309" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="I309" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J309" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
       <c r="M309" s="10"/>
       <c r="N309" s="10"/>
       <c r="O309" s="10" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="P309" s="9"/>
       <c r="Q309" s="9"/>
       <c r="R309" s="9"/>
       <c r="S309" s="9"/>
       <c r="T309" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
@@ -30582,7 +30599,7 @@
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="10" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -30619,40 +30636,40 @@
       <c r="C310" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D310" s="51" t="s">
-        <v>834</v>
+      <c r="D310" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E310" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F310" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G310" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H310" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I310" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J310" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
       <c r="M310" s="10"/>
       <c r="N310" s="10"/>
       <c r="O310" s="10" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="P310" s="9"/>
       <c r="Q310" s="9"/>
       <c r="R310" s="9"/>
       <c r="S310" s="9"/>
       <c r="T310" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
@@ -30660,7 +30677,7 @@
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="10" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -30697,40 +30714,40 @@
       <c r="C311" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D311" s="51" t="s">
-        <v>834</v>
+      <c r="D311" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E311" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F311" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G311" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H311" s="9" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="I311" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J311" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
       <c r="M311" s="10"/>
       <c r="N311" s="10"/>
       <c r="O311" s="10" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="P311" s="9"/>
       <c r="Q311" s="9"/>
       <c r="R311" s="9"/>
       <c r="S311" s="9"/>
       <c r="T311" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U311" s="9"/>
       <c r="V311" s="9"/>
@@ -30738,7 +30755,7 @@
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="10" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -30775,40 +30792,40 @@
       <c r="C312" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D312" s="51" t="s">
-        <v>834</v>
+      <c r="D312" s="52" t="s">
+        <v>838</v>
       </c>
       <c r="E312" s="42" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="F312" s="42" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="G312" s="42" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H312" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I312" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J312" s="10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
       <c r="M312" s="10"/>
       <c r="N312" s="10"/>
       <c r="O312" s="10" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="P312" s="9"/>
       <c r="Q312" s="9"/>
       <c r="R312" s="9"/>
       <c r="S312" s="9"/>
       <c r="T312" s="9" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
@@ -30816,7 +30833,7 @@
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
       <c r="Z312" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
@@ -30844,7 +30861,7 @@
       <c r="AR312" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS312"/>
+  <autoFilter ref="A1:AR312"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30865,7 +30882,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O280 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30874,13 +30891,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>815</v>
+      <c r="A1" s="57" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>750</v>
+      <c r="A2" s="58" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -30902,7 +30919,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O280 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30911,49 +30928,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>892</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>893</v>
-      </c>
-      <c r="I1" s="59" t="s">
+      <c r="G1" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="59" t="s">
-        <v>894</v>
-      </c>
-      <c r="L1" s="59" t="s">
+      <c r="K1" s="60" t="s">
+        <v>898</v>
+      </c>
+      <c r="L1" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="60" t="s">
-        <v>895</v>
+      <c r="B4" s="61" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
